--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$490</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$488</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="1187">
   <si>
     <t>//towername</t>
   </si>
@@ -30,15 +30,6 @@
     <t>//boss</t>
   </si>
   <si>
-    <t>//3</t>
-  </si>
-  <si>
-    <t>//4</t>
-  </si>
-  <si>
-    <t>//5</t>
-  </si>
-  <si>
     <t>//6</t>
   </si>
   <si>
@@ -585,9 +576,6 @@
     <t>DRAWMODULE</t>
   </si>
   <si>
-    <t>抽取模块</t>
-  </si>
-  <si>
     <t>CHANCEBEFORE</t>
   </si>
   <si>
@@ -1842,39 +1830,24 @@
     <t>经过的敌人会触发一次5%当前生命值的范围伤害</t>
   </si>
   <si>
-    <t>KANGDE</t>
-  </si>
-  <si>
-    <t>康德</t>
-  </si>
-  <si>
     <t>Guide01</t>
   </si>
   <si>
     <t>Guide02</t>
   </si>
   <si>
-    <t>确认连接完成,现在开始基础反应测试.</t>
-  </si>
-  <si>
     <t>Guide03</t>
   </si>
   <si>
     <t>Guide04</t>
   </si>
   <si>
-    <t>方向控制正常.</t>
-  </si>
-  <si>
     <t>Guide05</t>
   </si>
   <si>
     <t>Guide06</t>
   </si>
   <si>
-    <t>视野控制正常.</t>
-  </si>
-  <si>
     <t>Guide07</t>
   </si>
   <si>
@@ -2369,9 +2342,6 @@
     <t>Owned</t>
   </si>
   <si>
-    <t>Refresh after</t>
-  </si>
-  <si>
     <t>Perfect Element</t>
   </si>
   <si>
@@ -2729,9 +2699,6 @@
     <t>Technology Leaps</t>
   </si>
   <si>
-    <t>Reduce module upgrade cost by 50%</t>
-  </si>
-  <si>
     <t>Unreal Structure</t>
   </si>
   <si>
@@ -2852,9 +2819,6 @@
     <t>Enemy passing by will trigger an explosion equal to 5% of it's current health.</t>
   </si>
   <si>
-    <t>Kant</t>
-  </si>
-  <si>
     <t>Connection complete, basic response test begin.</t>
   </si>
   <si>
@@ -2909,10 +2873,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A battle against the Bard civilization at the Transition Station, where the enemy will launch 30 wave of attacks, an you have to deploy modules to help secure the great interstellar colony.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>The Bard civilization will launch an infinite wave of attacks, a war of resource depletion, but also a test of the deployment officer's will and wit, since war is inevitable, let the enemy's debris fill the universe.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3309,10 +3269,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>部署官S0666号,这里是人马座A*第十九接口.我是部署教官娜可.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Deployment Officer S0666,this is Sagittarius A* port 19.I'm Deployment Instructor Nacho.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3325,90 +3281,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FFEA6D&gt;请按住鼠标左键并拖动以移动视角.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;请尝试使用鼠标滚轮来缩放视角.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署官,巴德文明正试图通过该接口进行时空跃迁,指挥部派遣您来负责该接口的防御部署工作.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Deployment officer, the Bard civilization is attempting a time warp through this interface, you are taking charge of the defense deployment.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现在,我将对你进行一次快速的教学,请把注意力放在画面中央.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Now, I'm going to give you a quick tutorial. Please focus on the center of the battlefield.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FFEA6D&gt;红色格&lt;/color&gt;为入口,&lt;color=#FFEA6D&gt;蓝色格&lt;/color&gt;为出口,移动的&lt;color=#FFEA6D&gt;蓝色箭头&lt;/color&gt;标识了敌人的行进路线.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;Red squares represent the entrance, blue squares represent the exit, and moving blue arrows mark the enemy's path.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FFEA6D&gt;场上灰色格子为基本格,敌人将通过基本格向出口移动.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;The grey tile is the basic tile, through which the enemy moves towards the exit.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你的任务,就是阻止敌人抵达出口.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Your job is to prevent the enemy from reaching the exit.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>画面右上角显示了我们为你提供的代币供给,&lt;color=#FFEA6D&gt;代币供给量每回合都会提高10&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>The upper right corner shows our coins supply for you, &lt;color=#FFEA6D&gt;it will increases by 10 per wave.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>In the bottom right corner is the &lt;color=#FFEA6D&gt;Building Structure button&lt;/color&gt;. &lt;color=#FFEA6D&gt;Now spend some coins to build a module..&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在画面右下角是&lt;color=#FFEA6D&gt;构建结构体按钮&lt;/color&gt;,现在请&lt;color=#FFEA6D&gt;使用代币构建一个模块&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个模块由3个&lt;color=#FFEA6D&gt;基本格&lt;/color&gt;和1个&lt;color=#FFEA6D&gt;防御塔&lt;/color&gt;组成,&lt;color=#FFEA6D&gt;基本格&lt;/color&gt;可以用作&lt;color=#FFEA6D&gt;道路&lt;/color&gt;,而&lt;color=#FFEA6D&gt;防御塔&lt;/color&gt;可以作为&lt;color=#FFEA6D&gt;障碍&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Each module consists of&lt;color=#FFEA6D&gt; 3 "basic tile" and 1 "element turret"&lt;/color&gt;, &lt;color=#FFEA6D&gt;basic tiles can be used as a path, while the turret can be used as an obstacle.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过&lt;color=#FFEA6D&gt;将防御塔作为障碍,并确保起点和终点之间以基本格连接,可以延长敌人的行进路线&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;Using turret as obstacles, and making sure the start and destination point are connected by basic tiles.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现在请选择1个结构体,并按照&lt;color=#FFEA6D&gt;标识的位置&lt;/color&gt;进行&lt;color=#FFEA6D&gt;旋转和摆放&lt;/color&gt;,你将学习到基本的寻路规则.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>When your health goes to zero, we will be forced to abandon this interface.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3417,10 +3317,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你&lt;color=#FFEA6D&gt;成功延长了敌人的行进路线&lt;/color&gt;,你可以在接下来的战斗中继续熟练该技巧.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>You successfully extend the enemy's path, which you can continue to master in the rest of the battle.</t>
   </si>
   <si>
@@ -3463,10 +3359,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FFEA6D&gt;Every time you build a module, the price will increases by 10.&lt;/color&gt; Coins also have other uses, and you need to allocate them wisely.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>But now, &lt;color=#FFEA6D&gt;try to build another structure&lt;/color&gt;.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3579,10 +3471,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Invest your tokens flexibly on building modules, upgrade modules, or pgrade rafactor turrets for maximum benefit.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Now, please stick to 30 waves to complete this tutorial.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3781,6 +3669,144 @@
   </si>
   <si>
     <t>测试：功能暂未开放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce system upgrade cost by 50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the bottom right corner is the &lt;color=#FFEA6D&gt;Building Structure button&lt;/color&gt;. &lt;color=#FFEA6D&gt;Now spend some coins to build a structure..&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Each structure consists of&lt;color=#FFEA6D&gt; 3 "basic tile" and 1 "element turret"&lt;/color&gt;, &lt;color=#FFEA6D&gt;basic tiles can be used as a path, while the turret can be used as an obstacle.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFEA6D&gt;Every time you build a structure, the price will increases by 10.&lt;/color&gt; Coins also have other uses, and you need to allocate them wisely.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invest your tokens flexibly on building structures, upgrade system, or ugrade rafactor turrets for maximum benefit.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A battle against the Bard civilization at the Transition Station, where the enemy will launch 30 wave of attacks, an you have to deploy turrets to help secure the great interstellar colony.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建结构体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员S0666号,这里是人马座A*第十九接口.我是你的部署教官娜可.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认连接完成,现在请你完成基础操作测试.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAGGUIDE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHEELGUIDE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动滚轮缩放视角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住左键拖动视角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press left button and drag to move the view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use mouse wheel to scale the view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础反应还不错,看来反手教授这次没有把边角料学员丢来我这.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在请把注意力放在战场中央,&lt;color=#FFEA6D&gt;红色格为跃迁入口,蓝色格为跃迁出口&lt;/color&gt;,除此之外的&lt;color=#FFEA6D&gt;灰色格子为基本格.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人将从跃迁入口出发,通过基本格移动,并最终抵达跃迁出口,&lt;color=#FFEA6D&gt;蓝色移动箭头可预览敌人的行进路线.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是你当前的&lt;color=#FFEA6D&gt;生命盾&lt;/color&gt;,每个漏掉的敌人都会使你失去一定的生命盾.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是你当前拥有的&lt;color=#FFEA6D&gt;代币&lt;/color&gt;,随着波数的进行你将在&lt;color=#FFEA6D&gt;每波开始时获得额外的代币.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下角是&lt;color=#FFEA6D&gt;构造模块功能&lt;/color&gt;,构造模块获取防御塔进行防御的主要方式.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在点击模块构造按钮,进行一次模块构造吧!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLACEGUIDE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕上方显示了&lt;color=#FFEA6D&gt;当前波数&lt;/color&gt;及&lt;color=#FFEA6D&gt;下一波敌人的信息&lt;/color&gt;,将鼠标悬停在图标上可显示敌人信息.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press and hold to drag the module\nClick the rotate button or R to rotate module\nPlease place the module in the position shown by the green light</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住模块可拖动
+点击旋转按钮或R键可旋转
+请将模块摆放到绿色光效所示位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮&lt;color=#FFEA6D&gt;右方的数字&lt;/color&gt;为当前的&lt;color=#FFEA6D&gt;构造价格&lt;/color&gt;,&lt;color=#FFEA6D&gt;每次进行构造都会使该价格提高10.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做得不错,学员.通过铺设基本格作为道路,并以防御塔作为障碍,我们可以&lt;color=#FFEA6D&gt;延长敌人的行进路线&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在&lt;color=#FFEA6D&gt;请点击选中防御塔&lt;/color&gt;,可以查看防御塔的&lt;color=#FFEA6D&gt;信息面板&lt;/color&gt;和&lt;color=#FFEA6D&gt;攻击范围&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次构造都将生成&lt;color=#FFEA6D&gt;3个随机模块&lt;/color&gt;,每个模块由&lt;color=#FFEA6D&gt;1个元素防御塔格&lt;/color&gt;和&lt;color=#FFEA6D&gt;3个基本格&lt;/color&gt;组成.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块被摆放进战场后,&lt;color=#FFEA6D&gt;基本格可以作为道路,而防御塔格可以作为障碍以及进行攻击&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在就让我们选择第一个模块并进行摆放吧!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔准备就绪,请点击下一波按钮,让巴德文明感受你为他们送来的第一枚炮弹.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4175,10 +4201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E417"/>
+  <dimension ref="A1:E415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4191,4438 +4217,4442 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B1" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C1" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>1171</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>1176</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>1175</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>1177</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1174</v>
+        <v>1143</v>
       </c>
       <c r="B29" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="C29" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>1182</v>
+        <v>1151</v>
       </c>
       <c r="C43" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1180</v>
+        <v>1149</v>
       </c>
       <c r="B44" t="s">
-        <v>1183</v>
+        <v>1152</v>
       </c>
       <c r="C44" t="s">
-        <v>1181</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="C57" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="C63" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>958</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="C70" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="C71" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="C72" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="B73" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="C73" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="C74" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C75" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C76" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="C77" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="C78" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>151</v>
+        <v>1163</v>
       </c>
       <c r="B79" t="s">
-        <v>976</v>
+        <v>1166</v>
       </c>
       <c r="C79" t="s">
-        <v>975</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>152</v>
+        <v>1164</v>
       </c>
       <c r="B80" t="s">
-        <v>977</v>
+        <v>1165</v>
       </c>
       <c r="C80" t="s">
-        <v>761</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B81" t="s">
-        <v>154</v>
+        <v>1176</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1179</v>
       </c>
       <c r="C81" t="s">
-        <v>762</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>963</v>
       </c>
       <c r="C82" t="s">
-        <v>763</v>
+        <v>962</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>964</v>
       </c>
       <c r="C83" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C84" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>978</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C86" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>979</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>980</v>
+        <v>756</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>965</v>
       </c>
       <c r="C88" t="s">
-        <v>981</v>
+        <v>757</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="C90" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>769</v>
+        <v>968</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B92" t="s">
-        <v>984</v>
+        <v>165</v>
       </c>
       <c r="C92" t="s">
-        <v>985</v>
+        <v>759</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B93" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="C93" t="s">
-        <v>770</v>
+        <v>969</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B94" t="s">
-        <v>987</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>988</v>
+        <v>760</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B95" t="s">
-        <v>989</v>
+        <v>971</v>
       </c>
       <c r="C95" t="s">
-        <v>990</v>
+        <v>972</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>973</v>
       </c>
       <c r="C96" t="s">
-        <v>991</v>
+        <v>761</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>974</v>
       </c>
       <c r="C97" t="s">
-        <v>992</v>
+        <v>975</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B98" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="C98" t="s">
-        <v>771</v>
+        <v>977</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C99" t="s">
-        <v>772</v>
+        <v>978</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B100" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C100" t="s">
-        <v>773</v>
+        <v>979</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>980</v>
       </c>
       <c r="C101" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C102" t="s">
-        <v>994</v>
+        <v>763</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C103" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C104" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>1160</v>
       </c>
       <c r="C105" t="s">
-        <v>777</v>
+        <v>981</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
-        <v>995</v>
+        <v>766</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
-        <v>996</v>
+        <v>767</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C108" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C109" t="s">
-        <v>779</v>
+        <v>982</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B110" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>780</v>
+        <v>983</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B111" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C111" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B112" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C112" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B113" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C113" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>998</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C115" t="s">
-        <v>997</v>
+        <v>772</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C116" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C117" t="s">
-        <v>785</v>
+        <v>985</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C118" t="s">
-        <v>786</v>
+        <v>984</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C119" t="s">
-        <v>731</v>
+        <v>774</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C120" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>1178</v>
+        <v>215</v>
       </c>
       <c r="B121" t="s">
-        <v>1179</v>
+        <v>216</v>
       </c>
       <c r="C121" t="s">
-        <v>1046</v>
+        <v>776</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C122" t="s">
-        <v>788</v>
+        <v>722</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C123" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>229</v>
+        <v>1147</v>
       </c>
       <c r="B124" t="s">
-        <v>230</v>
+        <v>1148</v>
       </c>
       <c r="C124" t="s">
-        <v>790</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B125" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C125" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B126" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C126" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B127" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C127" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B128" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C128" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B129" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B130" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C130" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B131" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C131" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B132" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C132" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B133" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C133" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C134" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C135" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B136" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C136" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B137" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C137" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B138" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C138" t="s">
-        <v>999</v>
+        <v>791</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C139" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C140" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B141" t="s">
-        <v>1000</v>
+        <v>254</v>
       </c>
       <c r="C141" t="s">
-        <v>1001</v>
+        <v>986</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B142" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C142" t="s">
-        <v>1002</v>
+        <v>794</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B143" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C143" t="s">
-        <v>1003</v>
+        <v>795</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B144" t="s">
-        <v>269</v>
+        <v>987</v>
       </c>
       <c r="C144" t="s">
-        <v>807</v>
+        <v>988</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B145" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C145" t="s">
-        <v>808</v>
+        <v>989</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B146" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C146" t="s">
-        <v>809</v>
+        <v>990</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B147" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C147" t="s">
-        <v>1004</v>
+        <v>797</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B148" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C148" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B149" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C149" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B150" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="C150" t="s">
-        <v>812</v>
+        <v>991</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B151" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="C151" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B152" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C152" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B153" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C153" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B154" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C154" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B155" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C155" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B156" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C156" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B157" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C157" t="s">
-        <v>1005</v>
+        <v>806</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B158" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C158" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C159" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>0</v>
+        <v>288</v>
+      </c>
+      <c r="B160" t="s">
+        <v>289</v>
+      </c>
+      <c r="C160" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C161" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B162" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C162" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B163" t="s">
-        <v>303</v>
-      </c>
-      <c r="C163" t="s">
-        <v>822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B164" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C164" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B165" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C165" t="s">
-        <v>824</v>
-      </c>
-      <c r="E165" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B166" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C166" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B167" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C167" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B168" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C168" t="s">
-        <v>827</v>
+        <v>814</v>
+      </c>
+      <c r="E168" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B169" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C169" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B170" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C170" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B171" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C171" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B172" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C172" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>1172</v>
+        <v>312</v>
       </c>
       <c r="B173" t="s">
-        <v>1173</v>
+        <v>313</v>
       </c>
       <c r="C173" t="s">
-        <v>1006</v>
+        <v>819</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B174" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C174" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B175" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C175" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>326</v>
+        <v>1141</v>
       </c>
       <c r="B176" t="s">
-        <v>327</v>
+        <v>1142</v>
       </c>
       <c r="C176" t="s">
-        <v>834</v>
+        <v>993</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B177" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C177" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="2"/>
+      <c r="A178" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B178" t="s">
+        <v>321</v>
+      </c>
+      <c r="C178" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B179" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C179" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B180" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C180" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B181" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C181" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B182" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C182" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B183" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C183" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B184" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C184" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B185" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C185" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B186" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C186" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B187" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C187" t="s">
-        <v>1007</v>
+        <v>832</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B188" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C188" t="s">
-        <v>1008</v>
+        <v>833</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B189" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C189" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B190" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C190" t="s">
-        <v>844</v>
+        <v>995</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B191" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C191" t="s">
-        <v>845</v>
+        <v>996</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B192" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C192" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B193" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C193" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B194" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C194" t="s">
-        <v>1010</v>
+        <v>836</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B195" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C195" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B196" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C196" t="s">
-        <v>849</v>
+        <v>997</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B197" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C197" t="s">
-        <v>1011</v>
+        <v>838</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B198" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C198" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B199" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C199" t="s">
-        <v>851</v>
+        <v>998</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B200" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C200" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B201" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C201" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B202" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C202" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B203" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C203" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B204" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C204" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B205" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C205" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B206" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C206" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B207" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C207" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B208" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C208" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B209" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C209" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B210" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C210" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B211" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C211" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B212" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C212" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B213" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C213" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B214" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C214" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B215" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C215" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B216" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C216" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B217" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C217" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B218" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C218" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B219" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C219" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B220" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C220" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B221" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C221" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B222" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C222" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B223" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C223" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B224" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C224" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B225" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C225" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B226" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C226" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B227" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C227" t="s">
-        <v>1012</v>
+        <v>867</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B228" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C228" t="s">
-        <v>1013</v>
+        <v>868</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B229" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C229" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B230" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C230" t="s">
-        <v>879</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B231" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C231" t="s">
-        <v>880</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B232" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C232" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B233" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C233" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B234" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C234" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B235" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C235" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B236" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C236" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B237" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C237" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B238" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C238" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B239" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C239" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B240" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C240" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B241" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C241" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B242" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C242" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B243" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C243" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B244" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C244" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B245" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C245" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B246" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C246" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B247" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C247" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B248" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C248" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B249" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C249" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B250" t="s">
-        <v>1017</v>
+        <v>465</v>
       </c>
       <c r="C250" t="s">
-        <v>1018</v>
+        <v>887</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B251" t="s">
-        <v>1016</v>
+        <v>467</v>
       </c>
       <c r="C251" t="s">
-        <v>1015</v>
+        <v>888</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B252" t="s">
-        <v>475</v>
+        <v>1004</v>
       </c>
       <c r="C252" t="s">
-        <v>899</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B253" t="s">
-        <v>477</v>
+        <v>1003</v>
       </c>
       <c r="C253" t="s">
-        <v>1047</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B254" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C254" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B255" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C255" t="s">
-        <v>901</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B256" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C256" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B257" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C257" t="s">
-        <v>903</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B258" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C258" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B259" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C259" t="s">
-        <v>1019</v>
+        <v>892</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B260" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C260" t="s">
-        <v>782</v>
+        <v>893</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B261" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C261" t="s">
-        <v>905</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B262" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C262" t="s">
-        <v>906</v>
+        <v>772</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B263" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C263" t="s">
-        <v>1048</v>
+        <v>894</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B264" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C264" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B265" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C265" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>1</v>
+        <v>494</v>
+      </c>
+      <c r="B266" t="s">
+        <v>495</v>
+      </c>
+      <c r="C266" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B267" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C267" t="s">
-        <v>908</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B268" t="s">
-        <v>505</v>
-      </c>
-      <c r="C268" t="s">
-        <v>909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B269" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C269" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B270" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C270" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B271" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C271" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B272" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C272" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B273" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C273" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B274" t="s">
-        <v>1021</v>
+        <v>509</v>
       </c>
       <c r="C274" t="s">
-        <v>1022</v>
+        <v>902</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B275" t="s">
-        <v>1023</v>
+        <v>511</v>
       </c>
       <c r="C275" t="s">
-        <v>1024</v>
+        <v>903</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B276" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="C276" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B277" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="C277" t="s">
-        <v>915</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B278" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
       <c r="C278" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B279" t="s">
-        <v>522</v>
+        <v>1014</v>
       </c>
       <c r="C279" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B280" t="s">
-        <v>524</v>
+        <v>1015</v>
       </c>
       <c r="C280" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>2</v>
+        <v>517</v>
+      </c>
+      <c r="B281" t="s">
+        <v>518</v>
+      </c>
+      <c r="C281" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B282" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C282" t="s">
-        <v>917</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B283" t="s">
-        <v>528</v>
-      </c>
-      <c r="C283" t="s">
-        <v>918</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B284" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C284" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B285" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C285" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B286" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C286" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B287" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C287" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B288" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C288" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B289" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C289" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B290" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C290" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B291" t="s">
-        <v>1031</v>
+        <v>536</v>
       </c>
       <c r="C291" t="s">
-        <v>1032</v>
+        <v>913</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B292" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C292" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B293" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="C293" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B294" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C294" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B295" t="s">
-        <v>550</v>
+        <v>1020</v>
       </c>
       <c r="C295" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B296" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C296" t="s">
-        <v>1036</v>
+        <v>916</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B297" t="s">
-        <v>1037</v>
+        <v>546</v>
       </c>
       <c r="C297" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B298" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C298" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B299" t="s">
-        <v>557</v>
+        <v>1024</v>
       </c>
       <c r="C299" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B300" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C300" t="s">
-        <v>928</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B301" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C301" t="s">
-        <v>929</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B302" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C302" t="s">
-        <v>1041</v>
+        <v>917</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B303" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C303" t="s">
-        <v>1042</v>
+        <v>918</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B304" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C304" t="s">
-        <v>930</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B305" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C305" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B306" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C306" t="s">
-        <v>1049</v>
+        <v>919</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B307" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C307" t="s">
-        <v>1050</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B308" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C308" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>1052</v>
+        <v>568</v>
       </c>
       <c r="B309" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C309" t="s">
-        <v>1053</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B310" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C310" t="s">
-        <v>1054</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>579</v>
+        <v>1039</v>
       </c>
       <c r="B311" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C311" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B312" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C312" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B313" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C313" t="s">
-        <v>931</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B314" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C314" t="s">
-        <v>932</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B315" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C315" t="s">
-        <v>1057</v>
+        <v>920</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B316" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C316" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B317" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C317" t="s">
-        <v>935</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B318" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C318" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B319" t="s">
-        <v>1060</v>
+        <v>588</v>
       </c>
       <c r="C319" t="s">
-        <v>1061</v>
+        <v>924</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B320" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C320" t="s">
-        <v>1059</v>
+        <v>925</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B321" t="s">
-        <v>599</v>
+        <v>1047</v>
       </c>
       <c r="C321" t="s">
-        <v>937</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>1058</v>
+        <v>592</v>
       </c>
       <c r="B322" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C322" t="s">
-        <v>938</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B323" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C323" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>603</v>
+        <v>1045</v>
       </c>
       <c r="B324" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C324" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B325" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C325" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B326" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C326" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B327" t="s">
-        <v>1062</v>
+        <v>602</v>
       </c>
       <c r="C327" t="s">
-        <v>1063</v>
+        <v>930</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B328" t="s">
-        <v>611</v>
+        <v>1161</v>
       </c>
       <c r="C328" t="s">
-        <v>943</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B329" t="s">
-        <v>1066</v>
+        <v>1162</v>
       </c>
       <c r="C329" t="s">
-        <v>1064</v>
+        <v>931</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B330" t="s">
-        <v>614</v>
+        <v>1169</v>
       </c>
       <c r="C330" t="s">
-        <v>944</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B331" t="s">
-        <v>1067</v>
+        <v>1170</v>
       </c>
       <c r="C331" t="s">
-        <v>1065</v>
+        <v>932</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B332" t="s">
-        <v>617</v>
+        <v>1171</v>
       </c>
       <c r="C332" t="s">
-        <v>945</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B333" t="s">
-        <v>1068</v>
+        <v>1173</v>
       </c>
       <c r="C333" t="s">
-        <v>1069</v>
+        <v>933</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B334" t="s">
-        <v>1070</v>
+        <v>1172</v>
       </c>
       <c r="C334" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B335" t="s">
-        <v>1072</v>
+        <v>1177</v>
       </c>
       <c r="C335" t="s">
-        <v>1073</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B336" t="s">
-        <v>1074</v>
+        <v>1174</v>
       </c>
       <c r="C336" t="s">
-        <v>1075</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B337" t="s">
-        <v>1076</v>
+        <v>1180</v>
       </c>
       <c r="C337" t="s">
-        <v>1077</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>3</v>
+        <v>613</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B339" t="s">
-        <v>1078</v>
+        <v>1183</v>
       </c>
       <c r="C339" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B340" t="s">
-        <v>1081</v>
+        <v>1184</v>
       </c>
       <c r="C340" t="s">
-        <v>1080</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>4</v>
+        <v>616</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B342" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>1083</v>
+        <v>1181</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B343" t="s">
-        <v>1084</v>
+        <v>1182</v>
       </c>
       <c r="C343" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B344" t="s">
-        <v>1086</v>
+        <v>1186</v>
       </c>
       <c r="C344" t="s">
-        <v>1097</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>5</v>
+        <v>620</v>
+      </c>
+      <c r="B345" t="s">
+        <v>621</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B346" t="s">
-        <v>1089</v>
+        <v>623</v>
       </c>
       <c r="C346" t="s">
-        <v>1090</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B347" t="s">
-        <v>630</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1088</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B348" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C348" t="s">
-        <v>1087</v>
+        <v>934</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>6</v>
+        <v>626</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B350" t="s">
-        <v>634</v>
+        <v>1069</v>
       </c>
       <c r="C350" t="s">
-        <v>946</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1092</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B352" t="s">
-        <v>1098</v>
+        <v>699</v>
       </c>
       <c r="C352" t="s">
-        <v>1099</v>
+        <v>935</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>7</v>
+        <v>629</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B354" t="s">
-        <v>708</v>
+        <v>1064</v>
       </c>
       <c r="C354" t="s">
-        <v>947</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B356" t="s">
-        <v>1093</v>
+        <v>632</v>
       </c>
       <c r="C356" t="s">
-        <v>1102</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>8</v>
+        <v>633</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B358" t="s">
-        <v>641</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1096</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B359" t="s">
-        <v>1103</v>
+        <v>635</v>
       </c>
       <c r="C359" t="s">
-        <v>1104</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B361" t="s">
-        <v>644</v>
+        <v>700</v>
       </c>
       <c r="C361" t="s">
-        <v>1094</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>10</v>
+        <v>637</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B363" t="s">
-        <v>709</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1095</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B364" t="s">
-        <v>1105</v>
+        <v>1077</v>
       </c>
       <c r="C364" t="s">
-        <v>1106</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B366" t="s">
-        <v>1107</v>
+        <v>1078</v>
       </c>
       <c r="C366" t="s">
-        <v>1109</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>12</v>
+        <v>640</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B368" t="s">
-        <v>1108</v>
+        <v>1083</v>
       </c>
       <c r="C368" t="s">
-        <v>1110</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1112</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B370" t="s">
-        <v>1113</v>
+        <v>1085</v>
       </c>
       <c r="C370" t="s">
-        <v>1114</v>
+        <v>1086</v>
+      </c>
+      <c r="E370" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B372" t="s">
-        <v>1115</v>
+        <v>1087</v>
       </c>
       <c r="C372" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E372" t="s">
-        <v>934</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>14</v>
+        <v>644</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B375" t="s">
-        <v>1119</v>
+        <v>1091</v>
       </c>
       <c r="C375" t="s">
-        <v>1120</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>15</v>
+        <v>646</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B377" t="s">
-        <v>1121</v>
+        <v>1095</v>
       </c>
       <c r="C377" t="s">
-        <v>1123</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B378" t="s">
-        <v>1122</v>
+        <v>1097</v>
       </c>
       <c r="C378" t="s">
-        <v>1124</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B379" t="s">
-        <v>1125</v>
+        <v>650</v>
       </c>
       <c r="C379" t="s">
-        <v>1126</v>
+        <v>936</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B381" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C381" t="s">
-        <v>948</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>16</v>
+        <v>653</v>
+      </c>
+      <c r="B382" t="s">
+        <v>701</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B383" t="s">
-        <v>661</v>
+        <v>1099</v>
       </c>
       <c r="C383" t="s">
-        <v>1130</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B384" t="s">
-        <v>710</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1132</v>
+        <v>655</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1131</v>
+        <v>656</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>664</v>
+        <v>657</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>665</v>
+        <v>658</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B388" t="s">
-        <v>1133</v>
+        <v>1105</v>
       </c>
       <c r="C388" t="s">
-        <v>1134</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B389" t="s">
-        <v>1137</v>
+        <v>1108</v>
       </c>
       <c r="C389" t="s">
-        <v>1138</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B390" t="s">
-        <v>1136</v>
+        <v>1110</v>
       </c>
       <c r="C390" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B391" t="s">
-        <v>1139</v>
+        <v>1112</v>
       </c>
       <c r="C391" t="s">
-        <v>1140</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>670</v>
+        <v>1111</v>
       </c>
       <c r="B392" t="s">
-        <v>1141</v>
+        <v>1115</v>
       </c>
       <c r="C392" t="s">
-        <v>1144</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C393" t="s">
-        <v>1145</v>
+        <v>663</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>1142</v>
+        <v>664</v>
       </c>
       <c r="B394" t="s">
-        <v>1146</v>
+        <v>1117</v>
       </c>
       <c r="C394" t="s">
-        <v>1147</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>672</v>
+        <v>665</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B396" t="s">
-        <v>1148</v>
+        <v>667</v>
       </c>
       <c r="C396" t="s">
-        <v>1149</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B397" t="s">
-        <v>1150</v>
+        <v>1123</v>
       </c>
       <c r="C397" t="s">
-        <v>1151</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B398" t="s">
-        <v>676</v>
+        <v>1124</v>
       </c>
       <c r="C398" t="s">
-        <v>1152</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B399" t="s">
-        <v>1154</v>
+        <v>1126</v>
       </c>
       <c r="C399" t="s">
-        <v>1153</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C400" t="s">
-        <v>1156</v>
+        <v>671</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B401" t="s">
-        <v>1157</v>
+        <v>673</v>
       </c>
       <c r="C401" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>680</v>
+        <v>674</v>
+      </c>
+      <c r="B402" t="s">
+        <v>675</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B403" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C403" t="s">
-        <v>1159</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B404" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C404" t="s">
-        <v>1160</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B405" t="s">
-        <v>686</v>
-      </c>
-      <c r="C405" t="s">
-        <v>1161</v>
+        <v>680</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B406" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C406" t="s">
-        <v>1162</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B408" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C408" t="s">
-        <v>1163</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>692</v>
+        <v>686</v>
+      </c>
+      <c r="B409" t="s">
+        <v>687</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B410" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C410" t="s">
-        <v>1164</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B411" t="s">
-        <v>696</v>
-      </c>
-      <c r="C411" t="s">
-        <v>1165</v>
+        <v>690</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B412" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C412" t="s">
-        <v>1166</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
+      </c>
+      <c r="B413" t="s">
+        <v>694</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B414" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C414" t="s">
-        <v>1167</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B415" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C415" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="B416" t="s">
-        <v>705</v>
-      </c>
-      <c r="C416" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B417" t="s">
-        <v>707</v>
-      </c>
-      <c r="C417" t="s">
-        <v>1170</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A490"/>
+  <autoFilter ref="A1:A488"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$488</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$485</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1191">
   <si>
     <t>//towername</t>
   </si>
@@ -30,39 +30,6 @@
     <t>//boss</t>
   </si>
   <si>
-    <t>//6</t>
-  </si>
-  <si>
-    <t>//7</t>
-  </si>
-  <si>
-    <t>//8</t>
-  </si>
-  <si>
-    <t>//21</t>
-  </si>
-  <si>
-    <t>//9</t>
-  </si>
-  <si>
-    <t>//10</t>
-  </si>
-  <si>
-    <t>//11</t>
-  </si>
-  <si>
-    <t>//22</t>
-  </si>
-  <si>
-    <t>//12</t>
-  </si>
-  <si>
-    <t>//13</t>
-  </si>
-  <si>
-    <t>//14</t>
-  </si>
-  <si>
     <t>SCENE1</t>
   </si>
   <si>
@@ -381,27 +348,15 @@
     <t>DIFFICULTY1</t>
   </si>
   <si>
-    <t>1.加入战场标记\n2.坚持30波进攻</t>
-  </si>
-  <si>
     <t>DIFFICULTY2</t>
   </si>
   <si>
-    <t>1.你只有15点生命值</t>
-  </si>
-  <si>
     <t>DIFFICULTY3</t>
   </si>
   <si>
-    <t>1.战场中将出现更多标记</t>
-  </si>
-  <si>
     <t>DIFFICULTY4</t>
   </si>
   <si>
-    <t>1.一次困难的挑战</t>
-  </si>
-  <si>
     <t>DIFFICULTY5</t>
   </si>
   <si>
@@ -564,9 +519,6 @@
     <t>DRAWINFO</t>
   </si>
   <si>
-    <t>当前回合没有构建时，构建价格将降低；\n当前降价百分比：</t>
-  </si>
-  <si>
     <t>NEXTWAVE</t>
   </si>
   <si>
@@ -1869,9 +1821,6 @@
     <t>Guide13</t>
   </si>
   <si>
-    <t>Guide14</t>
-  </si>
-  <si>
     <t>Guide15</t>
   </si>
   <si>
@@ -1884,21 +1833,12 @@
     <t>Guide18</t>
   </si>
   <si>
-    <t>在画面的右上方,会显示你当前生命值,每个抵达终点的敌人都会让你失去一定生命值.</t>
-  </si>
-  <si>
     <t>Guide181</t>
   </si>
   <si>
-    <t>当生命值为0时,你的任务宣告失败.</t>
-  </si>
-  <si>
     <t>Guide19</t>
   </si>
   <si>
-    <t>在画面的正上方,会显示我们探测到的敌人剩余进攻波数,以及即将到来的敌人类型.</t>
-  </si>
-  <si>
     <t>Guide191</t>
   </si>
   <si>
@@ -1917,18 +1857,12 @@
     <t>Guide24</t>
   </si>
   <si>
-    <t>这次你构建了一个金元素塔,不同的元素塔拥有不同的特点.</t>
-  </si>
-  <si>
     <t>Guide25</t>
   </si>
   <si>
     <t>Guide26</t>
   </si>
   <si>
-    <t>做得很好,当你准备好了,你可以随时开启下一波战斗.</t>
-  </si>
-  <si>
     <t>Guide27</t>
   </si>
   <si>
@@ -1941,45 +1875,6 @@
     <t>Guide30</t>
   </si>
   <si>
-    <t>Guide31</t>
-  </si>
-  <si>
-    <t>Guide32</t>
-  </si>
-  <si>
-    <t>Guide221</t>
-  </si>
-  <si>
-    <t>Guide332</t>
-  </si>
-  <si>
-    <t>Guide33</t>
-  </si>
-  <si>
-    <t>Guide34</t>
-  </si>
-  <si>
-    <t>Guide35</t>
-  </si>
-  <si>
-    <t>Guide36</t>
-  </si>
-  <si>
-    <t>Guide37</t>
-  </si>
-  <si>
-    <t>Guide38</t>
-  </si>
-  <si>
-    <t>现在的防御力量充足,请直接开始下一波战斗吧.</t>
-  </si>
-  <si>
-    <t>Guide39</t>
-  </si>
-  <si>
-    <t>将你的代币灵活投入在抽取模块,升级系统,或升级重构塔上,以获取最大收益.</t>
-  </si>
-  <si>
     <t>Guide40</t>
   </si>
   <si>
@@ -2118,14 +2013,6 @@
     <t>开拓的野心和对极限的追求我们从未停止,指挥官,请继续吧!</t>
   </si>
   <si>
-    <t>做得很好,你成功守住了敌人的进攻.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们成功守住了两波进攻,但为了走得更远,我们需要更强力的&lt;color=#FFEA6D&gt;重构塔&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;我把更多指引的内容放在了左上角的指引面板里&lt;/color&gt;,请在任何时候查看.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2857,10 +2744,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.一次折磨的挑战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.A torture challenge</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2949,10 +2832,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>摆放结构体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>重构规则</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2969,10 +2848,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每个结构体由三格基本格和一格防御塔组成。放置结构体时需要确保起点和终点之间能够通过基本格相连，而防御塔可以作为障碍。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>当希望延长路线时，需要提前在规划好的路线上摆放基本格，然后利用防御塔作为障碍延长路线。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3320,17 +3195,9 @@
     <t>You successfully extend the enemy's path, which you can continue to master in the rest of the battle.</t>
   </si>
   <si>
-    <t>将鼠标悬停在敌人图标处,可以查看敌人相关信息.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>To view information about an enemy, move the mouse pointer to the icon of the enemy.</t>
   </si>
   <si>
-    <t>现在请&lt;color=#FFEA6D&gt;再次构建一个结构体并按指示位置摆放&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Well done. When you're ready, you can start the next wave.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3347,46 +3214,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现在点击下方的&lt;color=#FFEA6D&gt;下一波&lt;/color&gt;按钮,这将开启跃迁入口,迎接战斗阶段.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;Now press the button below to start the battle state.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FFEA6D&gt;每次进行模块构建都会使其价格提高10&lt;/color&gt;,代币还有其他用途,你需要合理规划资源分配.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>But now, &lt;color=#FFEA6D&gt;try to build another structure&lt;/color&gt;.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>请&lt;color=#FFEA6D&gt;点击场上的防御塔,以查看其基本信息及攻击范围&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;Now click on the turret on the grid to view its information and attack range&lt;/color&gt;.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现在请&lt;color=#FFEA6D&gt;构建第三个模块&lt;/color&gt;,然后我将指导你完成一次&lt;color=#FFEA6D&gt;"重构"&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;Now build the third structure&lt;/color&gt;, and I'll walk you through a&lt;color=#FFEA6D&gt; "Refactor"&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>请点击画面左侧的配方商店按钮,打开配方商店,并&lt;color=#FFEA6D&gt;选择一个已经凑齐元素的配方&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;配方商店每3回合会刷新一批重构塔配方&lt;/color&gt;,而每个重构塔配方的组件则是完全随机的.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;Please click the button on the left side to open the shop and select a blueprint that has collect enough element.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3395,54 +3238,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重构塔拥有自身专属的&lt;color=#FFEA6D&gt;被动技能&lt;/color&gt;,同时依据组成的配方不同拥有专属的&lt;color=#FFEA6D&gt;元素技能&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;Refactor turrets have their own default skill, and a element skill depending on the composition elements.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>组成元素会同时提供属性加成,&lt;color=#FFEA6D&gt;请将鼠标悬停在元素技能槽上&lt;/color&gt;,可以查看该元素技能提供的属性加成.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Component elements also provide benefit. &lt;color=#FFEA6D&gt;Hover the mouse over the element skill slot to view the benefit provided by the elements.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现在,&lt;color=#FFEA6D&gt;点击重构按钮并将其部署在战场上.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ok,&lt;color=#FFEA6D&gt;now build and place it on the grid.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>注意,每个重构塔有&lt;color=#FFEA6D&gt;2个元素技能槽,如果将两个重构塔重叠部署,则会让原重构塔获得额外的元素技能.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note that each refactor turret has 2 elemental skill slots, and if you place a new refactor turret on top of it, it will gain a additional elemental skill.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构是提升战斗力的关键,现在直接开始下一波战斗吧.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refactori is the key to improving your power, so let's move on to the next battle.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后我将介绍&lt;color=#FFEA6D系统等级.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统升级按钮上显示了你的当前&lt;color=#FFEA6D&gt;系统等级&lt;/color&gt;和其&lt;color=#FFEA6D&gt;升级所需的代币&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Let me introduce the &lt;color=#FFEA6D&gt;System Level.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3451,18 +3258,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FFEA6D&gt;升级系统可以提高构建元素塔的品质,以及在重构商店刷出新的高级配方.&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;Upgrade your system level will improve the quality of elemental turret and refresh new advanced recipes in the shop.&lt;/color&gt;.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FFEA6D&gt;如果你在本回合没有进行构建结构体,则会使构建价格降低10%&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Also, &lt;color=#FFEA6D&gt;if you don't build srtucture in this turn, it will reduce the build price by 10%&lt;/color&gt;.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3479,10 +3278,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>看来您已完全熟悉跃迁基站的重构规则了,请继续努力前行.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>It seems that you are fully familiar with the rules of the interstellar battlefield, so please continue to forge ahead.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3490,10 +3285,6 @@
     <t xml:space="preserve">Victory! You deserve the title of The Great Commander! </t>
   </si>
   <si>
-    <t>战斗结束,我方舰队获胜,不愧是娜可尊敬的指挥官。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>正在分析取胜原因...1%的合理战术规划...2%的灵活资源调配...加上97%的运气.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3700,10 +3491,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>构建结构体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>学员S0666号,这里是人马座A*第十九接口.我是你的部署教官娜可.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3740,10 +3527,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现在请把注意力放在战场中央,&lt;color=#FFEA6D&gt;红色格为跃迁入口,蓝色格为跃迁出口&lt;/color&gt;,除此之外的&lt;color=#FFEA6D&gt;灰色格子为基本格.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>敌人将从跃迁入口出发,通过基本格移动,并最终抵达跃迁出口,&lt;color=#FFEA6D&gt;蓝色移动箭头可预览敌人的行进路线.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3753,10 +3536,6 @@
   </si>
   <si>
     <t>这是你当前拥有的&lt;color=#FFEA6D&gt;代币&lt;/color&gt;,随着波数的进行你将在&lt;color=#FFEA6D&gt;每波开始时获得额外的代币.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>右下角是&lt;color=#FFEA6D&gt;构造模块功能&lt;/color&gt;,构造模块获取防御塔进行防御的主要方式.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3786,27 +3565,291 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>如果场上防御力充足的话,这回合就尝试不进行构建直接开始下一回合吧.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为此你需要每次提前铺设一部分的路段,通过多次摆放完成路径搭建.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于上回合没有进行构建,你积累了更多的代币,本回合就尝试连续构建两次模块吧.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建按钮&lt;color=#FFEA6D&gt;左方的数字&lt;/color&gt;显示不进行构建时,下回合价格的&lt;color=#FFEA6D&gt;降价幅度(当前10%)&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆放模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASICTILE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Tile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUIDETXT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no translation yet!!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在请把注意力放在战场中央,&lt;color=#FFEA6D&gt;红色格为入口,蓝色格为出口&lt;/color&gt;,除此之外的&lt;color=#FFEA6D&gt;灰色格子为基本格.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个结构体由三格基本格和一格防御塔组成。放置结构体时需要确保起点和终点之间能够通过基本格相连，而防御塔可以作为障碍。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.每个模块由3个基本格和1个元素塔格组成.
+2.基本格可作为道路，防御塔可作为障碍并进行攻击。
+3.放置模块时，防御塔不可与起点，终点及其他防御塔重合，而基本格则无任何限制，且不会覆盖防御塔。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好,现在再来构建第二个模块.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前铺设道路是延长路线的重要技巧,你可以在之后的战斗中逐渐掌握.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你准备好了就开始下一波战斗吧.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道吗,延长路线时需要提前规划敌人的路径,&lt;color=#FFEA6D&gt;如果无法连通起点和终点时是无法摆放模块的&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做得好,构建模块时获取高品质元素塔的概率提升了,你可以在之后的战斗中继续提升系统等级.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里显示了你当前的系统等级,及升级系统所需的代币.现在就点击升级一次系统吧!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于模块和系统的教学就到此结束,检测到本次入侵共有10波敌人,请坚守到最后!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来您已完全熟悉跃迁基站的战斗规则了,请继续努力前行,我在下一个挑战等你.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构是一种取胜的方式,也是一种思想.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于跃迁基站的物质波动,我们能够获取金木水火土5种不同的元素防御塔,代号为ABCDE.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以不必在每个回合都构建模块,如果你&lt;color=#FFEA6D&gt;在一回合没有进行任何构建,构建价格将会下降&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下角是&lt;color=#FFEA6D&gt;构造模块功能&lt;/color&gt;,构造模块获取防御塔进行防御的主要方式.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次构造都将生成3个随机模块,而每个模块由3个基本格和1个元素防御塔组成.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行摆放时,&lt;color=#FFEA6D&gt;新模块可以与已有格子重叠&lt;/color&gt;,而防御塔位置不可与起点,终点及其他防御塔重叠.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在就来选择第一个模块吧!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide131</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块被摆放进战场后,&lt;color=#FFEA6D&gt;基本格可以作为道路,而防御塔可以作为障碍以及进行攻击&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>做得不错,学员.通过铺设基本格作为道路,并以防御塔作为障碍,我们可以&lt;color=#FFEA6D&gt;延长敌人的行进路线&lt;/color&gt;.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现在&lt;color=#FFEA6D&gt;请点击选中防御塔&lt;/color&gt;,可以查看防御塔的&lt;color=#FFEA6D&gt;信息面板&lt;/color&gt;和&lt;color=#FFEA6D&gt;攻击范围&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次构造都将生成&lt;color=#FFEA6D&gt;3个随机模块&lt;/color&gt;,每个模块由&lt;color=#FFEA6D&gt;1个元素防御塔格&lt;/color&gt;和&lt;color=#FFEA6D&gt;3个基本格&lt;/color&gt;组成.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块被摆放进战场后,&lt;color=#FFEA6D&gt;基本格可以作为道路,而防御塔格可以作为障碍以及进行攻击&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在就让我们选择第一个模块并进行摆放吧!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御塔准备就绪,请点击下一波按钮,让巴德文明感受你为他们送来的第一枚炮弹.</t>
+    <t>&lt;color=#FFEA6D&gt;请点击选中防御塔&lt;/color&gt;,查看防御塔的信息面板和攻击范围.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔准备就绪,点击下一波按钮吧,让巴德文明感受你为他们送来的第一枚炮弹.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前回合没有构建时，构建价格将降低；
+当前降价百分比：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.基础操作及模块教学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.重构机制教学
+2.坚持20波进攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.加入战场陷阱
+2.坚持30波进攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.战场中将出现更多陷阱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUTORIALPLEASE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请按教程指示操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide202</t>
+  </si>
+  <si>
+    <t>Guide203</t>
+  </si>
+  <si>
+    <t>Guide204</t>
+  </si>
+  <si>
+    <t>Guide205</t>
+  </si>
+  <si>
+    <t>Guide206</t>
+  </si>
+  <si>
+    <t>Guide207</t>
+  </si>
+  <si>
+    <t>很好,你成功凑齐了一个重构塔配方.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请点击选中场上的重构塔,可以查看该重构塔的信息面板.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide208</t>
+  </si>
+  <si>
+    <t>Guide209</t>
+  </si>
+  <si>
+    <t>Guide210</t>
+  </si>
+  <si>
+    <t>Guide211</t>
+  </si>
+  <si>
+    <t>Guide212</t>
+  </si>
+  <si>
+    <t>Guide213</t>
+  </si>
+  <si>
+    <t>Guide214</t>
+  </si>
+  <si>
+    <t>我为你提供了一笔额外的代币,尝试在本回合构建3个模块来凑齐一个配方吧.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高系统等级可以增加商店刷新配方的数量,以及可以刷出更多高阶的重构塔配方.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天啊,你在上一场的战斗中表现不错.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于新的权限已经通过,这次我将指引你关于重构的机制,掌握后将大大提高你的战斗力.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代号后的数字为元素塔的品质,例如C1代表品质1的水元素,&lt;color=#FFEA6D&gt;品质越高的元素塔属性也越强.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了获取更高品质的元素塔,你需要提升&lt;color=#FFEA6D&gt;系统等级.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先点击左侧的入口进入重构面板.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个&lt;color=#FFEA6D&gt;重构配方由3个元素防御塔作为素材组成&lt;/color&gt;,当凑齐3个素材时将可以进行重构.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中该配方并点击重构,将其部署在战场上吧,作为&lt;color=#FFEA6D&gt;素材的元素塔将被消耗.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个重构塔相比于元素塔,还带有一个强力的&lt;color=#FFEA6D&gt;被动技能.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个&lt;color=#FFEA6D&gt;重构塔默认拥有2个元素技能槽,你可以通过将另一个重构塔部署在该重构塔上,使其装载一个额外的元素技能&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时根据其配方的元素组合,会获得1个额外的&lt;color=#FFEA6D&gt;元素技能&lt;/color&gt;,目前共有35种不同的元素技能组合.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构塔可以进行&lt;color=#FFEA6D&gt;升级&lt;/color&gt;,升级可以提升重构塔的综合属性,等级上限为3级.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就在接下来的战斗中继续熟练运用重构技术吧,为星际曙光而战!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构面板&lt;color=#FFEA6D&gt;每3回合会刷新一批重构配方.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4201,10 +4244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E415"/>
+  <dimension ref="A1:E412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="B342" sqref="B342"/>
+    <sheetView tabSelected="1" topLeftCell="B364" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4217,4442 +4260,4450 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>702</v>
+        <v>665</v>
       </c>
       <c r="B1" t="s">
-        <v>703</v>
+        <v>666</v>
       </c>
       <c r="C1" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1140</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>705</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>704</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>706</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>707</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>1145</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>1144</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>708</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>710</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>711</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>712</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>713</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>714</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>1146</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>715</v>
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>716</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>717</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>718</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>719</v>
+        <v>682</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>720</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>1123</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>1124</v>
       </c>
       <c r="C27" t="s">
-        <v>721</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>722</v>
+        <v>684</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1143</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>938</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>939</v>
+        <v>685</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>1082</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>901</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>902</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>723</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>724</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>725</v>
+        <v>687</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>726</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>727</v>
+        <v>689</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>728</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>729</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>730</v>
+        <v>692</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>731</v>
+        <v>693</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>732</v>
+        <v>694</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>733</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>734</v>
+        <v>696</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>1151</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>735</v>
+        <v>697</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1149</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>1152</v>
+        <v>1090</v>
       </c>
       <c r="C44" t="s">
-        <v>1150</v>
+        <v>698</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>1088</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>1091</v>
       </c>
       <c r="C45" t="s">
-        <v>736</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>737</v>
+        <v>699</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>738</v>
+        <v>700</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>739</v>
+        <v>701</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>740</v>
+        <v>702</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>703</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>741</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>742</v>
+        <v>704</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>743</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>744</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s">
-        <v>745</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>940</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>941</v>
+        <v>708</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>903</v>
+      </c>
+      <c r="C58" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1031</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
+        <v>108</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1154</v>
       </c>
       <c r="C60" t="s">
-        <v>746</v>
+        <v>991</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
+        <v>109</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1155</v>
       </c>
       <c r="C61" t="s">
-        <v>1032</v>
+        <v>709</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>1156</v>
       </c>
       <c r="C62" t="s">
-        <v>747</v>
+        <v>992</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>942</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>943</v>
+        <v>710</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>748</v>
+        <v>905</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>749</v>
+        <v>711</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>712</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>944</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>1159</v>
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>945</v>
+        <v>906</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>946</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>949</v>
-      </c>
-      <c r="C70" t="s">
-        <v>948</v>
+        <v>907</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>139</v>
+        <v>1157</v>
       </c>
       <c r="B71" t="s">
-        <v>950</v>
-      </c>
-      <c r="C71" t="s">
-        <v>947</v>
-      </c>
+        <v>1158</v>
+      </c>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>951</v>
+        <v>911</v>
       </c>
       <c r="C72" t="s">
-        <v>952</v>
+        <v>910</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>958</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>953</v>
+        <v>912</v>
       </c>
       <c r="C73" t="s">
-        <v>954</v>
+        <v>909</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>955</v>
+        <v>913</v>
       </c>
       <c r="C74" t="s">
-        <v>956</v>
+        <v>914</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>142</v>
+        <v>920</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>915</v>
       </c>
       <c r="C75" t="s">
-        <v>957</v>
+        <v>916</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>917</v>
       </c>
       <c r="C76" t="s">
-        <v>750</v>
+        <v>918</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>959</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>960</v>
+        <v>919</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>961</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
-        <v>751</v>
+        <v>713</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>1163</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>1166</v>
+        <v>921</v>
       </c>
       <c r="C79" t="s">
-        <v>1167</v>
+        <v>922</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>1164</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>1165</v>
+        <v>923</v>
       </c>
       <c r="C80" t="s">
-        <v>1168</v>
+        <v>714</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>1179</v>
+        <v>1101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1104</v>
       </c>
       <c r="C81" t="s">
-        <v>1178</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>148</v>
+        <v>1102</v>
       </c>
       <c r="B82" t="s">
-        <v>963</v>
+        <v>1103</v>
       </c>
       <c r="C82" t="s">
-        <v>962</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B83" t="s">
-        <v>964</v>
+        <v>1112</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1115</v>
       </c>
       <c r="C83" t="s">
-        <v>752</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>925</v>
       </c>
       <c r="C84" t="s">
-        <v>753</v>
+        <v>924</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>926</v>
       </c>
       <c r="C85" t="s">
-        <v>754</v>
+        <v>715</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
-        <v>755</v>
+        <v>716</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>756</v>
+        <v>717</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>965</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s">
-        <v>757</v>
+        <v>718</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>758</v>
+        <v>719</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>966</v>
+        <v>1121</v>
       </c>
       <c r="C90" t="s">
-        <v>967</v>
+        <v>720</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C91" t="s">
-        <v>968</v>
+        <v>721</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>927</v>
       </c>
       <c r="C92" t="s">
-        <v>759</v>
+        <v>928</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>970</v>
+        <v>148</v>
       </c>
       <c r="C93" t="s">
-        <v>969</v>
+        <v>929</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
-        <v>760</v>
+        <v>722</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B95" t="s">
-        <v>971</v>
+        <v>1126</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1130</v>
       </c>
       <c r="C95" t="s">
-        <v>972</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>973</v>
+        <v>1129</v>
       </c>
       <c r="C96" t="s">
-        <v>761</v>
+        <v>930</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B97" t="s">
-        <v>974</v>
+        <v>153</v>
       </c>
       <c r="C97" t="s">
-        <v>975</v>
+        <v>723</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>976</v>
+        <v>931</v>
       </c>
       <c r="C98" t="s">
-        <v>977</v>
+        <v>932</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>933</v>
       </c>
       <c r="C99" t="s">
-        <v>978</v>
+        <v>724</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>934</v>
       </c>
       <c r="C100" t="s">
-        <v>979</v>
+        <v>935</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C101" t="s">
-        <v>762</v>
+        <v>937</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
-        <v>763</v>
+        <v>938</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
-        <v>764</v>
+        <v>939</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>940</v>
       </c>
       <c r="C104" t="s">
-        <v>765</v>
+        <v>725</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
-        <v>1160</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
-        <v>981</v>
+        <v>726</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B106" t="s">
-        <v>186</v>
+        <v>165</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1152</v>
       </c>
       <c r="C106" t="s">
-        <v>766</v>
+        <v>727</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C107" t="s">
-        <v>767</v>
+        <v>728</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>1122</v>
       </c>
       <c r="C108" t="s">
-        <v>768</v>
+        <v>941</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
-        <v>982</v>
+        <v>729</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C110" t="s">
-        <v>983</v>
+        <v>730</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
-        <v>769</v>
+        <v>731</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C112" t="s">
-        <v>770</v>
+        <v>942</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B113" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C113" t="s">
-        <v>771</v>
+        <v>943</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C114" t="s">
-        <v>1153</v>
+        <v>732</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C115" t="s">
-        <v>772</v>
+        <v>733</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C116" t="s">
-        <v>773</v>
+        <v>734</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B117" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C117" t="s">
-        <v>985</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C118" t="s">
-        <v>984</v>
+        <v>735</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C119" t="s">
-        <v>774</v>
+        <v>736</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C120" t="s">
-        <v>775</v>
+        <v>945</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C121" t="s">
-        <v>776</v>
+        <v>944</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C122" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C123" t="s">
-        <v>777</v>
+        <v>738</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1147</v>
+        <v>199</v>
       </c>
       <c r="B124" t="s">
-        <v>1148</v>
+        <v>200</v>
       </c>
       <c r="C124" t="s">
-        <v>1033</v>
+        <v>739</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C125" t="s">
-        <v>778</v>
+        <v>685</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B126" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>779</v>
+        <v>740</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>225</v>
+        <v>1086</v>
       </c>
       <c r="B127" t="s">
-        <v>226</v>
+        <v>1087</v>
       </c>
       <c r="C127" t="s">
-        <v>780</v>
+        <v>993</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B128" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C128" t="s">
-        <v>781</v>
+        <v>741</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C129" t="s">
-        <v>782</v>
+        <v>742</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C130" t="s">
-        <v>783</v>
+        <v>743</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B131" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C131" t="s">
-        <v>784</v>
+        <v>744</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B132" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C132" t="s">
-        <v>785</v>
+        <v>745</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B133" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C133" t="s">
-        <v>786</v>
+        <v>746</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B134" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C134" t="s">
-        <v>787</v>
+        <v>747</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B135" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C135" t="s">
-        <v>788</v>
+        <v>748</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B136" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C136" t="s">
-        <v>789</v>
+        <v>749</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B137" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C137" t="s">
-        <v>790</v>
+        <v>750</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C138" t="s">
-        <v>791</v>
+        <v>751</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C139" t="s">
-        <v>792</v>
+        <v>752</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B140" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C140" t="s">
-        <v>793</v>
+        <v>753</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B141" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C141" t="s">
-        <v>986</v>
+        <v>754</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B142" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C142" t="s">
-        <v>794</v>
+        <v>755</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C143" t="s">
-        <v>795</v>
+        <v>756</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B144" t="s">
-        <v>987</v>
+        <v>238</v>
       </c>
       <c r="C144" t="s">
-        <v>988</v>
+        <v>946</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C145" t="s">
-        <v>989</v>
+        <v>757</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B146" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="C146" t="s">
-        <v>990</v>
+        <v>758</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B147" t="s">
-        <v>265</v>
+        <v>947</v>
       </c>
       <c r="C147" t="s">
-        <v>797</v>
+        <v>948</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C148" t="s">
-        <v>798</v>
+        <v>949</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B149" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C149" t="s">
-        <v>799</v>
+        <v>950</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B150" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C150" t="s">
-        <v>991</v>
+        <v>760</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B151" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C151" t="s">
-        <v>800</v>
+        <v>761</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="B152" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C152" t="s">
-        <v>801</v>
+        <v>762</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="C153" t="s">
-        <v>802</v>
+        <v>951</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="C154" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C155" t="s">
-        <v>804</v>
+        <v>764</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B156" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="C156" t="s">
-        <v>805</v>
+        <v>765</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C157" t="s">
-        <v>806</v>
+        <v>766</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B158" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C158" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B159" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C159" t="s">
-        <v>808</v>
+        <v>768</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B160" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C160" t="s">
-        <v>992</v>
+        <v>769</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B161" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="C161" t="s">
-        <v>801</v>
+        <v>770</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B162" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C162" t="s">
-        <v>809</v>
+        <v>771</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="B163" t="s">
+        <v>273</v>
+      </c>
+      <c r="C163" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B164" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C164" t="s">
-        <v>810</v>
+        <v>764</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B165" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C165" t="s">
-        <v>811</v>
+        <v>772</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B166" t="s">
-        <v>299</v>
-      </c>
-      <c r="C166" t="s">
-        <v>812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B167" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C167" t="s">
-        <v>813</v>
+        <v>773</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B168" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C168" t="s">
-        <v>814</v>
-      </c>
-      <c r="E168" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B169" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C169" t="s">
-        <v>815</v>
+        <v>775</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="B170" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="C170" t="s">
-        <v>816</v>
+        <v>776</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B171" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C171" t="s">
-        <v>817</v>
+        <v>777</v>
+      </c>
+      <c r="E171" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B172" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C172" t="s">
-        <v>818</v>
+        <v>778</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="B173" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C173" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B174" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C174" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B175" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="C175" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>1141</v>
+        <v>296</v>
       </c>
       <c r="B176" t="s">
-        <v>1142</v>
+        <v>297</v>
       </c>
       <c r="C176" t="s">
-        <v>993</v>
+        <v>782</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B177" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C177" t="s">
-        <v>822</v>
+        <v>783</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B178" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C178" t="s">
-        <v>823</v>
+        <v>784</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>322</v>
+        <v>1080</v>
       </c>
       <c r="B179" t="s">
-        <v>323</v>
+        <v>1081</v>
       </c>
       <c r="C179" t="s">
-        <v>824</v>
+        <v>953</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B180" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C180" t="s">
-        <v>825</v>
+        <v>785</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B181" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C181" t="s">
-        <v>826</v>
+        <v>786</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B182" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C182" t="s">
-        <v>827</v>
+        <v>787</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B183" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="C183" t="s">
-        <v>828</v>
+        <v>788</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B184" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C184" t="s">
-        <v>829</v>
+        <v>789</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="B185" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C185" t="s">
-        <v>830</v>
+        <v>790</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B186" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="C186" t="s">
-        <v>831</v>
+        <v>791</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B187" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C187" t="s">
-        <v>832</v>
+        <v>792</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="B188" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C188" t="s">
-        <v>833</v>
+        <v>793</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="B189" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="C189" t="s">
-        <v>994</v>
+        <v>794</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B190" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C190" t="s">
-        <v>995</v>
+        <v>795</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B191" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C191" t="s">
-        <v>996</v>
+        <v>796</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="B192" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C192" t="s">
-        <v>834</v>
+        <v>954</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="B193" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C193" t="s">
-        <v>835</v>
+        <v>955</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="B194" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="C194" t="s">
-        <v>836</v>
+        <v>956</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="B195" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C195" t="s">
-        <v>837</v>
+        <v>797</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="B196" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C196" t="s">
-        <v>997</v>
+        <v>798</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="B197" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="C197" t="s">
-        <v>838</v>
+        <v>799</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B198" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="C198" t="s">
-        <v>839</v>
+        <v>800</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B199" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C199" t="s">
-        <v>998</v>
+        <v>957</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B200" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C200" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="B201" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C201" t="s">
-        <v>841</v>
+        <v>802</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="B202" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="C202" t="s">
-        <v>842</v>
+        <v>958</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B203" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="C203" t="s">
-        <v>843</v>
+        <v>803</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B204" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C204" t="s">
-        <v>844</v>
+        <v>804</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="B205" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C205" t="s">
-        <v>845</v>
+        <v>805</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B206" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C206" t="s">
-        <v>846</v>
+        <v>806</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B207" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="C207" t="s">
-        <v>847</v>
+        <v>807</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B208" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="C208" t="s">
-        <v>848</v>
+        <v>808</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B209" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="C209" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B210" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C210" t="s">
-        <v>850</v>
+        <v>810</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="B211" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="C211" t="s">
-        <v>851</v>
+        <v>811</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B212" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="C212" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="B213" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="C213" t="s">
-        <v>853</v>
+        <v>813</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B214" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C214" t="s">
-        <v>854</v>
+        <v>814</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="B215" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="C215" t="s">
-        <v>855</v>
+        <v>815</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="B216" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="C216" t="s">
-        <v>856</v>
+        <v>816</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B217" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="C217" t="s">
-        <v>857</v>
+        <v>817</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="B218" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="C218" t="s">
-        <v>858</v>
+        <v>818</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B219" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="C219" t="s">
-        <v>859</v>
+        <v>819</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B220" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C220" t="s">
-        <v>860</v>
+        <v>820</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="B221" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C221" t="s">
-        <v>861</v>
+        <v>821</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="B222" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="C222" t="s">
-        <v>862</v>
+        <v>822</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="B223" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C223" t="s">
-        <v>863</v>
+        <v>823</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="B224" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="C224" t="s">
-        <v>864</v>
+        <v>824</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="B225" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="C225" t="s">
-        <v>865</v>
+        <v>825</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B226" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C226" t="s">
-        <v>866</v>
+        <v>826</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="B227" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="C227" t="s">
-        <v>867</v>
+        <v>827</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="B228" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="C228" t="s">
-        <v>868</v>
+        <v>828</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="B229" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C229" t="s">
-        <v>999</v>
+        <v>829</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="B230" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="C230" t="s">
-        <v>1000</v>
+        <v>830</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="B231" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="C231" t="s">
-        <v>1001</v>
+        <v>831</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="B232" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="C232" t="s">
-        <v>869</v>
+        <v>959</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="B233" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="C233" t="s">
-        <v>870</v>
+        <v>960</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B234" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C234" t="s">
-        <v>871</v>
+        <v>961</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="B235" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="C235" t="s">
-        <v>872</v>
+        <v>832</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="B236" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="C236" t="s">
-        <v>873</v>
+        <v>833</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="B237" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C237" t="s">
-        <v>874</v>
+        <v>834</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="B238" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C238" t="s">
-        <v>875</v>
+        <v>835</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="B239" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="C239" t="s">
-        <v>876</v>
+        <v>836</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="B240" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="C240" t="s">
-        <v>877</v>
+        <v>837</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="B241" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="C241" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="B242" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="C242" t="s">
-        <v>879</v>
+        <v>839</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="B243" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="C243" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="B244" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="C244" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="B245" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="C245" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="B246" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="C246" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="B247" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="C247" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="B248" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="C248" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="B249" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="C249" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="B250" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="C250" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="B251" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="C251" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="B252" t="s">
-        <v>1004</v>
+        <v>447</v>
       </c>
       <c r="C252" t="s">
-        <v>1005</v>
+        <v>849</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="B253" t="s">
-        <v>1003</v>
+        <v>449</v>
       </c>
       <c r="C253" t="s">
-        <v>1002</v>
+        <v>850</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="B254" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="C254" t="s">
-        <v>889</v>
+        <v>851</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="B255" t="s">
-        <v>473</v>
+        <v>964</v>
       </c>
       <c r="C255" t="s">
-        <v>1034</v>
+        <v>965</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="B256" t="s">
-        <v>475</v>
+        <v>963</v>
       </c>
       <c r="C256" t="s">
-        <v>890</v>
+        <v>962</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="B257" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="C257" t="s">
-        <v>1154</v>
+        <v>852</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="B258" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="C258" t="s">
-        <v>891</v>
+        <v>994</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="B259" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="C259" t="s">
-        <v>892</v>
+        <v>853</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="B260" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="C260" t="s">
-        <v>893</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="B261" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="C261" t="s">
-        <v>1006</v>
+        <v>854</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="B262" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="C262" t="s">
-        <v>772</v>
+        <v>855</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="B263" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="C263" t="s">
-        <v>894</v>
+        <v>856</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="B264" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="C264" t="s">
-        <v>895</v>
+        <v>966</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="B265" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="C265" t="s">
-        <v>1035</v>
+        <v>735</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="B266" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="C266" t="s">
-        <v>896</v>
+        <v>857</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="B267" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="C267" t="s">
-        <v>1007</v>
+        <v>858</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>1</v>
+        <v>476</v>
+      </c>
+      <c r="B268" t="s">
+        <v>477</v>
+      </c>
+      <c r="C268" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="B269" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="C269" t="s">
-        <v>897</v>
+        <v>859</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="B270" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="C270" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B271" t="s">
-        <v>503</v>
-      </c>
-      <c r="C271" t="s">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="B272" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="C272" t="s">
-        <v>900</v>
+        <v>860</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="B273" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="C273" t="s">
-        <v>901</v>
+        <v>861</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="B274" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="C274" t="s">
-        <v>902</v>
+        <v>862</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="B275" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="C275" t="s">
-        <v>903</v>
+        <v>863</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="B276" t="s">
-        <v>1008</v>
+        <v>491</v>
       </c>
       <c r="C276" t="s">
-        <v>1009</v>
+        <v>864</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="B277" t="s">
-        <v>1010</v>
+        <v>493</v>
       </c>
       <c r="C277" t="s">
-        <v>1011</v>
+        <v>865</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="B278" t="s">
-        <v>1012</v>
+        <v>495</v>
       </c>
       <c r="C278" t="s">
-        <v>1013</v>
+        <v>866</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="B279" t="s">
-        <v>1014</v>
+        <v>968</v>
       </c>
       <c r="C279" t="s">
-        <v>904</v>
+        <v>969</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="B280" t="s">
-        <v>1015</v>
+        <v>970</v>
       </c>
       <c r="C280" t="s">
-        <v>1016</v>
+        <v>971</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="B281" t="s">
-        <v>518</v>
+        <v>972</v>
       </c>
       <c r="C281" t="s">
-        <v>905</v>
+        <v>973</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="B282" t="s">
-        <v>520</v>
+        <v>974</v>
       </c>
       <c r="C282" t="s">
-        <v>1017</v>
+        <v>867</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>2</v>
+        <v>500</v>
+      </c>
+      <c r="B283" t="s">
+        <v>975</v>
+      </c>
+      <c r="C283" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="B284" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="C284" t="s">
-        <v>906</v>
+        <v>868</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="B285" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="C285" t="s">
-        <v>907</v>
+        <v>977</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B286" t="s">
-        <v>526</v>
-      </c>
-      <c r="C286" t="s">
-        <v>908</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="B287" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C287" t="s">
-        <v>909</v>
+        <v>869</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B288" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="C288" t="s">
-        <v>910</v>
+        <v>870</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="B289" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="C289" t="s">
-        <v>911</v>
+        <v>871</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="B290" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="C290" t="s">
-        <v>912</v>
+        <v>872</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="B291" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="C291" t="s">
-        <v>913</v>
+        <v>873</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="B292" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="C292" t="s">
-        <v>914</v>
+        <v>874</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="B293" t="s">
-        <v>1018</v>
+        <v>518</v>
       </c>
       <c r="C293" t="s">
-        <v>1019</v>
+        <v>875</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B294" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="C294" t="s">
-        <v>915</v>
+        <v>876</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B295" t="s">
-        <v>1020</v>
+        <v>522</v>
       </c>
       <c r="C295" t="s">
-        <v>1021</v>
+        <v>877</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="B296" t="s">
-        <v>544</v>
+        <v>978</v>
       </c>
       <c r="C296" t="s">
-        <v>916</v>
+        <v>979</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="B297" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="C297" t="s">
-        <v>1022</v>
+        <v>878</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="B298" t="s">
-        <v>548</v>
+        <v>980</v>
       </c>
       <c r="C298" t="s">
-        <v>1023</v>
+        <v>981</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="B299" t="s">
-        <v>1024</v>
+        <v>528</v>
       </c>
       <c r="C299" t="s">
-        <v>1025</v>
+        <v>879</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="B300" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="C300" t="s">
-        <v>1026</v>
+        <v>982</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="B301" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C301" t="s">
-        <v>1027</v>
+        <v>983</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B302" t="s">
-        <v>555</v>
+        <v>984</v>
       </c>
       <c r="C302" t="s">
-        <v>917</v>
+        <v>985</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="B303" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="C303" t="s">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="B304" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="C304" t="s">
-        <v>1028</v>
+        <v>987</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="B305" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="C305" t="s">
-        <v>1029</v>
+        <v>880</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="B306" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="C306" t="s">
-        <v>919</v>
+        <v>881</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="B307" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="C307" t="s">
-        <v>1030</v>
+        <v>988</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="B308" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="C308" t="s">
-        <v>1036</v>
+        <v>989</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="B309" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="C309" t="s">
-        <v>1037</v>
+        <v>882</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="B310" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="C310" t="s">
-        <v>1038</v>
+        <v>990</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>1039</v>
+        <v>550</v>
       </c>
       <c r="B311" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="C311" t="s">
-        <v>1040</v>
+        <v>996</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="B312" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="C312" t="s">
-        <v>1041</v>
+        <v>997</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="B313" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="C313" t="s">
-        <v>1042</v>
+        <v>998</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>577</v>
+        <v>999</v>
       </c>
       <c r="B314" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="C314" t="s">
-        <v>1043</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="B315" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="C315" t="s">
-        <v>920</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="B316" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="C316" t="s">
-        <v>921</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="B317" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="C317" t="s">
-        <v>1044</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="B318" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="C318" t="s">
-        <v>922</v>
+        <v>883</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="B319" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="C319" t="s">
-        <v>924</v>
+        <v>884</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="B320" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="C320" t="s">
-        <v>925</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="B321" t="s">
-        <v>1047</v>
+        <v>570</v>
       </c>
       <c r="C321" t="s">
-        <v>1048</v>
+        <v>885</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="B322" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="C322" t="s">
-        <v>1046</v>
+        <v>887</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="B323" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="C323" t="s">
-        <v>926</v>
+        <v>888</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>1045</v>
+        <v>575</v>
       </c>
       <c r="B324" t="s">
-        <v>596</v>
+        <v>1007</v>
       </c>
       <c r="C324" t="s">
-        <v>927</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="B325" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="C325" t="s">
-        <v>928</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="B326" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="C326" t="s">
-        <v>929</v>
+        <v>889</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>601</v>
+        <v>1005</v>
       </c>
       <c r="B327" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="C327" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="B328" t="s">
-        <v>1161</v>
+        <v>582</v>
       </c>
       <c r="C328" t="s">
-        <v>1049</v>
+        <v>891</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="B329" t="s">
-        <v>1162</v>
+        <v>584</v>
       </c>
       <c r="C329" t="s">
-        <v>931</v>
+        <v>892</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="B330" t="s">
-        <v>1169</v>
+        <v>586</v>
       </c>
       <c r="C330" t="s">
-        <v>1050</v>
+        <v>893</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="B331" t="s">
-        <v>1170</v>
+        <v>1099</v>
       </c>
       <c r="C331" t="s">
-        <v>932</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="B332" t="s">
-        <v>1171</v>
+        <v>1100</v>
       </c>
       <c r="C332" t="s">
-        <v>1051</v>
+        <v>894</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="B333" t="s">
-        <v>1173</v>
+        <v>1107</v>
       </c>
       <c r="C333" t="s">
-        <v>933</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="B334" t="s">
-        <v>1172</v>
+        <v>1128</v>
       </c>
       <c r="C334" t="s">
-        <v>1052</v>
+        <v>895</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="B335" t="s">
-        <v>1177</v>
+        <v>1108</v>
       </c>
       <c r="C335" t="s">
-        <v>1053</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="B336" t="s">
-        <v>1174</v>
+        <v>1110</v>
       </c>
       <c r="C336" t="s">
-        <v>1054</v>
+        <v>896</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="B337" t="s">
-        <v>1180</v>
+        <v>1109</v>
       </c>
       <c r="C337" t="s">
-        <v>1055</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="B338" t="s">
-        <v>1175</v>
+        <v>1113</v>
       </c>
       <c r="C338" t="s">
-        <v>1056</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="B339" t="s">
-        <v>1183</v>
+        <v>1142</v>
       </c>
       <c r="C339" t="s">
-        <v>1057</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="B340" t="s">
-        <v>1184</v>
+        <v>1116</v>
       </c>
       <c r="C340" t="s">
-        <v>1155</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="B341" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>1156</v>
+        <v>1111</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="B342" t="s">
-        <v>1181</v>
+        <v>1143</v>
       </c>
       <c r="C342" t="s">
-        <v>1058</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="B343" t="s">
-        <v>1182</v>
+        <v>1148</v>
       </c>
       <c r="C343" t="s">
-        <v>1068</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>619</v>
+        <v>1146</v>
       </c>
       <c r="B344" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1061</v>
+        <v>1144</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>620</v>
+        <v>1147</v>
       </c>
       <c r="B345" t="s">
-        <v>621</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1060</v>
-      </c>
+        <v>1145</v>
+      </c>
+      <c r="C345" s="3"/>
     </row>
     <row r="346" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="B346" t="s">
-        <v>623</v>
+        <v>1149</v>
       </c>
       <c r="C346" t="s">
-        <v>1059</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>3</v>
+        <v>601</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="B348" t="s">
-        <v>625</v>
+        <v>1151</v>
       </c>
       <c r="C348" t="s">
-        <v>934</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="B349" t="s">
-        <v>1062</v>
+        <v>1141</v>
       </c>
       <c r="C349" t="s">
-        <v>1063</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="B350" t="s">
-        <v>1069</v>
+        <v>1120</v>
       </c>
       <c r="C350" t="s">
-        <v>1070</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>4</v>
+        <v>605</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C351" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="B352" t="s">
-        <v>699</v>
+        <v>1134</v>
       </c>
       <c r="C352" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="B353" t="s">
-        <v>1071</v>
+        <v>1118</v>
       </c>
       <c r="C353" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="B354" t="s">
-        <v>1064</v>
+        <v>1119</v>
       </c>
       <c r="C354" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="B356" t="s">
-        <v>632</v>
+        <v>1132</v>
       </c>
       <c r="C356" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="B357" t="s">
-        <v>1073</v>
+        <v>1133</v>
       </c>
       <c r="C357" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="B359" t="s">
-        <v>635</v>
+        <v>1180</v>
       </c>
       <c r="C359" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="B361" t="s">
-        <v>700</v>
+        <v>1136</v>
       </c>
       <c r="C361" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="B362" t="s">
-        <v>1075</v>
+        <v>1135</v>
       </c>
       <c r="C362" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>638</v>
+        <v>1177</v>
       </c>
       <c r="B364" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1159</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>639</v>
+        <v>1160</v>
       </c>
       <c r="B366" t="s">
-        <v>1078</v>
+        <v>1182</v>
       </c>
       <c r="C366" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>640</v>
+        <v>1161</v>
       </c>
       <c r="B367" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>641</v>
+        <v>1162</v>
       </c>
       <c r="B368" t="s">
-        <v>1083</v>
+        <v>1183</v>
       </c>
       <c r="C368" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1035</v>
+      </c>
+      <c r="E368" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1163</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>642</v>
+        <v>1164</v>
       </c>
       <c r="B370" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E370" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1165</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>643</v>
+        <v>1168</v>
       </c>
       <c r="B372" t="s">
-        <v>1087</v>
+        <v>1167</v>
       </c>
       <c r="C372" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>644</v>
+        <v>1169</v>
       </c>
       <c r="B373" t="s">
-        <v>1089</v>
+        <v>1185</v>
       </c>
       <c r="C373" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1170</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>645</v>
+        <v>1171</v>
       </c>
       <c r="B375" t="s">
-        <v>1091</v>
+        <v>1186</v>
       </c>
       <c r="C375" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>646</v>
+        <v>1172</v>
       </c>
       <c r="B376" t="s">
-        <v>1092</v>
+        <v>1188</v>
       </c>
       <c r="C376" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>647</v>
+        <v>1173</v>
       </c>
       <c r="B377" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>648</v>
+        <v>1174</v>
       </c>
       <c r="B378" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C378" t="s">
         <v>1097</v>
       </c>
-      <c r="C378" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="379" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="B379" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="C379" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B381" t="s">
-        <v>652</v>
-      </c>
-      <c r="C381" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B382" t="s">
-        <v>701</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="B383" t="s">
-        <v>1099</v>
+        <v>1138</v>
       </c>
       <c r="C383" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>655</v>
+        <v>623</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>656</v>
+        <v>624</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
       <c r="B386" t="s">
-        <v>1102</v>
+        <v>1047</v>
       </c>
       <c r="C386" t="s">
-        <v>1103</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="B387" t="s">
-        <v>1106</v>
+        <v>1049</v>
       </c>
       <c r="C387" t="s">
-        <v>1107</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="B388" t="s">
-        <v>1105</v>
+        <v>1051</v>
       </c>
       <c r="C388" t="s">
-        <v>1104</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>660</v>
+        <v>1050</v>
       </c>
       <c r="B389" t="s">
-        <v>1108</v>
+        <v>1054</v>
       </c>
       <c r="C389" t="s">
-        <v>1109</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B390" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C390" t="s">
-        <v>1113</v>
+        <v>628</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="B391" t="s">
-        <v>1112</v>
+        <v>1056</v>
       </c>
       <c r="C391" t="s">
-        <v>1114</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>1111</v>
+        <v>630</v>
       </c>
       <c r="B392" t="s">
-        <v>1115</v>
+        <v>1058</v>
       </c>
       <c r="C392" t="s">
-        <v>1116</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>663</v>
+        <v>631</v>
+      </c>
+      <c r="B393" t="s">
+        <v>632</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>664</v>
+        <v>633</v>
       </c>
       <c r="B394" t="s">
-        <v>1117</v>
+        <v>1062</v>
       </c>
       <c r="C394" t="s">
-        <v>1118</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="B395" t="s">
-        <v>1119</v>
+        <v>1063</v>
       </c>
       <c r="C395" t="s">
-        <v>1120</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="B396" t="s">
-        <v>667</v>
+        <v>1065</v>
       </c>
       <c r="C396" t="s">
-        <v>1121</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C397" t="s">
-        <v>1122</v>
+        <v>636</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="B398" t="s">
-        <v>1124</v>
+        <v>638</v>
       </c>
       <c r="C398" t="s">
-        <v>1125</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="B399" t="s">
-        <v>1126</v>
+        <v>640</v>
       </c>
       <c r="C399" t="s">
-        <v>1127</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>671</v>
+        <v>641</v>
+      </c>
+      <c r="B400" t="s">
+        <v>642</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
       <c r="B401" t="s">
-        <v>673</v>
+        <v>644</v>
       </c>
       <c r="C401" t="s">
-        <v>1128</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="B402" t="s">
-        <v>675</v>
-      </c>
-      <c r="C402" t="s">
-        <v>1129</v>
+        <v>645</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="B403" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="C403" t="s">
-        <v>1130</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="B404" t="s">
-        <v>679</v>
-      </c>
-      <c r="C404" t="s">
-        <v>1131</v>
+        <v>648</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>680</v>
+        <v>649</v>
+      </c>
+      <c r="B405" t="s">
+        <v>650</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="B406" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="C406" t="s">
-        <v>1132</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>683</v>
+        <v>653</v>
+      </c>
+      <c r="B407" t="s">
+        <v>654</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B408" t="s">
-        <v>685</v>
-      </c>
-      <c r="C408" t="s">
-        <v>1133</v>
+        <v>655</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="B409" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="C409" t="s">
-        <v>1134</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="B410" t="s">
-        <v>689</v>
+        <v>659</v>
       </c>
       <c r="C410" t="s">
-        <v>1135</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>690</v>
+        <v>660</v>
+      </c>
+      <c r="B411" t="s">
+        <v>661</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="B412" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="C412" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="B413" t="s">
-        <v>694</v>
-      </c>
-      <c r="C413" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B414" t="s">
-        <v>696</v>
-      </c>
-      <c r="C414" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B415" t="s">
-        <v>698</v>
-      </c>
-      <c r="C415" t="s">
-        <v>1139</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A488"/>
+  <autoFilter ref="A1:A485"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JigsawTD\JigsawTD\Assets\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892B07FF-D043-47E6-9F45-680D396BDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="4275" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="1193">
   <si>
     <t>//towername</t>
   </si>
@@ -361,9 +367,6 @@
   </si>
   <si>
     <t>DIFFICULTY6</t>
-  </si>
-  <si>
-    <t>1.不可能完成的任务</t>
   </si>
   <si>
     <t>NEEDTUTORIAL</t>
@@ -3721,15 +3724,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.加入战场陷阱
-2.坚持30波进攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.战场中将出现更多陷阱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TUTORIALPLEASE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3760,14 +3754,6 @@
     <t>Guide207</t>
   </si>
   <si>
-    <t>很好,你成功凑齐了一个重构塔配方.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请点击选中场上的重构塔,可以查看该重构塔的信息面板.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Guide208</t>
   </si>
   <si>
@@ -3801,14 +3787,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天啊,你在上一场的战斗中表现不错.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于新的权限已经通过,这次我将指引你关于重构的机制,掌握后将大大提高你的战斗力.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>代号后的数字为元素塔的品质,例如C1代表品质1的水元素,&lt;color=#FFEA6D&gt;品质越高的元素塔属性也越强.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3825,22 +3803,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>选中该配方并点击重构,将其部署在战场上吧,作为&lt;color=#FFEA6D&gt;素材的元素塔将被消耗.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个重构塔相比于元素塔,还带有一个强力的&lt;color=#FFEA6D&gt;被动技能.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每个&lt;color=#FFEA6D&gt;重构塔默认拥有2个元素技能槽,你可以通过将另一个重构塔部署在该重构塔上,使其装载一个额外的元素技能&lt;/color&gt;.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>同时根据其配方的元素组合,会获得1个额外的&lt;color=#FFEA6D&gt;元素技能&lt;/color&gt;,目前共有35种不同的元素技能组合.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>重构塔可以进行&lt;color=#FFEA6D&gt;升级&lt;/color&gt;,升级可以提升重构塔的综合属性,等级上限为3级.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3850,13 +3816,61 @@
   </si>
   <si>
     <t>重构面板&lt;color=#FFEA6D&gt;每3回合会刷新一批重构配方.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上一场的战斗中你的表现不错,更高级的使用权限已经通过.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次我将指引你关于重构的机制,熟练掌握后将大大提高战斗力.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好,你成功凑齐了重构塔配方所需的素材.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中满足条件的配方进行重构吧,作为&lt;color=#FFEA6D&gt;素材的元素塔将被消耗,然后获得1个重构塔&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请点击选中场上的重构塔,打开该重构塔的信息面板.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个重构塔都带有一个强力的&lt;color=#FFEA6D&gt;被动技能,&lt;/color&gt;请擅加利用.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据重构配方的元素组合,还附带1个&lt;color=#FFEA6D&gt;元素技能&lt;/color&gt;,每个元素技能都有自身的特点.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.坚持30波进攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.加入战场陷阱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.额外的陷阱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.艰难的挑战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.不可能的任务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3953,6 +3967,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4000,7 +4017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4033,9 +4050,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4068,6 +4102,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4243,33 +4294,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B364" workbookViewId="0">
-      <selection activeCell="B367" sqref="B367"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="145.25" customWidth="1"/>
-    <col min="3" max="3" width="88.25" customWidth="1"/>
-    <col min="4" max="4" width="91.5" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="145.21875" customWidth="1"/>
+    <col min="3" max="3" width="88.21875" customWidth="1"/>
+    <col min="4" max="4" width="91.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1" t="s">
         <v>665</v>
       </c>
-      <c r="B1" t="s">
-        <v>666</v>
-      </c>
       <c r="C1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4280,7 +4331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4291,7 +4342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4299,10 +4350,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4310,10 +4361,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4324,7 +4375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4335,7 +4386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -4343,10 +4394,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4354,10 +4405,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -4365,10 +4416,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -4376,10 +4427,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -4387,10 +4438,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -4398,10 +4449,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -4409,10 +4460,10 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -4420,10 +4471,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -4431,10 +4482,10 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -4442,10 +4493,10 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -4453,10 +4504,10 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -4464,10 +4515,10 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -4475,10 +4526,10 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -4486,10 +4537,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -4497,10 +4548,10 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -4508,10 +4559,10 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -4519,10 +4570,10 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -4530,10 +4581,10 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -4541,21 +4592,21 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B27" t="s">
         <v>1123</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1124</v>
       </c>
-      <c r="C27" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -4563,10 +4614,10 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -4574,21 +4625,21 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B30" t="s">
+        <v>900</v>
+      </c>
+      <c r="C30" t="s">
         <v>901</v>
       </c>
-      <c r="C30" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -4599,7 +4650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
@@ -4607,10 +4658,10 @@
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -4618,10 +4669,10 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -4629,10 +4680,10 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
@@ -4640,10 +4691,10 @@
         <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -4651,10 +4702,10 @@
         <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
@@ -4662,10 +4713,10 @@
         <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -4673,10 +4724,10 @@
         <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
@@ -4684,10 +4735,10 @@
         <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
@@ -4695,10 +4746,10 @@
         <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
@@ -4706,10 +4757,10 @@
         <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
@@ -4717,10 +4768,10 @@
         <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -4728,32 +4779,32 @@
         <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C44" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B45" t="s">
         <v>1090</v>
       </c>
-      <c r="C44" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="C45" t="s">
         <v>1088</v>
       </c>
-      <c r="B45" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
@@ -4761,10 +4812,10 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
@@ -4772,10 +4823,10 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>86</v>
       </c>
@@ -4783,10 +4834,10 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>88</v>
       </c>
@@ -4794,10 +4845,10 @@
         <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
@@ -4805,10 +4856,10 @@
         <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -4819,7 +4870,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4827,10 +4878,10 @@
         <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -4838,10 +4889,10 @@
         <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -4849,10 +4900,10 @@
         <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -4860,10 +4911,10 @@
         <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>102</v>
       </c>
@@ -4871,7 +4922,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
@@ -4879,3831 +4930,3837 @@
         <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B58" t="s">
+        <v>902</v>
+      </c>
+      <c r="C58" t="s">
         <v>903</v>
       </c>
-      <c r="C58" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C60" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1155</v>
+        <v>1188</v>
       </c>
       <c r="C61" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>1156</v>
+        <v>1189</v>
       </c>
       <c r="C62" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="B63" t="s">
+        <v>1190</v>
+      </c>
       <c r="C63" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="B64" t="s">
+        <v>1191</v>
+      </c>
       <c r="C64" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B65" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C65" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" t="s">
+        <v>905</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" t="s">
+        <v>906</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>910</v>
+      </c>
+      <c r="C72" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>911</v>
+      </c>
+      <c r="C73" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" t="s">
+        <v>912</v>
+      </c>
+      <c r="C74" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B75" t="s">
+        <v>914</v>
+      </c>
+      <c r="C75" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>916</v>
+      </c>
+      <c r="C76" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B69" t="s">
-        <v>906</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" t="s">
-        <v>907</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" t="s">
-        <v>911</v>
-      </c>
-      <c r="C72" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B73" t="s">
-        <v>912</v>
-      </c>
-      <c r="C73" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B74" t="s">
-        <v>913</v>
-      </c>
-      <c r="C74" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+    <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" t="s">
         <v>920</v>
       </c>
-      <c r="B75" t="s">
-        <v>915</v>
-      </c>
-      <c r="C75" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" t="s">
-        <v>917</v>
-      </c>
-      <c r="C76" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" t="s">
-        <v>128</v>
-      </c>
-      <c r="C77" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" t="s">
+        <v>922</v>
+      </c>
+      <c r="C80" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B79" t="s">
-        <v>921</v>
-      </c>
-      <c r="C79" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B84" t="s">
+        <v>924</v>
+      </c>
+      <c r="C84" t="s">
         <v>923</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" t="s">
+        <v>925</v>
+      </c>
+      <c r="C85" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" t="s">
-        <v>925</v>
-      </c>
-      <c r="C84" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C90" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" t="s">
         <v>926</v>
       </c>
-      <c r="C85" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B86" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B87" t="s">
-        <v>138</v>
-      </c>
-      <c r="C87" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B88" t="s">
-        <v>140</v>
-      </c>
-      <c r="C88" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B89" t="s">
-        <v>142</v>
-      </c>
-      <c r="C89" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C92" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C96" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" t="s">
+        <v>930</v>
+      </c>
+      <c r="C98" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" t="s">
+        <v>932</v>
+      </c>
+      <c r="C99" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" t="s">
+        <v>933</v>
+      </c>
+      <c r="C100" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" t="s">
+        <v>935</v>
+      </c>
+      <c r="C101" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" t="s">
+        <v>939</v>
+      </c>
+      <c r="C104" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C106" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" t="s">
+        <v>166</v>
+      </c>
+      <c r="C107" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" t="s">
         <v>1121</v>
       </c>
-      <c r="C90" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B91" t="s">
-        <v>145</v>
-      </c>
-      <c r="C91" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B92" t="s">
-        <v>927</v>
-      </c>
-      <c r="C92" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B94" t="s">
-        <v>150</v>
-      </c>
-      <c r="C94" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C96" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" t="s">
-        <v>931</v>
-      </c>
-      <c r="C98" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B99" t="s">
-        <v>933</v>
-      </c>
-      <c r="C99" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B100" t="s">
-        <v>934</v>
-      </c>
-      <c r="C100" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B101" t="s">
-        <v>936</v>
-      </c>
-      <c r="C101" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B102" t="s">
-        <v>159</v>
-      </c>
-      <c r="C102" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B103" t="s">
-        <v>161</v>
-      </c>
-      <c r="C103" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="C108" t="s">
         <v>940</v>
       </c>
-      <c r="C104" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B105" t="s">
-        <v>164</v>
-      </c>
-      <c r="C105" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C106" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" t="s">
+    </row>
+    <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C108" t="s">
+    <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B110" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" t="s">
+        <v>173</v>
+      </c>
+      <c r="C111" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B109" t="s">
-        <v>170</v>
-      </c>
-      <c r="C109" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B110" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B111" t="s">
-        <v>174</v>
-      </c>
-      <c r="C111" t="s">
+    <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B112" t="s">
-        <v>176</v>
-      </c>
-      <c r="C112" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B113" t="s">
-        <v>178</v>
-      </c>
-      <c r="C113" t="s">
+    <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" t="s">
+        <v>181</v>
+      </c>
+      <c r="C115" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B116" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B117" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B118" t="s">
+        <v>187</v>
+      </c>
+      <c r="C118" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B119" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B114" t="s">
-        <v>180</v>
-      </c>
-      <c r="C114" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B115" t="s">
-        <v>182</v>
-      </c>
-      <c r="C115" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B116" t="s">
-        <v>184</v>
-      </c>
-      <c r="C116" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B117" t="s">
-        <v>186</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B118" t="s">
-        <v>188</v>
-      </c>
-      <c r="C118" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B119" t="s">
-        <v>190</v>
-      </c>
-      <c r="C119" t="s">
+    <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B122" t="s">
+        <v>195</v>
+      </c>
+      <c r="C122" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B120" t="s">
-        <v>192</v>
-      </c>
-      <c r="C120" t="s">
+    <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B124" t="s">
+        <v>199</v>
+      </c>
+      <c r="C124" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" t="s">
+        <v>203</v>
+      </c>
+      <c r="C126" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C127" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B128" t="s">
+        <v>205</v>
+      </c>
+      <c r="C128" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B129" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B130" t="s">
+        <v>209</v>
+      </c>
+      <c r="C130" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B131" t="s">
+        <v>211</v>
+      </c>
+      <c r="C131" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B132" t="s">
+        <v>213</v>
+      </c>
+      <c r="C132" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B133" t="s">
+        <v>215</v>
+      </c>
+      <c r="C133" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B134" t="s">
+        <v>217</v>
+      </c>
+      <c r="C134" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B135" t="s">
+        <v>219</v>
+      </c>
+      <c r="C135" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136" t="s">
+        <v>221</v>
+      </c>
+      <c r="C136" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" t="s">
+        <v>223</v>
+      </c>
+      <c r="C137" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B138" t="s">
+        <v>225</v>
+      </c>
+      <c r="C138" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" t="s">
+        <v>227</v>
+      </c>
+      <c r="C139" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B140" t="s">
+        <v>229</v>
+      </c>
+      <c r="C140" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B141" t="s">
+        <v>231</v>
+      </c>
+      <c r="C141" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B142" t="s">
+        <v>233</v>
+      </c>
+      <c r="C142" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B143" t="s">
+        <v>235</v>
+      </c>
+      <c r="C143" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B144" t="s">
+        <v>237</v>
+      </c>
+      <c r="C144" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B121" t="s">
-        <v>194</v>
-      </c>
-      <c r="C121" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B122" t="s">
-        <v>196</v>
-      </c>
-      <c r="C122" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B123" t="s">
-        <v>198</v>
-      </c>
-      <c r="C123" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B124" t="s">
-        <v>200</v>
-      </c>
-      <c r="C124" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B125" t="s">
-        <v>202</v>
-      </c>
-      <c r="C125" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B126" t="s">
-        <v>204</v>
-      </c>
-      <c r="C126" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C127" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B128" t="s">
-        <v>206</v>
-      </c>
-      <c r="C128" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B129" t="s">
-        <v>208</v>
-      </c>
-      <c r="C129" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B130" t="s">
-        <v>210</v>
-      </c>
-      <c r="C130" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B131" t="s">
-        <v>212</v>
-      </c>
-      <c r="C131" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B132" t="s">
-        <v>214</v>
-      </c>
-      <c r="C132" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B133" t="s">
-        <v>216</v>
-      </c>
-      <c r="C133" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B134" t="s">
-        <v>218</v>
-      </c>
-      <c r="C134" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" t="s">
-        <v>220</v>
-      </c>
-      <c r="C135" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B136" t="s">
-        <v>222</v>
-      </c>
-      <c r="C136" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B137" t="s">
-        <v>224</v>
-      </c>
-      <c r="C137" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B138" t="s">
-        <v>226</v>
-      </c>
-      <c r="C138" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+    <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B145" t="s">
+        <v>239</v>
+      </c>
+      <c r="C145" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B146" t="s">
+        <v>241</v>
+      </c>
+      <c r="C146" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" t="s">
+        <v>946</v>
+      </c>
+      <c r="C147" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B148" t="s">
+        <v>244</v>
+      </c>
+      <c r="C148" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B149" t="s">
+        <v>246</v>
+      </c>
+      <c r="C149" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B150" t="s">
+        <v>248</v>
+      </c>
+      <c r="C150" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B151" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B152" t="s">
+        <v>252</v>
+      </c>
+      <c r="C152" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B153" t="s">
         <v>227</v>
       </c>
-      <c r="B139" t="s">
-        <v>228</v>
-      </c>
-      <c r="C139" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+      <c r="C153" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B154" t="s">
         <v>229</v>
       </c>
-      <c r="B140" t="s">
-        <v>230</v>
-      </c>
-      <c r="C140" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B141" t="s">
-        <v>232</v>
-      </c>
-      <c r="C141" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B142" t="s">
-        <v>234</v>
-      </c>
-      <c r="C142" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B143" t="s">
-        <v>236</v>
-      </c>
-      <c r="C143" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B144" t="s">
-        <v>238</v>
-      </c>
-      <c r="C144" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B145" t="s">
-        <v>240</v>
-      </c>
-      <c r="C145" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B146" t="s">
-        <v>242</v>
-      </c>
-      <c r="C146" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B147" t="s">
-        <v>947</v>
-      </c>
-      <c r="C147" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B148" t="s">
-        <v>245</v>
-      </c>
-      <c r="C148" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B149" t="s">
-        <v>247</v>
-      </c>
-      <c r="C149" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B150" t="s">
-        <v>249</v>
-      </c>
-      <c r="C150" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B151" t="s">
-        <v>251</v>
-      </c>
-      <c r="C151" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B152" t="s">
-        <v>253</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="C154" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B153" t="s">
-        <v>228</v>
-      </c>
-      <c r="C153" t="s">
+    <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B155" t="s">
+        <v>256</v>
+      </c>
+      <c r="C155" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B156" t="s">
+        <v>258</v>
+      </c>
+      <c r="C156" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B157" t="s">
+        <v>260</v>
+      </c>
+      <c r="C157" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B158" t="s">
+        <v>262</v>
+      </c>
+      <c r="C158" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B159" t="s">
+        <v>264</v>
+      </c>
+      <c r="C159" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B160" t="s">
+        <v>266</v>
+      </c>
+      <c r="C160" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B161" t="s">
+        <v>268</v>
+      </c>
+      <c r="C161" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B162" t="s">
+        <v>270</v>
+      </c>
+      <c r="C162" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B163" t="s">
+        <v>272</v>
+      </c>
+      <c r="C163" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B154" t="s">
-        <v>230</v>
-      </c>
-      <c r="C154" t="s">
+    <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B164" t="s">
+        <v>274</v>
+      </c>
+      <c r="C164" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B155" t="s">
-        <v>257</v>
-      </c>
-      <c r="C155" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B156" t="s">
-        <v>259</v>
-      </c>
-      <c r="C156" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B157" t="s">
-        <v>261</v>
-      </c>
-      <c r="C157" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B158" t="s">
-        <v>263</v>
-      </c>
-      <c r="C158" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B159" t="s">
-        <v>265</v>
-      </c>
-      <c r="C159" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B160" t="s">
-        <v>267</v>
-      </c>
-      <c r="C160" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B161" t="s">
-        <v>269</v>
-      </c>
-      <c r="C161" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B162" t="s">
-        <v>271</v>
-      </c>
-      <c r="C162" t="s">
+    <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B165" t="s">
+        <v>276</v>
+      </c>
+      <c r="C165" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B163" t="s">
-        <v>273</v>
-      </c>
-      <c r="C163" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B164" t="s">
-        <v>275</v>
-      </c>
-      <c r="C164" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B165" t="s">
-        <v>277</v>
-      </c>
-      <c r="C165" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B167" t="s">
         <v>278</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C167" t="s">
+      <c r="B168" t="s">
+        <v>280</v>
+      </c>
+      <c r="C168" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B168" t="s">
+    <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C168" t="s">
+      <c r="B169" t="s">
+        <v>282</v>
+      </c>
+      <c r="C169" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B169" t="s">
+    <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C169" t="s">
+      <c r="B170" t="s">
+        <v>284</v>
+      </c>
+      <c r="C170" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B170" t="s">
+    <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C170" t="s">
+      <c r="B171" t="s">
+        <v>286</v>
+      </c>
+      <c r="C171" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B171" t="s">
+      <c r="E171" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C171" t="s">
+      <c r="B172" t="s">
+        <v>288</v>
+      </c>
+      <c r="C172" t="s">
         <v>777</v>
       </c>
-      <c r="E171" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B172" t="s">
+    </row>
+    <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C172" t="s">
+      <c r="B173" t="s">
+        <v>290</v>
+      </c>
+      <c r="C173" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B173" t="s">
+    <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C173" t="s">
+      <c r="B174" t="s">
+        <v>292</v>
+      </c>
+      <c r="C174" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B174" t="s">
+    <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C174" t="s">
+      <c r="B175" t="s">
+        <v>294</v>
+      </c>
+      <c r="C175" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B175" t="s">
+    <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C175" t="s">
+      <c r="B176" t="s">
+        <v>296</v>
+      </c>
+      <c r="C176" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B176" t="s">
+    <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C176" t="s">
+      <c r="B177" t="s">
+        <v>298</v>
+      </c>
+      <c r="C177" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B177" t="s">
+    <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C177" t="s">
+      <c r="B178" t="s">
+        <v>300</v>
+      </c>
+      <c r="C178" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B178" t="s">
+    <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C179" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C178" t="s">
+      <c r="B180" t="s">
+        <v>302</v>
+      </c>
+      <c r="C180" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C179" t="s">
+    <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B181" t="s">
+        <v>304</v>
+      </c>
+      <c r="C181" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B182" t="s">
+        <v>306</v>
+      </c>
+      <c r="C182" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B183" t="s">
+        <v>308</v>
+      </c>
+      <c r="C183" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B184" t="s">
+        <v>310</v>
+      </c>
+      <c r="C184" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B185" t="s">
+        <v>312</v>
+      </c>
+      <c r="C185" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B186" t="s">
+        <v>314</v>
+      </c>
+      <c r="C186" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B187" t="s">
+        <v>316</v>
+      </c>
+      <c r="C187" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B188" t="s">
+        <v>318</v>
+      </c>
+      <c r="C188" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B189" t="s">
+        <v>320</v>
+      </c>
+      <c r="C189" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B190" t="s">
+        <v>322</v>
+      </c>
+      <c r="C190" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B191" t="s">
+        <v>324</v>
+      </c>
+      <c r="C191" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B192" t="s">
+        <v>326</v>
+      </c>
+      <c r="C192" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B180" t="s">
-        <v>303</v>
-      </c>
-      <c r="C180" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B181" t="s">
-        <v>305</v>
-      </c>
-      <c r="C181" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B182" t="s">
-        <v>307</v>
-      </c>
-      <c r="C182" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B183" t="s">
-        <v>309</v>
-      </c>
-      <c r="C183" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B184" t="s">
-        <v>311</v>
-      </c>
-      <c r="C184" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B185" t="s">
-        <v>313</v>
-      </c>
-      <c r="C185" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B186" t="s">
-        <v>315</v>
-      </c>
-      <c r="C186" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B187" t="s">
-        <v>317</v>
-      </c>
-      <c r="C187" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B188" t="s">
-        <v>319</v>
-      </c>
-      <c r="C188" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B189" t="s">
-        <v>321</v>
-      </c>
-      <c r="C189" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B190" t="s">
-        <v>323</v>
-      </c>
-      <c r="C190" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B191" t="s">
-        <v>325</v>
-      </c>
-      <c r="C191" t="s">
+    <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B193" t="s">
+        <v>328</v>
+      </c>
+      <c r="C193" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B194" t="s">
+        <v>330</v>
+      </c>
+      <c r="C194" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B195" t="s">
+        <v>332</v>
+      </c>
+      <c r="C195" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B192" t="s">
-        <v>327</v>
-      </c>
-      <c r="C192" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B193" t="s">
-        <v>329</v>
-      </c>
-      <c r="C193" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B194" t="s">
-        <v>331</v>
-      </c>
-      <c r="C194" t="s">
+    <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B196" t="s">
+        <v>334</v>
+      </c>
+      <c r="C196" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B197" t="s">
+        <v>336</v>
+      </c>
+      <c r="C197" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B198" t="s">
+        <v>338</v>
+      </c>
+      <c r="C198" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B199" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B195" t="s">
-        <v>333</v>
-      </c>
-      <c r="C195" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B196" t="s">
-        <v>335</v>
-      </c>
-      <c r="C196" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B197" t="s">
-        <v>337</v>
-      </c>
-      <c r="C197" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B198" t="s">
-        <v>339</v>
-      </c>
-      <c r="C198" t="s">
+    <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B200" t="s">
+        <v>342</v>
+      </c>
+      <c r="C200" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B199" t="s">
-        <v>341</v>
-      </c>
-      <c r="C199" t="s">
+    <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B201" t="s">
+        <v>344</v>
+      </c>
+      <c r="C201" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B202" t="s">
+        <v>346</v>
+      </c>
+      <c r="C202" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B200" t="s">
-        <v>343</v>
-      </c>
-      <c r="C200" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B201" t="s">
-        <v>345</v>
-      </c>
-      <c r="C201" t="s">
+    <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B203" t="s">
+        <v>348</v>
+      </c>
+      <c r="C203" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B202" t="s">
-        <v>347</v>
-      </c>
-      <c r="C202" t="s">
+    <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B204" t="s">
+        <v>350</v>
+      </c>
+      <c r="C204" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B205" t="s">
+        <v>352</v>
+      </c>
+      <c r="C205" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B206" t="s">
+        <v>354</v>
+      </c>
+      <c r="C206" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B207" t="s">
+        <v>356</v>
+      </c>
+      <c r="C207" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B208" t="s">
+        <v>358</v>
+      </c>
+      <c r="C208" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B209" t="s">
+        <v>360</v>
+      </c>
+      <c r="C209" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B210" t="s">
+        <v>362</v>
+      </c>
+      <c r="C210" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B211" t="s">
+        <v>364</v>
+      </c>
+      <c r="C211" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B212" t="s">
+        <v>366</v>
+      </c>
+      <c r="C212" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B213" t="s">
+        <v>368</v>
+      </c>
+      <c r="C213" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B214" t="s">
+        <v>370</v>
+      </c>
+      <c r="C214" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B215" t="s">
+        <v>372</v>
+      </c>
+      <c r="C215" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B216" t="s">
+        <v>374</v>
+      </c>
+      <c r="C216" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C217" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B218" t="s">
+        <v>378</v>
+      </c>
+      <c r="C218" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219" t="s">
+        <v>380</v>
+      </c>
+      <c r="C219" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B220" t="s">
+        <v>382</v>
+      </c>
+      <c r="C220" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B221" t="s">
+        <v>384</v>
+      </c>
+      <c r="C221" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B222" t="s">
+        <v>386</v>
+      </c>
+      <c r="C222" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B223" t="s">
+        <v>388</v>
+      </c>
+      <c r="C223" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B224" t="s">
+        <v>390</v>
+      </c>
+      <c r="C224" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B225" t="s">
+        <v>392</v>
+      </c>
+      <c r="C225" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B226" t="s">
+        <v>394</v>
+      </c>
+      <c r="C226" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B227" t="s">
+        <v>396</v>
+      </c>
+      <c r="C227" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B228" t="s">
+        <v>398</v>
+      </c>
+      <c r="C228" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B229" t="s">
+        <v>400</v>
+      </c>
+      <c r="C229" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B230" t="s">
+        <v>402</v>
+      </c>
+      <c r="C230" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B231" t="s">
+        <v>404</v>
+      </c>
+      <c r="C231" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B232" t="s">
+        <v>406</v>
+      </c>
+      <c r="C232" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B203" t="s">
-        <v>349</v>
-      </c>
-      <c r="C203" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B204" t="s">
-        <v>351</v>
-      </c>
-      <c r="C204" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B205" t="s">
-        <v>353</v>
-      </c>
-      <c r="C205" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B206" t="s">
-        <v>355</v>
-      </c>
-      <c r="C206" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B207" t="s">
-        <v>357</v>
-      </c>
-      <c r="C207" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B208" t="s">
-        <v>359</v>
-      </c>
-      <c r="C208" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B209" t="s">
-        <v>361</v>
-      </c>
-      <c r="C209" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B210" t="s">
-        <v>363</v>
-      </c>
-      <c r="C210" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B211" t="s">
-        <v>365</v>
-      </c>
-      <c r="C211" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B212" t="s">
-        <v>367</v>
-      </c>
-      <c r="C212" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B213" t="s">
-        <v>369</v>
-      </c>
-      <c r="C213" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B214" t="s">
-        <v>371</v>
-      </c>
-      <c r="C214" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B215" t="s">
-        <v>373</v>
-      </c>
-      <c r="C215" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B216" t="s">
-        <v>375</v>
-      </c>
-      <c r="C216" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B217" t="s">
-        <v>377</v>
-      </c>
-      <c r="C217" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B218" t="s">
-        <v>379</v>
-      </c>
-      <c r="C218" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B219" t="s">
-        <v>381</v>
-      </c>
-      <c r="C219" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B220" t="s">
-        <v>383</v>
-      </c>
-      <c r="C220" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B221" t="s">
-        <v>385</v>
-      </c>
-      <c r="C221" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B222" t="s">
-        <v>387</v>
-      </c>
-      <c r="C222" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B223" t="s">
-        <v>389</v>
-      </c>
-      <c r="C223" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B224" t="s">
-        <v>391</v>
-      </c>
-      <c r="C224" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B225" t="s">
-        <v>393</v>
-      </c>
-      <c r="C225" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B226" t="s">
-        <v>395</v>
-      </c>
-      <c r="C226" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B227" t="s">
-        <v>397</v>
-      </c>
-      <c r="C227" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B228" t="s">
-        <v>399</v>
-      </c>
-      <c r="C228" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B229" t="s">
-        <v>401</v>
-      </c>
-      <c r="C229" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B230" t="s">
-        <v>403</v>
-      </c>
-      <c r="C230" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B231" t="s">
-        <v>405</v>
-      </c>
-      <c r="C231" t="s">
+    <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B233" t="s">
+        <v>408</v>
+      </c>
+      <c r="C233" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B234" t="s">
+        <v>410</v>
+      </c>
+      <c r="C234" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B235" t="s">
+        <v>412</v>
+      </c>
+      <c r="C235" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B232" t="s">
-        <v>407</v>
-      </c>
-      <c r="C232" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B233" t="s">
-        <v>409</v>
-      </c>
-      <c r="C233" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B234" t="s">
-        <v>411</v>
-      </c>
-      <c r="C234" t="s">
+    <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B236" t="s">
+        <v>414</v>
+      </c>
+      <c r="C236" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B237" t="s">
+        <v>416</v>
+      </c>
+      <c r="C237" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B238" t="s">
+        <v>418</v>
+      </c>
+      <c r="C238" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B239" t="s">
+        <v>420</v>
+      </c>
+      <c r="C239" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B240" t="s">
+        <v>422</v>
+      </c>
+      <c r="C240" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B241" t="s">
+        <v>424</v>
+      </c>
+      <c r="C241" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B242" t="s">
+        <v>426</v>
+      </c>
+      <c r="C242" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B243" t="s">
+        <v>428</v>
+      </c>
+      <c r="C243" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B244" t="s">
+        <v>430</v>
+      </c>
+      <c r="C244" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B245" t="s">
+        <v>432</v>
+      </c>
+      <c r="C245" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B246" t="s">
+        <v>434</v>
+      </c>
+      <c r="C246" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B247" t="s">
+        <v>436</v>
+      </c>
+      <c r="C247" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B248" t="s">
+        <v>438</v>
+      </c>
+      <c r="C248" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B249" t="s">
+        <v>440</v>
+      </c>
+      <c r="C249" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B250" t="s">
+        <v>442</v>
+      </c>
+      <c r="C250" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B251" t="s">
+        <v>444</v>
+      </c>
+      <c r="C251" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B252" t="s">
+        <v>446</v>
+      </c>
+      <c r="C252" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B253" t="s">
+        <v>448</v>
+      </c>
+      <c r="C253" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B254" t="s">
+        <v>450</v>
+      </c>
+      <c r="C254" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B255" t="s">
+        <v>963</v>
+      </c>
+      <c r="C255" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B256" t="s">
+        <v>962</v>
+      </c>
+      <c r="C256" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B235" t="s">
-        <v>413</v>
-      </c>
-      <c r="C235" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B236" t="s">
-        <v>415</v>
-      </c>
-      <c r="C236" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B237" t="s">
-        <v>417</v>
-      </c>
-      <c r="C237" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B238" t="s">
-        <v>419</v>
-      </c>
-      <c r="C238" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B239" t="s">
-        <v>421</v>
-      </c>
-      <c r="C239" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B240" t="s">
-        <v>423</v>
-      </c>
-      <c r="C240" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B241" t="s">
-        <v>425</v>
-      </c>
-      <c r="C241" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B242" t="s">
-        <v>427</v>
-      </c>
-      <c r="C242" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B243" t="s">
-        <v>429</v>
-      </c>
-      <c r="C243" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B244" t="s">
-        <v>431</v>
-      </c>
-      <c r="C244" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B245" t="s">
-        <v>433</v>
-      </c>
-      <c r="C245" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B246" t="s">
-        <v>435</v>
-      </c>
-      <c r="C246" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B247" t="s">
-        <v>437</v>
-      </c>
-      <c r="C247" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B248" t="s">
-        <v>439</v>
-      </c>
-      <c r="C248" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B249" t="s">
-        <v>441</v>
-      </c>
-      <c r="C249" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B250" t="s">
-        <v>443</v>
-      </c>
-      <c r="C250" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B251" t="s">
-        <v>445</v>
-      </c>
-      <c r="C251" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B252" t="s">
-        <v>447</v>
-      </c>
-      <c r="C252" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B253" t="s">
-        <v>449</v>
-      </c>
-      <c r="C253" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B254" t="s">
-        <v>451</v>
-      </c>
-      <c r="C254" t="s">
+    <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B257" t="s">
+        <v>454</v>
+      </c>
+      <c r="C257" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B255" t="s">
-        <v>964</v>
-      </c>
-      <c r="C255" t="s">
+    <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B258" t="s">
+        <v>456</v>
+      </c>
+      <c r="C258" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B259" t="s">
+        <v>458</v>
+      </c>
+      <c r="C259" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B260" t="s">
+        <v>460</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B261" t="s">
+        <v>462</v>
+      </c>
+      <c r="C261" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B262" t="s">
+        <v>464</v>
+      </c>
+      <c r="C262" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B263" t="s">
+        <v>466</v>
+      </c>
+      <c r="C263" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B264" t="s">
+        <v>468</v>
+      </c>
+      <c r="C264" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B256" t="s">
-        <v>963</v>
-      </c>
-      <c r="C256" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B257" t="s">
-        <v>455</v>
-      </c>
-      <c r="C257" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B258" t="s">
-        <v>457</v>
-      </c>
-      <c r="C258" t="s">
+    <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B265" t="s">
+        <v>470</v>
+      </c>
+      <c r="C265" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B266" t="s">
+        <v>472</v>
+      </c>
+      <c r="C266" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B267" t="s">
+        <v>474</v>
+      </c>
+      <c r="C267" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B268" t="s">
+        <v>476</v>
+      </c>
+      <c r="C268" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B259" t="s">
-        <v>459</v>
-      </c>
-      <c r="C259" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B260" t="s">
-        <v>461</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B261" t="s">
-        <v>463</v>
-      </c>
-      <c r="C261" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B262" t="s">
-        <v>465</v>
-      </c>
-      <c r="C262" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B263" t="s">
-        <v>467</v>
-      </c>
-      <c r="C263" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B264" t="s">
-        <v>469</v>
-      </c>
-      <c r="C264" t="s">
+    <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B269" t="s">
+        <v>478</v>
+      </c>
+      <c r="C269" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B270" t="s">
+        <v>480</v>
+      </c>
+      <c r="C270" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B265" t="s">
-        <v>471</v>
-      </c>
-      <c r="C265" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B266" t="s">
-        <v>473</v>
-      </c>
-      <c r="C266" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B267" t="s">
-        <v>475</v>
-      </c>
-      <c r="C267" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B268" t="s">
-        <v>477</v>
-      </c>
-      <c r="C268" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B269" t="s">
-        <v>479</v>
-      </c>
-      <c r="C269" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B270" t="s">
-        <v>481</v>
-      </c>
-      <c r="C270" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B272" t="s">
         <v>482</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C272" t="s">
+      <c r="B273" t="s">
+        <v>484</v>
+      </c>
+      <c r="C273" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B273" t="s">
+    <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C273" t="s">
+      <c r="B274" t="s">
+        <v>486</v>
+      </c>
+      <c r="C274" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B274" t="s">
+    <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C274" t="s">
+      <c r="B275" t="s">
+        <v>488</v>
+      </c>
+      <c r="C275" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B275" t="s">
+    <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C275" t="s">
+      <c r="B276" t="s">
+        <v>490</v>
+      </c>
+      <c r="C276" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B276" t="s">
+    <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C276" t="s">
+      <c r="B277" t="s">
+        <v>492</v>
+      </c>
+      <c r="C277" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B277" t="s">
+    <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C277" t="s">
+      <c r="B278" t="s">
+        <v>494</v>
+      </c>
+      <c r="C278" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B278" t="s">
+    <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C278" t="s">
+      <c r="B279" t="s">
+        <v>967</v>
+      </c>
+      <c r="C279" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B280" t="s">
+        <v>969</v>
+      </c>
+      <c r="C280" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B281" t="s">
+        <v>971</v>
+      </c>
+      <c r="C281" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B282" t="s">
+        <v>973</v>
+      </c>
+      <c r="C282" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B279" t="s">
-        <v>968</v>
-      </c>
-      <c r="C279" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B280" t="s">
-        <v>970</v>
-      </c>
-      <c r="C280" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B281" t="s">
-        <v>972</v>
-      </c>
-      <c r="C281" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="2" t="s">
+    <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B283" t="s">
         <v>974</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C283" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B284" t="s">
+        <v>501</v>
+      </c>
+      <c r="C284" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B283" t="s">
-        <v>975</v>
-      </c>
-      <c r="C283" t="s">
+    <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B285" t="s">
+        <v>503</v>
+      </c>
+      <c r="C285" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B284" t="s">
-        <v>502</v>
-      </c>
-      <c r="C284" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B285" t="s">
-        <v>504</v>
-      </c>
-      <c r="C285" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B287" t="s">
         <v>505</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C287" t="s">
+      <c r="B288" t="s">
+        <v>507</v>
+      </c>
+      <c r="C288" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B288" t="s">
+    <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C288" t="s">
+      <c r="B289" t="s">
+        <v>509</v>
+      </c>
+      <c r="C289" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B289" t="s">
+    <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C289" t="s">
+      <c r="B290" t="s">
+        <v>511</v>
+      </c>
+      <c r="C290" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B290" t="s">
+    <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C290" t="s">
+      <c r="B291" t="s">
+        <v>513</v>
+      </c>
+      <c r="C291" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B291" t="s">
+    <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C291" t="s">
+      <c r="B292" t="s">
+        <v>515</v>
+      </c>
+      <c r="C292" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B292" t="s">
+    <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C292" t="s">
+      <c r="B293" t="s">
+        <v>517</v>
+      </c>
+      <c r="C293" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B293" t="s">
+    <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C293" t="s">
+      <c r="B294" t="s">
+        <v>519</v>
+      </c>
+      <c r="C294" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B294" t="s">
+    <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C294" t="s">
+      <c r="B295" t="s">
+        <v>521</v>
+      </c>
+      <c r="C295" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B295" t="s">
+    <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C295" t="s">
+      <c r="B296" t="s">
+        <v>977</v>
+      </c>
+      <c r="C296" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B297" t="s">
+        <v>524</v>
+      </c>
+      <c r="C297" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B296" t="s">
-        <v>978</v>
-      </c>
-      <c r="C296" t="s">
+    <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B298" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B297" t="s">
-        <v>525</v>
-      </c>
-      <c r="C297" t="s">
+      <c r="C298" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B299" t="s">
+        <v>527</v>
+      </c>
+      <c r="C299" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B298" t="s">
-        <v>980</v>
-      </c>
-      <c r="C298" t="s">
+    <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B300" t="s">
+        <v>529</v>
+      </c>
+      <c r="C300" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B299" t="s">
-        <v>528</v>
-      </c>
-      <c r="C299" t="s">
+    <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B301" t="s">
+        <v>531</v>
+      </c>
+      <c r="C301" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B302" t="s">
+        <v>983</v>
+      </c>
+      <c r="C302" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B303" t="s">
+        <v>534</v>
+      </c>
+      <c r="C303" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B304" t="s">
+        <v>536</v>
+      </c>
+      <c r="C304" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B305" t="s">
+        <v>538</v>
+      </c>
+      <c r="C305" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B300" t="s">
-        <v>530</v>
-      </c>
-      <c r="C300" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B301" t="s">
-        <v>532</v>
-      </c>
-      <c r="C301" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B302" t="s">
-        <v>984</v>
-      </c>
-      <c r="C302" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B303" t="s">
-        <v>535</v>
-      </c>
-      <c r="C303" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B304" t="s">
-        <v>537</v>
-      </c>
-      <c r="C304" t="s">
+    <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B306" t="s">
+        <v>540</v>
+      </c>
+      <c r="C306" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B307" t="s">
+        <v>542</v>
+      </c>
+      <c r="C307" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B305" t="s">
-        <v>539</v>
-      </c>
-      <c r="C305" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B306" t="s">
-        <v>541</v>
-      </c>
-      <c r="C306" t="s">
+    <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B308" t="s">
+        <v>544</v>
+      </c>
+      <c r="C308" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B309" t="s">
+        <v>546</v>
+      </c>
+      <c r="C309" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B307" t="s">
-        <v>543</v>
-      </c>
-      <c r="C307" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B308" t="s">
-        <v>545</v>
-      </c>
-      <c r="C308" t="s">
+    <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B310" t="s">
+        <v>548</v>
+      </c>
+      <c r="C310" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B309" t="s">
-        <v>547</v>
-      </c>
-      <c r="C309" t="s">
+    <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B311" t="s">
+        <v>550</v>
+      </c>
+      <c r="C311" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B312" t="s">
+        <v>552</v>
+      </c>
+      <c r="C312" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B313" t="s">
+        <v>554</v>
+      </c>
+      <c r="C313" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B314" t="s">
+        <v>555</v>
+      </c>
+      <c r="C314" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B315" t="s">
+        <v>557</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B316" t="s">
+        <v>559</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B317" t="s">
+        <v>561</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B318" t="s">
+        <v>563</v>
+      </c>
+      <c r="C318" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B310" t="s">
-        <v>549</v>
-      </c>
-      <c r="C310" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B311" t="s">
-        <v>551</v>
-      </c>
-      <c r="C311" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B312" t="s">
-        <v>553</v>
-      </c>
-      <c r="C312" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B313" t="s">
-        <v>555</v>
-      </c>
-      <c r="C313" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="B314" t="s">
-        <v>556</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="B315" t="s">
-        <v>558</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B316" t="s">
-        <v>560</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B317" t="s">
-        <v>562</v>
-      </c>
-      <c r="C317" t="s">
+    <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B319" t="s">
+        <v>565</v>
+      </c>
+      <c r="C319" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B320" t="s">
+        <v>567</v>
+      </c>
+      <c r="C320" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B318" t="s">
-        <v>564</v>
-      </c>
-      <c r="C318" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B319" t="s">
-        <v>566</v>
-      </c>
-      <c r="C319" t="s">
+    <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B321" t="s">
+        <v>569</v>
+      </c>
+      <c r="C321" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B320" t="s">
-        <v>568</v>
-      </c>
-      <c r="C320" t="s">
+    <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B322" t="s">
+        <v>571</v>
+      </c>
+      <c r="C322" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B323" t="s">
+        <v>573</v>
+      </c>
+      <c r="C323" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B325" t="s">
+        <v>576</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B326" t="s">
+        <v>578</v>
+      </c>
+      <c r="C326" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="B321" t="s">
-        <v>570</v>
-      </c>
-      <c r="C321" t="s">
+      <c r="B327" t="s">
+        <v>579</v>
+      </c>
+      <c r="C327" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B328" t="s">
+        <v>581</v>
+      </c>
+      <c r="C328" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B329" t="s">
+        <v>583</v>
+      </c>
+      <c r="C329" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B330" t="s">
+        <v>585</v>
+      </c>
+      <c r="C330" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C332" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C334" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C336" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C351" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C354" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E368" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="B322" t="s">
-        <v>572</v>
-      </c>
-      <c r="C322" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B323" t="s">
-        <v>574</v>
-      </c>
-      <c r="C323" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B325" t="s">
-        <v>577</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B326" t="s">
-        <v>579</v>
-      </c>
-      <c r="C326" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B327" t="s">
-        <v>580</v>
-      </c>
-      <c r="C327" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B328" t="s">
-        <v>582</v>
-      </c>
-      <c r="C328" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B329" t="s">
-        <v>584</v>
-      </c>
-      <c r="C329" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B330" t="s">
-        <v>586</v>
-      </c>
-      <c r="C330" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C332" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C334" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C336" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C337" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C345" s="3"/>
-    </row>
-    <row r="346" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C351" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C354" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B364" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="2" t="s">
+    <row r="369" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="B366" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="2" t="s">
+      <c r="B369" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="B367" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="2" t="s">
+      <c r="B370" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
         <v>1162</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E368" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="2" t="s">
-        <v>1165</v>
       </c>
       <c r="B371" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="B372" t="s">
-        <v>1167</v>
+        <v>1185</v>
       </c>
       <c r="C372" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C373" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="B374" t="s">
         <v>1187</v>
       </c>
       <c r="C374" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C375" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="2" t="s">
+    <row r="376" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C376" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B377" t="s">
         <v>1171</v>
       </c>
-      <c r="B375" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C375" t="s">
+    </row>
+    <row r="378" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B379" t="s">
+        <v>663</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B380" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C376" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B379" t="s">
-        <v>664</v>
-      </c>
-      <c r="C379" t="s">
+      <c r="C380" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C383" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="2" t="s">
+    <row r="384" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B384" t="s">
         <v>1138</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C384" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C385" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C384" t="s">
+    <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B386" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="2" t="s">
+      <c r="C386" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B386" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C386" t="s">
+      <c r="B387" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="2" t="s">
+      <c r="C387" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B388" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="C387" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="2" t="s">
+      <c r="B389" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B388" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C388" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C389" t="s">
+    </row>
+    <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B391" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="2" t="s">
+      <c r="C391" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B391" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C391" t="s">
+      <c r="B392" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="2" t="s">
+      <c r="C392" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B392" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C392" t="s">
+      <c r="B393" t="s">
+        <v>631</v>
+      </c>
+      <c r="C393" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B393" t="s">
+    <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C393" t="s">
+      <c r="B394" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C394" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="2" t="s">
+    <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B395" t="s">
         <v>1062</v>
       </c>
-      <c r="C394" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="2" t="s">
+      <c r="C395" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B395" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C395" t="s">
+      <c r="B396" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="2" t="s">
+      <c r="C396" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B396" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C396" t="s">
+    </row>
+    <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B398" t="s">
+        <v>637</v>
+      </c>
+      <c r="C398" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B398" t="s">
+    <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C398" t="s">
+      <c r="B399" t="s">
+        <v>639</v>
+      </c>
+      <c r="C399" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B399" t="s">
+    <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C399" t="s">
+      <c r="B400" t="s">
+        <v>641</v>
+      </c>
+      <c r="C400" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B400" t="s">
+    <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C400" t="s">
+      <c r="B401" t="s">
+        <v>643</v>
+      </c>
+      <c r="C401" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B401" t="s">
+    <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C401" t="s">
+    </row>
+    <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B403" t="s">
+        <v>646</v>
+      </c>
+      <c r="C403" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="B403" t="s">
+    <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C403" t="s">
+    </row>
+    <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B405" t="s">
+        <v>649</v>
+      </c>
+      <c r="C405" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B405" t="s">
+    <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C405" t="s">
+      <c r="B406" t="s">
+        <v>651</v>
+      </c>
+      <c r="C406" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B406" t="s">
+    <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C406" t="s">
+      <c r="B407" t="s">
+        <v>653</v>
+      </c>
+      <c r="C407" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B407" t="s">
+    <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C407" t="s">
+    </row>
+    <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B409" t="s">
+        <v>656</v>
+      </c>
+      <c r="C409" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="B409" t="s">
+    <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C409" t="s">
+      <c r="B410" t="s">
+        <v>658</v>
+      </c>
+      <c r="C410" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B410" t="s">
+    <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C410" t="s">
+      <c r="B411" t="s">
+        <v>660</v>
+      </c>
+      <c r="C411" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B411" t="s">
+    <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C411" t="s">
+      <c r="B412" t="s">
+        <v>662</v>
+      </c>
+      <c r="C412" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B412" t="s">
-        <v>663</v>
-      </c>
-      <c r="C412" t="s">
-        <v>1078</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A485"/>
+  <autoFilter ref="A1:A485" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8711,12 +8768,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8724,12 +8781,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JigsawTD\JigsawTD\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892B07FF-D043-47E6-9F45-680D396BDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0309D6-44D8-425A-A8E7-E37A5DFF2B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,23 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$485</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$479</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="1193">
-  <si>
-    <t>//towername</t>
-  </si>
-  <si>
-    <t>//Enemy</t>
-  </si>
-  <si>
-    <t>//boss</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1236">
   <si>
     <t>SCENE1</t>
   </si>
@@ -453,30 +444,6 @@
     <t>请先通过上一难度</t>
   </si>
   <si>
-    <t>PLACERULE</t>
-  </si>
-  <si>
-    <t>PLANROUTE</t>
-  </si>
-  <si>
-    <t>规划路线</t>
-  </si>
-  <si>
-    <t>COMPOSITERULE</t>
-  </si>
-  <si>
-    <t>TRAPRULE</t>
-  </si>
-  <si>
-    <t>战场陷阱</t>
-  </si>
-  <si>
-    <t>EQUIPRULE</t>
-  </si>
-  <si>
-    <t>重构技能</t>
-  </si>
-  <si>
     <t>GUIDEVIDEO01</t>
   </si>
   <si>
@@ -486,39 +453,6 @@
     <t>注意：防御塔只可以放置在空格或基本格上，而基本格可以放置在任何位置。</t>
   </si>
   <si>
-    <t>GUIDEVIDEO03</t>
-  </si>
-  <si>
-    <t>GUIDEVIDEO04</t>
-  </si>
-  <si>
-    <t>GUIDEVIDEO05</t>
-  </si>
-  <si>
-    <t>GUIDEVIDEO06</t>
-  </si>
-  <si>
-    <t>GUIDEVIDEO07</t>
-  </si>
-  <si>
-    <t>通过将道路经过战场上随机出现的陷阱格子，将会揭示该陷阱，每个陷阱在敌人经过时会触发特殊效果。</t>
-  </si>
-  <si>
-    <t>GUIDEVIDEO08</t>
-  </si>
-  <si>
-    <t>提示：你可以花费一定代币将陷阱格子换到其他位置</t>
-  </si>
-  <si>
-    <t>GUIDEVIDEO09</t>
-  </si>
-  <si>
-    <t>GUIDEVIDEO10</t>
-  </si>
-  <si>
-    <t>提示：每个重构塔默认只可以再配备1个额外元素技能，视乎该重构塔的元素技能槽数量。</t>
-  </si>
-  <si>
     <t>DRAWINFO</t>
   </si>
   <si>
@@ -567,12 +501,6 @@
     <t>降级</t>
   </si>
   <si>
-    <t>SHOPBLUEPRINT</t>
-  </si>
-  <si>
-    <t>可锁定：</t>
-  </si>
-  <si>
     <t>OWNBLUEPRINT</t>
   </si>
   <si>
@@ -1389,33 +1317,18 @@
     <t>ACD</t>
   </si>
   <si>
-    <t>快速交易</t>
-  </si>
-  <si>
     <t>ACDINFO</t>
   </si>
   <si>
-    <t>使交换陷阱费用-50%</t>
-  </si>
-  <si>
     <t>ACE</t>
   </si>
   <si>
-    <t>科技跃进</t>
-  </si>
-  <si>
     <t>ACEINFO</t>
   </si>
   <si>
-    <t>使系统升级费用-50%</t>
-  </si>
-  <si>
     <t>ADE</t>
   </si>
   <si>
-    <t>幻化构造</t>
-  </si>
-  <si>
     <t>ADEINFO</t>
   </si>
   <si>
@@ -1425,51 +1338,27 @@
     <t>BCD</t>
   </si>
   <si>
-    <t>加长炮管</t>
-  </si>
-  <si>
     <t>BCDINFO</t>
   </si>
   <si>
-    <t>防御塔攻击速度-30%，攻击范围+2</t>
-  </si>
-  <si>
     <t>BCE</t>
   </si>
   <si>
-    <t>万能元素</t>
-  </si>
-  <si>
     <t>BCEINFO</t>
   </si>
   <si>
-    <t>重构后获得1个万能元素</t>
-  </si>
-  <si>
     <t>BDE</t>
   </si>
   <si>
-    <t>维修工厂</t>
-  </si>
-  <si>
     <t>BDEINFO</t>
   </si>
   <si>
-    <t>相邻标记的效果提升100%</t>
-  </si>
-  <si>
     <t>CDE</t>
   </si>
   <si>
-    <t>铸币工厂</t>
-  </si>
-  <si>
     <t>CDEINFO</t>
   </si>
   <si>
-    <t>子弹每次命中有8%概率获得2金币</t>
-  </si>
-  <si>
     <t>SOILDER</t>
   </si>
   <si>
@@ -1878,9 +1767,6 @@
     <t>Guide30</t>
   </si>
   <si>
-    <t>Guide40</t>
-  </si>
-  <si>
     <t>Guide41</t>
   </si>
   <si>
@@ -1932,9 +1818,6 @@
     <t>Temp15</t>
   </si>
   <si>
-    <t>//刷新商店</t>
-  </si>
-  <si>
     <t>Temp20</t>
   </si>
   <si>
@@ -2016,10 +1899,6 @@
     <t>开拓的野心和对极限的追求我们从未停止,指挥官,请继续吧!</t>
   </si>
   <si>
-    <t>&lt;color=#FFEA6D&gt;我把更多指引的内容放在了左上角的指引面板里&lt;/color&gt;,请在任何时候查看.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2154,12 +2033,6 @@
     <t>Skip tutorial</t>
   </si>
   <si>
-    <t>1.You have only 15 health</t>
-  </si>
-  <si>
-    <t>1.A tough challenge</t>
-  </si>
-  <si>
     <t>1.Unpossible task</t>
   </si>
   <si>
@@ -2187,27 +2060,9 @@
     <t>Please pass the previous difficulty first</t>
   </si>
   <si>
-    <t>Placement Rule</t>
-  </si>
-  <si>
-    <t>Plan a Route</t>
-  </si>
-  <si>
-    <t>Refactor Skill</t>
-  </si>
-  <si>
     <t>Note: Turret can only be placed on empty tile or basic tile while the basic tile can be placed anywhere.</t>
   </si>
   <si>
-    <t>Tip: You can also buy a single basic tile by clicking on a empty tile.</t>
-  </si>
-  <si>
-    <t>Each refactor turret has an unique element skill according to it's element combination. You can put the new turret on the existing turret to make it have additional element skills, but doing so will consume the new turret.</t>
-  </si>
-  <si>
-    <t>Tip: each refactor turret can only be equipped with 1 additional element skill by default, depending on it's number of element skill slots.</t>
-  </si>
-  <si>
     <t>If you haven't build last turn, the price will be reduced\n current price reduction percentage:</t>
   </si>
   <si>
@@ -2226,9 +2081,6 @@
     <t>Degrade</t>
   </si>
   <si>
-    <t>Lock:</t>
-  </si>
-  <si>
     <t>Owned</t>
   </si>
   <si>
@@ -2574,39 +2426,21 @@
     <t>Inferior Base</t>
   </si>
   <si>
-    <t>Upgrade cost reduced by 50%</t>
-  </si>
-  <si>
     <t>Annular Plug-in</t>
   </si>
   <si>
     <t>Turn this turret's attack range in to circle</t>
   </si>
   <si>
-    <t>Fast Transaction</t>
-  </si>
-  <si>
-    <t>Technology Leaps</t>
-  </si>
-  <si>
-    <t>Unreal Structure</t>
-  </si>
-  <si>
     <t>Becomes a random element skill while refactor</t>
   </si>
   <si>
     <t>Longer barrel</t>
   </si>
   <si>
-    <t>Gain 1 perfect element when refactor</t>
-  </si>
-  <si>
     <t>Repair Factory</t>
   </si>
   <si>
-    <t>Money Factory</t>
-  </si>
-  <si>
     <t>Hyena</t>
   </si>
   <si>
@@ -2712,21 +2546,6 @@
     <t>Connection complete, basic response test begin.</t>
   </si>
   <si>
-    <t>Good.</t>
-  </si>
-  <si>
-    <t>Pefect.</t>
-  </si>
-  <si>
-    <t>Right at the top shows the incoming waves we detected,\n as well as the type of incoming enemies.</t>
-  </si>
-  <si>
-    <t>Well done.</t>
-  </si>
-  <si>
-    <t>Now we have enough defenses. Let's move on.</t>
-  </si>
-  <si>
     <t>ENGLISH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2779,14 +2598,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>请先放置结构体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please place the structure first</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>只可在非战斗阶段进行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2823,78 +2634,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Please place structure at tutorial position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请按教程位置摆放结构体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>放置一个新重构塔在该重构塔上时，可使其装备新重构塔的元素技能。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重构规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refactor Rule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trap Rule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Each structure consists of three basic tile and a turret. The basic tile can serves as path while the turret can act as a obstacle.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当希望延长路线时，需要提前在规划好的路线上摆放基本格，然后利用防御塔作为障碍延长路线。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you want to extend the route, you need to place basic tile in advance, and then place turret as an obstacle.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示：点击空白位置也可以花费代币购买单格基本格。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当凑齐配方所需的素材时，可以重构防御塔，并根据组合不同带有不同的效果。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you have all the elements of a blueprint, you can refactor a turret. Refactor turret have different effects depending on it's elements.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示：商店每3回合刷新一次配方。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tip: The store refreshes every 3 waves.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The trap will be revealed when a route is passing the tile. Each trap will trigger a special effect when the enemy passes by.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tip: you can spend some tokens to change the trap to another position.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个重构塔根据其元素组合会有不同的元素技能，每个重构塔都默认带有1个元素技能。你可以将新重构塔放置在已重构塔上，使其具备额外的元素技能，但这么做会消耗新重构塔。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build Structure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Quality</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2975,30 +2718,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Reduce the cost of buidling structure by 50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使构建结构体费用-50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣奖券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Discount Tickets</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Firerate - 30%, Range + 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Each shoot has a 8% chance of gaining 2 coins</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用低成本材料大批量生产，防御力薄弱但是数量巨大</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3091,21 +2814,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1."Trap" will appear in the batllefield\n2.Stick to 40 wave</t>
-  </si>
-  <si>
-    <t>1.More Traps will apprear in the battlefield</t>
-  </si>
-  <si>
     <t>Revealed Trap</t>
   </si>
   <si>
-    <t>Reduce the cost of relocating Trap by 50%</t>
-  </si>
-  <si>
-    <t>The effect of adjacent Traps will be increased by 100%</t>
-  </si>
-  <si>
     <t>Promote Trap</t>
   </si>
   <si>
@@ -3151,124 +2862,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FFEA6D&gt;Please hold down the left mouse button and drag to move the camera.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;Then try using the mouse wheel to zoom in and out.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deployment officer, the Bard civilization is attempting a time warp through this interface, you are taking charge of the defense deployment.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Now, I'm going to give you a quick tutorial. Please focus on the center of the battlefield.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;Red squares represent the entrance, blue squares represent the exit, and moving blue arrows mark the enemy's path.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;The grey tile is the basic tile, through which the enemy moves towards the exit.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your job is to prevent the enemy from reaching the exit.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The upper right corner shows our coins supply for you, &lt;color=#FFEA6D&gt;it will increases by 10 per wave.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;Using turret as obstacles, and making sure the start and destination point are connected by basic tiles.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>When your health goes to zero, we will be forced to abandon this interface.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>In the upper right corner is your remaining health, Each enemy that reaches the end will deal 1 damage to you.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You successfully extend the enemy's path, which you can continue to master in the rest of the battle.</t>
-  </si>
-  <si>
-    <t>To view information about an enemy, move the mouse pointer to the icon of the enemy.</t>
-  </si>
-  <si>
-    <t>Well done. When you're ready, you can start the next wave.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>We managed to hold off two waves of attack, but to go further, we needed a more powerful turret.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>This time you deploy a new element turret which has different characteristic。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;Now select a structure, rotate and position it according to the sign,&lt;/color&gt; and you will learn basic pathfinding rules.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;Now press the button below to start the battle state.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>But now, &lt;color=#FFEA6D&gt;try to build another structure&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;Now click on the turret on the grid to view its information and attack range&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;Now build the third structure&lt;/color&gt;, and I'll walk you through a&lt;color=#FFEA6D&gt; "Refactor"&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;Please click the button on the left side to open the shop and select a blueprint that has collect enough element.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;The shop refreshes a batch of refactor turret blueprint every 3 waves, &lt;/color&gt;and the components of each blueprint are completely random.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;Refactor turrets have their own default skill, and a element skill depending on the composition elements.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Component elements also provide benefit. &lt;color=#FFEA6D&gt;Hover the mouse over the element skill slot to view the benefit provided by the elements.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok,&lt;color=#FFEA6D&gt;now build and place it on the grid.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Let me introduce the &lt;color=#FFEA6D&gt;System Level.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The system button displays your &lt;color=#FFEA6D&gt;current system level and the tokens required to upgrade it.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;Upgrade your system level will improve the quality of elemental turret and refresh new advanced recipes in the shop.&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Also, &lt;color=#FFEA6D&gt;if you don't build srtucture in this turn, it will reduce the build price by 10%&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;请坚持30波进攻&lt;/color&gt;,完成这一次教程.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3277,17 +2870,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>I've put more of the guidelines in the top left guidance panel, please check it out anytime.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>It seems that you are fully familiar with the rules of the interstellar battlefield, so please continue to forge ahead.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Victory! You deserve the title of The Great Commander! </t>
-  </si>
-  <si>
     <t>正在分析取胜原因...1%的合理战术规划...2%的灵活资源调配...加上97%的运气.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3470,26 +3056,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Reduce system upgrade cost by 50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>In the bottom right corner is the &lt;color=#FFEA6D&gt;Building Structure button&lt;/color&gt;. &lt;color=#FFEA6D&gt;Now spend some coins to build a structure..&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Each structure consists of&lt;color=#FFEA6D&gt; 3 "basic tile" and 1 "element turret"&lt;/color&gt;, &lt;color=#FFEA6D&gt;basic tiles can be used as a path, while the turret can be used as an obstacle.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;Every time you build a structure, the price will increases by 10.&lt;/color&gt; Coins also have other uses, and you need to allocate them wisely.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invest your tokens flexibly on building structures, upgrade system, or ugrade rafactor turrets for maximum benefit.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A battle against the Bard civilization at the Transition Station, where the enemy will launch 30 wave of attacks, an you have to deploy turrets to help secure the great interstellar colony.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3530,10 +3096,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>敌人将从跃迁入口出发,通过基本格移动,并最终抵达跃迁出口,&lt;color=#FFEA6D&gt;蓝色移动箭头可预览敌人的行进路线.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>这是你当前的&lt;color=#FFEA6D&gt;生命盾&lt;/color&gt;,每个漏掉的敌人都会使你失去一定的生命盾.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3551,10 +3113,6 @@
   </si>
   <si>
     <t>屏幕上方显示了&lt;color=#FFEA6D&gt;当前波数&lt;/color&gt;及&lt;color=#FFEA6D&gt;下一波敌人的信息&lt;/color&gt;,将鼠标悬停在图标上可显示敌人信息.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Press and hold to drag the module\nClick the rotate button or R to rotate module\nPlease place the module in the position shown by the green light</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3568,10 +3126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>如果场上防御力充足的话,这回合就尝试不进行构建直接开始下一回合吧.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>为此你需要每次提前铺设一部分的路段,通过多次摆放完成路径搭建.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3584,10 +3138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>摆放模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>构建模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3608,15 +3158,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>no translation yet!!!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>现在请把注意力放在战场中央,&lt;color=#FFEA6D&gt;红色格为入口,蓝色格为出口&lt;/color&gt;,除此之外的&lt;color=#FFEA6D&gt;灰色格子为基本格.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个结构体由三格基本格和一格防御塔组成。放置结构体时需要确保起点和终点之间能够通过基本格相连，而防御塔可以作为障碍。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3658,10 +3200,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重构是一种取胜的方式,也是一种思想.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>由于跃迁基站的物质波动,我们能够获取金木水火土5种不同的元素防御塔,代号为ABCDE.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3811,10 +3349,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>就在接下来的战斗中继续熟练运用重构技术吧,为星际曙光而战!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>重构面板&lt;color=#FFEA6D&gt;每3回合会刷新一批重构配方.&lt;/color&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3864,6 +3398,713 @@
   </si>
   <si>
     <t>1.不可能的任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUIDETXT02</t>
+  </si>
+  <si>
+    <t>GUIDETXT03</t>
+  </si>
+  <si>
+    <t>GUIDETXT04</t>
+  </si>
+  <si>
+    <t>GUIDETXT05</t>
+  </si>
+  <si>
+    <t>GUIDETXT06</t>
+  </si>
+  <si>
+    <t>1.目前共有5种基础元素塔，代号为ABCDE.
+2.代号后的数字为元素塔品质，如C1表示品质1的水元素塔，品质越高防御塔属性越强，最高品质为5级。
+3.升级系统可以提高获取高品质元素塔的概率。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.重构塔可以经由配方进行重构获得，每个配方由3个元素塔素材组成，重构后素材元素塔会被消耗。
+2.每种重构塔带有1个专属的被动技能和1个元素技能。
+3.重构塔可以进行升级并提升属性，最高等级为3。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.重构塔根据配方元素组合不同，会生成专属的元素技能，目前共有35种不同的元素技能.
+2.每个元素还会为重构塔提供额外的属性加成。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.陷阱是在战场上随机生成的格子,初始出于未揭示状态.
+2.当将路线连通陷阱时,将揭示该陷阱并且敌人经过时会触发特殊效果.
+3.陷阱可以花费代币改变其位置,每次换位后价格都会上升.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUIDEBTN01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUIDEBTN02</t>
+  </si>
+  <si>
+    <t>GUIDEBTN03</t>
+  </si>
+  <si>
+    <t>GUIDEBTN04</t>
+  </si>
+  <si>
+    <t>GUIDEBTN05</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素装载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUIDEBTN06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次的教程就到此结束,就在接下来的战斗中继续尝试运用重构技术吧!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide215</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFEA6D&gt;我把全部指引的内容放在了左上角的指引面板里&lt;/color&gt;,你可以在任何时候查看.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.重构塔除了直接部署在战场上，还可以部署在已有的重构塔上，这么做可使其装载新重构塔的元素技能，但是会消耗新重构塔。
+2.每个重构塔默认拥有2个元素技能槽，即最多可以装载一个额外的元素技能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please follow the instructions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先放置模块</t>
+  </si>
+  <si>
+    <t>请按教程位置摆放模块</t>
+  </si>
+  <si>
+    <t>每个模块由三格基本格和一格防御塔组成。放置模块时需要确保起点和终点之间能够通过基本格相连，而防御塔可以作为障碍。</t>
+  </si>
+  <si>
+    <t>Press and hold to drag the module
+Click the rotate button or R to rotate module
+Please place the module in the position shown by the green light</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please place the module first</t>
+  </si>
+  <si>
+    <t>Please place module at tutorial position</t>
+  </si>
+  <si>
+    <t>Each module consists of three basic tile and a turret. The basic tile can serves as path while the turret can act as a obstacle.</t>
+  </si>
+  <si>
+    <t>Build module</t>
+  </si>
+  <si>
+    <t>Unreal module</t>
+  </si>
+  <si>
+    <t>Module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element Turret</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refactor Turret</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element Skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element Equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Each module consists of three basic tiles and one element turret tile.
+2. Basic tiles can be used as roads, and turret tile can be used as obstacles and attacks.
+3. When placing modules, turrets should not overlap with the starting point, end point or other turrets. The basic tile has no restrictions and will not cover turrets.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. There are currently 5 element turrets, code-named ABCDE.
+2. The number after the code name is quality. For example, C1 represents water elemental turret of quality 1.
+3. Upgrading the system increases the probability of obtaining high quality turrets.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Refactor turrets can be obtained through blueprint. Each blueprint consists of 3 element turrets, which will be consumed after refactor.
+2. Each refactor turret has a unique default skill and an element skill.
+3. Refactor turrets can be upgraded to a maximum level of 3.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Unique element skills will be generated based on the blueprint element combination. Currently there are 35 different element skills.
+2. Each element also provides an additional stat bonus for refactor turrets.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. In addition to being deployed directly on the battlefield, refactor turrets can also be deployed on existing refactor turrets, which will equip the existing turret with it's element skill.
+2. Each refactor turret has 2 element skill slots by default, meaning it can equip up to one additional element skill.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Traps are randomly generated tiles on the battlefield, initially in an unrevealed state.
+2. When a path has passed a trap, the trap is revealed and a special effect is triggered when an enemy passes by.
+3. The trap can spend tokens to change its position, and the price increases with each switch.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Looks good, it seems that the "Backhand" professor did not throw the leftover students to me this time.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now, please focus on the center of the battlefield. The &lt;color=#FFEA6D&gt;red tile is the entrance, the blue tile is the exit, and the gray tile is the basic tile&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人将从入口出发,通过基本格移动,并最终抵达出口,&lt;color=#FFEA6D&gt;蓝色移动箭头可预览敌人的行进路线.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The enemy will start at the red tile, move through the base tiles, and finally reach the exit tile, &lt;color=#FFEA6D&gt;where the blue movement arrow previews the enemy's path.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the &lt;color=#FFEA6D&gt;token&lt;/color&gt; you currently have, and as the wave progresses you will get additional tokens at the start of each wave.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is your current &lt;color=#FFEA6D&gt;health &lt;/color&gt;, and every missed enemy will cost your health.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information about the &lt;color=#FFEA6D&gt;current wave and the enemies&lt;/color&gt; is displayed at the top of the screen. Hover the mouse over the icon to display enemy information.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The lower right corner is &lt;color=#FFEA6D&gt;the module button,&lt;/color&gt; which is the main way to obtains the defense turret.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFEA6D&gt;The number to the right of the button is the current module price, and the price will increased by 10 each time you build a module.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now click on the module build button to build a module!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Each build will generate three random modules, each of which consists of three base tiles and an element turret.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>When modules are placed on the battlefield, &lt;color=#FFEA6D&gt;the basic tile can be used as a path, while the turret can be used as an obstacle and attack.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New modules can overlap with existing tiles, while defense turrets cannot overlap with starting, ending, or other defense towers.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now try choosing the first module!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well done.By laying basic tiles as roads and using turrets as obstacles, we can &lt;color=#FFEA6D&gt;extend the enemy's path&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now select Defense turret to view the information panel and it's attack scope.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The turrets are ready. Click the next wave button, and let the Bard civilization feel the first cannonball you send them.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You don't have to build modules every turn, and &lt;color=#FFEA6D&gt;if you don't build anything in a turn, the build price will go down.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFEA6D&gt;The number to the left of the Build button shows the price reduction for the next round (current 10%) without building.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在场上防御力充足,这回合就尝试不进行构建直接开始下一回合吧.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now you have enough defense power, try not to build this turn and move on to the next wave.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To extend the route, you need to plan the enemy's path in advance, and &lt;color=#FFEA6D&gt;you can't place modules if there's no path connect the start and end points.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To achieve this, you need to lay out a portion of the road at a time, and complete the path by placing it several times.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You've accumulated more tokens because you didn't build in the last turn, so try building modules twice in a row this turn.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good, now let's build the second module.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laying roads ahead of time is an important skill for extending routes that you can master later in the battle.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start the next wave when you're ready.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are able to acquire five different element turrets, Gold, Wood, Water, Fire and Earth, code-named ABCDE.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To get higher quality turrets, you need to level up the system.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number after the code is the quality. For example, C1 represents the water element of quality 1. &lt;color=#FFEA6D&gt;The higher the quality, the stronger the turret.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here shows your current system level and the tokens needed to upgrade the system.Try click on to upgrade now!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well done, the chance of getting a high quality turret when building a module has been increased, and you can continue to upgrade the system later in the battle.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the end of the module and system teaching, the intrusion detected a total of 10 waves of enemies, please stick to the end!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You did well in the last battle, and the advanced access has been approved.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This time I will guide you through the mechanics of refactor, which will greatly improve your combat effectiveness.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First click the entry on the left to enter the Refactor panel.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFEA6D&gt;The refactor panel refreshes a batch of blueprints every three waves.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFEA6D&gt;Each blueprint is made up of three element turrets&lt;/color&gt;, which can be rafactor when all three are assembled.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I've provided you with an extra token, so try building 3 modules this turn to get a blueprint together.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good. You've got all the pieces you need to refactor the blueprint.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select the blueprint that meets the criteria for refactor, &lt;color=#FFEA6D&gt;the elements used as the material will be consumed, and a refactor turret will be obtained.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please click on the turret to open the information panel.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Each refactor turret comes with a powerful &lt;color=#FFEA6D&gt;passive skill&lt;/color&gt;, make use of it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on the combination of elements, there is also an &lt;color=#FFEA6D&gt;element skill&lt;/color&gt;, each element skill has its own characteristics.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFEA6D&gt;Each refactor turret has 2 element skill slots by default, and you can equip an additional elemental skill by deploying another refactor turret on it&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refactor turrets can be upgraded, which can improve the overall properties of it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increasing the system level will increases the number of store-refresh blueprints, as well as the ability to spawn more advanced blueprints.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the end of the tutorial, so continue to try refactor techniques in the  battle!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have put all the tutorials in the guidance panel in the upper left corner, which you can view at any time.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干的漂亮,重构是一种取胜的方式,也是一种思想.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well done, refactoring is not only a way to win, but also a way of thinking.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对可能抱有希望是一种人类的特有的非理性.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To hope for the possible is a uniquely human irrationality.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加装炮口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力-30%，可额外攻击1个目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻化构造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰炮弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围+1，如果攻击范围大于6，则额外+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加长炮管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹每次命中有8%概率获得2金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修工厂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repair Factory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该防御塔不会被冻结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸币工厂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型火炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离小于3的目标时，攻速提升75%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firerate increased by 75% when target's distance is less than 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离小于3的目标时，子弹减速效果提升1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow increased by 1.5 when target's distance is less than 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离小于3的目标时，子弹暴击率提高50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical increased by 50% when target's distance is less than 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离小于3的目标时，子弹溅射范围提高0.75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash range increased by 0.75 when target's distance is less than 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对同一目标进行攻击时，每次攻击攻速+20%，上限300%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firerate increased by 20% each shoot when it is attacking the same target(up to 300%).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击提升本回合3%攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack increased by 3% each shoot.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击提升本回合0.05减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow increased by 0.05 each shoot.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击提升本回合2%暴击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical increased by 2% each shoot.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击提升本回合0.03溅射范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash range increased by 0.03 each shoot.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素技能槽+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turret's element skill slot + 2.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率+25%，暴击伤害增加-100%-400%的随机浮动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical + 25%, Bullet's critical damage randomly increased by -100&amp; to 400%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定轴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速+0.5，防御塔减速在25%-250%之间随机浮动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow + 0.5, Turret's slow fluctuates between 25% and 250%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅射+0.25，防御塔溅射在25%-250%之间随机浮动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash + 0.25, Turret's splash fluctuates between 25% and 250%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围内每有1个敌人，溅射+0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash increased by 0.2 for each enemy in range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始前20秒，攻击力提升150%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turret's attack increased by 150% before 20 seconds of each wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始前20秒，攻速提升150%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turret's firerate increased by 150% before 20 seconds of each wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始前20秒，减速提升4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turret's slow increased by 4 before 20 seconds of each wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始前20秒，暴击率提升100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turret's splash increased by 100% before 20 seconds of each wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始后，攻击力每秒提升2%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始后，攻速每秒提升2%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack increases by 2% per second after the start of each wave.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firerate increases by 2% per second after the start of each wave.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始后，暴击率每秒提升1.5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical increases by 1.5% per second after the start of each wave.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始后，溅射范围每秒提升0.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash range increases by 0.02 per second after the start of each wave.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对剩余生命值大于50%的敌人造成的伤害提高50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great Bombard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage increased by 50% if target has more than 50% Health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice Shell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对处于减速状态的敌人造成的伤害提高50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage increased by 50% if target is slowing down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range +1, and +2 if range is greater than 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This turret will not be frozen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bullet has an 8% chance of getting 2 coin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊喜奖券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supprise Lottery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块构建费用降低50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce the cost of building module by 50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Basic tutorial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Refactor turorial
+2.20 waves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.30 waves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.More traps appear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Traps will apprear in the battlefield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack-30%, attack an additional target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This turret's upgrade cost reduced by 50%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3894,12 +4135,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -3944,7 +4191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3956,6 +4203,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4295,4472 +4554,4469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E412"/>
+  <dimension ref="A1:E406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="145.21875" customWidth="1"/>
-    <col min="3" max="3" width="88.21875" customWidth="1"/>
+    <col min="2" max="2" width="102" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
     <col min="4" max="4" width="91.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>664</v>
+        <v>624</v>
       </c>
       <c r="B1" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="C1" t="s">
-        <v>899</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1078</v>
+        <v>958</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>669</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>1083</v>
+        <v>963</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>1082</v>
+        <v>962</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>670</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>671</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>675</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>1084</v>
+        <v>964</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>678</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>681</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>682</v>
+        <v>642</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>1122</v>
+        <v>993</v>
       </c>
       <c r="B27" t="s">
-        <v>1123</v>
+        <v>994</v>
       </c>
       <c r="C27" t="s">
-        <v>1124</v>
+        <v>995</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>683</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>684</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>1081</v>
+        <v>961</v>
       </c>
       <c r="B30" t="s">
-        <v>900</v>
+        <v>840</v>
       </c>
       <c r="C30" t="s">
-        <v>901</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>685</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>687</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>688</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>689</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>691</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>692</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>694</v>
+        <v>654</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>696</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>1089</v>
+        <v>969</v>
       </c>
       <c r="C44" t="s">
-        <v>697</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>1087</v>
+        <v>967</v>
       </c>
       <c r="B45" t="s">
-        <v>1090</v>
+        <v>970</v>
       </c>
       <c r="C45" t="s">
-        <v>1088</v>
+        <v>968</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>698</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>699</v>
+        <v>659</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>700</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>701</v>
+        <v>661</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>702</v>
+        <v>662</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>902</v>
+        <v>842</v>
       </c>
       <c r="C58" t="s">
-        <v>903</v>
+        <v>843</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>1152</v>
+        <v>1020</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C60" t="s">
-        <v>990</v>
+        <v>1021</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1188</v>
+        <v>1055</v>
       </c>
       <c r="C61" t="s">
-        <v>708</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>1189</v>
+        <v>1056</v>
       </c>
       <c r="C62" t="s">
-        <v>991</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>1190</v>
+        <v>1057</v>
       </c>
       <c r="C63" t="s">
-        <v>709</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>1191</v>
+        <v>1058</v>
       </c>
       <c r="C64" t="s">
-        <v>904</v>
+        <v>844</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>1192</v>
+        <v>1059</v>
       </c>
       <c r="C65" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>905</v>
+        <v>845</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1097</v>
+        <v>972</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>906</v>
+        <v>846</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>907</v>
+        <v>847</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>1154</v>
+        <v>1022</v>
       </c>
       <c r="B71" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C71" s="3"/>
+        <v>1023</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>910</v>
+        <v>850</v>
       </c>
       <c r="C72" t="s">
-        <v>909</v>
+        <v>849</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>911</v>
+        <v>851</v>
       </c>
       <c r="C73" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>912</v>
+        <v>1085</v>
       </c>
       <c r="C74" t="s">
-        <v>913</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>919</v>
+        <v>857</v>
       </c>
       <c r="B75" t="s">
-        <v>914</v>
+        <v>852</v>
       </c>
       <c r="C75" t="s">
-        <v>915</v>
+        <v>853</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>916</v>
+        <v>854</v>
       </c>
       <c r="C76" t="s">
-        <v>917</v>
+        <v>855</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>918</v>
+        <v>856</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>712</v>
+        <v>670</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>920</v>
+        <v>858</v>
       </c>
       <c r="C79" t="s">
-        <v>921</v>
+        <v>859</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>922</v>
+        <v>860</v>
       </c>
       <c r="C80" t="s">
-        <v>713</v>
+        <v>671</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>1100</v>
+        <v>975</v>
       </c>
       <c r="B81" t="s">
-        <v>1103</v>
+        <v>978</v>
       </c>
       <c r="C81" t="s">
-        <v>1104</v>
+        <v>979</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>1101</v>
+        <v>976</v>
       </c>
       <c r="B82" t="s">
-        <v>1102</v>
+        <v>977</v>
       </c>
       <c r="C82" t="s">
-        <v>1105</v>
+        <v>980</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>1111</v>
+        <v>985</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1113</v>
+        <v>987</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>924</v>
+        <v>1086</v>
       </c>
       <c r="C84" t="s">
-        <v>923</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>925</v>
+        <v>861</v>
       </c>
       <c r="C85" t="s">
-        <v>714</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>716</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>718</v>
+        <v>676</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>1069</v>
       </c>
       <c r="B90" t="s">
-        <v>1120</v>
+        <v>1074</v>
       </c>
       <c r="C90" t="s">
-        <v>719</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>1070</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>1075</v>
       </c>
       <c r="C91" t="s">
-        <v>720</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>1071</v>
       </c>
       <c r="B92" t="s">
-        <v>926</v>
+        <v>1076</v>
       </c>
       <c r="C92" t="s">
-        <v>927</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>146</v>
+        <v>1072</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>1077</v>
       </c>
       <c r="C93" t="s">
-        <v>928</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>148</v>
+        <v>1073</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>1078</v>
       </c>
       <c r="C94" t="s">
-        <v>721</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>1129</v>
+        <v>1079</v>
+      </c>
+      <c r="B95" t="s">
+        <v>840</v>
       </c>
       <c r="C95" t="s">
-        <v>1126</v>
+        <v>841</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C96" t="s">
-        <v>929</v>
+        <v>996</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B97" t="s">
-        <v>152</v>
-      </c>
-      <c r="C97" t="s">
-        <v>722</v>
+        <v>1060</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B98" t="s">
-        <v>930</v>
-      </c>
-      <c r="C98" t="s">
-        <v>931</v>
+        <v>1061</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B99" t="s">
-        <v>932</v>
-      </c>
-      <c r="C99" t="s">
-        <v>723</v>
+        <v>1062</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" t="s">
-        <v>933</v>
-      </c>
-      <c r="C100" t="s">
-        <v>934</v>
+        <v>1063</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B101" t="s">
-        <v>935</v>
-      </c>
-      <c r="C101" t="s">
-        <v>936</v>
+        <v>1064</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>1087</v>
       </c>
       <c r="C102" t="s">
-        <v>937</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C103" t="s">
-        <v>938</v>
+        <v>677</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B104" t="s">
-        <v>939</v>
+        <v>142</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1019</v>
       </c>
       <c r="C104" t="s">
-        <v>724</v>
+        <v>678</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>725</v>
+        <v>679</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>1151</v>
+        <v>145</v>
+      </c>
+      <c r="B106" t="s">
+        <v>992</v>
       </c>
       <c r="C106" t="s">
-        <v>726</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C107" t="s">
-        <v>727</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B108" t="s">
-        <v>1121</v>
+        <v>149</v>
       </c>
       <c r="C108" t="s">
-        <v>940</v>
+        <v>681</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C109" t="s">
-        <v>728</v>
+        <v>682</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>729</v>
+        <v>862</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>730</v>
+        <v>863</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>941</v>
+        <v>683</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>942</v>
+        <v>684</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>731</v>
+        <v>971</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B115" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C115" t="s">
-        <v>732</v>
+        <v>685</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C116" t="s">
-        <v>733</v>
+        <v>686</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B117" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C117" t="s">
-        <v>1091</v>
+        <v>865</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B118" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C118" t="s">
-        <v>734</v>
+        <v>864</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B119" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>735</v>
+        <v>687</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C120" t="s">
-        <v>944</v>
+        <v>688</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B121" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C121" t="s">
-        <v>943</v>
+        <v>689</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B122" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C122" t="s">
-        <v>736</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B123" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C123" t="s">
-        <v>737</v>
+        <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>198</v>
+        <v>965</v>
       </c>
       <c r="B124" t="s">
-        <v>199</v>
+        <v>966</v>
       </c>
       <c r="C124" t="s">
-        <v>738</v>
+        <v>906</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B125" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C125" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C126" t="s">
-        <v>739</v>
+        <v>692</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>1085</v>
+        <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>1086</v>
+        <v>185</v>
       </c>
       <c r="C127" t="s">
-        <v>992</v>
+        <v>693</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C128" t="s">
-        <v>740</v>
+        <v>694</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C129" t="s">
-        <v>741</v>
+        <v>695</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C130" t="s">
-        <v>742</v>
+        <v>696</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C131" t="s">
-        <v>743</v>
+        <v>697</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B132" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C132" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C133" t="s">
-        <v>745</v>
+        <v>699</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C134" t="s">
-        <v>746</v>
+        <v>700</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B135" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C135" t="s">
-        <v>747</v>
+        <v>701</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>748</v>
+        <v>702</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B137" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C137" t="s">
-        <v>749</v>
+        <v>703</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B138" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C138" t="s">
-        <v>750</v>
+        <v>704</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B139" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C139" t="s">
-        <v>751</v>
+        <v>705</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B140" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C140" t="s">
-        <v>752</v>
+        <v>706</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B141" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C141" t="s">
-        <v>753</v>
+        <v>866</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B142" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>754</v>
+        <v>707</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B143" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C143" t="s">
-        <v>755</v>
+        <v>708</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B144" t="s">
-        <v>237</v>
+        <v>867</v>
       </c>
       <c r="C144" t="s">
-        <v>945</v>
+        <v>868</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B145" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C145" t="s">
-        <v>756</v>
+        <v>869</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B146" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C146" t="s">
-        <v>757</v>
+        <v>870</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="B147" t="s">
-        <v>946</v>
+        <v>224</v>
       </c>
       <c r="C147" t="s">
-        <v>947</v>
+        <v>710</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C148" t="s">
-        <v>948</v>
+        <v>711</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B149" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C149" t="s">
-        <v>949</v>
+        <v>712</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B150" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="C150" t="s">
-        <v>759</v>
+        <v>871</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B151" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="C151" t="s">
-        <v>760</v>
+        <v>713</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B152" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C152" t="s">
-        <v>761</v>
+        <v>714</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B153" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C153" t="s">
-        <v>950</v>
+        <v>715</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B154" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C154" t="s">
-        <v>762</v>
+        <v>716</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B155" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C155" t="s">
-        <v>763</v>
+        <v>717</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B156" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C156" t="s">
-        <v>764</v>
+        <v>718</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B157" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C157" t="s">
-        <v>765</v>
+        <v>719</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B158" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C158" t="s">
-        <v>766</v>
+        <v>720</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C159" t="s">
-        <v>767</v>
+        <v>721</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B160" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C160" t="s">
-        <v>768</v>
+        <v>872</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C161" t="s">
-        <v>769</v>
+        <v>714</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C162" t="s">
-        <v>770</v>
+        <v>722</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B163" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C163" t="s">
-        <v>951</v>
+        <v>723</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B164" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C164" t="s">
-        <v>763</v>
+        <v>724</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C165" t="s">
-        <v>771</v>
+        <v>725</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="B166" t="s">
+        <v>260</v>
+      </c>
+      <c r="C166" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B167" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C167" t="s">
-        <v>772</v>
+        <v>727</v>
+      </c>
+      <c r="E167" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B168" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C168" t="s">
-        <v>773</v>
+        <v>728</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C169" t="s">
-        <v>774</v>
+        <v>729</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B170" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C170" t="s">
-        <v>775</v>
+        <v>730</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B171" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C171" t="s">
-        <v>776</v>
-      </c>
-      <c r="E171" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B172" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C172" t="s">
-        <v>777</v>
+        <v>732</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B173" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C173" t="s">
-        <v>778</v>
+        <v>733</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B174" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C174" t="s">
-        <v>779</v>
+        <v>734</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>293</v>
+        <v>959</v>
       </c>
       <c r="B175" t="s">
-        <v>294</v>
+        <v>960</v>
       </c>
       <c r="C175" t="s">
-        <v>780</v>
+        <v>873</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B176" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C176" t="s">
-        <v>781</v>
+        <v>735</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="B177" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C177" t="s">
-        <v>782</v>
+        <v>736</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B178" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C178" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>1079</v>
+        <v>283</v>
       </c>
       <c r="B179" t="s">
-        <v>1080</v>
+        <v>284</v>
       </c>
       <c r="C179" t="s">
-        <v>952</v>
+        <v>738</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B180" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C180" t="s">
-        <v>784</v>
+        <v>739</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B181" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C181" t="s">
-        <v>785</v>
+        <v>740</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B182" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C182" t="s">
-        <v>786</v>
+        <v>741</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B183" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C183" t="s">
-        <v>787</v>
+        <v>742</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B184" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C184" t="s">
-        <v>788</v>
+        <v>743</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B185" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C185" t="s">
-        <v>789</v>
+        <v>744</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B186" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C186" t="s">
-        <v>790</v>
+        <v>745</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B187" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C187" t="s">
-        <v>791</v>
+        <v>746</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B188" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C188" t="s">
-        <v>792</v>
+        <v>874</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B189" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C189" t="s">
-        <v>793</v>
+        <v>875</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B190" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C190" t="s">
-        <v>794</v>
+        <v>876</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B191" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C191" t="s">
-        <v>795</v>
+        <v>747</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B192" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C192" t="s">
-        <v>953</v>
+        <v>748</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B193" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C193" t="s">
-        <v>954</v>
+        <v>749</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B194" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C194" t="s">
-        <v>955</v>
+        <v>750</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B195" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C195" t="s">
-        <v>796</v>
+        <v>877</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B196" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C196" t="s">
-        <v>797</v>
+        <v>751</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B197" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C197" t="s">
-        <v>798</v>
+        <v>752</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B198" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C198" t="s">
-        <v>799</v>
+        <v>878</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B199" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C199" t="s">
-        <v>956</v>
+        <v>763</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B200" t="s">
-        <v>342</v>
+        <v>1181</v>
       </c>
       <c r="C200" t="s">
-        <v>800</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B201" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C201" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B202" t="s">
-        <v>346</v>
+        <v>1208</v>
       </c>
       <c r="C202" t="s">
-        <v>957</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B203" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="C203" t="s">
-        <v>802</v>
+        <v>880</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B204" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="C204" t="s">
-        <v>803</v>
+        <v>881</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B205" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="C205" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B206" t="s">
-        <v>354</v>
+        <v>1200</v>
       </c>
       <c r="C206" t="s">
-        <v>805</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B207" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C207" t="s">
-        <v>806</v>
+        <v>761</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B208" t="s">
-        <v>358</v>
+        <v>1179</v>
       </c>
       <c r="C208" t="s">
-        <v>807</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B209" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="C209" t="s">
-        <v>808</v>
+        <v>753</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B210" t="s">
-        <v>362</v>
+        <v>1171</v>
       </c>
       <c r="C210" t="s">
-        <v>809</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B211" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C211" t="s">
-        <v>810</v>
+        <v>775</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B212" t="s">
-        <v>366</v>
+        <v>1209</v>
       </c>
       <c r="C212" t="s">
-        <v>811</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B213" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="C213" t="s">
-        <v>812</v>
+        <v>782</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B214" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C214" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B215" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C215" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B216" t="s">
-        <v>374</v>
+        <v>1202</v>
       </c>
       <c r="C216" t="s">
-        <v>815</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B217" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C217" t="s">
-        <v>816</v>
+        <v>771</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B218" t="s">
-        <v>378</v>
+        <v>1189</v>
       </c>
       <c r="C218" t="s">
-        <v>817</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B219" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="C219" t="s">
-        <v>818</v>
+        <v>755</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B220" t="s">
-        <v>382</v>
+        <v>1173</v>
       </c>
       <c r="C220" t="s">
-        <v>819</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B221" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="C221" t="s">
-        <v>820</v>
+        <v>765</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B222" t="s">
-        <v>386</v>
+        <v>1183</v>
       </c>
       <c r="C222" t="s">
-        <v>821</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B223" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C223" t="s">
-        <v>822</v>
+        <v>784</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B224" t="s">
-        <v>390</v>
+        <v>1194</v>
       </c>
       <c r="C224" t="s">
-        <v>823</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B225" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="C225" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B226" t="s">
-        <v>394</v>
+        <v>1204</v>
       </c>
       <c r="C226" t="s">
-        <v>825</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B227" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C227" t="s">
-        <v>826</v>
+        <v>781</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B228" t="s">
-        <v>398</v>
+        <v>1191</v>
       </c>
       <c r="C228" t="s">
-        <v>827</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B229" t="s">
-        <v>400</v>
+        <v>1193</v>
       </c>
       <c r="C229" t="s">
-        <v>828</v>
+        <v>757</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B230" t="s">
-        <v>402</v>
+        <v>1175</v>
       </c>
       <c r="C230" t="s">
-        <v>829</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B231" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="C231" t="s">
-        <v>830</v>
+        <v>767</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B232" t="s">
-        <v>406</v>
+        <v>1185</v>
       </c>
       <c r="C232" t="s">
-        <v>958</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B233" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="C233" t="s">
-        <v>959</v>
+        <v>777</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B234" t="s">
-        <v>410</v>
+        <v>1212</v>
       </c>
       <c r="C234" t="s">
-        <v>960</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B235" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C235" t="s">
-        <v>831</v>
+        <v>796</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B236" t="s">
-        <v>414</v>
+        <v>1206</v>
       </c>
       <c r="C236" t="s">
-        <v>832</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B237" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C237" t="s">
-        <v>833</v>
+        <v>788</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B238" t="s">
-        <v>418</v>
+        <v>1198</v>
       </c>
       <c r="C238" t="s">
-        <v>834</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B239" t="s">
-        <v>420</v>
+        <v>336</v>
       </c>
       <c r="C239" t="s">
-        <v>835</v>
+        <v>759</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B240" t="s">
-        <v>422</v>
+        <v>1177</v>
       </c>
       <c r="C240" t="s">
-        <v>836</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B241" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="C241" t="s">
-        <v>837</v>
+        <v>769</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B242" t="s">
-        <v>426</v>
+        <v>1187</v>
       </c>
       <c r="C242" t="s">
-        <v>838</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B243" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="C243" t="s">
-        <v>839</v>
+        <v>779</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B244" t="s">
-        <v>430</v>
+        <v>1214</v>
       </c>
       <c r="C244" t="s">
-        <v>840</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B245" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="C245" t="s">
-        <v>841</v>
+        <v>786</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B246" t="s">
-        <v>434</v>
+        <v>1196</v>
       </c>
       <c r="C246" t="s">
-        <v>842</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B247" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="C247" t="s">
-        <v>843</v>
+        <v>798</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B248" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C248" t="s">
-        <v>844</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B249" t="s">
-        <v>440</v>
+        <v>423</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="C249" t="s">
-        <v>845</v>
+        <v>799</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B250" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C250" t="s">
-        <v>846</v>
+        <v>800</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B251" t="s">
-        <v>444</v>
+        <v>427</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>1159</v>
       </c>
       <c r="C251" t="s">
-        <v>847</v>
+        <v>882</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B252" t="s">
-        <v>446</v>
+        <v>1160</v>
       </c>
       <c r="C252" t="s">
-        <v>848</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B253" t="s">
-        <v>448</v>
+        <v>429</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>1170</v>
       </c>
       <c r="C253" t="s">
-        <v>849</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B254" t="s">
-        <v>450</v>
+        <v>1216</v>
       </c>
       <c r="C254" t="s">
-        <v>850</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B255" t="s">
-        <v>963</v>
+        <v>431</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>1162</v>
       </c>
       <c r="C255" t="s">
-        <v>964</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="B256" t="s">
-        <v>962</v>
+        <v>1220</v>
       </c>
       <c r="C256" t="s">
-        <v>961</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="B257" t="s">
-        <v>454</v>
+        <v>1161</v>
       </c>
       <c r="C257" t="s">
-        <v>851</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="B258" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="C258" t="s">
-        <v>993</v>
+        <v>801</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B259" t="s">
-        <v>458</v>
+        <v>436</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>1164</v>
       </c>
       <c r="C259" t="s">
-        <v>852</v>
+        <v>802</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="B260" t="s">
-        <v>460</v>
+        <v>1163</v>
       </c>
       <c r="C260" t="s">
-        <v>1092</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B261" t="s">
-        <v>462</v>
+        <v>438</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>1166</v>
       </c>
       <c r="C261" t="s">
-        <v>853</v>
+        <v>803</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="B262" t="s">
-        <v>464</v>
+        <v>1168</v>
       </c>
       <c r="C262" t="s">
-        <v>854</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B263" t="s">
-        <v>466</v>
+        <v>440</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>1169</v>
       </c>
       <c r="C263" t="s">
-        <v>855</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="B264" t="s">
-        <v>468</v>
+        <v>1165</v>
       </c>
       <c r="C264" t="s">
-        <v>965</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B265" t="s">
-        <v>470</v>
+        <v>442</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>1225</v>
       </c>
       <c r="C265" t="s">
-        <v>734</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="B266" t="s">
-        <v>472</v>
+        <v>1227</v>
       </c>
       <c r="C266" t="s">
-        <v>856</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="B267" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="C267" t="s">
-        <v>857</v>
+        <v>804</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="B268" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="C268" t="s">
-        <v>994</v>
+        <v>805</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="B269" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="C269" t="s">
-        <v>858</v>
+        <v>806</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="B270" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="C270" t="s">
-        <v>966</v>
+        <v>807</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>1</v>
+        <v>452</v>
+      </c>
+      <c r="B271" t="s">
+        <v>453</v>
+      </c>
+      <c r="C271" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="B272" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="C272" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="B273" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="C273" t="s">
-        <v>860</v>
+        <v>810</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="B274" t="s">
-        <v>486</v>
+        <v>883</v>
       </c>
       <c r="C274" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="B275" t="s">
-        <v>488</v>
+        <v>885</v>
       </c>
       <c r="C275" t="s">
-        <v>862</v>
+        <v>886</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="B276" t="s">
-        <v>490</v>
+        <v>887</v>
       </c>
       <c r="C276" t="s">
-        <v>863</v>
+        <v>888</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="B277" t="s">
-        <v>492</v>
+        <v>889</v>
       </c>
       <c r="C277" t="s">
-        <v>864</v>
+        <v>811</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="B278" t="s">
-        <v>494</v>
+        <v>890</v>
       </c>
       <c r="C278" t="s">
-        <v>865</v>
+        <v>891</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B279" t="s">
-        <v>967</v>
+        <v>464</v>
       </c>
       <c r="C279" t="s">
-        <v>968</v>
+        <v>812</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="B280" t="s">
-        <v>969</v>
+        <v>466</v>
       </c>
       <c r="C280" t="s">
-        <v>970</v>
+        <v>892</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="B281" t="s">
-        <v>971</v>
+        <v>468</v>
       </c>
       <c r="C281" t="s">
-        <v>972</v>
+        <v>813</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="B282" t="s">
-        <v>973</v>
+        <v>470</v>
       </c>
       <c r="C282" t="s">
-        <v>866</v>
+        <v>814</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="B283" t="s">
-        <v>974</v>
+        <v>472</v>
       </c>
       <c r="C283" t="s">
-        <v>975</v>
+        <v>815</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="B284" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="C284" t="s">
-        <v>867</v>
+        <v>816</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="B285" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="C285" t="s">
-        <v>976</v>
+        <v>817</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>2</v>
+        <v>477</v>
+      </c>
+      <c r="B286" t="s">
+        <v>478</v>
+      </c>
+      <c r="C286" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="B287" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C287" t="s">
-        <v>868</v>
+        <v>819</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="B288" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="C288" t="s">
-        <v>869</v>
+        <v>820</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="B289" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="C289" t="s">
-        <v>870</v>
+        <v>821</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="B290" t="s">
-        <v>511</v>
+        <v>893</v>
       </c>
       <c r="C290" t="s">
-        <v>871</v>
+        <v>894</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="B291" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="C291" t="s">
-        <v>872</v>
+        <v>822</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="B292" t="s">
-        <v>515</v>
+        <v>895</v>
       </c>
       <c r="C292" t="s">
-        <v>873</v>
+        <v>896</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="B293" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="C293" t="s">
-        <v>874</v>
+        <v>823</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="B294" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="C294" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="B295" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="C295" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="B296" t="s">
-        <v>977</v>
+        <v>899</v>
       </c>
       <c r="C296" t="s">
-        <v>978</v>
+        <v>900</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="B297" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="C297" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="B298" t="s">
-        <v>979</v>
+        <v>499</v>
       </c>
       <c r="C298" t="s">
-        <v>980</v>
+        <v>902</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="B299" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="C299" t="s">
-        <v>878</v>
+        <v>824</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="B300" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="C300" t="s">
-        <v>981</v>
+        <v>825</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="B301" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="C301" t="s">
-        <v>982</v>
+        <v>903</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="B302" t="s">
-        <v>983</v>
+        <v>507</v>
       </c>
       <c r="C302" t="s">
-        <v>984</v>
+        <v>904</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="B303" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="C303" t="s">
-        <v>985</v>
+        <v>826</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="B304" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="C304" t="s">
-        <v>986</v>
+        <v>905</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="B305" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="C305" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="B306" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="C306" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="B307" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="C307" t="s">
-        <v>987</v>
+        <v>909</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>543</v>
+        <v>910</v>
       </c>
       <c r="B308" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="C308" t="s">
-        <v>988</v>
+        <v>911</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="B309" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="C309" t="s">
-        <v>881</v>
+        <v>912</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="B310" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="C310" t="s">
-        <v>989</v>
+        <v>913</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="B311" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="C311" t="s">
-        <v>995</v>
+        <v>914</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="B312" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="C312" t="s">
-        <v>996</v>
+        <v>827</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="B313" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="C313" t="s">
-        <v>997</v>
+        <v>828</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>998</v>
+        <v>529</v>
       </c>
       <c r="B314" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="C314" t="s">
-        <v>999</v>
+        <v>915</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="B315" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="C315" t="s">
-        <v>1000</v>
+        <v>829</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="B316" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="C316" t="s">
-        <v>1001</v>
+        <v>831</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="B317" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="C317" t="s">
-        <v>1002</v>
+        <v>832</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B318" t="s">
-        <v>563</v>
+        <v>918</v>
       </c>
       <c r="C318" t="s">
-        <v>882</v>
+        <v>919</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="B319" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="C319" t="s">
-        <v>883</v>
+        <v>917</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B320" t="s">
+        <v>541</v>
+      </c>
+      <c r="C320" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B321" t="s">
+        <v>542</v>
+      </c>
+      <c r="C321" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B322" t="s">
+        <v>544</v>
+      </c>
+      <c r="C322" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B323" t="s">
+        <v>546</v>
+      </c>
+      <c r="C323" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B324" t="s">
+        <v>548</v>
+      </c>
+      <c r="C324" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B325" t="s">
+        <v>973</v>
+      </c>
+      <c r="C325" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B326" t="s">
+        <v>974</v>
+      </c>
+      <c r="C326" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B327" t="s">
+        <v>981</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B328" t="s">
+        <v>997</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B330" t="s">
+        <v>983</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B331" t="s">
+        <v>982</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B332" t="s">
+        <v>986</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B334" t="s">
+        <v>988</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B335" t="s">
+        <v>984</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D335" s="6"/>
+    </row>
+    <row r="336" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D338" s="7"/>
+    </row>
+    <row r="339" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D339" s="7"/>
+    </row>
+    <row r="340" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B344" t="s">
+        <v>991</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C320" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="2" t="s">
+      <c r="B345" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B346" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C321" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="2" t="s">
+      <c r="B347" t="s">
+        <v>989</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B348" t="s">
+        <v>990</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D348" s="6"/>
+    </row>
+    <row r="349" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C322" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="2" t="s">
+      <c r="B349" t="s">
+        <v>999</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D349" s="6"/>
+    </row>
+    <row r="350" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B350" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D350" s="6"/>
+    </row>
+    <row r="351" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C323" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="2" t="s">
+      <c r="B351" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B324" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C324" t="s">
+      <c r="B352" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B325" t="s">
-        <v>576</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B326" t="s">
-        <v>578</v>
-      </c>
-      <c r="C326" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B327" t="s">
-        <v>579</v>
-      </c>
-      <c r="C327" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B328" t="s">
-        <v>581</v>
-      </c>
-      <c r="C328" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B329" t="s">
-        <v>583</v>
-      </c>
-      <c r="C329" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B330" t="s">
-        <v>585</v>
-      </c>
-      <c r="C330" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C332" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C334" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C336" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C337" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C345" s="3"/>
-    </row>
-    <row r="346" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C351" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1133</v>
-      </c>
       <c r="C352" t="s">
-        <v>1021</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="B353" t="s">
-        <v>1117</v>
+        <v>1041</v>
       </c>
       <c r="C353" t="s">
-        <v>1026</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
       <c r="B354" t="s">
-        <v>1118</v>
+        <v>1042</v>
       </c>
       <c r="C354" t="s">
-        <v>897</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="B355" t="s">
-        <v>1130</v>
+        <v>1004</v>
       </c>
       <c r="C355" t="s">
-        <v>1095</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="B356" t="s">
-        <v>1131</v>
+        <v>1003</v>
       </c>
       <c r="C356" t="s">
-        <v>1027</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="B357" t="s">
-        <v>1132</v>
+        <v>1005</v>
       </c>
       <c r="C357" t="s">
-        <v>1024</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>611</v>
+        <v>1040</v>
       </c>
       <c r="B358" t="s">
-        <v>1139</v>
+        <v>1048</v>
       </c>
       <c r="C358" t="s">
-        <v>1028</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>612</v>
+        <v>1024</v>
       </c>
       <c r="B359" t="s">
-        <v>1173</v>
+        <v>1049</v>
       </c>
       <c r="C359" t="s">
-        <v>1022</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>613</v>
+        <v>1025</v>
       </c>
       <c r="B360" t="s">
-        <v>1174</v>
+        <v>1043</v>
       </c>
       <c r="C360" t="s">
-        <v>1023</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>614</v>
+        <v>1026</v>
       </c>
       <c r="B361" t="s">
-        <v>1135</v>
+        <v>1047</v>
       </c>
       <c r="C361" t="s">
-        <v>1029</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>615</v>
+        <v>1027</v>
       </c>
       <c r="B362" t="s">
-        <v>1134</v>
+        <v>1044</v>
       </c>
       <c r="C362" t="s">
-        <v>1030</v>
+        <v>1142</v>
+      </c>
+      <c r="E362" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>616</v>
+        <v>1028</v>
       </c>
       <c r="B363" t="s">
-        <v>1136</v>
+        <v>1038</v>
       </c>
       <c r="C363" t="s">
-        <v>1031</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>1172</v>
+        <v>1029</v>
       </c>
       <c r="B364" t="s">
-        <v>1181</v>
+        <v>1050</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>1156</v>
+        <v>1030</v>
       </c>
       <c r="B365" t="s">
-        <v>1182</v>
+        <v>1051</v>
       </c>
       <c r="C365" t="s">
-        <v>1032</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>1157</v>
+        <v>1031</v>
       </c>
       <c r="B366" t="s">
-        <v>1175</v>
+        <v>1052</v>
       </c>
       <c r="C366" t="s">
-        <v>1033</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>1158</v>
+        <v>1032</v>
       </c>
       <c r="B367" t="s">
-        <v>1180</v>
+        <v>1053</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>1159</v>
+        <v>1033</v>
       </c>
       <c r="B368" t="s">
-        <v>1176</v>
+        <v>1054</v>
       </c>
       <c r="C368" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E368" t="s">
-        <v>885</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>1160</v>
+        <v>1034</v>
       </c>
       <c r="B369" t="s">
-        <v>1170</v>
+        <v>1045</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>1161</v>
+        <v>1035</v>
       </c>
       <c r="B370" t="s">
-        <v>1183</v>
+        <v>1046</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>1162</v>
+        <v>1036</v>
       </c>
       <c r="B371" t="s">
-        <v>1184</v>
+        <v>1039</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>1163</v>
+        <v>1037</v>
       </c>
       <c r="B372" t="s">
-        <v>1185</v>
+        <v>1080</v>
       </c>
       <c r="C372" t="s">
-        <v>1035</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>1164</v>
+        <v>1081</v>
       </c>
       <c r="B373" t="s">
-        <v>1186</v>
+        <v>1082</v>
       </c>
       <c r="C373" t="s">
-        <v>1036</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>1165</v>
+        <v>580</v>
       </c>
       <c r="B374" t="s">
-        <v>1187</v>
+        <v>921</v>
       </c>
       <c r="C374" t="s">
-        <v>1037</v>
+        <v>922</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1038</v>
+        <v>581</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C376" t="s">
-        <v>898</v>
+        <v>582</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>1168</v>
+        <v>583</v>
       </c>
       <c r="B377" t="s">
-        <v>1171</v>
+        <v>1006</v>
+      </c>
+      <c r="C377" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>1169</v>
+        <v>584</v>
       </c>
       <c r="B378" t="s">
-        <v>1179</v>
+        <v>1154</v>
       </c>
       <c r="C378" t="s">
-        <v>1096</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="B379" t="s">
-        <v>663</v>
+        <v>924</v>
       </c>
       <c r="C379" t="s">
-        <v>1041</v>
+        <v>925</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="B380" t="s">
-        <v>1039</v>
+        <v>926</v>
       </c>
       <c r="C380" t="s">
-        <v>1040</v>
+        <v>927</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>619</v>
+        <v>587</v>
+      </c>
+      <c r="B381" t="s">
+        <v>928</v>
+      </c>
+      <c r="C381" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>620</v>
+        <v>588</v>
+      </c>
+      <c r="B382" t="s">
+        <v>930</v>
+      </c>
+      <c r="C382" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>621</v>
+        <v>929</v>
       </c>
       <c r="B383" t="s">
-        <v>1137</v>
+        <v>933</v>
       </c>
       <c r="C383" t="s">
-        <v>1042</v>
+        <v>934</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1045</v>
+        <v>589</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="B385" t="s">
-        <v>1044</v>
+        <v>935</v>
       </c>
       <c r="C385" t="s">
-        <v>1043</v>
+        <v>936</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="B386" t="s">
-        <v>1046</v>
+        <v>937</v>
       </c>
       <c r="C386" t="s">
-        <v>1047</v>
+        <v>938</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="B387" t="s">
-        <v>1048</v>
+        <v>593</v>
       </c>
       <c r="C387" t="s">
-        <v>1051</v>
+        <v>939</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="B388" t="s">
-        <v>1050</v>
+        <v>941</v>
       </c>
       <c r="C388" t="s">
-        <v>1052</v>
+        <v>940</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>1049</v>
+        <v>595</v>
       </c>
       <c r="B389" t="s">
-        <v>1053</v>
+        <v>942</v>
       </c>
       <c r="C389" t="s">
-        <v>1054</v>
+        <v>943</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>627</v>
+        <v>596</v>
+      </c>
+      <c r="B390" t="s">
+        <v>944</v>
+      </c>
+      <c r="C390" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>628</v>
+        <v>1156</v>
       </c>
       <c r="B391" t="s">
-        <v>1055</v>
+        <v>1157</v>
       </c>
       <c r="C391" t="s">
-        <v>1056</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="B392" t="s">
-        <v>1057</v>
+        <v>598</v>
       </c>
       <c r="C392" t="s">
-        <v>1058</v>
+        <v>946</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="B393" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="C393" t="s">
-        <v>1059</v>
+        <v>947</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>632</v>
+        <v>601</v>
       </c>
       <c r="B394" t="s">
-        <v>1061</v>
+        <v>602</v>
       </c>
       <c r="C394" t="s">
-        <v>1060</v>
+        <v>948</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="B395" t="s">
-        <v>1062</v>
+        <v>604</v>
       </c>
       <c r="C395" t="s">
-        <v>1063</v>
+        <v>949</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="B396" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C396" t="s">
-        <v>1065</v>
+        <v>605</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>635</v>
+        <v>606</v>
+      </c>
+      <c r="B397" t="s">
+        <v>607</v>
+      </c>
+      <c r="C397" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B398" t="s">
-        <v>637</v>
-      </c>
-      <c r="C398" t="s">
-        <v>1066</v>
+        <v>608</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="B399" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="C399" t="s">
-        <v>1067</v>
+        <v>951</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="B400" t="s">
-        <v>641</v>
+        <v>612</v>
       </c>
       <c r="C400" t="s">
-        <v>1068</v>
+        <v>952</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="B401" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="C401" t="s">
-        <v>1069</v>
+        <v>953</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>644</v>
+        <v>615</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="B403" t="s">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="C403" t="s">
-        <v>1070</v>
+        <v>954</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>647</v>
+        <v>618</v>
+      </c>
+      <c r="B404" t="s">
+        <v>619</v>
+      </c>
+      <c r="C404" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="B405" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="C405" t="s">
-        <v>1071</v>
+        <v>956</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="B406" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="C406" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B407" t="s">
-        <v>653</v>
-      </c>
-      <c r="C407" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B409" t="s">
-        <v>656</v>
-      </c>
-      <c r="C409" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B410" t="s">
-        <v>658</v>
-      </c>
-      <c r="C410" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B411" t="s">
-        <v>660</v>
-      </c>
-      <c r="C411" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B412" t="s">
-        <v>662</v>
-      </c>
-      <c r="C412" t="s">
-        <v>1077</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A485" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A479" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="6">
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C338:D338"/>
+    <mergeCell ref="C339:D339"/>
+    <mergeCell ref="C348:D348"/>
+    <mergeCell ref="C349:D349"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8769,12 +9025,564 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:B51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C26" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B31" t="s">
+        <v>384</v>
+      </c>
+      <c r="C31" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C32" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C33" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C34" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B35" t="s">
+        <v>392</v>
+      </c>
+      <c r="C35" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36" t="s">
+        <v>394</v>
+      </c>
+      <c r="C36" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B37" t="s">
+        <v>396</v>
+      </c>
+      <c r="C37" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C38" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B39" t="s">
+        <v>400</v>
+      </c>
+      <c r="C39" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B40" t="s">
+        <v>402</v>
+      </c>
+      <c r="C40" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41" t="s">
+        <v>404</v>
+      </c>
+      <c r="C41" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" t="s">
+        <v>406</v>
+      </c>
+      <c r="C42" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C43" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B44" t="s">
+        <v>410</v>
+      </c>
+      <c r="C44" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B45" t="s">
+        <v>412</v>
+      </c>
+      <c r="C45" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B46" t="s">
+        <v>414</v>
+      </c>
+      <c r="C46" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B47" t="s">
+        <v>416</v>
+      </c>
+      <c r="C47" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B48" t="s">
+        <v>418</v>
+      </c>
+      <c r="C48" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B50" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>426</v>
+      </c>
+      <c r="B51" t="s">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JigsawTD\JigsawTD\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0309D6-44D8-425A-A8E7-E37A5DFF2B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09118D4-0BEE-4602-B617-69FF3256B6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$479</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$491</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1322">
   <si>
     <t>SCENE1</t>
   </si>
@@ -663,24 +663,12 @@
     <t>直线型</t>
   </si>
   <si>
-    <t>TURRETSKILL</t>
-  </si>
-  <si>
-    <t>被动技能</t>
-  </si>
-  <si>
     <t>ELEMENTSKILL</t>
   </si>
   <si>
     <t>元素技能加成</t>
   </si>
   <si>
-    <t>TILESKILL</t>
-  </si>
-  <si>
-    <t>地形效果</t>
-  </si>
-  <si>
     <t>CRITICALINFO</t>
   </si>
   <si>
@@ -753,15 +741,9 @@
     <t>ELEMENTSLOT</t>
   </si>
   <si>
-    <t>元素技能</t>
-  </si>
-  <si>
     <t>TURRETLEVEL</t>
   </si>
   <si>
-    <t>防御塔等级</t>
-  </si>
-  <si>
     <t>EMPTYSKILL</t>
   </si>
   <si>
@@ -921,15 +903,9 @@
     <t>SCATTERSKILL</t>
   </si>
   <si>
-    <t>造成的伤害降低50%，但是可以额外攻击3个目标</t>
-  </si>
-  <si>
     <t>MORTARSKILL</t>
   </si>
   <si>
-    <t>子弹每有0.1溅射范围就提高10%溅射伤害</t>
-  </si>
-  <si>
     <t>RAPIDERSKILL</t>
   </si>
   <si>
@@ -951,9 +927,6 @@
     <t>ULTRASKILL</t>
   </si>
   <si>
-    <t>子弹暴击伤害增加-100%到400%的随机浮动</t>
-  </si>
-  <si>
     <t>SNOWSKILL</t>
   </si>
   <si>
@@ -975,9 +948,6 @@
     <t>SUPERSKILL</t>
   </si>
   <si>
-    <t>每回合开始30秒后，使当前所有属性值翻倍</t>
-  </si>
-  <si>
     <t>CORESKILL</t>
   </si>
   <si>
@@ -987,15 +957,9 @@
     <t>AAA</t>
   </si>
   <si>
-    <t>重金属化</t>
-  </si>
-  <si>
     <t>AAAINFO</t>
   </si>
   <si>
-    <t>使自身所有攻击加成翻倍</t>
-  </si>
-  <si>
     <t>AAB</t>
   </si>
   <si>
@@ -2153,9 +2117,6 @@
     <t>Element Skill Benefit</t>
   </si>
   <si>
-    <t>Tile Benefit</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1% extra critical damage. Defacult critical damage is 150%</t>
   </si>
   <si>
@@ -2186,12 +2147,6 @@
     <t>Relocate</t>
   </si>
   <si>
-    <t>Element Skill</t>
-  </si>
-  <si>
-    <t>Turret Level</t>
-  </si>
-  <si>
     <t>Empty slot</t>
   </si>
   <si>
@@ -2264,15 +2219,6 @@
     <t>Attack increased by 10% for each enemy in range.</t>
   </si>
   <si>
-    <t>Deals 50% less damage, but can attack an additional 3 targets.</t>
-  </si>
-  <si>
-    <t>Splash damage increased by 10% for every 0.1 splash range.</t>
-  </si>
-  <si>
-    <t>Bullet's critical damage randomly increased by -100&amp; to 400%</t>
-  </si>
-  <si>
     <t>Penetration Bullet can't splash;Bullet will double enemy's current slow.</t>
   </si>
   <si>
@@ -2285,9 +2231,6 @@
     <t>At the start of each wave, it's attack will become 70%/100%/150% of the sum of adjacent turrets.</t>
   </si>
   <si>
-    <t>Metalize</t>
-  </si>
-  <si>
     <t>Verical Strike</t>
   </si>
   <si>
@@ -2654,10 +2597,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Default Skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每1%暴击率=1%额外暴击伤害，基础暴击伤害为150%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2698,14 +2637,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Double all current stats after 30s of each wave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double all attack increased</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>When composited or equipped, randomly changed all base stats of the turret by 50% to 300%(without range)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2718,10 +2649,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Discount Tickets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用低成本材料大批量生产，防御力薄弱但是数量巨大</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2826,9 +2753,6 @@
     <t>Execution Trap</t>
   </si>
   <si>
-    <t>DAMAGETrap</t>
-  </si>
-  <si>
     <t>Damage Trap</t>
   </si>
   <si>
@@ -2842,9 +2766,6 @@
   </si>
   <si>
     <t>Enemies passing by are stunned for 0.5s, stun time increased by 0.5s for each Trap enemy passed.</t>
-  </si>
-  <si>
-    <t>DAMAGETrapINFO</t>
   </si>
   <si>
     <t>The effect of this Trap is the same as the last Trap passed by the enemy.</t>
@@ -3799,26 +3720,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加装炮口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力-30%，可额外攻击1个目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>幻化构造</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>破冰炮弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围+1，如果攻击范围大于6，则额外+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>加长炮管</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3843,239 +3748,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重型火炮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离小于3的目标时，攻速提升75%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firerate increased by 75% when target's distance is less than 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离小于3的目标时，子弹减速效果提升1.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slow increased by 1.5 when target's distance is less than 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离小于3的目标时，子弹暴击率提高50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical increased by 50% when target's distance is less than 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离小于3的目标时，子弹溅射范围提高0.75</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Splash range increased by 0.75 when target's distance is less than 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对同一目标进行攻击时，每次攻击攻速+20%，上限300%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firerate increased by 20% each shoot when it is attacking the same target(up to 300%).</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次攻击提升本回合3%攻击力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack increased by 3% each shoot.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次攻击提升本回合0.05减速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slow increased by 0.05 each shoot.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次攻击提升本回合2%暴击率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical increased by 2% each shoot.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次攻击提升本回合0.03溅射范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Splash range increased by 0.03 each shoot.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素技能槽+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turret's element skill slot + 2.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率+25%，暴击伤害增加-100%-400%的随机浮动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical + 25%, Bullet's critical damage randomly increased by -100&amp; to 400%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不稳定轴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速+0.5，防御塔减速在25%-250%之间随机浮动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slow + 0.5, Turret's slow fluctuates between 25% and 250%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>溅射+0.25，防御塔溅射在25%-250%之间随机浮动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Splash + 0.25, Turret's splash fluctuates between 25% and 250%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围内每有1个敌人，溅射+0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Splash increased by 0.2 for each enemy in range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始前20秒，攻击力提升150%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turret's attack increased by 150% before 20 seconds of each wave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始前20秒，攻速提升150%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turret's firerate increased by 150% before 20 seconds of each wave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始前20秒，减速提升4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turret's slow increased by 4 before 20 seconds of each wave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始前20秒，暴击率提升100%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turret's splash increased by 100% before 20 seconds of each wave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合开始后，攻击力每秒提升2%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合开始后，攻速每秒提升2%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack increases by 2% per second after the start of each wave.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firerate increases by 2% per second after the start of each wave.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合开始后，暴击率每秒提升1.5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical increases by 1.5% per second after the start of each wave.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合开始后，溅射范围每秒提升0.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Splash range increases by 0.02 per second after the start of each wave.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对剩余生命值大于50%的敌人造成的伤害提高50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Great Bombard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage increased by 50% if target has more than 50% Health</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice Shell</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对处于减速状态的敌人造成的伤害提高50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage increased by 50% if target is slowing down</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range +1, and +2 if range is greater than 6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>This turret will not be frozen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>The bullet has an 8% chance of getting 2 coin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊喜奖券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supprise Lottery</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块构建费用降低50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reduce the cost of building module by 50%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4100,11 +3777,699 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Attack-30%, attack an additional target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>This turret's upgrade cost reduced by 50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSTRUCTORSN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCATTERSN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORTARSN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROTARYSN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPERSN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULTRASN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAPIDERSN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNOWSN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOPORATIVESN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOMERRANGSN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPERSN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORESN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦测打击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散射攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚能转轴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让子弹飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超限暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚焦打击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜冻反制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协同作战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能回旋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素超载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量聚合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detect Strike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Shot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center Bombing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心轰炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shaped Shaft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let the bullets fly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfinite Crit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focus Strike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter Frost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooperative Combat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kinetic Rotary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemental Overload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Aggregation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战速击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close Frost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战霜冻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战溅射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close Crit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close Splash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重金基座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，每拥有3个元素就获得+1攻击距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal Base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>At the start of each wave, gain+1 attack range for every 3 elements it has</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累加效应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Additive Effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强攻子弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Bullet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜冻子弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frost Bullet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击子弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crit Bullet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅射子弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash Bullet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜原子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element skill slot + 2, each turret can equip with only one Frost Core</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frost Core</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄能强攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄能速击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attck Accumulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firerate Accumulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄能暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frost Accumulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄能溅射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash Accumulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上帝骰子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>God's Dice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，获得3个临时元素并重新随机所有元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>At the start of each wave, gain 3 elements and randomly change all elements this turn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，每拥有4个元素就攻击1个额外的目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>At the start of each wave, attack 1 additional target this turn for every 4 elements it has</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程强攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-distance Attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程速击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-distance Firerate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程霜冻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-distance Frost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程溅射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long-distance Splash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，使拥有的数量最少的所有元素数量+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平等主义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egalitarianism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>At the start of each wave, the fewest elements it has gain +2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期强攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapid Attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期速击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close Firerate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapid Firerate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期霜冻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapid Slow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapid Crit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装赠品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gift of Modify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对剩余生命值低于25%的敌人造成的伤害提高50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点打击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weakness Strike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage increased by 50% if target's Health is less than 25%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加的冻结层数提高100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温改造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frost Transformation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increased the frost effect applied by 100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击造成的减速及溅射范围翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double the slow and splash range if it is a critical hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强势打击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powerful Blow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素技能槽+1，每拥有1个元素造成的伤害就提升10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element skill slot +1, deal 10% extra damage for each element it has</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet's critical damage randomly float between 25% to 250%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹的最终暴击伤害在25%到250%之间随机浮动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每溅射到1个目标，就使溅射伤害提高10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash damage increased by 10% for each enemy it hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害降低50%，但是可以额外攻击2个目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals 50% less damage, but can attack an additional 2 targets.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOLLOW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firerate increased by {0} if target's distance is less than 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow increased by {0} if target's distance is less than 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical damage increased by {0} if target's distance is less than 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash range increased by {0} if target's distance is less than 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (随&lt;sprite={0}&gt;数量提升)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Increased with the amount of &lt;sprite={0}&gt;)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack increased by {0} each shoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow increased by {0} each shoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击后，提升{0}的暴击伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical damage increased by {0} each shoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash range increased by {0} each shoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始后，每秒提升{0}攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击后，提升{0}溅射范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击后，提升{0}减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次攻击后，提升{0}攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标距离小于3时，提升{0}溅射范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标距离小于3时，提升{0}暴击伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标距离小于3时，提升{0}攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标距离小于3时，提升{0}减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack increased by {0} every second from the start of each wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始后，每秒提升{0}的攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firerate increased by {0} every second from the start of each wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始后，每秒提升{0}的暴击伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical damage increased by {0} every second from the start of each wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始后，每秒提升{0}的溅射范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash range increased by {0} every second from the start of each wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始前20秒，提升{0}攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>During the first 20 seconds of each wave, attack increased by {0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始前20秒，提升{0}攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>During the first 20 seconds of each wave, firerate increased by {0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始前20秒，提升{0}的攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始前20秒，提升{0}的暴击伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>During the first 20 seconds of each wave, critical damage increased by {0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果目标距离大于3，则距离每远1格，就提升{0}攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果目标距离大于3，则距离每远1格，就提升{0}攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果目标距离大于3，则距离每远1格，就提升{0}减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果目标距离大于3，则距离每远1格，就提升{0}溅射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If target's distance is lager than 3, attack increased by {0} for each tile distance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If target's distance is lager than 3, firerate increased by {0} for each tile distance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If target's distance is lager than 3, slow increased by {0} for each tile distance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If target's distance is lager than 3, splash range increased by {0} for each tile distance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>At the start of each wave, gain +1 random element for each element skill it has</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，每装载1个元素技能，就获得1个随机临时元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素技能槽+2（每个重构塔技能槽上限为5）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGETRAP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGETRAPINFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围+1，如果攻击范围大于等于6，则额外+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range +1, and +2 if range is greater than or equal to 6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4554,10 +4919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E406"/>
+  <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="C248" sqref="C248"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4570,13 +4935,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B1" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C1" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4609,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>958</v>
+        <v>933</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4620,7 +4985,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4653,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4664,7 +5029,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4675,7 +5040,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4686,7 +5051,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>963</v>
+        <v>938</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4697,7 +5062,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>962</v>
+        <v>937</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4708,7 +5073,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4719,7 +5084,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4730,7 +5095,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4741,7 +5106,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4752,7 +5117,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4763,7 +5128,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4774,7 +5139,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4785,7 +5150,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>964</v>
+        <v>939</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4796,7 +5161,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4807,7 +5172,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4818,7 +5183,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4829,7 +5194,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4840,7 +5205,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4851,18 +5216,18 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>993</v>
+        <v>968</v>
       </c>
       <c r="B27" t="s">
-        <v>994</v>
+        <v>969</v>
       </c>
       <c r="C27" t="s">
-        <v>995</v>
+        <v>970</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4873,7 +5238,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4884,18 +5249,18 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>961</v>
+        <v>936</v>
       </c>
       <c r="B30" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="C30" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4917,7 +5282,7 @@
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4928,7 +5293,7 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4939,7 +5304,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4950,7 +5315,7 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4961,7 +5326,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4972,7 +5337,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4983,7 +5348,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4994,7 +5359,7 @@
         <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5005,7 +5370,7 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5016,7 +5381,7 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5027,7 +5392,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5038,7 +5403,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5046,21 +5411,21 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>969</v>
+        <v>944</v>
       </c>
       <c r="C44" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>967</v>
+        <v>942</v>
       </c>
       <c r="B45" t="s">
-        <v>970</v>
+        <v>945</v>
       </c>
       <c r="C45" t="s">
-        <v>968</v>
+        <v>943</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5071,7 +5436,7 @@
         <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5082,7 +5447,7 @@
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5093,7 +5458,7 @@
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5104,7 +5469,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5115,7 +5480,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5137,7 +5502,7 @@
         <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5148,7 +5513,7 @@
         <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5159,7 +5524,7 @@
         <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5170,7 +5535,7 @@
         <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5189,7 +5554,7 @@
         <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5197,10 +5562,10 @@
         <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="C58" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5208,10 +5573,10 @@
         <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>1020</v>
+        <v>995</v>
       </c>
       <c r="C59" t="s">
-        <v>1229</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5219,10 +5584,10 @@
         <v>105</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1021</v>
+        <v>996</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1230</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5230,10 +5595,10 @@
         <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1055</v>
+        <v>1030</v>
       </c>
       <c r="C61" t="s">
-        <v>1231</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5241,10 +5606,10 @@
         <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>1056</v>
+        <v>1031</v>
       </c>
       <c r="C62" t="s">
-        <v>1233</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5252,10 +5617,10 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>1057</v>
+        <v>1032</v>
       </c>
       <c r="C63" t="s">
-        <v>1232</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5263,10 +5628,10 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>1058</v>
+        <v>1033</v>
       </c>
       <c r="C64" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5274,10 +5639,10 @@
         <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>1059</v>
+        <v>1034</v>
       </c>
       <c r="C65" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5288,7 +5653,7 @@
         <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5318,10 +5683,10 @@
         <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>972</v>
+        <v>947</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5329,21 +5694,21 @@
         <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>1022</v>
+        <v>997</v>
       </c>
       <c r="B71" t="s">
-        <v>1023</v>
+        <v>998</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1084</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5351,10 +5716,10 @@
         <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="C72" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5362,10 +5727,10 @@
         <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="C73" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5373,21 +5738,21 @@
         <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="C74" t="s">
-        <v>1089</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="B75" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="C75" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5395,10 +5760,10 @@
         <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="C76" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5409,7 +5774,7 @@
         <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5420,7 +5785,7 @@
         <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5428,10 +5793,10 @@
         <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="C79" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5439,43 +5804,43 @@
         <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="C80" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="B81" t="s">
-        <v>978</v>
+        <v>953</v>
       </c>
       <c r="C81" t="s">
-        <v>979</v>
+        <v>954</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>976</v>
+        <v>951</v>
       </c>
       <c r="B82" t="s">
-        <v>977</v>
+        <v>952</v>
       </c>
       <c r="C82" t="s">
-        <v>980</v>
+        <v>955</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>985</v>
+        <v>960</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5483,10 +5848,10 @@
         <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>1086</v>
+        <v>1061</v>
       </c>
       <c r="C84" t="s">
-        <v>1090</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5494,10 +5859,10 @@
         <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="C85" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5508,7 +5873,7 @@
         <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5519,7 +5884,7 @@
         <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5530,7 +5895,7 @@
         <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5541,139 +5906,139 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C90" t="s">
         <v>1069</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C91" t="s">
         <v>1070</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C92" t="s">
         <v>1071</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C93" t="s">
         <v>1072</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C94" t="s">
         <v>1073</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="B95" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="C95" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>996</v>
+        <v>971</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1099</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1100</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>1061</v>
+        <v>1036</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1066</v>
+        <v>1041</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1101</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1102</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1103</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>1064</v>
+        <v>1039</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1104</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5681,10 +6046,10 @@
         <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>1087</v>
+        <v>1062</v>
       </c>
       <c r="C102" t="s">
-        <v>1091</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5695,7 +6060,7 @@
         <v>141</v>
       </c>
       <c r="C103" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5703,10 +6068,10 @@
         <v>142</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1019</v>
+        <v>994</v>
       </c>
       <c r="C104" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5717,7 +6082,7 @@
         <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5725,10 +6090,10 @@
         <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="C106" t="s">
-        <v>1092</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5739,7 +6104,7 @@
         <v>147</v>
       </c>
       <c r="C107" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5750,7 +6115,7 @@
         <v>149</v>
       </c>
       <c r="C108" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5761,7 +6126,7 @@
         <v>151</v>
       </c>
       <c r="C109" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5772,7 +6137,7 @@
         <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5783,7 +6148,7 @@
         <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5794,7 +6159,7 @@
         <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5805,7 +6170,7 @@
         <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5816,7 +6181,7 @@
         <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>971</v>
+        <v>946</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5827,7 +6192,7 @@
         <v>163</v>
       </c>
       <c r="C115" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5838,7 +6203,7 @@
         <v>165</v>
       </c>
       <c r="C116" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5849,7 +6214,7 @@
         <v>167</v>
       </c>
       <c r="C117" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5860,7 +6225,7 @@
         <v>169</v>
       </c>
       <c r="C118" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5871,7 +6236,7 @@
         <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5882,7 +6247,7 @@
         <v>173</v>
       </c>
       <c r="C120" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5893,7 +6258,7 @@
         <v>175</v>
       </c>
       <c r="C121" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5904,7 +6269,7 @@
         <v>177</v>
       </c>
       <c r="C122" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5915,18 +6280,18 @@
         <v>179</v>
       </c>
       <c r="C123" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>965</v>
+        <v>940</v>
       </c>
       <c r="B124" t="s">
-        <v>966</v>
+        <v>941</v>
       </c>
       <c r="C124" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5937,7 +6302,7 @@
         <v>181</v>
       </c>
       <c r="C125" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5948,7 +6313,7 @@
         <v>183</v>
       </c>
       <c r="C126" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5959,7 +6324,7 @@
         <v>185</v>
       </c>
       <c r="C127" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5970,7 +6335,7 @@
         <v>187</v>
       </c>
       <c r="C128" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5981,7 +6346,7 @@
         <v>189</v>
       </c>
       <c r="C129" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5992,7 +6357,7 @@
         <v>191</v>
       </c>
       <c r="C130" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6003,7 +6368,7 @@
         <v>193</v>
       </c>
       <c r="C131" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6014,7 +6379,7 @@
         <v>195</v>
       </c>
       <c r="C132" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6025,7 +6390,7 @@
         <v>197</v>
       </c>
       <c r="C133" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6036,7 +6401,7 @@
         <v>199</v>
       </c>
       <c r="C134" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6047,7 +6412,7 @@
         <v>201</v>
       </c>
       <c r="C135" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6058,7 +6423,7 @@
         <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6069,7 +6434,7 @@
         <v>205</v>
       </c>
       <c r="C137" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6080,7 +6445,7 @@
         <v>207</v>
       </c>
       <c r="C138" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6091,7 +6456,7 @@
         <v>209</v>
       </c>
       <c r="C139" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6102,2920 +6467,3052 @@
         <v>211</v>
       </c>
       <c r="C140" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>212</v>
+        <v>1187</v>
       </c>
       <c r="B141" t="s">
-        <v>213</v>
+        <v>1189</v>
       </c>
       <c r="C141" t="s">
-        <v>866</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C142" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>216</v>
+        <v>1273</v>
       </c>
       <c r="B143" t="s">
-        <v>217</v>
+        <v>1278</v>
       </c>
       <c r="C143" t="s">
-        <v>708</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B144" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="C144" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B145" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C145" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B146" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C146" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B147" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C147" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B148" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C148" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B149" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C149" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B150" t="s">
         <v>203</v>
       </c>
       <c r="C150" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B151" t="s">
         <v>205</v>
       </c>
       <c r="C151" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B152" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C152" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C153" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B154" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C154" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B155" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C155" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C156" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B157" t="s">
-        <v>242</v>
+        <v>1190</v>
       </c>
       <c r="C157" t="s">
-        <v>719</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B158" t="s">
-        <v>244</v>
+        <v>1150</v>
       </c>
       <c r="C158" t="s">
-        <v>720</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B159" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C159" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B160" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C160" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B161" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C161" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B162" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C162" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B163" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C163" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B164" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C164" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B165" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C165" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B166" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C166" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C167" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="E167" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C168" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C169" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B170" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C170" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B171" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C171" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C172" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C173" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B174" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C174" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>959</v>
+        <v>934</v>
       </c>
       <c r="B175" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="C175" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B176" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C176" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C177" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B178" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C178" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B179" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C179" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B180" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C180" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B181" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C181" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B182" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C182" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B183" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C183" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B184" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C184" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>295</v>
+        <v>1151</v>
       </c>
       <c r="B185" t="s">
-        <v>296</v>
+        <v>1163</v>
       </c>
       <c r="C185" t="s">
-        <v>744</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>297</v>
+        <v>1152</v>
       </c>
       <c r="B186" t="s">
-        <v>298</v>
+        <v>1164</v>
       </c>
       <c r="C186" t="s">
-        <v>745</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>299</v>
+        <v>1153</v>
       </c>
       <c r="B187" t="s">
-        <v>300</v>
+        <v>1177</v>
       </c>
       <c r="C187" t="s">
-        <v>746</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>301</v>
+        <v>1154</v>
       </c>
       <c r="B188" t="s">
-        <v>302</v>
+        <v>1165</v>
       </c>
       <c r="C188" t="s">
-        <v>874</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>303</v>
+        <v>1155</v>
       </c>
       <c r="B189" t="s">
-        <v>304</v>
+        <v>1166</v>
       </c>
       <c r="C189" t="s">
-        <v>875</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>305</v>
+        <v>1156</v>
       </c>
       <c r="B190" t="s">
-        <v>306</v>
+        <v>1167</v>
       </c>
       <c r="C190" t="s">
-        <v>876</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>307</v>
+        <v>1157</v>
       </c>
       <c r="B191" t="s">
-        <v>308</v>
+        <v>1168</v>
       </c>
       <c r="C191" t="s">
-        <v>747</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>309</v>
+        <v>1158</v>
       </c>
       <c r="B192" t="s">
-        <v>310</v>
+        <v>1169</v>
       </c>
       <c r="C192" t="s">
-        <v>748</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>311</v>
+        <v>1159</v>
       </c>
       <c r="B193" t="s">
-        <v>312</v>
+        <v>1170</v>
       </c>
       <c r="C193" t="s">
-        <v>749</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>313</v>
+        <v>1160</v>
       </c>
       <c r="B194" t="s">
-        <v>314</v>
+        <v>1171</v>
       </c>
       <c r="C194" t="s">
-        <v>750</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>315</v>
+        <v>1161</v>
       </c>
       <c r="B195" t="s">
-        <v>316</v>
+        <v>1172</v>
       </c>
       <c r="C195" t="s">
-        <v>877</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>317</v>
+        <v>1162</v>
       </c>
       <c r="B196" t="s">
-        <v>318</v>
+        <v>1173</v>
       </c>
       <c r="C196" t="s">
-        <v>751</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B197" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C197" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B198" t="s">
-        <v>322</v>
+        <v>1271</v>
       </c>
       <c r="C198" t="s">
-        <v>878</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="B199" t="s">
-        <v>344</v>
+        <v>1269</v>
       </c>
       <c r="C199" t="s">
-        <v>763</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="B200" t="s">
-        <v>1181</v>
+        <v>294</v>
       </c>
       <c r="C200" t="s">
-        <v>1182</v>
+        <v>854</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="B201" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="C201" t="s">
-        <v>773</v>
+        <v>855</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="B202" t="s">
-        <v>1208</v>
+        <v>298</v>
       </c>
       <c r="C202" t="s">
-        <v>1210</v>
+        <v>856</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="B203" t="s">
-        <v>384</v>
+        <v>1268</v>
       </c>
       <c r="C203" t="s">
-        <v>880</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="B204" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="C204" t="s">
-        <v>881</v>
+        <v>730</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="B205" t="s">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="C205" t="s">
-        <v>790</v>
+        <v>731</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B206" t="s">
-        <v>1200</v>
+        <v>305</v>
       </c>
       <c r="C206" t="s">
-        <v>1201</v>
+        <v>732</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B207" t="s">
-        <v>340</v>
+        <v>1265</v>
       </c>
       <c r="C207" t="s">
-        <v>761</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="B208" t="s">
-        <v>1179</v>
+        <v>308</v>
       </c>
       <c r="C208" t="s">
-        <v>1180</v>
+        <v>733</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B209" t="s">
-        <v>324</v>
+        <v>1199</v>
       </c>
       <c r="C209" t="s">
-        <v>753</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="B210" t="s">
-        <v>1171</v>
+        <v>1200</v>
       </c>
       <c r="C210" t="s">
-        <v>1172</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="B211" t="s">
-        <v>368</v>
+        <v>1192</v>
       </c>
       <c r="C211" t="s">
-        <v>775</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="B212" t="s">
-        <v>1209</v>
+        <v>1291</v>
       </c>
       <c r="C212" t="s">
-        <v>1211</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="B213" t="s">
-        <v>388</v>
+        <v>1194</v>
       </c>
       <c r="C213" t="s">
-        <v>782</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
-        <v>390</v>
+        <v>1292</v>
       </c>
       <c r="C214" t="s">
-        <v>783</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="B215" t="s">
-        <v>408</v>
+        <v>1195</v>
       </c>
       <c r="C215" t="s">
-        <v>792</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="B216" t="s">
-        <v>1202</v>
+        <v>1290</v>
       </c>
       <c r="C216" t="s">
-        <v>1203</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="B217" t="s">
-        <v>360</v>
+        <v>1196</v>
       </c>
       <c r="C217" t="s">
-        <v>771</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="B218" t="s">
-        <v>1189</v>
+        <v>1289</v>
       </c>
       <c r="C218" t="s">
-        <v>1190</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="B219" t="s">
-        <v>328</v>
+        <v>1203</v>
       </c>
       <c r="C219" t="s">
-        <v>755</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="B220" t="s">
-        <v>1173</v>
+        <v>1228</v>
       </c>
       <c r="C220" t="s">
-        <v>1174</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B221" t="s">
-        <v>348</v>
+        <v>1205</v>
       </c>
       <c r="C221" t="s">
-        <v>765</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="B222" t="s">
-        <v>1183</v>
+        <v>1288</v>
       </c>
       <c r="C222" t="s">
-        <v>1184</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="B223" t="s">
-        <v>392</v>
+        <v>1207</v>
       </c>
       <c r="C223" t="s">
-        <v>784</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="B224" t="s">
-        <v>1194</v>
+        <v>1287</v>
       </c>
       <c r="C224" t="s">
-        <v>1195</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="B225" t="s">
-        <v>412</v>
+        <v>1209</v>
       </c>
       <c r="C225" t="s">
-        <v>794</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="B226" t="s">
-        <v>1204</v>
+        <v>1282</v>
       </c>
       <c r="C226" t="s">
-        <v>1205</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="B227" t="s">
-        <v>380</v>
+        <v>1211</v>
       </c>
       <c r="C227" t="s">
-        <v>781</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B228" t="s">
-        <v>1191</v>
+        <v>1286</v>
       </c>
       <c r="C228" t="s">
-        <v>1192</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="B229" t="s">
-        <v>1193</v>
+        <v>1213</v>
       </c>
       <c r="C229" t="s">
-        <v>757</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="B230" t="s">
-        <v>1175</v>
+        <v>1317</v>
       </c>
       <c r="C230" t="s">
-        <v>1176</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="B231" t="s">
-        <v>352</v>
+        <v>1216</v>
       </c>
       <c r="C231" t="s">
-        <v>767</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="B232" t="s">
-        <v>1185</v>
+        <v>1285</v>
       </c>
       <c r="C232" t="s">
-        <v>1186</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="B233" t="s">
-        <v>372</v>
+        <v>1217</v>
       </c>
       <c r="C233" t="s">
-        <v>777</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="B234" t="s">
-        <v>1212</v>
+        <v>1294</v>
       </c>
       <c r="C234" t="s">
-        <v>1213</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="B235" t="s">
-        <v>416</v>
+        <v>1220</v>
       </c>
       <c r="C235" t="s">
-        <v>796</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="B236" t="s">
-        <v>1206</v>
+        <v>1296</v>
       </c>
       <c r="C236" t="s">
-        <v>1207</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="B237" t="s">
-        <v>400</v>
+        <v>1222</v>
       </c>
       <c r="C237" t="s">
-        <v>788</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="B238" t="s">
-        <v>1198</v>
+        <v>1298</v>
       </c>
       <c r="C238" t="s">
-        <v>1199</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="B239" t="s">
-        <v>336</v>
+        <v>1224</v>
       </c>
       <c r="C239" t="s">
-        <v>759</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="B240" t="s">
-        <v>1177</v>
+        <v>1226</v>
       </c>
       <c r="C240" t="s">
-        <v>1178</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B241" t="s">
-        <v>356</v>
+        <v>1230</v>
       </c>
       <c r="C241" t="s">
-        <v>769</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="B242" t="s">
-        <v>1187</v>
+        <v>1307</v>
       </c>
       <c r="C242" t="s">
-        <v>1188</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="B243" t="s">
-        <v>376</v>
+        <v>1232</v>
       </c>
       <c r="C243" t="s">
-        <v>779</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="B244" t="s">
-        <v>1214</v>
+        <v>1308</v>
       </c>
       <c r="C244" t="s">
-        <v>1215</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="B245" t="s">
-        <v>396</v>
+        <v>1234</v>
       </c>
       <c r="C245" t="s">
-        <v>786</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="B246" t="s">
-        <v>1196</v>
+        <v>1309</v>
       </c>
       <c r="C246" t="s">
-        <v>1197</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="B247" t="s">
-        <v>420</v>
+        <v>1236</v>
       </c>
       <c r="C247" t="s">
-        <v>798</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="B248" t="s">
-        <v>422</v>
+        <v>1310</v>
       </c>
       <c r="C248" t="s">
-        <v>1235</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>424</v>
+        <v>387</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1239</v>
       </c>
       <c r="C249" t="s">
-        <v>799</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="B250" t="s">
-        <v>426</v>
+        <v>1238</v>
       </c>
       <c r="C250" t="s">
-        <v>800</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>1159</v>
+        <v>391</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1242</v>
       </c>
       <c r="C251" t="s">
-        <v>882</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="B252" t="s">
-        <v>1160</v>
+        <v>1300</v>
       </c>
       <c r="C252" t="s">
-        <v>1234</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>1170</v>
+        <v>395</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1244</v>
       </c>
       <c r="C253" t="s">
-        <v>1217</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="B254" t="s">
-        <v>1216</v>
+        <v>1302</v>
       </c>
       <c r="C254" t="s">
-        <v>1218</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>1162</v>
+        <v>399</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1247</v>
       </c>
       <c r="C255" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="B256" t="s">
-        <v>1220</v>
+        <v>1304</v>
       </c>
       <c r="C256" t="s">
-        <v>1221</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="B257" t="s">
-        <v>1161</v>
+        <v>1249</v>
       </c>
       <c r="C257" t="s">
-        <v>1093</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="B258" t="s">
-        <v>435</v>
+        <v>1305</v>
       </c>
       <c r="C258" t="s">
-        <v>801</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>1164</v>
+        <v>407</v>
+      </c>
+      <c r="B259" t="s">
+        <v>408</v>
       </c>
       <c r="C259" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="B260" t="s">
-        <v>1163</v>
+        <v>410</v>
       </c>
       <c r="C260" t="s">
-        <v>1222</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1166</v>
+        <v>412</v>
       </c>
       <c r="C261" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="B262" t="s">
-        <v>1168</v>
+        <v>414</v>
       </c>
       <c r="C262" t="s">
-        <v>1223</v>
+        <v>781</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1169</v>
+        <v>1251</v>
       </c>
       <c r="C263" t="s">
-        <v>1167</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="B264" t="s">
-        <v>1165</v>
+        <v>1316</v>
       </c>
       <c r="C264" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>1225</v>
+        <v>417</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>1254</v>
       </c>
       <c r="C265" t="s">
-        <v>1226</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="B266" t="s">
-        <v>1227</v>
+        <v>1253</v>
       </c>
       <c r="C266" t="s">
-        <v>1228</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B267" t="s">
-        <v>445</v>
+        <v>419</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>1135</v>
       </c>
       <c r="C267" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="B268" t="s">
-        <v>447</v>
+        <v>1320</v>
       </c>
       <c r="C268" t="s">
-        <v>805</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="B269" t="s">
-        <v>449</v>
+        <v>1134</v>
       </c>
       <c r="C269" t="s">
-        <v>806</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="B270" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="C270" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B271" t="s">
-        <v>453</v>
+        <v>424</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>1137</v>
       </c>
       <c r="C271" t="s">
-        <v>808</v>
+        <v>784</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="B272" t="s">
-        <v>455</v>
+        <v>1139</v>
       </c>
       <c r="C272" t="s">
-        <v>809</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B273" t="s">
-        <v>457</v>
+        <v>426</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>1258</v>
       </c>
       <c r="C273" t="s">
-        <v>810</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="B274" t="s">
-        <v>883</v>
+        <v>1257</v>
       </c>
       <c r="C274" t="s">
-        <v>884</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B275" t="s">
-        <v>885</v>
+        <v>428</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>1140</v>
       </c>
       <c r="C275" t="s">
-        <v>886</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="B276" t="s">
-        <v>887</v>
+        <v>1136</v>
       </c>
       <c r="C276" t="s">
-        <v>888</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B277" t="s">
-        <v>889</v>
+        <v>430</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>1263</v>
       </c>
       <c r="C277" t="s">
-        <v>811</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="B278" t="s">
-        <v>890</v>
+        <v>1261</v>
       </c>
       <c r="C278" t="s">
-        <v>891</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="B279" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="C279" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="B280" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="C280" t="s">
-        <v>892</v>
+        <v>786</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="B281" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="C281" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="B282" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="C282" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="B283" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="C283" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="B284" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="C284" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="B285" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="C285" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="B286" t="s">
-        <v>478</v>
+        <v>860</v>
       </c>
       <c r="C286" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="B287" t="s">
-        <v>480</v>
+        <v>862</v>
       </c>
       <c r="C287" t="s">
-        <v>819</v>
+        <v>863</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="B288" t="s">
-        <v>482</v>
+        <v>864</v>
       </c>
       <c r="C288" t="s">
-        <v>820</v>
+        <v>865</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="B289" t="s">
-        <v>484</v>
+        <v>866</v>
       </c>
       <c r="C289" t="s">
-        <v>821</v>
+        <v>792</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="B290" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="C290" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="B291" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="C291" t="s">
-        <v>822</v>
+        <v>793</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="B292" t="s">
-        <v>895</v>
+        <v>454</v>
       </c>
       <c r="C292" t="s">
-        <v>896</v>
+        <v>869</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="B293" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="C293" t="s">
-        <v>823</v>
+        <v>794</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="B294" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="C294" t="s">
-        <v>897</v>
+        <v>795</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="B295" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="C295" t="s">
-        <v>898</v>
+        <v>796</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="B296" t="s">
-        <v>899</v>
+        <v>462</v>
       </c>
       <c r="C296" t="s">
-        <v>900</v>
+        <v>797</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="B297" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="C297" t="s">
-        <v>901</v>
+        <v>798</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="B298" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="C298" t="s">
-        <v>902</v>
+        <v>799</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="B299" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="C299" t="s">
-        <v>824</v>
+        <v>800</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="B300" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="C300" t="s">
-        <v>825</v>
+        <v>801</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B301" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="C301" t="s">
-        <v>903</v>
+        <v>802</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="B302" t="s">
-        <v>507</v>
+        <v>870</v>
       </c>
       <c r="C302" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="B303" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="C303" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="B304" t="s">
-        <v>511</v>
+        <v>872</v>
       </c>
       <c r="C304" t="s">
-        <v>905</v>
+        <v>873</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="B305" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="C305" t="s">
-        <v>907</v>
+        <v>804</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B306" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="C306" t="s">
-        <v>908</v>
+        <v>874</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="B307" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="C307" t="s">
-        <v>909</v>
+        <v>875</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>910</v>
+        <v>483</v>
       </c>
       <c r="B308" t="s">
-        <v>518</v>
+        <v>876</v>
       </c>
       <c r="C308" t="s">
-        <v>911</v>
+        <v>877</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="B309" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="C309" t="s">
-        <v>912</v>
+        <v>878</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="B310" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="C310" t="s">
-        <v>913</v>
+        <v>879</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="B311" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="C311" t="s">
-        <v>914</v>
+        <v>805</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="B312" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="C312" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="B313" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="C313" t="s">
-        <v>828</v>
+        <v>880</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="B314" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="C314" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="B315" t="s">
-        <v>532</v>
+        <v>497</v>
       </c>
       <c r="C315" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="B316" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="C316" t="s">
-        <v>831</v>
+        <v>882</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="B317" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
       <c r="C317" t="s">
-        <v>832</v>
+        <v>884</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="B318" t="s">
-        <v>918</v>
+        <v>503</v>
       </c>
       <c r="C318" t="s">
-        <v>919</v>
+        <v>885</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="B319" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="C319" t="s">
-        <v>917</v>
+        <v>886</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>540</v>
+        <v>1318</v>
       </c>
       <c r="B320" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="C320" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>916</v>
+        <v>507</v>
       </c>
       <c r="B321" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="C321" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="B322" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="C322" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="B323" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="C323" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="B324" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="C324" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="B325" t="s">
-        <v>973</v>
+        <v>516</v>
       </c>
       <c r="C325" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="B326" t="s">
-        <v>974</v>
+        <v>518</v>
       </c>
       <c r="C326" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="B327" t="s">
-        <v>981</v>
+        <v>520</v>
       </c>
       <c r="C327" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="B328" t="s">
-        <v>997</v>
+        <v>522</v>
       </c>
       <c r="C328" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="B329" t="s">
-        <v>1107</v>
+        <v>524</v>
       </c>
       <c r="C329" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="B330" t="s">
-        <v>983</v>
+        <v>893</v>
       </c>
       <c r="C330" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="B331" t="s">
-        <v>982</v>
+        <v>527</v>
       </c>
       <c r="C331" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="B332" t="s">
-        <v>986</v>
+        <v>529</v>
       </c>
       <c r="C332" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>557</v>
+        <v>1319</v>
       </c>
       <c r="B333" t="s">
-        <v>1009</v>
+        <v>530</v>
       </c>
       <c r="C333" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="B334" t="s">
-        <v>988</v>
+        <v>532</v>
       </c>
       <c r="C334" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="B335" t="s">
-        <v>984</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D335" s="6"/>
-    </row>
-    <row r="336" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="C335" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="B336" t="s">
-        <v>1010</v>
+        <v>536</v>
       </c>
       <c r="C336" t="s">
-        <v>1115</v>
+        <v>818</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="B337" t="s">
-        <v>1015</v>
+        <v>948</v>
       </c>
       <c r="C337" t="s">
-        <v>1116</v>
+        <v>895</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>1013</v>
+        <v>538</v>
       </c>
       <c r="B338" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C338" s="7" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D338" s="7"/>
+        <v>949</v>
+      </c>
+      <c r="C338" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="339" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>1014</v>
+        <v>539</v>
       </c>
       <c r="B339" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C339" s="7" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D339" s="7"/>
+        <v>956</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1080</v>
+      </c>
     </row>
     <row r="340" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="B340" t="s">
-        <v>1016</v>
+        <v>972</v>
       </c>
       <c r="C340" t="s">
-        <v>1119</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="B341" t="s">
-        <v>1017</v>
+        <v>1082</v>
       </c>
       <c r="C341" t="s">
-        <v>1120</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="B342" t="s">
-        <v>1018</v>
+        <v>958</v>
       </c>
       <c r="C342" t="s">
-        <v>1121</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="B343" t="s">
-        <v>1008</v>
+        <v>957</v>
       </c>
       <c r="C343" t="s">
-        <v>1122</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="B344" t="s">
-        <v>991</v>
+        <v>961</v>
       </c>
       <c r="C344" t="s">
-        <v>1123</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="B345" t="s">
-        <v>1124</v>
+        <v>984</v>
       </c>
       <c r="C345" t="s">
-        <v>1125</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="B346" t="s">
-        <v>1002</v>
+        <v>963</v>
       </c>
       <c r="C346" t="s">
-        <v>1126</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="B347" t="s">
-        <v>989</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1127</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D347" s="6"/>
     </row>
     <row r="348" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="B348" t="s">
-        <v>990</v>
-      </c>
-      <c r="C348" s="6" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D348" s="6"/>
+        <v>985</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="349" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="B349" t="s">
-        <v>999</v>
-      </c>
-      <c r="C349" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D349" s="6"/>
+        <v>990</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1091</v>
+      </c>
     </row>
     <row r="350" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>572</v>
+        <v>988</v>
       </c>
       <c r="B350" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C350" s="6" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D350" s="6"/>
+        <v>986</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D350" s="7"/>
     </row>
     <row r="351" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>573</v>
+        <v>989</v>
       </c>
       <c r="B351" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1131</v>
-      </c>
+        <v>987</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D351" s="7"/>
     </row>
     <row r="352" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="B352" t="s">
+        <v>991</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B353" t="s">
+        <v>992</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B354" t="s">
+        <v>993</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B355" t="s">
+        <v>983</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B356" t="s">
+        <v>966</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B358" t="s">
+        <v>977</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B359" t="s">
+        <v>964</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B360" t="s">
+        <v>965</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D360" s="6"/>
+    </row>
+    <row r="361" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B361" t="s">
+        <v>974</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D361" s="6"/>
+    </row>
+    <row r="362" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B362" t="s">
+        <v>975</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D362" s="6"/>
+    </row>
+    <row r="363" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B363" t="s">
+        <v>976</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B364" t="s">
+        <v>982</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B367" t="s">
+        <v>979</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B368" t="s">
+        <v>978</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B369" t="s">
+        <v>980</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E374" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="C352" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E362" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="2" t="s">
+      <c r="B379" t="s">
         <v>1028</v>
       </c>
-      <c r="B363" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="2" t="s">
+      <c r="C379" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B380" t="s">
         <v>1029</v>
       </c>
-      <c r="B364" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B374" t="s">
-        <v>921</v>
-      </c>
-      <c r="C374" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C377" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B379" t="s">
-        <v>924</v>
-      </c>
-      <c r="C379" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B380" t="s">
-        <v>926</v>
-      </c>
       <c r="C380" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>587</v>
+        <v>1009</v>
       </c>
       <c r="B381" t="s">
-        <v>928</v>
+        <v>1020</v>
       </c>
       <c r="C381" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>588</v>
+        <v>1010</v>
       </c>
       <c r="B382" t="s">
-        <v>930</v>
+        <v>1021</v>
       </c>
       <c r="C382" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>929</v>
+        <v>1011</v>
       </c>
       <c r="B383" t="s">
-        <v>933</v>
+        <v>1014</v>
       </c>
       <c r="C383" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>589</v>
+        <v>1012</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>590</v>
+        <v>1056</v>
       </c>
       <c r="B385" t="s">
-        <v>935</v>
+        <v>1057</v>
       </c>
       <c r="C385" t="s">
-        <v>936</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="B386" t="s">
-        <v>937</v>
+        <v>896</v>
       </c>
       <c r="C386" t="s">
-        <v>938</v>
+        <v>897</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B387" t="s">
-        <v>593</v>
-      </c>
-      <c r="C387" t="s">
-        <v>939</v>
+        <v>569</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B388" t="s">
-        <v>941</v>
-      </c>
-      <c r="C388" t="s">
-        <v>940</v>
+        <v>570</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="B389" t="s">
-        <v>942</v>
+        <v>981</v>
       </c>
       <c r="C389" t="s">
-        <v>943</v>
+        <v>898</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="B390" t="s">
-        <v>944</v>
+        <v>1129</v>
       </c>
       <c r="C390" t="s">
-        <v>945</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>1156</v>
+        <v>573</v>
       </c>
       <c r="B391" t="s">
-        <v>1157</v>
+        <v>899</v>
       </c>
       <c r="C391" t="s">
-        <v>1158</v>
+        <v>900</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="B392" t="s">
-        <v>598</v>
+        <v>901</v>
       </c>
       <c r="C392" t="s">
-        <v>946</v>
+        <v>902</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="B393" t="s">
-        <v>600</v>
+        <v>903</v>
       </c>
       <c r="C393" t="s">
-        <v>947</v>
+        <v>906</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="B394" t="s">
-        <v>602</v>
+        <v>905</v>
       </c>
       <c r="C394" t="s">
-        <v>948</v>
+        <v>907</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>603</v>
+        <v>904</v>
       </c>
       <c r="B395" t="s">
-        <v>604</v>
+        <v>908</v>
       </c>
       <c r="C395" t="s">
-        <v>949</v>
+        <v>909</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="B397" t="s">
-        <v>607</v>
+        <v>910</v>
       </c>
       <c r="C397" t="s">
-        <v>950</v>
+        <v>911</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>608</v>
+        <v>579</v>
+      </c>
+      <c r="B398" t="s">
+        <v>912</v>
+      </c>
+      <c r="C398" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="B399" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="C399" t="s">
-        <v>951</v>
+        <v>914</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="B400" t="s">
-        <v>612</v>
+        <v>916</v>
       </c>
       <c r="C400" t="s">
-        <v>952</v>
+        <v>915</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
       <c r="B401" t="s">
-        <v>614</v>
+        <v>917</v>
       </c>
       <c r="C401" t="s">
-        <v>953</v>
+        <v>918</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>615</v>
+        <v>584</v>
+      </c>
+      <c r="B402" t="s">
+        <v>919</v>
+      </c>
+      <c r="C402" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>616</v>
+        <v>1131</v>
       </c>
       <c r="B403" t="s">
-        <v>617</v>
+        <v>1132</v>
       </c>
       <c r="C403" t="s">
-        <v>954</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="B404" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="C404" t="s">
-        <v>955</v>
+        <v>921</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="B405" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="C405" t="s">
-        <v>956</v>
+        <v>922</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="B406" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="C406" t="s">
-        <v>957</v>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B407" t="s">
+        <v>592</v>
+      </c>
+      <c r="C407" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B409" t="s">
+        <v>595</v>
+      </c>
+      <c r="C409" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B411" t="s">
+        <v>598</v>
+      </c>
+      <c r="C411" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B412" t="s">
+        <v>600</v>
+      </c>
+      <c r="C412" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B413" t="s">
+        <v>602</v>
+      </c>
+      <c r="C413" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B415" t="s">
+        <v>605</v>
+      </c>
+      <c r="C415" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B416" t="s">
+        <v>607</v>
+      </c>
+      <c r="C416" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B417" t="s">
+        <v>609</v>
+      </c>
+      <c r="C417" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B418" t="s">
+        <v>611</v>
+      </c>
+      <c r="C418" t="s">
+        <v>932</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A479" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A491" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
+    <mergeCell ref="C362:D362"/>
+    <mergeCell ref="C347:D347"/>
     <mergeCell ref="C350:D350"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C338:D338"/>
-    <mergeCell ref="C339:D339"/>
-    <mergeCell ref="C348:D348"/>
-    <mergeCell ref="C349:D349"/>
+    <mergeCell ref="C351:D351"/>
+    <mergeCell ref="C360:D360"/>
+    <mergeCell ref="C361:D361"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9040,546 +9537,546 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C1" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C4" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C7" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C8" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C9" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C11" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C12" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C13" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C14" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C15" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C16" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B18" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C18" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B19" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B20" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C20" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C21" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B22" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B23" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C23" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C24" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C25" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B26" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C26" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B27" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C27" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B28" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C28" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C29" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B30" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C30" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B31" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C31" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C32" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B33" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C33" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C34" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B35" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C35" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B36" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C36" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B37" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C37" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B38" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C38" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B39" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B40" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C40" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B41" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C41" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C42" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B43" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C43" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C44" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C45" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C47" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C48" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JigsawTD\JigsawTD\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09118D4-0BEE-4602-B617-69FF3256B6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794011E5-B848-404E-BCDD-BA0106849A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1323">
   <si>
     <t>SCENE1</t>
   </si>
@@ -606,9 +606,6 @@
     <t>DAMAGEANLYSIS</t>
   </si>
   <si>
-    <t>回合伤害</t>
-  </si>
-  <si>
     <t>ATTACK</t>
   </si>
   <si>
@@ -897,9 +894,6 @@
     <t>CONSTRUCTORSKILL</t>
   </si>
   <si>
-    <t>攻击范围内每有1个敌人，攻击力就提高10%</t>
-  </si>
-  <si>
     <t>SCATTERSKILL</t>
   </si>
   <si>
@@ -915,9 +909,6 @@
     <t>ROTARYSKILL</t>
   </si>
   <si>
-    <t>穿透子弹，不可溅射;向周围随机攻击，自身所有攻速加成翻倍</t>
-  </si>
-  <si>
     <t>SNIPERSKILL</t>
   </si>
   <si>
@@ -930,9 +921,6 @@
     <t>SNOWSKILL</t>
   </si>
   <si>
-    <t>穿透子弹，不可溅射;子弹会使敌人当前减速效果翻倍。</t>
-  </si>
-  <si>
     <t>COOPORATIVESKILL</t>
   </si>
   <si>
@@ -942,9 +930,6 @@
     <t>BOOMERRANGSKILL</t>
   </si>
   <si>
-    <t>穿透子弹，不可溅射；发射一枚回旋镖，每命中一个敌人就使后续伤害提高10%</t>
-  </si>
-  <si>
     <t>SUPERSKILL</t>
   </si>
   <si>
@@ -1467,9 +1452,6 @@
     <t>ICEBALLINFO</t>
   </si>
   <si>
-    <t>运载极寒原子，每当转向时就会触发一次大范围的“霜爆”，冻结相邻的防御</t>
-  </si>
-  <si>
     <t>HAMSTERINFO</t>
   </si>
   <si>
@@ -2084,9 +2066,6 @@
     <t>Damage Billboard</t>
   </si>
   <si>
-    <t>Turn Damage</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
@@ -2216,18 +2195,9 @@
     <t>Attacks deal splash area damage.</t>
   </si>
   <si>
-    <t>Attack increased by 10% for each enemy in range.</t>
-  </si>
-  <si>
-    <t>Penetration Bullet can't splash;Bullet will double enemy's current slow.</t>
-  </si>
-  <si>
     <t>Attack increased by 2% * the amount of "Cooporative" each shoot.</t>
   </si>
   <si>
-    <t>Penetration Bullet can't splash;Bullet damage will increase by 10% for each enemy it hit.</t>
-  </si>
-  <si>
     <t>At the start of each wave, it's attack will become 70%/100%/150% of the sum of adjacent turrets.</t>
   </si>
   <si>
@@ -2629,10 +2599,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Penetration Bullet can't splash; Randomly shoot around and double all firerate increased.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Bullet's damage increased by 50% for each tile it travelled</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2702,10 +2668,6 @@
   </si>
   <si>
     <t>When it's health fall below 75% and 25%, it will morph into fortresses, taking much less damage and releasing a lot of base archetypes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Each time the Snow Ball veered, it released a frost burst.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4253,22 +4215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bullet's critical damage randomly float between 25% to 250%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹的最终暴击伤害在25%到250%之间随机浮动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每溅射到1个目标，就使溅射伤害提高10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Splash damage increased by 10% for each enemy it hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>造成的伤害降低50%，但是可以额外攻击2个目标</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4401,10 +4347,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每回合开始前20秒，提升{0}的攻速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每回合开始前20秒，提升{0}的暴击伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4470,6 +4412,78 @@
   </si>
   <si>
     <t>Range +1, and +2 if range is greater than or equal to 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sprite=1&gt;+1, Penetration Bullet can't splash; Randomly shoot around and double all firerate increased.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sprite=3&gt;+2, Bullet's final critical damage randomly float between 25% to 250%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹，不可溅射；随机方向攻击；&lt;sprite=1&gt;数量+1，且自身所有攻速加成翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sprite=3&gt;数量+2，且子弹的最终暴击伤害在25%到250%之间随机浮动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围内每有1个敌人，攻击力就提高10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹，不可溅射；&lt;sprite=0&gt;数量+1，回旋镖每命中一个敌人就使后续伤害提高10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack increased by 10% for each enemy in range.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetration Bullet can't splash;&lt;sprite=0&gt;+1, Bullet damage will increase by 10% for each enemy it hit.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹，不可溅射;&lt;sprite=2&gt;数量+1，子弹施加双倍的冻结层数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetration Bullet can't splash;&lt;sprite=2&gt;+1, Double bullet's frost effect.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始前20秒，提升{0}的减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>During the first 20 seconds of each wave, slow increased by {0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sprite=4&gt;数量+1，且子弹每溅射到1个目标，就使溅射伤害提高20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sprite=4&gt;+1, Splash damage increased by 20% for each enemy it hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Released a frost burst every 5 seconds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运载极寒原子，每隔5秒就会触发一次大范围的“霜爆”，冻结相邻的防御</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4921,8 +4935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4935,13 +4949,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4974,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4985,7 +4999,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5018,7 +5032,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5029,7 +5043,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5040,7 +5054,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5051,7 +5065,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5062,7 +5076,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5073,7 +5087,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5084,7 +5098,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5095,7 +5109,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5106,7 +5120,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5117,7 +5131,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5128,7 +5142,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5139,7 +5153,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5150,7 +5164,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5161,7 +5175,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5172,7 +5186,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5183,7 +5197,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5194,7 +5208,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5205,7 +5219,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5216,18 +5230,18 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="B27" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="C27" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5238,7 +5252,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5249,18 +5263,18 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="B30" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="C30" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5282,7 +5296,7 @@
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5293,7 +5307,7 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5304,7 +5318,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5315,7 +5329,7 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5326,7 +5340,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5337,7 +5351,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5348,7 +5362,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5359,7 +5373,7 @@
         <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5370,7 +5384,7 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5381,7 +5395,7 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5392,7 +5406,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5403,7 +5417,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5411,21 +5425,21 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="C44" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="B45" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="C45" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5436,7 +5450,7 @@
         <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5447,7 +5461,7 @@
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5458,7 +5472,7 @@
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5469,7 +5483,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5480,7 +5494,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5502,7 +5516,7 @@
         <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5513,7 +5527,7 @@
         <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5524,7 +5538,7 @@
         <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5535,7 +5549,7 @@
         <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5554,7 +5568,7 @@
         <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5562,10 +5576,10 @@
         <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C58" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5573,10 +5587,10 @@
         <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="C59" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5584,10 +5598,10 @@
         <v>105</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5595,10 +5609,10 @@
         <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="C61" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5606,10 +5620,10 @@
         <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="C62" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5617,10 +5631,10 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="C63" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5628,10 +5642,10 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="C64" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5639,10 +5653,10 @@
         <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="C65" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5653,7 +5667,7 @@
         <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5683,10 +5697,10 @@
         <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5694,21 +5708,21 @@
         <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="B71" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5716,10 +5730,10 @@
         <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="C72" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5727,10 +5741,10 @@
         <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="C73" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5738,21 +5752,21 @@
         <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="C74" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B75" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="C75" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5760,10 +5774,10 @@
         <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="C76" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5774,7 +5788,7 @@
         <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5785,7 +5799,7 @@
         <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5793,10 +5807,10 @@
         <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="C79" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5804,43 +5818,43 @@
         <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="C80" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="B81" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="C81" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="B82" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="C82" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5848,10 +5862,10 @@
         <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="C84" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5859,10 +5873,10 @@
         <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="C85" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5873,7 +5887,7 @@
         <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5884,7 +5898,7 @@
         <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5895,7 +5909,7 @@
         <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5906,139 +5920,139 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="B90" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="C90" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="B91" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="C91" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="B92" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="C92" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="B93" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="C93" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="B94" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="C94" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="B95" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="C95" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6046,10 +6060,10 @@
         <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="C102" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6060,7 +6074,7 @@
         <v>141</v>
       </c>
       <c r="C103" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6068,10 +6082,10 @@
         <v>142</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="C104" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6082,7 +6096,7 @@
         <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6090,10 +6104,10 @@
         <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="C106" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6104,7 +6118,7 @@
         <v>147</v>
       </c>
       <c r="C107" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6115,7 +6129,7 @@
         <v>149</v>
       </c>
       <c r="C108" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6126,7 +6140,7 @@
         <v>151</v>
       </c>
       <c r="C109" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6137,7 +6151,7 @@
         <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6148,7 +6162,7 @@
         <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6159,7 +6173,7 @@
         <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6170,7 +6184,7 @@
         <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6181,7 +6195,7 @@
         <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6192,7 +6206,7 @@
         <v>163</v>
       </c>
       <c r="C115" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6203,7 +6217,7 @@
         <v>165</v>
       </c>
       <c r="C116" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6214,7 +6228,7 @@
         <v>167</v>
       </c>
       <c r="C117" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6225,7 +6239,7 @@
         <v>169</v>
       </c>
       <c r="C118" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6236,7 +6250,7 @@
         <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6247,7 +6261,7 @@
         <v>173</v>
       </c>
       <c r="C120" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6258,7 +6272,7 @@
         <v>175</v>
       </c>
       <c r="C121" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6269,7 +6283,7 @@
         <v>177</v>
       </c>
       <c r="C122" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6280,18 +6294,18 @@
         <v>179</v>
       </c>
       <c r="C123" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="B124" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="C124" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6302,7 +6316,7 @@
         <v>181</v>
       </c>
       <c r="C125" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6313,7 +6327,7 @@
         <v>183</v>
       </c>
       <c r="C126" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6324,7 +6338,7 @@
         <v>185</v>
       </c>
       <c r="C127" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6335,7 +6349,7 @@
         <v>187</v>
       </c>
       <c r="C128" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6346,7 +6360,7 @@
         <v>189</v>
       </c>
       <c r="C129" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6357,7 +6371,7 @@
         <v>191</v>
       </c>
       <c r="C130" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6365,3143 +6379,3143 @@
         <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>193</v>
+        <v>1316</v>
       </c>
       <c r="C131" t="s">
-        <v>685</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B132" t="s">
         <v>194</v>
       </c>
-      <c r="B132" t="s">
-        <v>195</v>
-      </c>
       <c r="C132" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B133" t="s">
         <v>196</v>
       </c>
-      <c r="B133" t="s">
-        <v>197</v>
-      </c>
       <c r="C133" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B134" t="s">
         <v>198</v>
       </c>
-      <c r="B134" t="s">
-        <v>199</v>
-      </c>
       <c r="C134" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135" t="s">
         <v>200</v>
       </c>
-      <c r="B135" t="s">
-        <v>201</v>
-      </c>
       <c r="C135" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B136" t="s">
         <v>202</v>
       </c>
-      <c r="B136" t="s">
-        <v>203</v>
-      </c>
       <c r="C136" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B137" t="s">
         <v>204</v>
       </c>
-      <c r="B137" t="s">
-        <v>205</v>
-      </c>
       <c r="C137" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B138" t="s">
         <v>206</v>
       </c>
-      <c r="B138" t="s">
-        <v>207</v>
-      </c>
       <c r="C138" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B139" t="s">
         <v>208</v>
       </c>
-      <c r="B139" t="s">
-        <v>209</v>
-      </c>
       <c r="C139" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B140" t="s">
         <v>210</v>
       </c>
-      <c r="B140" t="s">
-        <v>211</v>
-      </c>
       <c r="C140" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="B141" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="C141" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B142" t="s">
         <v>212</v>
       </c>
-      <c r="B142" t="s">
-        <v>213</v>
-      </c>
       <c r="C142" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
       <c r="B143" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
       <c r="C143" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C144" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B145" t="s">
         <v>215</v>
       </c>
-      <c r="B145" t="s">
-        <v>216</v>
-      </c>
       <c r="C145" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B146" t="s">
         <v>217</v>
       </c>
-      <c r="B146" t="s">
-        <v>218</v>
-      </c>
       <c r="C146" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B147" t="s">
         <v>219</v>
       </c>
-      <c r="B147" t="s">
-        <v>220</v>
-      </c>
       <c r="C147" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" t="s">
         <v>221</v>
       </c>
-      <c r="B148" t="s">
-        <v>222</v>
-      </c>
       <c r="C148" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B149" t="s">
         <v>223</v>
       </c>
-      <c r="B149" t="s">
-        <v>224</v>
-      </c>
       <c r="C149" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B150" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B151" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B152" t="s">
         <v>227</v>
       </c>
-      <c r="B152" t="s">
-        <v>228</v>
-      </c>
       <c r="C152" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B153" t="s">
         <v>229</v>
       </c>
-      <c r="B153" t="s">
-        <v>230</v>
-      </c>
       <c r="C153" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B154" t="s">
         <v>231</v>
       </c>
-      <c r="B154" t="s">
-        <v>232</v>
-      </c>
       <c r="C154" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B155" t="s">
         <v>233</v>
       </c>
-      <c r="B155" t="s">
-        <v>234</v>
-      </c>
       <c r="C155" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B156" t="s">
         <v>235</v>
       </c>
-      <c r="B156" t="s">
-        <v>236</v>
-      </c>
       <c r="C156" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B157" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="C157" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B158" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="C158" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B159" t="s">
         <v>239</v>
       </c>
-      <c r="B159" t="s">
-        <v>240</v>
-      </c>
       <c r="C159" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B160" t="s">
         <v>241</v>
       </c>
-      <c r="B160" t="s">
-        <v>242</v>
-      </c>
       <c r="C160" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B161" t="s">
         <v>243</v>
       </c>
-      <c r="B161" t="s">
-        <v>244</v>
-      </c>
       <c r="C161" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B162" t="s">
         <v>245</v>
       </c>
-      <c r="B162" t="s">
-        <v>246</v>
-      </c>
       <c r="C162" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B163" t="s">
         <v>247</v>
       </c>
-      <c r="B163" t="s">
-        <v>248</v>
-      </c>
       <c r="C163" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B164" t="s">
         <v>249</v>
       </c>
-      <c r="B164" t="s">
-        <v>250</v>
-      </c>
       <c r="C164" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B165" t="s">
         <v>251</v>
       </c>
-      <c r="B165" t="s">
-        <v>252</v>
-      </c>
       <c r="C165" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B166" t="s">
         <v>253</v>
       </c>
-      <c r="B166" t="s">
-        <v>254</v>
-      </c>
       <c r="C166" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B167" t="s">
         <v>255</v>
       </c>
-      <c r="B167" t="s">
-        <v>256</v>
-      </c>
       <c r="C167" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E167" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B168" t="s">
         <v>257</v>
       </c>
-      <c r="B168" t="s">
-        <v>258</v>
-      </c>
       <c r="C168" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B169" t="s">
         <v>259</v>
       </c>
-      <c r="B169" t="s">
-        <v>260</v>
-      </c>
       <c r="C169" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B170" t="s">
         <v>261</v>
       </c>
-      <c r="B170" t="s">
-        <v>262</v>
-      </c>
       <c r="C170" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B171" t="s">
         <v>263</v>
       </c>
-      <c r="B171" t="s">
-        <v>264</v>
-      </c>
       <c r="C171" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B172" t="s">
         <v>265</v>
       </c>
-      <c r="B172" t="s">
-        <v>266</v>
-      </c>
       <c r="C172" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B173" t="s">
         <v>267</v>
       </c>
-      <c r="B173" t="s">
-        <v>268</v>
-      </c>
       <c r="C173" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B174" t="s">
         <v>269</v>
       </c>
-      <c r="B174" t="s">
-        <v>270</v>
-      </c>
       <c r="C174" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="B175" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="C175" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B176" t="s">
         <v>271</v>
       </c>
-      <c r="B176" t="s">
-        <v>272</v>
-      </c>
       <c r="C176" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B177" t="s">
         <v>273</v>
       </c>
-      <c r="B177" t="s">
-        <v>274</v>
-      </c>
       <c r="C177" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B178" t="s">
         <v>275</v>
       </c>
-      <c r="B178" t="s">
-        <v>276</v>
-      </c>
       <c r="C178" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B179" t="s">
         <v>277</v>
       </c>
-      <c r="B179" t="s">
-        <v>278</v>
-      </c>
       <c r="C179" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B180" t="s">
         <v>279</v>
       </c>
-      <c r="B180" t="s">
-        <v>280</v>
-      </c>
       <c r="C180" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B181" t="s">
         <v>281</v>
       </c>
-      <c r="B181" t="s">
-        <v>282</v>
-      </c>
       <c r="C181" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B182" t="s">
         <v>283</v>
       </c>
-      <c r="B182" t="s">
-        <v>284</v>
-      </c>
       <c r="C182" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B183" t="s">
         <v>285</v>
       </c>
-      <c r="B183" t="s">
-        <v>286</v>
-      </c>
       <c r="C183" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B184" t="s">
         <v>287</v>
       </c>
-      <c r="B184" t="s">
-        <v>288</v>
-      </c>
       <c r="C184" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B185" t="s">
         <v>1151</v>
       </c>
-      <c r="B185" t="s">
-        <v>1163</v>
-      </c>
       <c r="C185" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B186" t="s">
         <v>1152</v>
       </c>
-      <c r="B186" t="s">
-        <v>1164</v>
-      </c>
       <c r="C186" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="B187" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="C187" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="B188" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="C188" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="B189" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="C189" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="B190" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="C190" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="B191" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="C191" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="B192" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="C192" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="B193" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="C193" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="B194" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="C194" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="B195" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="C195" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="B196" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="C196" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
-        <v>290</v>
+        <v>1309</v>
       </c>
       <c r="C197" t="s">
-        <v>729</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
-        <v>1271</v>
+        <v>1255</v>
       </c>
       <c r="C198" t="s">
-        <v>1272</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
-        <v>1269</v>
+        <v>1319</v>
       </c>
       <c r="C199" t="s">
-        <v>1270</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C200" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B201" t="s">
-        <v>296</v>
+        <v>1307</v>
       </c>
       <c r="C201" t="s">
-        <v>855</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B202" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C202" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B203" t="s">
-        <v>1268</v>
+        <v>1308</v>
       </c>
       <c r="C203" t="s">
-        <v>1267</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B204" t="s">
-        <v>301</v>
+        <v>1313</v>
       </c>
       <c r="C204" t="s">
-        <v>730</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B205" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C205" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B206" t="s">
-        <v>305</v>
+        <v>1310</v>
       </c>
       <c r="C206" t="s">
-        <v>732</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B207" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="C207" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B208" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C208" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B209" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="C209" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B210" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="C210" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B211" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="C211" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B212" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
       <c r="C212" t="s">
-        <v>1274</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B213" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="C213" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B214" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="C214" t="s">
-        <v>1275</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B215" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="C215" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B216" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="C216" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B217" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="C217" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B218" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="C218" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B219" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="C219" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B220" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="C220" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B221" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="C221" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B222" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
       <c r="C222" t="s">
-        <v>1280</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B223" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="C223" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B224" t="s">
-        <v>1287</v>
+        <v>1271</v>
       </c>
       <c r="C224" t="s">
-        <v>1281</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B225" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="C225" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B226" t="s">
-        <v>1282</v>
+        <v>1266</v>
       </c>
       <c r="C226" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B227" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="C227" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B228" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
       <c r="C228" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B229" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="C229" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B230" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C230" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B231" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="C231" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B232" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
       <c r="C232" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B233" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="C233" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B234" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="C234" t="s">
-        <v>1295</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B235" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="C235" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B236" t="s">
-        <v>1296</v>
+        <v>1280</v>
       </c>
       <c r="C236" t="s">
-        <v>1297</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B237" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="C237" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B238" t="s">
-        <v>1298</v>
+        <v>1282</v>
       </c>
       <c r="C238" t="s">
-        <v>1299</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B239" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="C239" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B240" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="C240" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B241" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="C241" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B242" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="C242" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B243" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="C243" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B244" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C244" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B245" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="C245" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B246" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C246" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B247" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="C247" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B248" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C248" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B249" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="C249" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B250" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="C250" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B251" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="C251" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B252" t="s">
-        <v>1300</v>
+        <v>1284</v>
       </c>
       <c r="C252" t="s">
-        <v>1301</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B253" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="C253" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B254" t="s">
-        <v>1302</v>
+        <v>1286</v>
       </c>
       <c r="C254" t="s">
-        <v>1303</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B255" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="C255" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B256" t="s">
-        <v>1304</v>
+        <v>1317</v>
       </c>
       <c r="C256" t="s">
-        <v>1303</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B257" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="C257" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B258" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="C258" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B259" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C259" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B260" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C260" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C261" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B262" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C262" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="C263" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B264" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C264" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="C265" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B266" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="C266" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="C267" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B268" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="C268" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B269" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="C269" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B270" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C270" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="C271" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B272" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="C272" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="C273" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B274" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="C274" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="C275" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B276" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="C276" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="C277" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B278" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="C278" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B279" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C279" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B280" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C280" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B281" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C281" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B282" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C282" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B283" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C283" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B284" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C284" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B285" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C285" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B286" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C286" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B287" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="C287" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B288" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="C288" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B289" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="C289" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B290" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="C290" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B291" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C291" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B292" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C292" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B293" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C293" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B294" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C294" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B295" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C295" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B296" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C296" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B297" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C297" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B298" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C298" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B299" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C299" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B300" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C300" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B301" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C301" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B302" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="C302" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B303" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C303" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B304" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="C304" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B305" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C305" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B306" t="s">
-        <v>480</v>
+        <v>1322</v>
       </c>
       <c r="C306" t="s">
-        <v>874</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B307" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C307" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B308" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="C308" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B309" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C309" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B310" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C310" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B311" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C311" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B312" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C312" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B313" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C313" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B314" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C314" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B315" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C315" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B316" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C316" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B317" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C317" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B318" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C318" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B319" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C319" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="B320" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C320" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B321" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C321" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B322" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C322" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B323" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C323" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B324" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C324" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B325" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C325" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B326" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C326" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B327" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C327" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B328" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C328" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B329" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C329" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B330" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="C330" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B331" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C331" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B332" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C332" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="B333" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C333" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B334" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C334" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B335" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C335" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B336" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C336" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B337" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="C337" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B338" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="C338" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B339" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="C339" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B340" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="C340" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B341" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="C341" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B342" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="C342" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B343" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="C343" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B344" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="C344" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B345" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="C345" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B346" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="C346" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B347" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="D347" s="6"/>
     </row>
     <row r="348" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B348" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="C348" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B349" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="C349" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="B350" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="D350" s="7"/>
     </row>
     <row r="351" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="B351" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="D351" s="7"/>
     </row>
     <row r="352" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B352" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="C352" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B353" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="C353" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B354" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="C354" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B355" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="C355" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B356" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="C356" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B357" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="C357" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B358" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="C358" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B359" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="C359" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B360" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="D360" s="6"/>
     </row>
     <row r="361" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B361" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="D361" s="6"/>
     </row>
     <row r="362" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B362" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="D362" s="6"/>
     </row>
     <row r="363" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B363" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="C363" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B364" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="C364" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B365" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="C365" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B366" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="C366" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B367" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="C367" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B368" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="C368" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B369" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C369" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="B370" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="C370" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="B371" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="C371" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="B372" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="C372" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="B373" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="C373" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="B374" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="C374" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="E374" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="B375" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="C375" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="B376" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="C376" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="B377" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="C377" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="B378" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="C378" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="B379" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="C379" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="B380" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="C380" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="B381" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="C381" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="B382" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="C382" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="B383" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="C383" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="B384" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="C384" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="B385" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="C385" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B386" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="C386" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="C389" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B390" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="C390" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B391" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="C391" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B392" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="C392" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B393" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="C393" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B394" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="C394" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="B395" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="C395" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B397" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="C397" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B398" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="C398" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B399" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C399" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B400" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="C400" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B401" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="C401" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B402" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="C402" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="B403" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="C403" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B404" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C404" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B405" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C405" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B406" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C406" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B407" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C407" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B409" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C409" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B411" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C411" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B412" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C412" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B413" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C413" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B415" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C415" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B416" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C416" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B417" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C417" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B418" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C418" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
@@ -9537,546 +9551,546 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C2" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C8" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C9" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C10" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C12" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C13" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C15" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C16" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C17" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C18" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C19" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B20" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C20" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C21" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B22" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C22" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C23" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B24" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C25" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B26" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C26" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B27" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C27" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B28" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C28" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B29" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C29" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B30" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C30" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B31" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C31" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B32" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C32" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B33" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C33" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C34" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B35" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C35" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B36" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C36" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B37" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C37" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C38" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C39" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C40" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B41" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C41" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B42" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C42" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C43" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C44" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C45" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C46" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C47" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C48" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JigsawTD\JigsawTD\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794011E5-B848-404E-BCDD-BA0106849A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B6C2B5-D7A1-4BEC-8285-283C175CF1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,9 +678,6 @@
     <t>SLOWINFO</t>
   </si>
   <si>
-    <t>对命中的敌人造成减速，敌人会随波数提升减速抗性</t>
-  </si>
-  <si>
     <t>ATTACKUP</t>
   </si>
   <si>
@@ -2567,19 +2564,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每1%暴击率=1%额外暴击伤害，基础暴击伤害为150%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical damage is 150% and each 1% critical give it 1% extra critical damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Splash radius. Default splash damage is 50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet can slow down enemy, enemy's slow resistence will increase each wave</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3943,18 +3928,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重金基座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>回合开始时，每拥有3个元素就获得+1攻击距离</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Metal Base</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>At the start of each wave, gain+1 attack range for every 3 elements it has</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4175,22 +4152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>施加的冻结层数提高100%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低温改造</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frost Transformation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increased the frost effect applied by 100%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击造成的减速及溅射范围翻倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4484,6 +4445,46 @@
   </si>
   <si>
     <t>运载极寒原子，每隔5秒就会触发一次大范围的“霜爆”，冻结相邻的防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础暴击伤害为200%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default critical damage is 200%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow down enemy and accumulate frost effect. Enemy wiil be frost by 3s while has frost effect is full.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成减速，并累积冻结层数；目标冻结层数满后会冻结3秒，此后免疫冻结效果6秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1个万能元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain 1 perfect element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perfect Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24K基座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24K Base</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4935,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4949,13 +4950,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1" t="s">
         <v>606</v>
       </c>
-      <c r="B1" t="s">
-        <v>607</v>
-      </c>
       <c r="C1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4988,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4999,7 +5000,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5032,7 +5033,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5043,7 +5044,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5054,7 +5055,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5065,7 +5066,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5076,7 +5077,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5087,7 +5088,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5098,7 +5099,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5109,7 +5110,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5120,7 +5121,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5131,7 +5132,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5142,7 +5143,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5153,7 +5154,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5164,7 +5165,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5175,7 +5176,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5186,7 +5187,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5197,7 +5198,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5208,7 +5209,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5219,7 +5220,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5230,18 +5231,18 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B27" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C27" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5252,7 +5253,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5263,18 +5264,18 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B30" t="s">
+        <v>810</v>
+      </c>
+      <c r="C30" t="s">
         <v>811</v>
-      </c>
-      <c r="C30" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5296,7 +5297,7 @@
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5307,7 +5308,7 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5318,7 +5319,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5329,7 +5330,7 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5340,7 +5341,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5351,7 +5352,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5362,7 +5363,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5373,7 +5374,7 @@
         <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5384,7 +5385,7 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5395,7 +5396,7 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5406,7 +5407,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5417,7 +5418,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5425,21 +5426,21 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C44" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B45" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C45" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5450,7 +5451,7 @@
         <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5461,7 +5462,7 @@
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5472,7 +5473,7 @@
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5483,7 +5484,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5494,7 +5495,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5516,7 +5517,7 @@
         <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5527,7 +5528,7 @@
         <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5538,7 +5539,7 @@
         <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5549,7 +5550,7 @@
         <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5568,7 +5569,7 @@
         <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5576,10 +5577,10 @@
         <v>103</v>
       </c>
       <c r="B58" t="s">
+        <v>812</v>
+      </c>
+      <c r="C58" t="s">
         <v>813</v>
-      </c>
-      <c r="C58" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5587,10 +5588,10 @@
         <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C59" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5598,10 +5599,10 @@
         <v>105</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5609,10 +5610,10 @@
         <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C61" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5620,10 +5621,10 @@
         <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C62" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5631,10 +5632,10 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C63" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5642,10 +5643,10 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5653,10 +5654,10 @@
         <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C65" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5667,7 +5668,7 @@
         <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5697,10 +5698,10 @@
         <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5708,21 +5709,21 @@
         <v>118</v>
       </c>
       <c r="B70" t="s">
+        <v>816</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>817</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B71" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5730,10 +5731,10 @@
         <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C72" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5741,10 +5742,10 @@
         <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C73" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5752,21 +5753,21 @@
         <v>121</v>
       </c>
       <c r="B74" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C74" t="s">
         <v>1048</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B75" t="s">
+        <v>822</v>
+      </c>
+      <c r="C75" t="s">
         <v>823</v>
-      </c>
-      <c r="C75" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5774,10 +5775,10 @@
         <v>122</v>
       </c>
       <c r="B76" t="s">
+        <v>824</v>
+      </c>
+      <c r="C76" t="s">
         <v>825</v>
-      </c>
-      <c r="C76" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5788,7 +5789,7 @@
         <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5799,7 +5800,7 @@
         <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5807,10 +5808,10 @@
         <v>127</v>
       </c>
       <c r="B79" t="s">
+        <v>828</v>
+      </c>
+      <c r="C79" t="s">
         <v>829</v>
-      </c>
-      <c r="C79" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5818,43 +5819,43 @@
         <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C80" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B81" t="s">
+        <v>937</v>
+      </c>
+      <c r="C81" t="s">
         <v>938</v>
-      </c>
-      <c r="B81" t="s">
-        <v>941</v>
-      </c>
-      <c r="C81" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B82" t="s">
+        <v>936</v>
+      </c>
+      <c r="C82" t="s">
         <v>939</v>
-      </c>
-      <c r="B82" t="s">
-        <v>940</v>
-      </c>
-      <c r="C82" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5862,10 +5863,10 @@
         <v>129</v>
       </c>
       <c r="B84" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C84" t="s">
         <v>1049</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5873,10 +5874,10 @@
         <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C85" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5887,7 +5888,7 @@
         <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5898,7 +5899,7 @@
         <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5909,7 +5910,7 @@
         <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5920,139 +5921,139 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B90" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C90" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B91" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C91" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B92" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C92" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B93" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C93" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B94" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C94" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B95" t="s">
+        <v>810</v>
+      </c>
+      <c r="C95" t="s">
         <v>811</v>
-      </c>
-      <c r="C95" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>1031</v>
-      </c>
       <c r="C101" s="3" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6060,10 +6061,10 @@
         <v>139</v>
       </c>
       <c r="B102" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C102" t="s">
         <v>1050</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6074,7 +6075,7 @@
         <v>141</v>
       </c>
       <c r="C103" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6082,10 +6083,10 @@
         <v>142</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C104" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6096,7 +6097,7 @@
         <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6104,10 +6105,10 @@
         <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C106" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6118,7 +6119,7 @@
         <v>147</v>
       </c>
       <c r="C107" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6129,7 +6130,7 @@
         <v>149</v>
       </c>
       <c r="C108" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6140,7 +6141,7 @@
         <v>151</v>
       </c>
       <c r="C109" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6151,7 +6152,7 @@
         <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6162,7 +6163,7 @@
         <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6173,7 +6174,7 @@
         <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6184,7 +6185,7 @@
         <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6195,7 +6196,7 @@
         <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6206,7 +6207,7 @@
         <v>163</v>
       </c>
       <c r="C115" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6217,7 +6218,7 @@
         <v>165</v>
       </c>
       <c r="C116" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6228,7 +6229,7 @@
         <v>167</v>
       </c>
       <c r="C117" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6239,7 +6240,7 @@
         <v>169</v>
       </c>
       <c r="C118" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6250,7 +6251,7 @@
         <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6261,7 +6262,7 @@
         <v>173</v>
       </c>
       <c r="C120" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6272,7 +6273,7 @@
         <v>175</v>
       </c>
       <c r="C121" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6283,7 +6284,7 @@
         <v>177</v>
       </c>
       <c r="C122" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6294,18 +6295,18 @@
         <v>179</v>
       </c>
       <c r="C123" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B124" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C124" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6316,7 +6317,7 @@
         <v>181</v>
       </c>
       <c r="C125" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6327,7 +6328,7 @@
         <v>183</v>
       </c>
       <c r="C126" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6338,7 +6339,7 @@
         <v>185</v>
       </c>
       <c r="C127" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6349,7 +6350,7 @@
         <v>187</v>
       </c>
       <c r="C128" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6360,7 +6361,7 @@
         <v>189</v>
       </c>
       <c r="C129" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6371,7 +6372,7 @@
         <v>191</v>
       </c>
       <c r="C130" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6379,10 +6380,10 @@
         <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="C131" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6393,7 +6394,7 @@
         <v>194</v>
       </c>
       <c r="C132" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6404,7 +6405,7 @@
         <v>196</v>
       </c>
       <c r="C133" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6415,7 +6416,7 @@
         <v>198</v>
       </c>
       <c r="C134" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6426,7 +6427,7 @@
         <v>200</v>
       </c>
       <c r="C135" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6437,7 +6438,7 @@
         <v>202</v>
       </c>
       <c r="C136" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6448,7 +6449,7 @@
         <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6459,7 +6460,7 @@
         <v>206</v>
       </c>
       <c r="C138" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6470,7 +6471,7 @@
         <v>208</v>
       </c>
       <c r="C139" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6481,18 +6482,18 @@
         <v>210</v>
       </c>
       <c r="C140" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B141" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C141" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6503,18 +6504,18 @@
         <v>212</v>
       </c>
       <c r="C142" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="B143" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="C143" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6522,10 +6523,10 @@
         <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>837</v>
+        <v>1313</v>
       </c>
       <c r="C144" t="s">
-        <v>838</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6536,7 +6537,7 @@
         <v>215</v>
       </c>
       <c r="C145" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6544,2978 +6545,2978 @@
         <v>216</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>1316</v>
       </c>
       <c r="C146" t="s">
-        <v>840</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B147" t="s">
         <v>218</v>
       </c>
-      <c r="B147" t="s">
-        <v>219</v>
-      </c>
       <c r="C147" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B148" t="s">
         <v>220</v>
       </c>
-      <c r="B148" t="s">
-        <v>221</v>
-      </c>
       <c r="C148" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" t="s">
         <v>222</v>
       </c>
-      <c r="B149" t="s">
-        <v>223</v>
-      </c>
       <c r="C149" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B150" t="s">
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B151" t="s">
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B152" t="s">
         <v>226</v>
       </c>
-      <c r="B152" t="s">
-        <v>227</v>
-      </c>
       <c r="C152" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B153" t="s">
         <v>228</v>
       </c>
-      <c r="B153" t="s">
-        <v>229</v>
-      </c>
       <c r="C153" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B154" t="s">
         <v>230</v>
       </c>
-      <c r="B154" t="s">
-        <v>231</v>
-      </c>
       <c r="C154" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B155" t="s">
         <v>232</v>
       </c>
-      <c r="B155" t="s">
-        <v>233</v>
-      </c>
       <c r="C155" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B156" t="s">
         <v>234</v>
       </c>
-      <c r="B156" t="s">
-        <v>235</v>
-      </c>
       <c r="C156" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B157" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C157" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B158" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C158" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B159" t="s">
         <v>238</v>
       </c>
-      <c r="B159" t="s">
-        <v>239</v>
-      </c>
       <c r="C159" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B160" t="s">
         <v>240</v>
       </c>
-      <c r="B160" t="s">
-        <v>241</v>
-      </c>
       <c r="C160" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B161" t="s">
         <v>242</v>
       </c>
-      <c r="B161" t="s">
-        <v>243</v>
-      </c>
       <c r="C161" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B162" t="s">
         <v>244</v>
       </c>
-      <c r="B162" t="s">
-        <v>245</v>
-      </c>
       <c r="C162" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B163" t="s">
         <v>246</v>
       </c>
-      <c r="B163" t="s">
-        <v>247</v>
-      </c>
       <c r="C163" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B164" t="s">
         <v>248</v>
       </c>
-      <c r="B164" t="s">
-        <v>249</v>
-      </c>
       <c r="C164" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B165" t="s">
         <v>250</v>
       </c>
-      <c r="B165" t="s">
-        <v>251</v>
-      </c>
       <c r="C165" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B166" t="s">
         <v>252</v>
       </c>
-      <c r="B166" t="s">
-        <v>253</v>
-      </c>
       <c r="C166" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B167" t="s">
         <v>254</v>
       </c>
-      <c r="B167" t="s">
-        <v>255</v>
-      </c>
       <c r="C167" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E167" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B168" t="s">
         <v>256</v>
       </c>
-      <c r="B168" t="s">
-        <v>257</v>
-      </c>
       <c r="C168" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B169" t="s">
         <v>258</v>
       </c>
-      <c r="B169" t="s">
-        <v>259</v>
-      </c>
       <c r="C169" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B170" t="s">
         <v>260</v>
       </c>
-      <c r="B170" t="s">
-        <v>261</v>
-      </c>
       <c r="C170" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B171" t="s">
         <v>262</v>
       </c>
-      <c r="B171" t="s">
-        <v>263</v>
-      </c>
       <c r="C171" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B172" t="s">
         <v>264</v>
       </c>
-      <c r="B172" t="s">
-        <v>265</v>
-      </c>
       <c r="C172" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B173" t="s">
         <v>266</v>
       </c>
-      <c r="B173" t="s">
-        <v>267</v>
-      </c>
       <c r="C173" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B174" t="s">
         <v>268</v>
       </c>
-      <c r="B174" t="s">
-        <v>269</v>
-      </c>
       <c r="C174" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B175" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C175" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B176" t="s">
         <v>270</v>
       </c>
-      <c r="B176" t="s">
-        <v>271</v>
-      </c>
       <c r="C176" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B177" t="s">
         <v>272</v>
       </c>
-      <c r="B177" t="s">
-        <v>273</v>
-      </c>
       <c r="C177" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B178" t="s">
         <v>274</v>
       </c>
-      <c r="B178" t="s">
-        <v>275</v>
-      </c>
       <c r="C178" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B179" t="s">
         <v>276</v>
       </c>
-      <c r="B179" t="s">
-        <v>277</v>
-      </c>
       <c r="C179" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B180" t="s">
         <v>278</v>
       </c>
-      <c r="B180" t="s">
-        <v>279</v>
-      </c>
       <c r="C180" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B181" t="s">
         <v>280</v>
       </c>
-      <c r="B181" t="s">
-        <v>281</v>
-      </c>
       <c r="C181" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B182" t="s">
         <v>282</v>
       </c>
-      <c r="B182" t="s">
-        <v>283</v>
-      </c>
       <c r="C182" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B183" t="s">
         <v>284</v>
       </c>
-      <c r="B183" t="s">
-        <v>285</v>
-      </c>
       <c r="C183" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B184" t="s">
         <v>286</v>
       </c>
-      <c r="B184" t="s">
-        <v>287</v>
-      </c>
       <c r="C184" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B185" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C185" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="B186" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C186" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B187" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C187" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="B188" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="C188" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B189" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C189" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="B190" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C190" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B191" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C191" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="B192" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="C192" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B193" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C193" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="B194" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="C194" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B195" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C195" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="B196" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C196" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="C197" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="C198" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="C199" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B200" t="s">
         <v>291</v>
       </c>
-      <c r="B200" t="s">
-        <v>292</v>
-      </c>
       <c r="C200" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="C201" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B202" t="s">
         <v>294</v>
       </c>
-      <c r="B202" t="s">
-        <v>295</v>
-      </c>
       <c r="C202" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B203" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="C203" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B204" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="C204" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B205" t="s">
         <v>298</v>
       </c>
-      <c r="B205" t="s">
-        <v>299</v>
-      </c>
       <c r="C205" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B206" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="C206" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B207" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="C207" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B208" t="s">
         <v>302</v>
       </c>
-      <c r="B208" t="s">
-        <v>303</v>
-      </c>
       <c r="C208" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B209" t="s">
-        <v>1187</v>
+        <v>1321</v>
       </c>
       <c r="C209" t="s">
-        <v>1189</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B210" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="C210" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B211" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C211" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B212" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="C212" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B213" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C213" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B214" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="C214" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B215" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C215" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B216" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="C216" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B217" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C217" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B218" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="C218" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B219" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C219" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B220" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="C220" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B221" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="C221" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B222" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="C222" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B223" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="C223" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B224" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="C224" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B225" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C225" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B226" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="C226" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B227" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="C227" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B228" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="C228" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B229" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="C229" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B230" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="C230" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B231" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="C231" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B232" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="C232" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B233" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C233" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B234" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="C234" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B235" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="C235" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B236" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="C236" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B237" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="C237" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B238" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="C238" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B239" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="C239" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B240" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="C240" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B241" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="C241" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B242" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="C242" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B243" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="C243" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B244" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="C244" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B245" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="C245" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B246" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="C246" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B247" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="C247" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B248" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="C248" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B249" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="C249" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B250" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C250" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B251" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C251" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B252" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="C252" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B253" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="C253" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B254" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="C254" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B255" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="C255" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B256" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="C256" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B257" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C257" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B258" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="C258" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B259" t="s">
         <v>402</v>
       </c>
-      <c r="B259" t="s">
-        <v>403</v>
-      </c>
       <c r="C259" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B260" t="s">
         <v>404</v>
       </c>
-      <c r="B260" t="s">
-        <v>405</v>
-      </c>
       <c r="C260" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B261" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="C261" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B262" t="s">
         <v>408</v>
       </c>
-      <c r="B262" t="s">
-        <v>409</v>
-      </c>
       <c r="C262" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C263" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B264" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="C264" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="C265" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B266" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C266" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C267" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B268" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="C268" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B269" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C269" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B270" t="s">
         <v>417</v>
       </c>
-      <c r="B270" t="s">
-        <v>418</v>
-      </c>
       <c r="C270" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C271" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B272" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C272" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1246</v>
+        <v>1319</v>
       </c>
       <c r="C273" t="s">
-        <v>1247</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B274" t="s">
-        <v>1245</v>
+        <v>1317</v>
       </c>
       <c r="C274" t="s">
-        <v>1248</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C275" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B276" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C276" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="C277" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B278" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="C278" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B279" t="s">
         <v>427</v>
       </c>
-      <c r="B279" t="s">
-        <v>428</v>
-      </c>
       <c r="C279" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B280" t="s">
         <v>429</v>
       </c>
-      <c r="B280" t="s">
-        <v>430</v>
-      </c>
       <c r="C280" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B281" t="s">
         <v>431</v>
       </c>
-      <c r="B281" t="s">
-        <v>432</v>
-      </c>
       <c r="C281" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B282" t="s">
         <v>433</v>
       </c>
-      <c r="B282" t="s">
-        <v>434</v>
-      </c>
       <c r="C282" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B283" t="s">
         <v>435</v>
       </c>
-      <c r="B283" t="s">
-        <v>436</v>
-      </c>
       <c r="C283" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B284" t="s">
         <v>437</v>
       </c>
-      <c r="B284" t="s">
-        <v>438</v>
-      </c>
       <c r="C284" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B285" t="s">
         <v>439</v>
       </c>
-      <c r="B285" t="s">
-        <v>440</v>
-      </c>
       <c r="C285" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B286" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C286" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B287" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C287" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B288" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C288" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B289" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C289" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B290" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C290" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B291" t="s">
         <v>446</v>
       </c>
-      <c r="B291" t="s">
-        <v>447</v>
-      </c>
       <c r="C291" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B292" t="s">
         <v>448</v>
       </c>
-      <c r="B292" t="s">
-        <v>449</v>
-      </c>
       <c r="C292" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B293" t="s">
         <v>450</v>
       </c>
-      <c r="B293" t="s">
-        <v>451</v>
-      </c>
       <c r="C293" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B294" t="s">
         <v>452</v>
       </c>
-      <c r="B294" t="s">
-        <v>453</v>
-      </c>
       <c r="C294" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B295" t="s">
         <v>454</v>
       </c>
-      <c r="B295" t="s">
-        <v>455</v>
-      </c>
       <c r="C295" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B296" t="s">
         <v>456</v>
       </c>
-      <c r="B296" t="s">
-        <v>457</v>
-      </c>
       <c r="C296" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B297" t="s">
         <v>458</v>
       </c>
-      <c r="B297" t="s">
-        <v>459</v>
-      </c>
       <c r="C297" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B298" t="s">
         <v>460</v>
       </c>
-      <c r="B298" t="s">
-        <v>461</v>
-      </c>
       <c r="C298" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B299" t="s">
         <v>462</v>
       </c>
-      <c r="B299" t="s">
-        <v>463</v>
-      </c>
       <c r="C299" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B300" t="s">
         <v>464</v>
       </c>
-      <c r="B300" t="s">
-        <v>465</v>
-      </c>
       <c r="C300" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B301" t="s">
         <v>466</v>
       </c>
-      <c r="B301" t="s">
-        <v>467</v>
-      </c>
       <c r="C301" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B302" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C302" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B303" t="s">
         <v>469</v>
       </c>
-      <c r="B303" t="s">
-        <v>470</v>
-      </c>
       <c r="C303" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B304" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C304" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B305" t="s">
         <v>472</v>
       </c>
-      <c r="B305" t="s">
-        <v>473</v>
-      </c>
       <c r="C305" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B306" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="C306" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B307" t="s">
         <v>475</v>
       </c>
-      <c r="B307" t="s">
-        <v>476</v>
-      </c>
       <c r="C307" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B308" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C308" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B309" t="s">
         <v>478</v>
       </c>
-      <c r="B309" t="s">
-        <v>479</v>
-      </c>
       <c r="C309" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B310" t="s">
         <v>480</v>
       </c>
-      <c r="B310" t="s">
-        <v>481</v>
-      </c>
       <c r="C310" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B311" t="s">
         <v>482</v>
       </c>
-      <c r="B311" t="s">
-        <v>483</v>
-      </c>
       <c r="C311" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B312" t="s">
         <v>484</v>
       </c>
-      <c r="B312" t="s">
-        <v>485</v>
-      </c>
       <c r="C312" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B313" t="s">
         <v>486</v>
       </c>
-      <c r="B313" t="s">
-        <v>487</v>
-      </c>
       <c r="C313" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B314" t="s">
         <v>488</v>
       </c>
-      <c r="B314" t="s">
-        <v>489</v>
-      </c>
       <c r="C314" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B315" t="s">
         <v>490</v>
       </c>
-      <c r="B315" t="s">
-        <v>491</v>
-      </c>
       <c r="C315" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B316" t="s">
         <v>492</v>
       </c>
-      <c r="B316" t="s">
-        <v>493</v>
-      </c>
       <c r="C316" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B317" t="s">
         <v>494</v>
       </c>
-      <c r="B317" t="s">
-        <v>495</v>
-      </c>
       <c r="C317" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B318" t="s">
         <v>496</v>
       </c>
-      <c r="B318" t="s">
-        <v>497</v>
-      </c>
       <c r="C318" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B319" t="s">
         <v>498</v>
       </c>
-      <c r="B319" t="s">
-        <v>499</v>
-      </c>
       <c r="C319" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="B320" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C320" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B321" t="s">
         <v>501</v>
       </c>
-      <c r="B321" t="s">
-        <v>502</v>
-      </c>
       <c r="C321" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B322" t="s">
         <v>503</v>
       </c>
-      <c r="B322" t="s">
-        <v>504</v>
-      </c>
       <c r="C322" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B323" t="s">
         <v>505</v>
       </c>
-      <c r="B323" t="s">
-        <v>506</v>
-      </c>
       <c r="C323" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B324" t="s">
         <v>507</v>
       </c>
-      <c r="B324" t="s">
-        <v>508</v>
-      </c>
       <c r="C324" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B325" t="s">
         <v>509</v>
       </c>
-      <c r="B325" t="s">
-        <v>510</v>
-      </c>
       <c r="C325" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B326" t="s">
         <v>511</v>
       </c>
-      <c r="B326" t="s">
-        <v>512</v>
-      </c>
       <c r="C326" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B327" t="s">
         <v>513</v>
       </c>
-      <c r="B327" t="s">
-        <v>514</v>
-      </c>
       <c r="C327" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B328" t="s">
         <v>515</v>
       </c>
-      <c r="B328" t="s">
-        <v>516</v>
-      </c>
       <c r="C328" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B329" t="s">
         <v>517</v>
       </c>
-      <c r="B329" t="s">
-        <v>518</v>
-      </c>
       <c r="C329" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B330" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C330" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B331" t="s">
         <v>520</v>
       </c>
-      <c r="B331" t="s">
-        <v>521</v>
-      </c>
       <c r="C331" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B332" t="s">
         <v>522</v>
       </c>
-      <c r="B332" t="s">
-        <v>523</v>
-      </c>
       <c r="C332" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="B333" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C333" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B334" t="s">
         <v>525</v>
       </c>
-      <c r="B334" t="s">
-        <v>526</v>
-      </c>
       <c r="C334" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B335" t="s">
         <v>527</v>
       </c>
-      <c r="B335" t="s">
-        <v>528</v>
-      </c>
       <c r="C335" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B336" t="s">
         <v>529</v>
       </c>
-      <c r="B336" t="s">
-        <v>530</v>
-      </c>
       <c r="C336" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B337" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C337" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B338" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C338" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B339" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C339" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B340" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C340" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B341" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C341" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B342" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C342" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B343" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C343" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B344" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C344" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B345" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C345" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B346" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C346" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B347" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D347" s="6"/>
     </row>
     <row r="348" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B348" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C348" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B349" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C349" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B350" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D350" s="7"/>
     </row>
     <row r="351" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B351" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D351" s="7"/>
     </row>
     <row r="352" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B352" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C352" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B353" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C353" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B354" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C354" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B355" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C355" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B356" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C356" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B357" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C357" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B358" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C358" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B359" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C359" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B360" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D360" s="6"/>
     </row>
     <row r="361" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B361" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D361" s="6"/>
     </row>
     <row r="362" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B362" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D362" s="6"/>
     </row>
     <row r="363" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B363" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C363" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B364" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C364" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B365" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C365" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B366" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C366" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B367" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C367" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B368" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C368" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B369" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C369" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B370" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C370" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B371" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C371" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B372" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C372" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B373" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C373" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B374" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C374" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E374" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B375" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C375" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B376" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C376" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B377" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C377" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B378" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C378" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B379" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C379" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B380" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C380" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B381" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C381" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B382" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C382" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B383" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C383" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B384" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C384" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B385" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C385" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B386" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C386" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B389" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C389" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C390" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B391" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C391" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B392" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C392" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B393" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C393" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B394" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C394" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B395" t="s">
         <v>892</v>
       </c>
-      <c r="B395" t="s">
-        <v>896</v>
-      </c>
       <c r="C395" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B397" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C397" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B398" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C398" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B399" t="s">
         <v>574</v>
       </c>
-      <c r="B399" t="s">
-        <v>575</v>
-      </c>
       <c r="C399" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B400" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C400" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B401" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C401" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B402" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C402" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="B403" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C403" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B404" t="s">
         <v>579</v>
       </c>
-      <c r="B404" t="s">
-        <v>580</v>
-      </c>
       <c r="C404" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B405" t="s">
         <v>581</v>
       </c>
-      <c r="B405" t="s">
-        <v>582</v>
-      </c>
       <c r="C405" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B406" t="s">
         <v>583</v>
       </c>
-      <c r="B406" t="s">
-        <v>584</v>
-      </c>
       <c r="C406" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B407" t="s">
         <v>585</v>
       </c>
-      <c r="B407" t="s">
-        <v>586</v>
-      </c>
       <c r="C407" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B409" t="s">
         <v>588</v>
       </c>
-      <c r="B409" t="s">
-        <v>589</v>
-      </c>
       <c r="C409" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B411" t="s">
         <v>591</v>
       </c>
-      <c r="B411" t="s">
-        <v>592</v>
-      </c>
       <c r="C411" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B412" t="s">
         <v>593</v>
       </c>
-      <c r="B412" t="s">
-        <v>594</v>
-      </c>
       <c r="C412" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B413" t="s">
         <v>595</v>
       </c>
-      <c r="B413" t="s">
-        <v>596</v>
-      </c>
       <c r="C413" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B415" t="s">
         <v>598</v>
       </c>
-      <c r="B415" t="s">
-        <v>599</v>
-      </c>
       <c r="C415" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B416" t="s">
         <v>600</v>
       </c>
-      <c r="B416" t="s">
-        <v>601</v>
-      </c>
       <c r="C416" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B417" t="s">
         <v>602</v>
       </c>
-      <c r="B417" t="s">
-        <v>603</v>
-      </c>
       <c r="C417" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B418" t="s">
         <v>604</v>
       </c>
-      <c r="B418" t="s">
-        <v>605</v>
-      </c>
       <c r="C418" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -9551,546 +9552,546 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s">
         <v>306</v>
       </c>
-      <c r="B1" t="s">
-        <v>307</v>
-      </c>
       <c r="C1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s">
         <v>308</v>
       </c>
-      <c r="B2" t="s">
-        <v>309</v>
-      </c>
       <c r="C2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s">
         <v>310</v>
       </c>
-      <c r="B3" t="s">
-        <v>311</v>
-      </c>
       <c r="C3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" t="s">
         <v>312</v>
       </c>
-      <c r="B4" t="s">
-        <v>313</v>
-      </c>
       <c r="C4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" t="s">
         <v>314</v>
       </c>
-      <c r="B5" t="s">
-        <v>315</v>
-      </c>
       <c r="C5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" t="s">
         <v>316</v>
       </c>
-      <c r="B6" t="s">
-        <v>317</v>
-      </c>
       <c r="C6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" t="s">
         <v>318</v>
       </c>
-      <c r="B7" t="s">
-        <v>319</v>
-      </c>
       <c r="C7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" t="s">
         <v>320</v>
       </c>
-      <c r="B8" t="s">
-        <v>321</v>
-      </c>
       <c r="C8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" t="s">
         <v>322</v>
       </c>
-      <c r="B9" t="s">
-        <v>323</v>
-      </c>
       <c r="C9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" t="s">
         <v>324</v>
       </c>
-      <c r="B10" t="s">
-        <v>325</v>
-      </c>
       <c r="C10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" t="s">
         <v>326</v>
       </c>
-      <c r="B11" t="s">
-        <v>327</v>
-      </c>
       <c r="C11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" t="s">
         <v>328</v>
       </c>
-      <c r="B12" t="s">
-        <v>329</v>
-      </c>
       <c r="C12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" t="s">
         <v>330</v>
       </c>
-      <c r="B13" t="s">
-        <v>331</v>
-      </c>
       <c r="C13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" t="s">
         <v>332</v>
       </c>
-      <c r="B14" t="s">
-        <v>333</v>
-      </c>
       <c r="C14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" t="s">
         <v>334</v>
       </c>
-      <c r="B15" t="s">
-        <v>335</v>
-      </c>
       <c r="C15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" t="s">
         <v>336</v>
       </c>
-      <c r="B16" t="s">
-        <v>337</v>
-      </c>
       <c r="C16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" t="s">
         <v>338</v>
       </c>
-      <c r="B17" t="s">
-        <v>339</v>
-      </c>
       <c r="C17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" t="s">
         <v>340</v>
       </c>
-      <c r="B18" t="s">
-        <v>341</v>
-      </c>
       <c r="C18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" t="s">
         <v>342</v>
       </c>
-      <c r="B19" t="s">
-        <v>343</v>
-      </c>
       <c r="C19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" t="s">
         <v>344</v>
       </c>
-      <c r="B20" t="s">
-        <v>345</v>
-      </c>
       <c r="C20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B21" t="s">
         <v>346</v>
       </c>
-      <c r="B21" t="s">
-        <v>347</v>
-      </c>
       <c r="C21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" t="s">
         <v>348</v>
       </c>
-      <c r="B22" t="s">
-        <v>349</v>
-      </c>
       <c r="C22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" t="s">
         <v>350</v>
       </c>
-      <c r="B23" t="s">
-        <v>351</v>
-      </c>
       <c r="C23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" t="s">
         <v>352</v>
       </c>
-      <c r="B24" t="s">
-        <v>353</v>
-      </c>
       <c r="C24" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B25" t="s">
         <v>354</v>
       </c>
-      <c r="B25" t="s">
-        <v>355</v>
-      </c>
       <c r="C25" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" t="s">
         <v>356</v>
       </c>
-      <c r="B26" t="s">
-        <v>357</v>
-      </c>
       <c r="C26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B27" t="s">
         <v>358</v>
       </c>
-      <c r="B27" t="s">
-        <v>359</v>
-      </c>
       <c r="C27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" t="s">
         <v>360</v>
       </c>
-      <c r="B28" t="s">
-        <v>361</v>
-      </c>
       <c r="C28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" t="s">
         <v>362</v>
       </c>
-      <c r="B29" t="s">
-        <v>363</v>
-      </c>
       <c r="C29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" t="s">
         <v>364</v>
       </c>
-      <c r="B30" t="s">
-        <v>365</v>
-      </c>
       <c r="C30" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B31" t="s">
         <v>366</v>
       </c>
-      <c r="B31" t="s">
-        <v>367</v>
-      </c>
       <c r="C31" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" t="s">
         <v>368</v>
       </c>
-      <c r="B32" t="s">
-        <v>369</v>
-      </c>
       <c r="C32" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B33" t="s">
         <v>370</v>
       </c>
-      <c r="B33" t="s">
-        <v>371</v>
-      </c>
       <c r="C33" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B34" t="s">
         <v>372</v>
       </c>
-      <c r="B34" t="s">
-        <v>373</v>
-      </c>
       <c r="C34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B35" t="s">
         <v>374</v>
       </c>
-      <c r="B35" t="s">
-        <v>375</v>
-      </c>
       <c r="C35" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B36" t="s">
         <v>376</v>
       </c>
-      <c r="B36" t="s">
-        <v>377</v>
-      </c>
       <c r="C36" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B37" t="s">
         <v>378</v>
       </c>
-      <c r="B37" t="s">
-        <v>379</v>
-      </c>
       <c r="C37" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B38" t="s">
         <v>380</v>
       </c>
-      <c r="B38" t="s">
-        <v>381</v>
-      </c>
       <c r="C38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B39" t="s">
         <v>382</v>
       </c>
-      <c r="B39" t="s">
-        <v>383</v>
-      </c>
       <c r="C39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B40" t="s">
         <v>384</v>
       </c>
-      <c r="B40" t="s">
-        <v>385</v>
-      </c>
       <c r="C40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B41" t="s">
         <v>386</v>
       </c>
-      <c r="B41" t="s">
-        <v>387</v>
-      </c>
       <c r="C41" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B42" t="s">
         <v>388</v>
       </c>
-      <c r="B42" t="s">
-        <v>389</v>
-      </c>
       <c r="C42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B43" t="s">
         <v>390</v>
       </c>
-      <c r="B43" t="s">
-        <v>391</v>
-      </c>
       <c r="C43" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B44" t="s">
         <v>392</v>
       </c>
-      <c r="B44" t="s">
-        <v>393</v>
-      </c>
       <c r="C44" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B45" t="s">
         <v>394</v>
       </c>
-      <c r="B45" t="s">
-        <v>395</v>
-      </c>
       <c r="C45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B46" t="s">
         <v>396</v>
       </c>
-      <c r="B46" t="s">
-        <v>397</v>
-      </c>
       <c r="C46" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" t="s">
         <v>398</v>
       </c>
-      <c r="B47" t="s">
-        <v>399</v>
-      </c>
       <c r="C47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B48" t="s">
         <v>400</v>
       </c>
-      <c r="B48" t="s">
-        <v>401</v>
-      </c>
       <c r="C48" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JigsawTD\JigsawTD\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B6C2B5-D7A1-4BEC-8285-283C175CF1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8F487-946C-461B-B4B2-CCCEB2101919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,9 +672,6 @@
     <t>SPLASHINFO</t>
   </si>
   <si>
-    <t>溅射半径，基础溅射伤害为50%</t>
-  </si>
-  <si>
     <t>SLOWINFO</t>
   </si>
   <si>
@@ -2561,10 +2558,6 @@
   </si>
   <si>
     <t>PASS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Splash radius. Default splash damage is 50%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4376,18 +4369,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;sprite=1&gt;+1, Penetration Bullet can't splash; Randomly shoot around and double all firerate increased.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;sprite=3&gt;+2, Bullet's final critical damage randomly float between 25% to 250%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>穿透子弹，不可溅射；随机方向攻击；&lt;sprite=1&gt;数量+1，且自身所有攻速加成翻倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;sprite=3&gt;数量+2，且子弹的最终暴击伤害在25%到250%之间随机浮动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4396,26 +4381,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>穿透子弹，不可溅射；&lt;sprite=0&gt;数量+1，回旋镖每命中一个敌人就使后续伤害提高10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack increased by 10% for each enemy in range.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Penetration Bullet can't splash;&lt;sprite=0&gt;+1, Bullet damage will increase by 10% for each enemy it hit.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透子弹，不可溅射;&lt;sprite=2&gt;数量+1，子弹施加双倍的冻结层数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penetration Bullet can't splash;&lt;sprite=2&gt;+1, Double bullet's frost effect.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Damage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4485,6 +4454,38 @@
   </si>
   <si>
     <t>24K Base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sprite=1&gt;+1, Penetration Bullet; Randomly shoot around.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹；&lt;sprite=1&gt;数量+1，自动向随机方向发射炮弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹；&lt;sprite=0&gt;数量+1，回旋镖每命中一个敌人就使后续伤害提高10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹;&lt;sprite=2&gt;数量+1，子弹施加双倍的冻结层数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetration Bullet;&lt;sprite=2&gt;+1, Double bullet's frost effect.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetration Bullet;&lt;sprite=0&gt;+1, Bullet damage will increase by 10% for each enemy it hit.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅射半径，基础溅射伤害为50%；穿透型子弹不会溅射，但会增加子弹体积。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splash radius. Default splash damage is 50%；Penetration bullet will not splash, but can increase bullet's size.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4936,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4950,13 +4951,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" t="s">
         <v>605</v>
       </c>
-      <c r="B1" t="s">
-        <v>606</v>
-      </c>
       <c r="C1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4989,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5000,7 +5001,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5033,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5044,7 +5045,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5055,7 +5056,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5066,7 +5067,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5077,7 +5078,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5088,7 +5089,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5099,7 +5100,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5110,7 +5111,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5121,7 +5122,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5132,7 +5133,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5143,7 +5144,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5154,7 +5155,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5165,7 +5166,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5176,7 +5177,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5187,7 +5188,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5198,7 +5199,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5209,7 +5210,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5220,7 +5221,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5231,18 +5232,18 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B27" t="s">
+        <v>951</v>
+      </c>
+      <c r="C27" t="s">
         <v>952</v>
-      </c>
-      <c r="B27" t="s">
-        <v>953</v>
-      </c>
-      <c r="C27" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5253,7 +5254,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5264,18 +5265,18 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C30" t="s">
         <v>810</v>
-      </c>
-      <c r="C30" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5297,7 +5298,7 @@
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5308,7 +5309,7 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5319,7 +5320,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5330,7 +5331,7 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5341,7 +5342,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5352,7 +5353,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5363,7 +5364,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5374,7 +5375,7 @@
         <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5385,7 +5386,7 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5396,7 +5397,7 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5407,7 +5408,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5418,7 +5419,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5426,21 +5427,21 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C44" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B45" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C45" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5451,7 +5452,7 @@
         <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5462,7 +5463,7 @@
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5473,7 +5474,7 @@
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5484,7 +5485,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5495,7 +5496,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5517,7 +5518,7 @@
         <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5528,7 +5529,7 @@
         <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5539,7 +5540,7 @@
         <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5550,7 +5551,7 @@
         <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5569,7 +5570,7 @@
         <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5577,10 +5578,10 @@
         <v>103</v>
       </c>
       <c r="B58" t="s">
+        <v>811</v>
+      </c>
+      <c r="C58" t="s">
         <v>812</v>
-      </c>
-      <c r="C58" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5588,10 +5589,10 @@
         <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C59" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5599,10 +5600,10 @@
         <v>105</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5610,10 +5611,10 @@
         <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C61" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5621,10 +5622,10 @@
         <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C62" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5632,10 +5633,10 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C63" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5643,10 +5644,10 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C64" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5654,10 +5655,10 @@
         <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C65" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5668,7 +5669,7 @@
         <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5698,10 +5699,10 @@
         <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5709,21 +5710,21 @@
         <v>118</v>
       </c>
       <c r="B70" t="s">
+        <v>815</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>816</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B71" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5731,10 +5732,10 @@
         <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C72" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5742,10 +5743,10 @@
         <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C73" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5753,21 +5754,21 @@
         <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C74" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B75" t="s">
+        <v>821</v>
+      </c>
+      <c r="C75" t="s">
         <v>822</v>
-      </c>
-      <c r="C75" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5775,10 +5776,10 @@
         <v>122</v>
       </c>
       <c r="B76" t="s">
+        <v>823</v>
+      </c>
+      <c r="C76" t="s">
         <v>824</v>
-      </c>
-      <c r="C76" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5789,7 +5790,7 @@
         <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5800,7 +5801,7 @@
         <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5808,10 +5809,10 @@
         <v>127</v>
       </c>
       <c r="B79" t="s">
+        <v>827</v>
+      </c>
+      <c r="C79" t="s">
         <v>828</v>
-      </c>
-      <c r="C79" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5819,43 +5820,43 @@
         <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C80" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B81" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C81" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B82" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C82" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>946</v>
-      </c>
       <c r="C83" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5863,10 +5864,10 @@
         <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C84" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5874,10 +5875,10 @@
         <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C85" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5888,7 +5889,7 @@
         <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5899,7 +5900,7 @@
         <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5910,7 +5911,7 @@
         <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5921,139 +5922,139 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B90" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C90" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B91" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C91" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B92" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C92" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B93" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C93" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B94" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C94" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B95" t="s">
+        <v>809</v>
+      </c>
+      <c r="C95" t="s">
         <v>810</v>
-      </c>
-      <c r="C95" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>957</v>
-      </c>
       <c r="C96" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6061,10 +6062,10 @@
         <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C102" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6075,7 +6076,7 @@
         <v>141</v>
       </c>
       <c r="C103" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6083,10 +6084,10 @@
         <v>142</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C104" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6097,7 +6098,7 @@
         <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6105,10 +6106,10 @@
         <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C106" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6119,7 +6120,7 @@
         <v>147</v>
       </c>
       <c r="C107" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6130,7 +6131,7 @@
         <v>149</v>
       </c>
       <c r="C108" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6141,7 +6142,7 @@
         <v>151</v>
       </c>
       <c r="C109" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6152,7 +6153,7 @@
         <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6163,7 +6164,7 @@
         <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6174,7 +6175,7 @@
         <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6185,7 +6186,7 @@
         <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6196,7 +6197,7 @@
         <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6207,7 +6208,7 @@
         <v>163</v>
       </c>
       <c r="C115" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6218,7 +6219,7 @@
         <v>165</v>
       </c>
       <c r="C116" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6229,7 +6230,7 @@
         <v>167</v>
       </c>
       <c r="C117" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6240,7 +6241,7 @@
         <v>169</v>
       </c>
       <c r="C118" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6251,7 +6252,7 @@
         <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6262,7 +6263,7 @@
         <v>173</v>
       </c>
       <c r="C120" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6273,7 +6274,7 @@
         <v>175</v>
       </c>
       <c r="C121" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6284,7 +6285,7 @@
         <v>177</v>
       </c>
       <c r="C122" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6295,18 +6296,18 @@
         <v>179</v>
       </c>
       <c r="C123" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B124" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C124" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6317,7 +6318,7 @@
         <v>181</v>
       </c>
       <c r="C125" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6328,7 +6329,7 @@
         <v>183</v>
       </c>
       <c r="C126" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6339,7 +6340,7 @@
         <v>185</v>
       </c>
       <c r="C127" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6350,7 +6351,7 @@
         <v>187</v>
       </c>
       <c r="C128" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6361,7 +6362,7 @@
         <v>189</v>
       </c>
       <c r="C129" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6372,7 +6373,7 @@
         <v>191</v>
       </c>
       <c r="C130" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6380,10 +6381,10 @@
         <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="C131" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6394,7 +6395,7 @@
         <v>194</v>
       </c>
       <c r="C132" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6405,7 +6406,7 @@
         <v>196</v>
       </c>
       <c r="C133" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6416,7 +6417,7 @@
         <v>198</v>
       </c>
       <c r="C134" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6427,7 +6428,7 @@
         <v>200</v>
       </c>
       <c r="C135" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6438,7 +6439,7 @@
         <v>202</v>
       </c>
       <c r="C136" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6449,7 +6450,7 @@
         <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6460,7 +6461,7 @@
         <v>206</v>
       </c>
       <c r="C138" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6471,7 +6472,7 @@
         <v>208</v>
       </c>
       <c r="C139" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6482,18 +6483,18 @@
         <v>210</v>
       </c>
       <c r="C140" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B141" t="s">
         <v>1171</v>
       </c>
-      <c r="B141" t="s">
-        <v>1173</v>
-      </c>
       <c r="C141" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6504,18 +6505,18 @@
         <v>212</v>
       </c>
       <c r="C142" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B143" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C143" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6523,10 +6524,10 @@
         <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="C144" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6534,2989 +6535,2989 @@
         <v>214</v>
       </c>
       <c r="B145" t="s">
-        <v>215</v>
+        <v>1321</v>
       </c>
       <c r="C145" t="s">
-        <v>836</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B146" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="C146" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B147" t="s">
         <v>217</v>
       </c>
-      <c r="B147" t="s">
-        <v>218</v>
-      </c>
       <c r="C147" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B148" t="s">
         <v>219</v>
       </c>
-      <c r="B148" t="s">
-        <v>220</v>
-      </c>
       <c r="C148" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" t="s">
         <v>221</v>
       </c>
-      <c r="B149" t="s">
-        <v>222</v>
-      </c>
       <c r="C149" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B150" t="s">
         <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B151" t="s">
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B152" t="s">
         <v>225</v>
       </c>
-      <c r="B152" t="s">
-        <v>226</v>
-      </c>
       <c r="C152" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B153" t="s">
         <v>227</v>
       </c>
-      <c r="B153" t="s">
-        <v>228</v>
-      </c>
       <c r="C153" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B154" t="s">
         <v>229</v>
       </c>
-      <c r="B154" t="s">
-        <v>230</v>
-      </c>
       <c r="C154" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B155" t="s">
         <v>231</v>
       </c>
-      <c r="B155" t="s">
-        <v>232</v>
-      </c>
       <c r="C155" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B156" t="s">
         <v>233</v>
       </c>
-      <c r="B156" t="s">
-        <v>234</v>
-      </c>
       <c r="C156" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B157" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C157" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B158" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C158" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B159" t="s">
         <v>237</v>
       </c>
-      <c r="B159" t="s">
-        <v>238</v>
-      </c>
       <c r="C159" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B160" t="s">
         <v>239</v>
       </c>
-      <c r="B160" t="s">
-        <v>240</v>
-      </c>
       <c r="C160" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B161" t="s">
         <v>241</v>
       </c>
-      <c r="B161" t="s">
-        <v>242</v>
-      </c>
       <c r="C161" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B162" t="s">
         <v>243</v>
       </c>
-      <c r="B162" t="s">
-        <v>244</v>
-      </c>
       <c r="C162" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B163" t="s">
         <v>245</v>
       </c>
-      <c r="B163" t="s">
-        <v>246</v>
-      </c>
       <c r="C163" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B164" t="s">
         <v>247</v>
       </c>
-      <c r="B164" t="s">
-        <v>248</v>
-      </c>
       <c r="C164" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B165" t="s">
         <v>249</v>
       </c>
-      <c r="B165" t="s">
-        <v>250</v>
-      </c>
       <c r="C165" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B166" t="s">
         <v>251</v>
       </c>
-      <c r="B166" t="s">
-        <v>252</v>
-      </c>
       <c r="C166" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B167" t="s">
         <v>253</v>
       </c>
-      <c r="B167" t="s">
-        <v>254</v>
-      </c>
       <c r="C167" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E167" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B168" t="s">
         <v>255</v>
       </c>
-      <c r="B168" t="s">
-        <v>256</v>
-      </c>
       <c r="C168" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B169" t="s">
         <v>257</v>
       </c>
-      <c r="B169" t="s">
-        <v>258</v>
-      </c>
       <c r="C169" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B170" t="s">
         <v>259</v>
       </c>
-      <c r="B170" t="s">
-        <v>260</v>
-      </c>
       <c r="C170" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B171" t="s">
         <v>261</v>
       </c>
-      <c r="B171" t="s">
-        <v>262</v>
-      </c>
       <c r="C171" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B172" t="s">
         <v>263</v>
       </c>
-      <c r="B172" t="s">
-        <v>264</v>
-      </c>
       <c r="C172" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B173" t="s">
         <v>265</v>
       </c>
-      <c r="B173" t="s">
-        <v>266</v>
-      </c>
       <c r="C173" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B174" t="s">
         <v>267</v>
       </c>
-      <c r="B174" t="s">
-        <v>268</v>
-      </c>
       <c r="C174" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B175" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C175" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B176" t="s">
         <v>269</v>
       </c>
-      <c r="B176" t="s">
-        <v>270</v>
-      </c>
       <c r="C176" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B177" t="s">
         <v>271</v>
       </c>
-      <c r="B177" t="s">
-        <v>272</v>
-      </c>
       <c r="C177" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B178" t="s">
         <v>273</v>
       </c>
-      <c r="B178" t="s">
-        <v>274</v>
-      </c>
       <c r="C178" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B179" t="s">
         <v>275</v>
       </c>
-      <c r="B179" t="s">
-        <v>276</v>
-      </c>
       <c r="C179" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B180" t="s">
         <v>277</v>
       </c>
-      <c r="B180" t="s">
-        <v>278</v>
-      </c>
       <c r="C180" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B181" t="s">
         <v>279</v>
       </c>
-      <c r="B181" t="s">
-        <v>280</v>
-      </c>
       <c r="C181" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B182" t="s">
         <v>281</v>
       </c>
-      <c r="B182" t="s">
-        <v>282</v>
-      </c>
       <c r="C182" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B183" t="s">
         <v>283</v>
       </c>
-      <c r="B183" t="s">
-        <v>284</v>
-      </c>
       <c r="C183" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B184" t="s">
         <v>285</v>
       </c>
-      <c r="B184" t="s">
-        <v>286</v>
-      </c>
       <c r="C184" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B185" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C185" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B186" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C186" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B187" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C187" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B188" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C188" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B189" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C189" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B190" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C190" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B191" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C191" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B192" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C192" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B193" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C193" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B194" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C194" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B195" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C195" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B196" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C196" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B197" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C197" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B198" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C198" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B199" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="C199" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B200" t="s">
         <v>290</v>
       </c>
-      <c r="B200" t="s">
-        <v>291</v>
-      </c>
       <c r="C200" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
-        <v>1297</v>
+        <v>1316</v>
       </c>
       <c r="C201" t="s">
-        <v>1295</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B202" t="s">
         <v>293</v>
       </c>
-      <c r="B202" t="s">
-        <v>294</v>
-      </c>
       <c r="C202" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C203" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
-        <v>1303</v>
+        <v>1318</v>
       </c>
       <c r="C204" t="s">
-        <v>1304</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B205" t="s">
         <v>297</v>
       </c>
-      <c r="B205" t="s">
-        <v>298</v>
-      </c>
       <c r="C205" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B206" t="s">
-        <v>1300</v>
+        <v>1317</v>
       </c>
       <c r="C206" t="s">
-        <v>1302</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B207" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C207" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B208" t="s">
         <v>301</v>
       </c>
-      <c r="B208" t="s">
-        <v>302</v>
-      </c>
       <c r="C208" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B209" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="C209" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B210" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C210" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B211" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C211" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B212" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C212" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B213" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C213" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B214" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C214" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B215" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C215" t="s">
         <v>1179</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B216" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C216" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B217" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C217" t="s">
         <v>1180</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B218" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C218" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B219" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C219" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B220" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C220" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B221" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C221" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B222" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C222" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B223" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C223" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B224" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C224" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B225" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C225" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B226" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C226" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B227" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C227" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B228" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C228" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B229" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C229" t="s">
         <v>1195</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B230" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C230" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B231" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C231" t="s">
         <v>1198</v>
-      </c>
-      <c r="C231" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B232" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C232" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B233" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C233" t="s">
         <v>1199</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B234" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C234" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B235" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C235" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B236" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C236" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B237" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C237" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B238" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C238" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B239" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C239" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B240" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C240" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B241" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C241" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B242" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C242" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B243" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C243" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B244" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C244" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B245" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C245" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B246" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C246" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B247" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C247" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B248" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C248" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B249" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C249" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B250" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C250" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B251" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C251" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B252" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C252" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B253" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C253" t="s">
         <v>1226</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B254" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C254" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B255" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C255" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B256" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="C256" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B257" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C257" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B258" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C258" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B259" t="s">
         <v>401</v>
       </c>
-      <c r="B259" t="s">
-        <v>402</v>
-      </c>
       <c r="C259" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B260" t="s">
         <v>403</v>
       </c>
-      <c r="B260" t="s">
-        <v>404</v>
-      </c>
       <c r="C260" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B261" s="5" t="s">
-        <v>406</v>
-      </c>
       <c r="C261" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B262" t="s">
         <v>407</v>
       </c>
-      <c r="B262" t="s">
-        <v>408</v>
-      </c>
       <c r="C262" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C263" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B264" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C264" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C265" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B266" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C266" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C267" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B268" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C268" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B269" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C269" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B270" t="s">
         <v>416</v>
       </c>
-      <c r="B270" t="s">
-        <v>417</v>
-      </c>
       <c r="C270" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C271" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B272" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C272" t="s">
         <v>1123</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="C273" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B274" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="C274" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C275" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B276" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C276" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C277" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B278" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C278" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B279" t="s">
         <v>426</v>
       </c>
-      <c r="B279" t="s">
-        <v>427</v>
-      </c>
       <c r="C279" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B280" t="s">
         <v>428</v>
       </c>
-      <c r="B280" t="s">
-        <v>429</v>
-      </c>
       <c r="C280" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B281" t="s">
         <v>430</v>
       </c>
-      <c r="B281" t="s">
-        <v>431</v>
-      </c>
       <c r="C281" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B282" t="s">
         <v>432</v>
       </c>
-      <c r="B282" t="s">
-        <v>433</v>
-      </c>
       <c r="C282" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B283" t="s">
         <v>434</v>
       </c>
-      <c r="B283" t="s">
-        <v>435</v>
-      </c>
       <c r="C283" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B284" t="s">
         <v>436</v>
       </c>
-      <c r="B284" t="s">
-        <v>437</v>
-      </c>
       <c r="C284" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B285" t="s">
         <v>438</v>
       </c>
-      <c r="B285" t="s">
-        <v>439</v>
-      </c>
       <c r="C285" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B286" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C286" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B287" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C287" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B288" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C288" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B289" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C289" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B290" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C290" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B291" t="s">
         <v>445</v>
       </c>
-      <c r="B291" t="s">
-        <v>446</v>
-      </c>
       <c r="C291" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B292" t="s">
         <v>447</v>
       </c>
-      <c r="B292" t="s">
-        <v>448</v>
-      </c>
       <c r="C292" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B293" t="s">
         <v>449</v>
       </c>
-      <c r="B293" t="s">
-        <v>450</v>
-      </c>
       <c r="C293" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B294" t="s">
         <v>451</v>
       </c>
-      <c r="B294" t="s">
-        <v>452</v>
-      </c>
       <c r="C294" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B295" t="s">
         <v>453</v>
       </c>
-      <c r="B295" t="s">
-        <v>454</v>
-      </c>
       <c r="C295" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B296" t="s">
         <v>455</v>
       </c>
-      <c r="B296" t="s">
-        <v>456</v>
-      </c>
       <c r="C296" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B297" t="s">
         <v>457</v>
       </c>
-      <c r="B297" t="s">
-        <v>458</v>
-      </c>
       <c r="C297" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B298" t="s">
         <v>459</v>
       </c>
-      <c r="B298" t="s">
-        <v>460</v>
-      </c>
       <c r="C298" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B299" t="s">
         <v>461</v>
       </c>
-      <c r="B299" t="s">
-        <v>462</v>
-      </c>
       <c r="C299" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B300" t="s">
         <v>463</v>
       </c>
-      <c r="B300" t="s">
-        <v>464</v>
-      </c>
       <c r="C300" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B301" t="s">
         <v>465</v>
       </c>
-      <c r="B301" t="s">
-        <v>466</v>
-      </c>
       <c r="C301" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B302" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C302" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B303" t="s">
         <v>468</v>
       </c>
-      <c r="B303" t="s">
-        <v>469</v>
-      </c>
       <c r="C303" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B304" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C304" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B305" t="s">
         <v>471</v>
       </c>
-      <c r="B305" t="s">
-        <v>472</v>
-      </c>
       <c r="C305" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B306" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="C306" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B307" t="s">
         <v>474</v>
       </c>
-      <c r="B307" t="s">
-        <v>475</v>
-      </c>
       <c r="C307" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B308" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C308" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B309" t="s">
         <v>477</v>
       </c>
-      <c r="B309" t="s">
-        <v>478</v>
-      </c>
       <c r="C309" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B310" t="s">
         <v>479</v>
       </c>
-      <c r="B310" t="s">
-        <v>480</v>
-      </c>
       <c r="C310" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B311" t="s">
         <v>481</v>
       </c>
-      <c r="B311" t="s">
-        <v>482</v>
-      </c>
       <c r="C311" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B312" t="s">
         <v>483</v>
       </c>
-      <c r="B312" t="s">
-        <v>484</v>
-      </c>
       <c r="C312" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B313" t="s">
         <v>485</v>
       </c>
-      <c r="B313" t="s">
-        <v>486</v>
-      </c>
       <c r="C313" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B314" t="s">
         <v>487</v>
       </c>
-      <c r="B314" t="s">
-        <v>488</v>
-      </c>
       <c r="C314" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B315" t="s">
         <v>489</v>
       </c>
-      <c r="B315" t="s">
-        <v>490</v>
-      </c>
       <c r="C315" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B316" t="s">
         <v>491</v>
       </c>
-      <c r="B316" t="s">
-        <v>492</v>
-      </c>
       <c r="C316" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B317" t="s">
         <v>493</v>
       </c>
-      <c r="B317" t="s">
-        <v>494</v>
-      </c>
       <c r="C317" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B318" t="s">
         <v>495</v>
       </c>
-      <c r="B318" t="s">
-        <v>496</v>
-      </c>
       <c r="C318" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B319" t="s">
         <v>497</v>
       </c>
-      <c r="B319" t="s">
-        <v>498</v>
-      </c>
       <c r="C319" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B320" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C320" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B321" t="s">
         <v>500</v>
       </c>
-      <c r="B321" t="s">
-        <v>501</v>
-      </c>
       <c r="C321" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B322" t="s">
         <v>502</v>
       </c>
-      <c r="B322" t="s">
-        <v>503</v>
-      </c>
       <c r="C322" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B323" t="s">
         <v>504</v>
       </c>
-      <c r="B323" t="s">
-        <v>505</v>
-      </c>
       <c r="C323" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B324" t="s">
         <v>506</v>
       </c>
-      <c r="B324" t="s">
-        <v>507</v>
-      </c>
       <c r="C324" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B325" t="s">
         <v>508</v>
       </c>
-      <c r="B325" t="s">
-        <v>509</v>
-      </c>
       <c r="C325" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B326" t="s">
         <v>510</v>
       </c>
-      <c r="B326" t="s">
-        <v>511</v>
-      </c>
       <c r="C326" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B327" t="s">
         <v>512</v>
       </c>
-      <c r="B327" t="s">
-        <v>513</v>
-      </c>
       <c r="C327" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B328" t="s">
         <v>514</v>
       </c>
-      <c r="B328" t="s">
-        <v>515</v>
-      </c>
       <c r="C328" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B329" t="s">
         <v>516</v>
       </c>
-      <c r="B329" t="s">
-        <v>517</v>
-      </c>
       <c r="C329" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B330" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C330" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B331" t="s">
         <v>519</v>
       </c>
-      <c r="B331" t="s">
-        <v>520</v>
-      </c>
       <c r="C331" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B332" t="s">
         <v>521</v>
       </c>
-      <c r="B332" t="s">
-        <v>522</v>
-      </c>
       <c r="C332" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B333" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C333" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B334" t="s">
         <v>524</v>
       </c>
-      <c r="B334" t="s">
-        <v>525</v>
-      </c>
       <c r="C334" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B335" t="s">
         <v>526</v>
       </c>
-      <c r="B335" t="s">
-        <v>527</v>
-      </c>
       <c r="C335" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B336" t="s">
         <v>528</v>
       </c>
-      <c r="B336" t="s">
-        <v>529</v>
-      </c>
       <c r="C336" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B337" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C337" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B338" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C338" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B339" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C339" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B340" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C340" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B341" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C341" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B342" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C342" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B343" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C343" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B344" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C344" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B345" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C345" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B346" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C346" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B347" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D347" s="6"/>
     </row>
     <row r="348" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B348" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C348" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B349" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C349" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B350" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D350" s="7"/>
     </row>
     <row r="351" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B351" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D351" s="7"/>
     </row>
     <row r="352" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B352" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C352" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B353" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C353" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B354" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C354" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B355" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C355" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B356" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C356" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B357" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C357" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B358" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C358" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B359" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C359" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B360" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D360" s="6"/>
     </row>
     <row r="361" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B361" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D361" s="6"/>
     </row>
     <row r="362" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B362" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D362" s="6"/>
     </row>
     <row r="363" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B363" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C363" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B364" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C364" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B365" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C365" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B366" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C366" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B367" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C367" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B368" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C368" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B369" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C369" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B370" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C370" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B371" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C371" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B372" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C372" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B373" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C373" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B374" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C374" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E374" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B375" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C375" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B376" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C376" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B377" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C377" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B378" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C378" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B379" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C379" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B380" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C380" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B381" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C381" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B382" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C382" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B383" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C383" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B384" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C384" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B385" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C385" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B386" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C386" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B389" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C389" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B390" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C390" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C391" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B392" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C392" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B393" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C393" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B394" t="s">
+        <v>887</v>
+      </c>
+      <c r="C394" t="s">
         <v>889</v>
-      </c>
-      <c r="C394" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B395" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C395" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B397" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C397" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B398" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C398" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B399" t="s">
         <v>573</v>
       </c>
-      <c r="B399" t="s">
-        <v>574</v>
-      </c>
       <c r="C399" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B400" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C400" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B401" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C401" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B402" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C402" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C403" t="s">
         <v>1115</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C403" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B404" t="s">
         <v>578</v>
       </c>
-      <c r="B404" t="s">
-        <v>579</v>
-      </c>
       <c r="C404" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B405" t="s">
         <v>580</v>
       </c>
-      <c r="B405" t="s">
-        <v>581</v>
-      </c>
       <c r="C405" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B406" t="s">
         <v>582</v>
       </c>
-      <c r="B406" t="s">
-        <v>583</v>
-      </c>
       <c r="C406" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B407" t="s">
         <v>584</v>
       </c>
-      <c r="B407" t="s">
-        <v>585</v>
-      </c>
       <c r="C407" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B409" t="s">
         <v>587</v>
       </c>
-      <c r="B409" t="s">
-        <v>588</v>
-      </c>
       <c r="C409" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B411" t="s">
         <v>590</v>
       </c>
-      <c r="B411" t="s">
-        <v>591</v>
-      </c>
       <c r="C411" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B412" t="s">
         <v>592</v>
       </c>
-      <c r="B412" t="s">
-        <v>593</v>
-      </c>
       <c r="C412" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B413" t="s">
         <v>594</v>
       </c>
-      <c r="B413" t="s">
-        <v>595</v>
-      </c>
       <c r="C413" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B415" t="s">
         <v>597</v>
       </c>
-      <c r="B415" t="s">
-        <v>598</v>
-      </c>
       <c r="C415" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B416" t="s">
         <v>599</v>
       </c>
-      <c r="B416" t="s">
-        <v>600</v>
-      </c>
       <c r="C416" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B417" t="s">
         <v>601</v>
       </c>
-      <c r="B417" t="s">
-        <v>602</v>
-      </c>
       <c r="C417" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B418" t="s">
         <v>603</v>
       </c>
-      <c r="B418" t="s">
-        <v>604</v>
-      </c>
       <c r="C418" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -9552,546 +9553,546 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" t="s">
         <v>305</v>
       </c>
-      <c r="B1" t="s">
-        <v>306</v>
-      </c>
       <c r="C1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
         <v>307</v>
       </c>
-      <c r="B2" t="s">
-        <v>308</v>
-      </c>
       <c r="C2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" t="s">
         <v>309</v>
       </c>
-      <c r="B3" t="s">
-        <v>310</v>
-      </c>
       <c r="C3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" t="s">
         <v>311</v>
       </c>
-      <c r="B4" t="s">
-        <v>312</v>
-      </c>
       <c r="C4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" t="s">
         <v>313</v>
       </c>
-      <c r="B5" t="s">
-        <v>314</v>
-      </c>
       <c r="C5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" t="s">
         <v>315</v>
       </c>
-      <c r="B6" t="s">
-        <v>316</v>
-      </c>
       <c r="C6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" t="s">
         <v>317</v>
       </c>
-      <c r="B7" t="s">
-        <v>318</v>
-      </c>
       <c r="C7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
         <v>319</v>
       </c>
-      <c r="B8" t="s">
-        <v>320</v>
-      </c>
       <c r="C8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" t="s">
         <v>321</v>
       </c>
-      <c r="B9" t="s">
-        <v>322</v>
-      </c>
       <c r="C9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" t="s">
         <v>323</v>
       </c>
-      <c r="B10" t="s">
-        <v>324</v>
-      </c>
       <c r="C10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" t="s">
         <v>325</v>
       </c>
-      <c r="B11" t="s">
-        <v>326</v>
-      </c>
       <c r="C11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" t="s">
         <v>327</v>
       </c>
-      <c r="B12" t="s">
-        <v>328</v>
-      </c>
       <c r="C12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" t="s">
         <v>329</v>
       </c>
-      <c r="B13" t="s">
-        <v>330</v>
-      </c>
       <c r="C13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" t="s">
         <v>331</v>
       </c>
-      <c r="B14" t="s">
-        <v>332</v>
-      </c>
       <c r="C14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" t="s">
         <v>333</v>
       </c>
-      <c r="B15" t="s">
-        <v>334</v>
-      </c>
       <c r="C15" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16" t="s">
         <v>335</v>
       </c>
-      <c r="B16" t="s">
-        <v>336</v>
-      </c>
       <c r="C16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" t="s">
         <v>337</v>
       </c>
-      <c r="B17" t="s">
-        <v>338</v>
-      </c>
       <c r="C17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" t="s">
         <v>339</v>
       </c>
-      <c r="B18" t="s">
-        <v>340</v>
-      </c>
       <c r="C18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" t="s">
         <v>341</v>
       </c>
-      <c r="B19" t="s">
-        <v>342</v>
-      </c>
       <c r="C19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" t="s">
         <v>343</v>
       </c>
-      <c r="B20" t="s">
-        <v>344</v>
-      </c>
       <c r="C20" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" t="s">
         <v>345</v>
       </c>
-      <c r="B21" t="s">
-        <v>346</v>
-      </c>
       <c r="C21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B22" t="s">
         <v>347</v>
       </c>
-      <c r="B22" t="s">
-        <v>348</v>
-      </c>
       <c r="C22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23" t="s">
         <v>349</v>
       </c>
-      <c r="B23" t="s">
-        <v>350</v>
-      </c>
       <c r="C23" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" t="s">
         <v>351</v>
       </c>
-      <c r="B24" t="s">
-        <v>352</v>
-      </c>
       <c r="C24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" t="s">
         <v>353</v>
       </c>
-      <c r="B25" t="s">
-        <v>354</v>
-      </c>
       <c r="C25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B26" t="s">
         <v>355</v>
       </c>
-      <c r="B26" t="s">
-        <v>356</v>
-      </c>
       <c r="C26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" t="s">
         <v>357</v>
       </c>
-      <c r="B27" t="s">
-        <v>358</v>
-      </c>
       <c r="C27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" t="s">
         <v>359</v>
       </c>
-      <c r="B28" t="s">
-        <v>360</v>
-      </c>
       <c r="C28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" t="s">
         <v>361</v>
       </c>
-      <c r="B29" t="s">
-        <v>362</v>
-      </c>
       <c r="C29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B30" t="s">
         <v>363</v>
       </c>
-      <c r="B30" t="s">
-        <v>364</v>
-      </c>
       <c r="C30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" t="s">
         <v>365</v>
       </c>
-      <c r="B31" t="s">
-        <v>366</v>
-      </c>
       <c r="C31" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" t="s">
         <v>367</v>
       </c>
-      <c r="B32" t="s">
-        <v>368</v>
-      </c>
       <c r="C32" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" t="s">
         <v>369</v>
       </c>
-      <c r="B33" t="s">
-        <v>370</v>
-      </c>
       <c r="C33" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" t="s">
         <v>371</v>
       </c>
-      <c r="B34" t="s">
-        <v>372</v>
-      </c>
       <c r="C34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B35" t="s">
         <v>373</v>
       </c>
-      <c r="B35" t="s">
-        <v>374</v>
-      </c>
       <c r="C35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B36" t="s">
         <v>375</v>
       </c>
-      <c r="B36" t="s">
-        <v>376</v>
-      </c>
       <c r="C36" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" t="s">
         <v>377</v>
       </c>
-      <c r="B37" t="s">
-        <v>378</v>
-      </c>
       <c r="C37" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B38" t="s">
         <v>379</v>
       </c>
-      <c r="B38" t="s">
-        <v>380</v>
-      </c>
       <c r="C38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" t="s">
         <v>381</v>
       </c>
-      <c r="B39" t="s">
-        <v>382</v>
-      </c>
       <c r="C39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B40" t="s">
         <v>383</v>
       </c>
-      <c r="B40" t="s">
-        <v>384</v>
-      </c>
       <c r="C40" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B41" t="s">
         <v>385</v>
       </c>
-      <c r="B41" t="s">
-        <v>386</v>
-      </c>
       <c r="C41" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B42" t="s">
         <v>387</v>
       </c>
-      <c r="B42" t="s">
-        <v>388</v>
-      </c>
       <c r="C42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B43" t="s">
         <v>389</v>
       </c>
-      <c r="B43" t="s">
-        <v>390</v>
-      </c>
       <c r="C43" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B44" t="s">
         <v>391</v>
       </c>
-      <c r="B44" t="s">
-        <v>392</v>
-      </c>
       <c r="C44" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B45" t="s">
         <v>393</v>
       </c>
-      <c r="B45" t="s">
-        <v>394</v>
-      </c>
       <c r="C45" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B46" t="s">
         <v>395</v>
       </c>
-      <c r="B46" t="s">
-        <v>396</v>
-      </c>
       <c r="C46" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B47" t="s">
         <v>397</v>
       </c>
-      <c r="B47" t="s">
-        <v>398</v>
-      </c>
       <c r="C47" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B48" t="s">
         <v>399</v>
       </c>
-      <c r="B48" t="s">
-        <v>400</v>
-      </c>
       <c r="C48" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JigsawTD\JigsawTD\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8F487-946C-461B-B4B2-CCCEB2101919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4FC582-B788-4FCC-9162-E6855F6BF1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,9 +459,6 @@
     <t>NEXTWAVE</t>
   </si>
   <si>
-    <t>下一波[Space]</t>
-  </si>
-  <si>
     <t>DRAWMODULE</t>
   </si>
   <si>
@@ -2004,9 +2001,6 @@
   </si>
   <si>
     <t>If you haven't build last turn, the price will be reduced\n current price reduction percentage:</t>
-  </si>
-  <si>
-    <t>Next Wave[Space]</t>
   </si>
   <si>
     <t>Now</t>
@@ -4486,6 +4480,14 @@
   </si>
   <si>
     <t>Splash radius. Default splash damage is 50%；Penetration bullet will not splash, but can increase bullet's size.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Wave</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4937,8 +4939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4951,13 +4953,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" t="s">
         <v>604</v>
       </c>
-      <c r="B1" t="s">
-        <v>605</v>
-      </c>
       <c r="C1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4990,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5001,7 +5003,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5034,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5045,7 +5047,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5056,7 +5058,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5067,7 +5069,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5078,7 +5080,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5089,7 +5091,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5100,7 +5102,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5111,7 +5113,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5122,7 +5124,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5133,7 +5135,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5144,7 +5146,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5155,7 +5157,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5166,7 +5168,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5177,7 +5179,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5188,7 +5190,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5199,7 +5201,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5210,7 +5212,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5221,7 +5223,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5232,18 +5234,18 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B27" t="s">
+        <v>949</v>
+      </c>
+      <c r="C27" t="s">
         <v>950</v>
-      </c>
-      <c r="B27" t="s">
-        <v>951</v>
-      </c>
-      <c r="C27" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5254,7 +5256,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5265,18 +5267,18 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5298,7 +5300,7 @@
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5309,7 +5311,7 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5320,7 +5322,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5331,7 +5333,7 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5342,7 +5344,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5353,7 +5355,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5364,7 +5366,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5375,7 +5377,7 @@
         <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5386,7 +5388,7 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5397,7 +5399,7 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5408,7 +5410,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5419,7 +5421,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5427,21 +5429,21 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C44" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B45" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C45" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5452,7 +5454,7 @@
         <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5463,7 +5465,7 @@
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5474,7 +5476,7 @@
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5485,7 +5487,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5496,7 +5498,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5518,7 +5520,7 @@
         <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5529,7 +5531,7 @@
         <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5540,7 +5542,7 @@
         <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5551,7 +5553,7 @@
         <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5570,7 +5572,7 @@
         <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5578,10 +5580,10 @@
         <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C58" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5589,10 +5591,10 @@
         <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C59" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5600,10 +5602,10 @@
         <v>105</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5611,10 +5613,10 @@
         <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C61" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5622,10 +5624,10 @@
         <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C62" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5633,10 +5635,10 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C63" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5644,10 +5646,10 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C64" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5655,10 +5657,10 @@
         <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C65" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5669,7 +5671,7 @@
         <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5699,10 +5701,10 @@
         <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5710,21 +5712,21 @@
         <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B71" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5732,10 +5734,10 @@
         <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C72" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5743,10 +5745,10 @@
         <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C73" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5754,21 +5756,21 @@
         <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C74" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B75" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C75" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5776,10 +5778,10 @@
         <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C76" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5790,7 +5792,7 @@
         <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5801,7 +5803,7 @@
         <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5809,10 +5811,10 @@
         <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C79" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5820,43 +5822,43 @@
         <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C80" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B81" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C81" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B82" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C82" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>944</v>
-      </c>
       <c r="C83" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5864,10 +5866,10 @@
         <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C84" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5875,10 +5877,10 @@
         <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C85" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5889,7 +5891,7 @@
         <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5900,7 +5902,7 @@
         <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5911,7 +5913,7 @@
         <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5922,139 +5924,139 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B90" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C90" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B91" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C91" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B92" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C92" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B93" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C93" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B94" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C94" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B95" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C95" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>955</v>
-      </c>
       <c r="C96" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6062,10 +6064,10 @@
         <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C102" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6076,7 +6078,7 @@
         <v>141</v>
       </c>
       <c r="C103" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6084,10 +6086,10 @@
         <v>142</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C104" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6095,3429 +6097,3429 @@
         <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>1321</v>
       </c>
       <c r="C105" t="s">
-        <v>659</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B106" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C106" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" t="s">
         <v>146</v>
       </c>
-      <c r="B107" t="s">
-        <v>147</v>
-      </c>
       <c r="C107" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" t="s">
         <v>148</v>
       </c>
-      <c r="B108" t="s">
-        <v>149</v>
-      </c>
       <c r="C108" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" t="s">
         <v>150</v>
       </c>
-      <c r="B109" t="s">
-        <v>151</v>
-      </c>
       <c r="C109" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" t="s">
         <v>152</v>
       </c>
-      <c r="B110" t="s">
-        <v>153</v>
-      </c>
       <c r="C110" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
         <v>154</v>
       </c>
-      <c r="B111" t="s">
-        <v>155</v>
-      </c>
       <c r="C111" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
         <v>156</v>
       </c>
-      <c r="B112" t="s">
-        <v>157</v>
-      </c>
       <c r="C112" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" t="s">
         <v>158</v>
       </c>
-      <c r="B113" t="s">
-        <v>159</v>
-      </c>
       <c r="C113" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" t="s">
         <v>160</v>
       </c>
-      <c r="B114" t="s">
-        <v>161</v>
-      </c>
       <c r="C114" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" t="s">
         <v>162</v>
       </c>
-      <c r="B115" t="s">
-        <v>163</v>
-      </c>
       <c r="C115" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B116" t="s">
         <v>164</v>
       </c>
-      <c r="B116" t="s">
-        <v>165</v>
-      </c>
       <c r="C116" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" t="s">
         <v>166</v>
       </c>
-      <c r="B117" t="s">
-        <v>167</v>
-      </c>
       <c r="C117" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B118" t="s">
         <v>168</v>
       </c>
-      <c r="B118" t="s">
-        <v>169</v>
-      </c>
       <c r="C118" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" t="s">
         <v>170</v>
       </c>
-      <c r="B119" t="s">
-        <v>171</v>
-      </c>
       <c r="C119" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" t="s">
         <v>172</v>
       </c>
-      <c r="B120" t="s">
-        <v>173</v>
-      </c>
       <c r="C120" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" t="s">
         <v>174</v>
       </c>
-      <c r="B121" t="s">
-        <v>175</v>
-      </c>
       <c r="C121" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122" t="s">
         <v>176</v>
       </c>
-      <c r="B122" t="s">
-        <v>177</v>
-      </c>
       <c r="C122" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123" t="s">
         <v>178</v>
       </c>
-      <c r="B123" t="s">
-        <v>179</v>
-      </c>
       <c r="C123" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B124" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C124" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125" t="s">
         <v>180</v>
       </c>
-      <c r="B125" t="s">
-        <v>181</v>
-      </c>
       <c r="C125" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" t="s">
         <v>182</v>
       </c>
-      <c r="B126" t="s">
-        <v>183</v>
-      </c>
       <c r="C126" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B127" t="s">
         <v>184</v>
       </c>
-      <c r="B127" t="s">
-        <v>185</v>
-      </c>
       <c r="C127" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" t="s">
         <v>186</v>
       </c>
-      <c r="B128" t="s">
-        <v>187</v>
-      </c>
       <c r="C128" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" t="s">
         <v>188</v>
       </c>
-      <c r="B129" t="s">
-        <v>189</v>
-      </c>
       <c r="C129" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B130" t="s">
         <v>190</v>
       </c>
-      <c r="B130" t="s">
-        <v>191</v>
-      </c>
       <c r="C130" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B131" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C131" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" t="s">
         <v>193</v>
       </c>
-      <c r="B132" t="s">
-        <v>194</v>
-      </c>
       <c r="C132" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" t="s">
         <v>195</v>
       </c>
-      <c r="B133" t="s">
-        <v>196</v>
-      </c>
       <c r="C133" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B134" t="s">
         <v>197</v>
       </c>
-      <c r="B134" t="s">
-        <v>198</v>
-      </c>
       <c r="C134" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B135" t="s">
         <v>199</v>
       </c>
-      <c r="B135" t="s">
-        <v>200</v>
-      </c>
       <c r="C135" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B136" t="s">
         <v>201</v>
       </c>
-      <c r="B136" t="s">
-        <v>202</v>
-      </c>
       <c r="C136" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B137" t="s">
         <v>203</v>
       </c>
-      <c r="B137" t="s">
-        <v>204</v>
-      </c>
       <c r="C137" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B138" t="s">
         <v>205</v>
       </c>
-      <c r="B138" t="s">
-        <v>206</v>
-      </c>
       <c r="C138" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B139" t="s">
         <v>207</v>
       </c>
-      <c r="B139" t="s">
-        <v>208</v>
-      </c>
       <c r="C139" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B140" t="s">
         <v>209</v>
       </c>
-      <c r="B140" t="s">
-        <v>210</v>
-      </c>
       <c r="C140" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B141" t="s">
         <v>1169</v>
       </c>
-      <c r="B141" t="s">
-        <v>1171</v>
-      </c>
       <c r="C141" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B142" t="s">
         <v>211</v>
       </c>
-      <c r="B142" t="s">
-        <v>212</v>
-      </c>
       <c r="C142" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B143" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C143" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C144" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B145" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C145" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B146" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C146" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B147" t="s">
         <v>216</v>
       </c>
-      <c r="B147" t="s">
-        <v>217</v>
-      </c>
       <c r="C147" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B148" t="s">
         <v>218</v>
       </c>
-      <c r="B148" t="s">
-        <v>219</v>
-      </c>
       <c r="C148" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B149" t="s">
         <v>220</v>
       </c>
-      <c r="B149" t="s">
-        <v>221</v>
-      </c>
       <c r="C149" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C150" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B151" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C151" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B152" t="s">
         <v>224</v>
       </c>
-      <c r="B152" t="s">
-        <v>225</v>
-      </c>
       <c r="C152" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B153" t="s">
         <v>226</v>
       </c>
-      <c r="B153" t="s">
-        <v>227</v>
-      </c>
       <c r="C153" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B154" t="s">
         <v>228</v>
       </c>
-      <c r="B154" t="s">
-        <v>229</v>
-      </c>
       <c r="C154" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155" t="s">
         <v>230</v>
       </c>
-      <c r="B155" t="s">
-        <v>231</v>
-      </c>
       <c r="C155" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B156" t="s">
         <v>232</v>
       </c>
-      <c r="B156" t="s">
-        <v>233</v>
-      </c>
       <c r="C156" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B157" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C157" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B158" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C158" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B159" t="s">
         <v>236</v>
       </c>
-      <c r="B159" t="s">
-        <v>237</v>
-      </c>
       <c r="C159" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B160" t="s">
         <v>238</v>
       </c>
-      <c r="B160" t="s">
-        <v>239</v>
-      </c>
       <c r="C160" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B161" t="s">
         <v>240</v>
       </c>
-      <c r="B161" t="s">
-        <v>241</v>
-      </c>
       <c r="C161" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B162" t="s">
         <v>242</v>
       </c>
-      <c r="B162" t="s">
-        <v>243</v>
-      </c>
       <c r="C162" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B163" t="s">
         <v>244</v>
       </c>
-      <c r="B163" t="s">
-        <v>245</v>
-      </c>
       <c r="C163" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B164" t="s">
         <v>246</v>
       </c>
-      <c r="B164" t="s">
-        <v>247</v>
-      </c>
       <c r="C164" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B165" t="s">
         <v>248</v>
       </c>
-      <c r="B165" t="s">
-        <v>249</v>
-      </c>
       <c r="C165" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B166" t="s">
         <v>250</v>
       </c>
-      <c r="B166" t="s">
-        <v>251</v>
-      </c>
       <c r="C166" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B167" t="s">
         <v>252</v>
       </c>
-      <c r="B167" t="s">
-        <v>253</v>
-      </c>
       <c r="C167" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E167" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B168" t="s">
         <v>254</v>
       </c>
-      <c r="B168" t="s">
-        <v>255</v>
-      </c>
       <c r="C168" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B169" t="s">
         <v>256</v>
       </c>
-      <c r="B169" t="s">
-        <v>257</v>
-      </c>
       <c r="C169" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B170" t="s">
         <v>258</v>
       </c>
-      <c r="B170" t="s">
-        <v>259</v>
-      </c>
       <c r="C170" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B171" t="s">
         <v>260</v>
       </c>
-      <c r="B171" t="s">
-        <v>261</v>
-      </c>
       <c r="C171" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B172" t="s">
         <v>262</v>
       </c>
-      <c r="B172" t="s">
-        <v>263</v>
-      </c>
       <c r="C172" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B173" t="s">
         <v>264</v>
       </c>
-      <c r="B173" t="s">
-        <v>265</v>
-      </c>
       <c r="C173" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B174" t="s">
         <v>266</v>
       </c>
-      <c r="B174" t="s">
-        <v>267</v>
-      </c>
       <c r="C174" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B175" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C175" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B176" t="s">
         <v>268</v>
       </c>
-      <c r="B176" t="s">
-        <v>269</v>
-      </c>
       <c r="C176" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B177" t="s">
         <v>270</v>
       </c>
-      <c r="B177" t="s">
-        <v>271</v>
-      </c>
       <c r="C177" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B178" t="s">
         <v>272</v>
       </c>
-      <c r="B178" t="s">
-        <v>273</v>
-      </c>
       <c r="C178" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B179" t="s">
         <v>274</v>
       </c>
-      <c r="B179" t="s">
-        <v>275</v>
-      </c>
       <c r="C179" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B180" t="s">
         <v>276</v>
       </c>
-      <c r="B180" t="s">
-        <v>277</v>
-      </c>
       <c r="C180" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B181" t="s">
         <v>278</v>
       </c>
-      <c r="B181" t="s">
-        <v>279</v>
-      </c>
       <c r="C181" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B182" t="s">
         <v>280</v>
       </c>
-      <c r="B182" t="s">
-        <v>281</v>
-      </c>
       <c r="C182" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B183" t="s">
         <v>282</v>
       </c>
-      <c r="B183" t="s">
-        <v>283</v>
-      </c>
       <c r="C183" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B184" t="s">
         <v>284</v>
       </c>
-      <c r="B184" t="s">
-        <v>285</v>
-      </c>
       <c r="C184" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B185" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C185" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B186" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C186" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B187" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C187" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B188" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C188" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B189" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C189" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B190" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C190" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B191" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C191" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B192" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C192" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B193" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C193" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B194" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C194" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B195" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C195" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B196" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C196" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B197" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C197" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C198" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B199" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C199" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B200" t="s">
         <v>289</v>
       </c>
-      <c r="B200" t="s">
-        <v>290</v>
-      </c>
       <c r="C200" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B201" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C201" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B202" t="s">
         <v>292</v>
       </c>
-      <c r="B202" t="s">
-        <v>293</v>
-      </c>
       <c r="C202" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C203" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C204" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B205" t="s">
         <v>296</v>
       </c>
-      <c r="B205" t="s">
-        <v>297</v>
-      </c>
       <c r="C205" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C206" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C207" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B208" t="s">
         <v>300</v>
       </c>
-      <c r="B208" t="s">
-        <v>301</v>
-      </c>
       <c r="C208" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B209" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C209" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B210" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C210" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B211" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C211" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B212" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C212" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B213" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C213" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B214" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C214" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B215" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C215" t="s">
         <v>1177</v>
-      </c>
-      <c r="C215" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B216" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C216" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B217" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C217" t="s">
         <v>1178</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B218" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C218" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B219" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C219" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B220" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C220" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B221" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C221" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B222" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C222" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B223" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C223" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B224" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C224" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B225" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C225" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B226" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C226" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B227" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C227" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B228" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C228" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B229" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C229" t="s">
         <v>1193</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B230" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C230" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B231" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C231" t="s">
         <v>1196</v>
-      </c>
-      <c r="C231" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B232" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C232" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B233" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C233" t="s">
         <v>1197</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B234" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C234" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B235" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C235" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B236" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C236" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B237" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C237" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B238" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C238" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B239" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C239" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B240" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C240" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B241" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C241" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B242" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C242" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B243" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C243" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B244" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C244" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B245" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C245" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B246" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C246" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B247" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C247" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B248" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C248" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B249" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C249" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B250" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C250" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B251" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C251" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B252" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C252" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B253" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C253" t="s">
         <v>1224</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B254" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C254" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B255" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C255" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B256" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C256" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B257" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C257" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B258" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C258" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B259" t="s">
         <v>400</v>
       </c>
-      <c r="B259" t="s">
-        <v>401</v>
-      </c>
       <c r="C259" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B260" t="s">
         <v>402</v>
       </c>
-      <c r="B260" t="s">
-        <v>403</v>
-      </c>
       <c r="C260" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B261" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B261" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="C261" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B262" t="s">
         <v>406</v>
       </c>
-      <c r="B262" t="s">
-        <v>407</v>
-      </c>
       <c r="C262" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C263" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B264" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C264" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C265" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B266" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C266" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C267" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B268" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C268" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B269" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C269" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B270" t="s">
         <v>415</v>
       </c>
-      <c r="B270" t="s">
-        <v>416</v>
-      </c>
       <c r="C270" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C271" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B272" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C272" t="s">
         <v>1121</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C273" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B274" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C274" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C275" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B276" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C276" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C277" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B278" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C278" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B279" t="s">
         <v>425</v>
       </c>
-      <c r="B279" t="s">
-        <v>426</v>
-      </c>
       <c r="C279" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B280" t="s">
         <v>427</v>
       </c>
-      <c r="B280" t="s">
-        <v>428</v>
-      </c>
       <c r="C280" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B281" t="s">
         <v>429</v>
       </c>
-      <c r="B281" t="s">
-        <v>430</v>
-      </c>
       <c r="C281" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B282" t="s">
         <v>431</v>
       </c>
-      <c r="B282" t="s">
-        <v>432</v>
-      </c>
       <c r="C282" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B283" t="s">
         <v>433</v>
       </c>
-      <c r="B283" t="s">
-        <v>434</v>
-      </c>
       <c r="C283" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B284" t="s">
         <v>435</v>
       </c>
-      <c r="B284" t="s">
-        <v>436</v>
-      </c>
       <c r="C284" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B285" t="s">
         <v>437</v>
       </c>
-      <c r="B285" t="s">
-        <v>438</v>
-      </c>
       <c r="C285" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B286" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C286" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B287" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C287" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B288" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C288" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B289" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C289" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B290" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C290" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B291" t="s">
         <v>444</v>
       </c>
-      <c r="B291" t="s">
-        <v>445</v>
-      </c>
       <c r="C291" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B292" t="s">
         <v>446</v>
       </c>
-      <c r="B292" t="s">
-        <v>447</v>
-      </c>
       <c r="C292" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B293" t="s">
         <v>448</v>
       </c>
-      <c r="B293" t="s">
-        <v>449</v>
-      </c>
       <c r="C293" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B294" t="s">
         <v>450</v>
       </c>
-      <c r="B294" t="s">
-        <v>451</v>
-      </c>
       <c r="C294" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B295" t="s">
         <v>452</v>
       </c>
-      <c r="B295" t="s">
-        <v>453</v>
-      </c>
       <c r="C295" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B296" t="s">
         <v>454</v>
       </c>
-      <c r="B296" t="s">
-        <v>455</v>
-      </c>
       <c r="C296" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B297" t="s">
         <v>456</v>
       </c>
-      <c r="B297" t="s">
-        <v>457</v>
-      </c>
       <c r="C297" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B298" t="s">
         <v>458</v>
       </c>
-      <c r="B298" t="s">
-        <v>459</v>
-      </c>
       <c r="C298" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B299" t="s">
         <v>460</v>
       </c>
-      <c r="B299" t="s">
-        <v>461</v>
-      </c>
       <c r="C299" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B300" t="s">
         <v>462</v>
       </c>
-      <c r="B300" t="s">
-        <v>463</v>
-      </c>
       <c r="C300" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B301" t="s">
         <v>464</v>
       </c>
-      <c r="B301" t="s">
-        <v>465</v>
-      </c>
       <c r="C301" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B302" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C302" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B303" t="s">
         <v>467</v>
       </c>
-      <c r="B303" t="s">
-        <v>468</v>
-      </c>
       <c r="C303" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B304" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C304" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B305" t="s">
         <v>470</v>
       </c>
-      <c r="B305" t="s">
-        <v>471</v>
-      </c>
       <c r="C305" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B306" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C306" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B307" t="s">
         <v>473</v>
       </c>
-      <c r="B307" t="s">
-        <v>474</v>
-      </c>
       <c r="C307" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B308" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C308" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B309" t="s">
         <v>476</v>
       </c>
-      <c r="B309" t="s">
-        <v>477</v>
-      </c>
       <c r="C309" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B310" t="s">
         <v>478</v>
       </c>
-      <c r="B310" t="s">
-        <v>479</v>
-      </c>
       <c r="C310" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B311" t="s">
         <v>480</v>
       </c>
-      <c r="B311" t="s">
-        <v>481</v>
-      </c>
       <c r="C311" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B312" t="s">
         <v>482</v>
       </c>
-      <c r="B312" t="s">
-        <v>483</v>
-      </c>
       <c r="C312" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B313" t="s">
         <v>484</v>
       </c>
-      <c r="B313" t="s">
-        <v>485</v>
-      </c>
       <c r="C313" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B314" t="s">
         <v>486</v>
       </c>
-      <c r="B314" t="s">
-        <v>487</v>
-      </c>
       <c r="C314" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B315" t="s">
         <v>488</v>
       </c>
-      <c r="B315" t="s">
-        <v>489</v>
-      </c>
       <c r="C315" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B316" t="s">
         <v>490</v>
       </c>
-      <c r="B316" t="s">
-        <v>491</v>
-      </c>
       <c r="C316" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B317" t="s">
         <v>492</v>
       </c>
-      <c r="B317" t="s">
-        <v>493</v>
-      </c>
       <c r="C317" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B318" t="s">
         <v>494</v>
       </c>
-      <c r="B318" t="s">
-        <v>495</v>
-      </c>
       <c r="C318" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B319" t="s">
         <v>496</v>
       </c>
-      <c r="B319" t="s">
-        <v>497</v>
-      </c>
       <c r="C319" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B320" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C320" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B321" t="s">
         <v>499</v>
       </c>
-      <c r="B321" t="s">
-        <v>500</v>
-      </c>
       <c r="C321" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B322" t="s">
         <v>501</v>
       </c>
-      <c r="B322" t="s">
-        <v>502</v>
-      </c>
       <c r="C322" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B323" t="s">
         <v>503</v>
       </c>
-      <c r="B323" t="s">
-        <v>504</v>
-      </c>
       <c r="C323" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B324" t="s">
         <v>505</v>
       </c>
-      <c r="B324" t="s">
-        <v>506</v>
-      </c>
       <c r="C324" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B325" t="s">
         <v>507</v>
       </c>
-      <c r="B325" t="s">
-        <v>508</v>
-      </c>
       <c r="C325" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B326" t="s">
         <v>509</v>
       </c>
-      <c r="B326" t="s">
-        <v>510</v>
-      </c>
       <c r="C326" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B327" t="s">
         <v>511</v>
       </c>
-      <c r="B327" t="s">
-        <v>512</v>
-      </c>
       <c r="C327" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B328" t="s">
         <v>513</v>
       </c>
-      <c r="B328" t="s">
-        <v>514</v>
-      </c>
       <c r="C328" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B329" t="s">
         <v>515</v>
       </c>
-      <c r="B329" t="s">
-        <v>516</v>
-      </c>
       <c r="C329" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B330" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C330" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B331" t="s">
         <v>518</v>
       </c>
-      <c r="B331" t="s">
-        <v>519</v>
-      </c>
       <c r="C331" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B332" t="s">
         <v>520</v>
       </c>
-      <c r="B332" t="s">
-        <v>521</v>
-      </c>
       <c r="C332" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B333" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C333" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B334" t="s">
         <v>523</v>
       </c>
-      <c r="B334" t="s">
-        <v>524</v>
-      </c>
       <c r="C334" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B335" t="s">
         <v>525</v>
       </c>
-      <c r="B335" t="s">
-        <v>526</v>
-      </c>
       <c r="C335" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B336" t="s">
         <v>527</v>
       </c>
-      <c r="B336" t="s">
-        <v>528</v>
-      </c>
       <c r="C336" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B337" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C337" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B338" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C338" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B339" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C339" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B340" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C340" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B341" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C341" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B342" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C342" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B343" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C343" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B344" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C344" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B345" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C345" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B346" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C346" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B347" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D347" s="6"/>
     </row>
     <row r="348" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B348" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C348" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B349" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C349" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B350" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D350" s="7"/>
     </row>
     <row r="351" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B351" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D351" s="7"/>
     </row>
     <row r="352" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B352" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C352" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B353" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C353" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B354" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C354" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B355" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C355" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B356" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C356" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B357" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C357" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B358" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C358" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B359" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C359" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B360" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D360" s="6"/>
     </row>
     <row r="361" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B361" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D361" s="6"/>
     </row>
     <row r="362" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B362" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D362" s="6"/>
     </row>
     <row r="363" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B363" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C363" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B364" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C364" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B365" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C365" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B366" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C366" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B367" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C367" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B368" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C368" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B369" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C369" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B370" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C370" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B371" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C371" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B372" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C372" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B373" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C373" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B374" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C374" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E374" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B375" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C375" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B376" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C376" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B377" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C377" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B378" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C378" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B379" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C379" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B380" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C380" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B381" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C381" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B382" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C382" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B383" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C383" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B384" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C384" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B385" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C385" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B386" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C386" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B389" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C389" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B390" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C390" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B391" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C391" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C392" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B393" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C393" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B394" t="s">
+        <v>885</v>
+      </c>
+      <c r="C394" t="s">
         <v>887</v>
-      </c>
-      <c r="C394" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B395" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C395" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B397" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C397" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B398" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C398" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B399" t="s">
         <v>572</v>
       </c>
-      <c r="B399" t="s">
-        <v>573</v>
-      </c>
       <c r="C399" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B400" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C400" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B401" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C401" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B402" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C402" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C403" t="s">
         <v>1113</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C403" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B404" t="s">
         <v>577</v>
       </c>
-      <c r="B404" t="s">
-        <v>578</v>
-      </c>
       <c r="C404" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B405" t="s">
         <v>579</v>
       </c>
-      <c r="B405" t="s">
-        <v>580</v>
-      </c>
       <c r="C405" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B406" t="s">
         <v>581</v>
       </c>
-      <c r="B406" t="s">
-        <v>582</v>
-      </c>
       <c r="C406" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B407" t="s">
         <v>583</v>
       </c>
-      <c r="B407" t="s">
-        <v>584</v>
-      </c>
       <c r="C407" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B409" t="s">
         <v>586</v>
       </c>
-      <c r="B409" t="s">
-        <v>587</v>
-      </c>
       <c r="C409" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B411" t="s">
         <v>589</v>
       </c>
-      <c r="B411" t="s">
-        <v>590</v>
-      </c>
       <c r="C411" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B412" t="s">
         <v>591</v>
       </c>
-      <c r="B412" t="s">
-        <v>592</v>
-      </c>
       <c r="C412" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B413" t="s">
         <v>593</v>
       </c>
-      <c r="B413" t="s">
-        <v>594</v>
-      </c>
       <c r="C413" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B415" t="s">
         <v>596</v>
       </c>
-      <c r="B415" t="s">
-        <v>597</v>
-      </c>
       <c r="C415" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B416" t="s">
         <v>598</v>
       </c>
-      <c r="B416" t="s">
-        <v>599</v>
-      </c>
       <c r="C416" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B417" t="s">
         <v>600</v>
       </c>
-      <c r="B417" t="s">
-        <v>601</v>
-      </c>
       <c r="C417" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B418" t="s">
         <v>602</v>
       </c>
-      <c r="B418" t="s">
-        <v>603</v>
-      </c>
       <c r="C418" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -9553,546 +9555,546 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
         <v>304</v>
       </c>
-      <c r="B1" t="s">
-        <v>305</v>
-      </c>
       <c r="C1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" t="s">
         <v>306</v>
       </c>
-      <c r="B2" t="s">
-        <v>307</v>
-      </c>
       <c r="C2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" t="s">
         <v>308</v>
       </c>
-      <c r="B3" t="s">
-        <v>309</v>
-      </c>
       <c r="C3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" t="s">
         <v>310</v>
       </c>
-      <c r="B4" t="s">
-        <v>311</v>
-      </c>
       <c r="C4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" t="s">
         <v>312</v>
       </c>
-      <c r="B5" t="s">
-        <v>313</v>
-      </c>
       <c r="C5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
         <v>314</v>
       </c>
-      <c r="B6" t="s">
-        <v>315</v>
-      </c>
       <c r="C6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" t="s">
         <v>316</v>
       </c>
-      <c r="B7" t="s">
-        <v>317</v>
-      </c>
       <c r="C7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" t="s">
         <v>318</v>
       </c>
-      <c r="B8" t="s">
-        <v>319</v>
-      </c>
       <c r="C8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s">
         <v>320</v>
       </c>
-      <c r="B9" t="s">
-        <v>321</v>
-      </c>
       <c r="C9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" t="s">
         <v>322</v>
       </c>
-      <c r="B10" t="s">
-        <v>323</v>
-      </c>
       <c r="C10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" t="s">
         <v>324</v>
       </c>
-      <c r="B11" t="s">
-        <v>325</v>
-      </c>
       <c r="C11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" t="s">
         <v>326</v>
       </c>
-      <c r="B12" t="s">
-        <v>327</v>
-      </c>
       <c r="C12" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" t="s">
         <v>328</v>
       </c>
-      <c r="B13" t="s">
-        <v>329</v>
-      </c>
       <c r="C13" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" t="s">
         <v>330</v>
       </c>
-      <c r="B14" t="s">
-        <v>331</v>
-      </c>
       <c r="C14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" t="s">
         <v>332</v>
       </c>
-      <c r="B15" t="s">
-        <v>333</v>
-      </c>
       <c r="C15" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" t="s">
         <v>334</v>
       </c>
-      <c r="B16" t="s">
-        <v>335</v>
-      </c>
       <c r="C16" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17" t="s">
         <v>336</v>
       </c>
-      <c r="B17" t="s">
-        <v>337</v>
-      </c>
       <c r="C17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" t="s">
         <v>338</v>
       </c>
-      <c r="B18" t="s">
-        <v>339</v>
-      </c>
       <c r="C18" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" t="s">
         <v>340</v>
       </c>
-      <c r="B19" t="s">
-        <v>341</v>
-      </c>
       <c r="C19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" t="s">
         <v>342</v>
       </c>
-      <c r="B20" t="s">
-        <v>343</v>
-      </c>
       <c r="C20" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" t="s">
         <v>344</v>
       </c>
-      <c r="B21" t="s">
-        <v>345</v>
-      </c>
       <c r="C21" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" t="s">
         <v>346</v>
       </c>
-      <c r="B22" t="s">
-        <v>347</v>
-      </c>
       <c r="C22" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" t="s">
         <v>348</v>
       </c>
-      <c r="B23" t="s">
-        <v>349</v>
-      </c>
       <c r="C23" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" t="s">
         <v>350</v>
       </c>
-      <c r="B24" t="s">
-        <v>351</v>
-      </c>
       <c r="C24" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" t="s">
         <v>352</v>
       </c>
-      <c r="B25" t="s">
-        <v>353</v>
-      </c>
       <c r="C25" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B26" t="s">
         <v>354</v>
       </c>
-      <c r="B26" t="s">
-        <v>355</v>
-      </c>
       <c r="C26" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" t="s">
         <v>356</v>
       </c>
-      <c r="B27" t="s">
-        <v>357</v>
-      </c>
       <c r="C27" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" t="s">
         <v>358</v>
       </c>
-      <c r="B28" t="s">
-        <v>359</v>
-      </c>
       <c r="C28" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B29" t="s">
         <v>360</v>
       </c>
-      <c r="B29" t="s">
-        <v>361</v>
-      </c>
       <c r="C29" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" t="s">
         <v>362</v>
       </c>
-      <c r="B30" t="s">
-        <v>363</v>
-      </c>
       <c r="C30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" t="s">
         <v>364</v>
       </c>
-      <c r="B31" t="s">
-        <v>365</v>
-      </c>
       <c r="C31" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" t="s">
         <v>366</v>
       </c>
-      <c r="B32" t="s">
-        <v>367</v>
-      </c>
       <c r="C32" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" t="s">
         <v>368</v>
       </c>
-      <c r="B33" t="s">
-        <v>369</v>
-      </c>
       <c r="C33" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B34" t="s">
         <v>370</v>
       </c>
-      <c r="B34" t="s">
-        <v>371</v>
-      </c>
       <c r="C34" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B35" t="s">
         <v>372</v>
       </c>
-      <c r="B35" t="s">
-        <v>373</v>
-      </c>
       <c r="C35" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B36" t="s">
         <v>374</v>
       </c>
-      <c r="B36" t="s">
-        <v>375</v>
-      </c>
       <c r="C36" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B37" t="s">
         <v>376</v>
       </c>
-      <c r="B37" t="s">
-        <v>377</v>
-      </c>
       <c r="C37" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B38" t="s">
         <v>378</v>
       </c>
-      <c r="B38" t="s">
-        <v>379</v>
-      </c>
       <c r="C38" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B39" t="s">
         <v>380</v>
       </c>
-      <c r="B39" t="s">
-        <v>381</v>
-      </c>
       <c r="C39" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B40" t="s">
         <v>382</v>
       </c>
-      <c r="B40" t="s">
-        <v>383</v>
-      </c>
       <c r="C40" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B41" t="s">
         <v>384</v>
       </c>
-      <c r="B41" t="s">
-        <v>385</v>
-      </c>
       <c r="C41" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B42" t="s">
         <v>386</v>
       </c>
-      <c r="B42" t="s">
-        <v>387</v>
-      </c>
       <c r="C42" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B43" t="s">
         <v>388</v>
       </c>
-      <c r="B43" t="s">
-        <v>389</v>
-      </c>
       <c r="C43" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B44" t="s">
         <v>390</v>
       </c>
-      <c r="B44" t="s">
-        <v>391</v>
-      </c>
       <c r="C44" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B45" t="s">
         <v>392</v>
       </c>
-      <c r="B45" t="s">
-        <v>393</v>
-      </c>
       <c r="C45" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B46" t="s">
         <v>394</v>
       </c>
-      <c r="B46" t="s">
-        <v>395</v>
-      </c>
       <c r="C46" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B47" t="s">
         <v>396</v>
       </c>
-      <c r="B47" t="s">
-        <v>397</v>
-      </c>
       <c r="C47" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B48" t="s">
         <v>398</v>
       </c>
-      <c r="B48" t="s">
-        <v>399</v>
-      </c>
       <c r="C48" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B50" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JigsawTD\JigsawTD\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4FC582-B788-4FCC-9162-E6855F6BF1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8E372-5C5C-4680-85E0-FE6F662D2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$491</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$492</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1326">
   <si>
     <t>SCENE1</t>
   </si>
@@ -3153,9 +3153,6 @@
     <t>Guide209</t>
   </si>
   <si>
-    <t>Guide210</t>
-  </si>
-  <si>
     <t>Guide211</t>
   </si>
   <si>
@@ -3229,10 +3226,6 @@
   </si>
   <si>
     <t>每个重构塔都带有一个强力的&lt;color=#FFEA6D&gt;被动技能,&lt;/color&gt;请擅加利用.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据重构配方的元素组合,还附带1个&lt;color=#FFEA6D&gt;元素技能&lt;/color&gt;,每个元素技能都有自身的特点.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3610,10 +3603,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Based on the combination of elements, there is also an &lt;color=#FFEA6D&gt;element skill&lt;/color&gt;, each element skill has its own characteristics.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#FFEA6D&gt;Each refactor turret has 2 element skill slots by default, and you can equip an additional elemental skill by deploying another refactor turret on it&lt;/color&gt;.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4023,10 +4012,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>回合开始时，每拥有4个元素就攻击1个额外的目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>At the start of each wave, attack 1 additional target this turn for every 4 elements it has</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4067,14 +4052,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>平等主义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Egalitarianism</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>At the start of each wave, the fewest elements it has gain +2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4488,6 +4465,42 @@
   </si>
   <si>
     <t>Next Wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均衡之道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blanced Path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，每拥有4个元素本回合就攻击1个额外的目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据重构配方的元素组合,还附带1个&lt;color=#FFEA6D&gt;元素技能&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on the combination of elements, there is also an &lt;color=#FFEA6D&gt;element skill&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide210</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide2101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素技能除了技能效果,还会为重构塔增加元素数量,每个元素会提供特定属性加成.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In addition to skill effects, elemental skills increase the number of elements of the refactor turret provides a specific attribute bonus.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4937,10 +4950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E418"/>
+  <dimension ref="A1:E419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5594,7 +5607,7 @@
         <v>975</v>
       </c>
       <c r="C59" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5605,7 +5618,7 @@
         <v>976</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5613,10 +5626,10 @@
         <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C61" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5624,10 +5637,10 @@
         <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C62" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5635,10 +5648,10 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C63" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5646,7 +5659,7 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C64" t="s">
         <v>811</v>
@@ -5657,7 +5670,7 @@
         <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C65" t="s">
         <v>647</v>
@@ -5726,7 +5739,7 @@
         <v>978</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5756,10 +5769,10 @@
         <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C74" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5858,7 +5871,7 @@
         <v>942</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5866,10 +5879,10 @@
         <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C84" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5929,62 +5942,62 @@
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B90" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C90" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B91" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C91" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B92" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C92" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B93" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C93" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B94" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C94" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B95" t="s">
         <v>807</v>
@@ -6001,62 +6014,62 @@
         <v>953</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6064,10 +6077,10 @@
         <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C102" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6097,10 +6110,10 @@
         <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="C105" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6111,7 +6124,7 @@
         <v>947</v>
       </c>
       <c r="C106" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6383,10 +6396,10 @@
         <v>191</v>
       </c>
       <c r="B131" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="C131" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6490,13 +6503,13 @@
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B141" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C141" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6512,13 +6525,13 @@
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C143" t="s">
         <v>1243</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6526,10 +6539,10 @@
         <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="C144" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6537,10 +6550,10 @@
         <v>213</v>
       </c>
       <c r="B145" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="C145" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6548,10 +6561,10 @@
         <v>214</v>
       </c>
       <c r="B146" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="C146" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6669,10 +6682,10 @@
         <v>233</v>
       </c>
       <c r="B157" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C157" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6680,10 +6693,10 @@
         <v>234</v>
       </c>
       <c r="B158" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C158" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6977,134 +6990,134 @@
     </row>
     <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B185" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C185" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B186" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C186" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B187" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C187" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B188" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C188" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B189" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C189" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B190" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C190" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B191" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C191" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B192" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C192" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B193" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C193" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B194" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C194" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B195" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C195" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B196" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C196" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7112,10 +7125,10 @@
         <v>285</v>
       </c>
       <c r="B197" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="C197" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7123,10 +7136,10 @@
         <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C198" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7134,10 +7147,10 @@
         <v>287</v>
       </c>
       <c r="B199" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="C199" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7156,10 +7169,10 @@
         <v>290</v>
       </c>
       <c r="B201" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="C201" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7178,10 +7191,10 @@
         <v>293</v>
       </c>
       <c r="B203" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="C203" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7189,10 +7202,10 @@
         <v>294</v>
       </c>
       <c r="B204" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="C204" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7211,10 +7224,10 @@
         <v>297</v>
       </c>
       <c r="B206" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="C206" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7222,10 +7235,10 @@
         <v>298</v>
       </c>
       <c r="B207" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C207" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7244,10 +7257,10 @@
         <v>301</v>
       </c>
       <c r="B209" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="C209" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7255,10 +7268,10 @@
         <v>302</v>
       </c>
       <c r="B210" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C210" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7266,10 +7279,10 @@
         <v>303</v>
       </c>
       <c r="B211" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C211" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7277,10 +7290,10 @@
         <v>305</v>
       </c>
       <c r="B212" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C212" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7288,10 +7301,10 @@
         <v>307</v>
       </c>
       <c r="B213" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C213" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7299,10 +7312,10 @@
         <v>309</v>
       </c>
       <c r="B214" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="C214" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7310,10 +7323,10 @@
         <v>311</v>
       </c>
       <c r="B215" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C215" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7321,10 +7334,10 @@
         <v>313</v>
       </c>
       <c r="B216" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="C216" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7332,10 +7345,10 @@
         <v>315</v>
       </c>
       <c r="B217" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C217" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7343,10 +7356,10 @@
         <v>317</v>
       </c>
       <c r="B218" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="C218" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7354,10 +7367,10 @@
         <v>319</v>
       </c>
       <c r="B219" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C219" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7365,10 +7378,10 @@
         <v>321</v>
       </c>
       <c r="B220" t="s">
-        <v>1206</v>
+        <v>1319</v>
       </c>
       <c r="C220" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7376,10 +7389,10 @@
         <v>323</v>
       </c>
       <c r="B221" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C221" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7387,10 +7400,10 @@
         <v>325</v>
       </c>
       <c r="B222" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="C222" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7398,10 +7411,10 @@
         <v>327</v>
       </c>
       <c r="B223" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C223" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7409,10 +7422,10 @@
         <v>329</v>
       </c>
       <c r="B224" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="C224" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7420,10 +7433,10 @@
         <v>331</v>
       </c>
       <c r="B225" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C225" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7431,10 +7444,10 @@
         <v>333</v>
       </c>
       <c r="B226" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="C226" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7442,10 +7455,10 @@
         <v>335</v>
       </c>
       <c r="B227" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C227" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7453,10 +7466,10 @@
         <v>337</v>
       </c>
       <c r="B228" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="C228" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7464,10 +7477,10 @@
         <v>339</v>
       </c>
       <c r="B229" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C229" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7475,10 +7488,10 @@
         <v>341</v>
       </c>
       <c r="B230" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C230" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7486,10 +7499,10 @@
         <v>343</v>
       </c>
       <c r="B231" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C231" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7497,10 +7510,10 @@
         <v>345</v>
       </c>
       <c r="B232" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C232" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7508,10 +7521,10 @@
         <v>347</v>
       </c>
       <c r="B233" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C233" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7519,10 +7532,10 @@
         <v>349</v>
       </c>
       <c r="B234" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C234" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7530,10 +7543,10 @@
         <v>351</v>
       </c>
       <c r="B235" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C235" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7541,10 +7554,10 @@
         <v>353</v>
       </c>
       <c r="B236" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="C236" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7552,10 +7565,10 @@
         <v>355</v>
       </c>
       <c r="B237" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C237" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7563,10 +7576,10 @@
         <v>357</v>
       </c>
       <c r="B238" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="C238" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7574,10 +7587,10 @@
         <v>359</v>
       </c>
       <c r="B239" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C239" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7585,10 +7598,10 @@
         <v>361</v>
       </c>
       <c r="B240" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C240" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7596,10 +7609,10 @@
         <v>363</v>
       </c>
       <c r="B241" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C241" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7607,10 +7620,10 @@
         <v>365</v>
       </c>
       <c r="B242" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="C242" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7618,10 +7631,10 @@
         <v>367</v>
       </c>
       <c r="B243" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C243" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7629,10 +7642,10 @@
         <v>369</v>
       </c>
       <c r="B244" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="C244" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7640,10 +7653,10 @@
         <v>371</v>
       </c>
       <c r="B245" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C245" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7651,10 +7664,10 @@
         <v>373</v>
       </c>
       <c r="B246" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="C246" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7662,10 +7675,10 @@
         <v>375</v>
       </c>
       <c r="B247" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C247" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7673,10 +7686,10 @@
         <v>377</v>
       </c>
       <c r="B248" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C248" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7684,10 +7697,10 @@
         <v>379</v>
       </c>
       <c r="B249" t="s">
-        <v>1217</v>
+        <v>1317</v>
       </c>
       <c r="C249" t="s">
-        <v>1218</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7695,10 +7708,10 @@
         <v>381</v>
       </c>
       <c r="B250" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C250" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7706,10 +7719,10 @@
         <v>383</v>
       </c>
       <c r="B251" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="C251" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7717,10 +7730,10 @@
         <v>385</v>
       </c>
       <c r="B252" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="C252" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7728,10 +7741,10 @@
         <v>387</v>
       </c>
       <c r="B253" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="C253" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7739,10 +7752,10 @@
         <v>389</v>
       </c>
       <c r="B254" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="C254" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7750,10 +7763,10 @@
         <v>391</v>
       </c>
       <c r="B255" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="C255" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7761,10 +7774,10 @@
         <v>393</v>
       </c>
       <c r="B256" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C256" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7772,10 +7785,10 @@
         <v>395</v>
       </c>
       <c r="B257" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="C257" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7783,10 +7796,10 @@
         <v>397</v>
       </c>
       <c r="B258" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="C258" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7808,7 +7821,7 @@
         <v>402</v>
       </c>
       <c r="C260" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7838,10 +7851,10 @@
         <v>407</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="C263" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7849,10 +7862,10 @@
         <v>408</v>
       </c>
       <c r="B264" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="C264" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7860,10 +7873,10 @@
         <v>409</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="C265" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7871,10 +7884,10 @@
         <v>410</v>
       </c>
       <c r="B266" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="C266" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7882,7 +7895,7 @@
         <v>411</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C267" t="s">
         <v>769</v>
@@ -7893,10 +7906,10 @@
         <v>412</v>
       </c>
       <c r="B268" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="C268" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7904,10 +7917,10 @@
         <v>413</v>
       </c>
       <c r="B269" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C269" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7926,7 +7939,7 @@
         <v>416</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C271" t="s">
         <v>770</v>
@@ -7937,10 +7950,10 @@
         <v>417</v>
       </c>
       <c r="B272" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C272" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7948,10 +7961,10 @@
         <v>418</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C273" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7959,10 +7972,10 @@
         <v>419</v>
       </c>
       <c r="B274" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C274" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7970,10 +7983,10 @@
         <v>420</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C275" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7981,10 +7994,10 @@
         <v>421</v>
       </c>
       <c r="B276" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C276" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7992,10 +8005,10 @@
         <v>422</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C277" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8003,10 +8016,10 @@
         <v>423</v>
       </c>
       <c r="B278" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="C278" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8311,10 +8324,10 @@
         <v>471</v>
       </c>
       <c r="B306" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="C306" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8462,7 +8475,7 @@
     </row>
     <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="B320" t="s">
         <v>497</v>
@@ -8605,7 +8618,7 @@
     </row>
     <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="B333" t="s">
         <v>521</v>
@@ -8677,7 +8690,7 @@
         <v>936</v>
       </c>
       <c r="C339" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8688,7 +8701,7 @@
         <v>952</v>
       </c>
       <c r="C340" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8696,10 +8709,10 @@
         <v>532</v>
       </c>
       <c r="B341" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C341" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8710,7 +8723,7 @@
         <v>938</v>
       </c>
       <c r="C342" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8721,7 +8734,7 @@
         <v>937</v>
       </c>
       <c r="C343" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8732,7 +8745,7 @@
         <v>941</v>
       </c>
       <c r="C344" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8743,7 +8756,7 @@
         <v>964</v>
       </c>
       <c r="C345" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8754,7 +8767,7 @@
         <v>943</v>
       </c>
       <c r="C346" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8765,7 +8778,7 @@
         <v>939</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D347" s="6"/>
     </row>
@@ -8777,7 +8790,7 @@
         <v>965</v>
       </c>
       <c r="C348" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8788,7 +8801,7 @@
         <v>970</v>
       </c>
       <c r="C349" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8799,7 +8812,7 @@
         <v>966</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D350" s="7"/>
     </row>
@@ -8811,7 +8824,7 @@
         <v>967</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D351" s="7"/>
     </row>
@@ -8823,7 +8836,7 @@
         <v>971</v>
       </c>
       <c r="C352" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8834,7 +8847,7 @@
         <v>972</v>
       </c>
       <c r="C353" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8845,7 +8858,7 @@
         <v>973</v>
       </c>
       <c r="C354" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8856,7 +8869,7 @@
         <v>963</v>
       </c>
       <c r="C355" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8867,7 +8880,7 @@
         <v>946</v>
       </c>
       <c r="C356" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8875,10 +8888,10 @@
         <v>546</v>
       </c>
       <c r="B357" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C357" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8889,7 +8902,7 @@
         <v>957</v>
       </c>
       <c r="C358" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8900,7 +8913,7 @@
         <v>944</v>
       </c>
       <c r="C359" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8911,7 +8924,7 @@
         <v>945</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D360" s="6"/>
     </row>
@@ -8923,7 +8936,7 @@
         <v>954</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D361" s="6"/>
     </row>
@@ -8935,7 +8948,7 @@
         <v>955</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D362" s="6"/>
     </row>
@@ -8947,7 +8960,7 @@
         <v>956</v>
       </c>
       <c r="C363" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8958,7 +8971,7 @@
         <v>962</v>
       </c>
       <c r="C364" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8966,10 +8979,10 @@
         <v>554</v>
       </c>
       <c r="B365" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C365" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8977,10 +8990,10 @@
         <v>555</v>
       </c>
       <c r="B366" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C366" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8991,7 +9004,7 @@
         <v>959</v>
       </c>
       <c r="C367" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9002,7 +9015,7 @@
         <v>958</v>
       </c>
       <c r="C368" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9013,18 +9026,18 @@
         <v>960</v>
       </c>
       <c r="C369" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B370" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C370" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9032,10 +9045,10 @@
         <v>979</v>
       </c>
       <c r="B371" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C371" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9043,10 +9056,10 @@
         <v>980</v>
       </c>
       <c r="B372" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C372" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9054,10 +9067,10 @@
         <v>981</v>
       </c>
       <c r="B373" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C373" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9065,10 +9078,10 @@
         <v>982</v>
       </c>
       <c r="B374" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C374" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E374" t="s">
         <v>797</v>
@@ -9079,10 +9092,10 @@
         <v>983</v>
       </c>
       <c r="B375" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C375" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9090,10 +9103,10 @@
         <v>984</v>
       </c>
       <c r="B376" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C376" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9101,10 +9114,10 @@
         <v>985</v>
       </c>
       <c r="B377" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C377" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9112,10 +9125,10 @@
         <v>986</v>
       </c>
       <c r="B378" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C378" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9123,407 +9136,418 @@
         <v>987</v>
       </c>
       <c r="B379" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C379" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>988</v>
+        <v>1322</v>
       </c>
       <c r="B380" t="s">
-        <v>1009</v>
+        <v>1320</v>
       </c>
       <c r="C380" t="s">
-        <v>1103</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>989</v>
+        <v>1323</v>
       </c>
       <c r="B381" t="s">
-        <v>1000</v>
+        <v>1324</v>
       </c>
       <c r="C381" t="s">
-        <v>1104</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B382" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C382" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B383" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="C383" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B384" t="s">
-        <v>1035</v>
+        <v>993</v>
       </c>
       <c r="C384" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>1036</v>
+        <v>991</v>
       </c>
       <c r="B385" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C385" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>559</v>
+        <v>1034</v>
       </c>
       <c r="B386" t="s">
-        <v>876</v>
+        <v>1035</v>
       </c>
       <c r="C386" t="s">
-        <v>877</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
+      </c>
+      <c r="B387" t="s">
+        <v>876</v>
+      </c>
+      <c r="C387" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B389" t="s">
-        <v>961</v>
-      </c>
-      <c r="C389" t="s">
-        <v>878</v>
+        <v>561</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B390" t="s">
-        <v>1109</v>
+        <v>961</v>
       </c>
       <c r="C390" t="s">
-        <v>1110</v>
+        <v>878</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B391" t="s">
-        <v>879</v>
+        <v>1106</v>
       </c>
       <c r="C391" t="s">
-        <v>880</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B392" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C392" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C393" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B394" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C394" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>884</v>
+        <v>567</v>
       </c>
       <c r="B395" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C395" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>568</v>
+        <v>884</v>
+      </c>
+      <c r="B396" t="s">
+        <v>888</v>
+      </c>
+      <c r="C396" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="B397" t="s">
-        <v>890</v>
-      </c>
-      <c r="C397" t="s">
-        <v>891</v>
+        <v>568</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B398" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C398" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B399" t="s">
-        <v>572</v>
+        <v>892</v>
       </c>
       <c r="C399" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B400" t="s">
-        <v>896</v>
+        <v>572</v>
       </c>
       <c r="C400" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B401" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C401" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B402" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C402" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>1111</v>
+        <v>575</v>
       </c>
       <c r="B403" t="s">
-        <v>1112</v>
+        <v>899</v>
       </c>
       <c r="C403" t="s">
-        <v>1113</v>
+        <v>900</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>576</v>
+        <v>1108</v>
       </c>
       <c r="B404" t="s">
-        <v>577</v>
+        <v>1109</v>
       </c>
       <c r="C404" t="s">
-        <v>901</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B405" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C405" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B406" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C406" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B407" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C407" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
+      </c>
+      <c r="B408" t="s">
+        <v>583</v>
+      </c>
+      <c r="C408" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B409" t="s">
-        <v>586</v>
-      </c>
-      <c r="C409" t="s">
-        <v>905</v>
+        <v>584</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
+      </c>
+      <c r="B410" t="s">
+        <v>586</v>
+      </c>
+      <c r="C410" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B411" t="s">
-        <v>589</v>
-      </c>
-      <c r="C411" t="s">
-        <v>906</v>
+        <v>587</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B412" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C412" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B413" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C413" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
+      </c>
+      <c r="B414" t="s">
+        <v>593</v>
+      </c>
+      <c r="C414" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B415" t="s">
-        <v>596</v>
-      </c>
-      <c r="C415" t="s">
-        <v>909</v>
+        <v>594</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B416" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C416" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B417" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C417" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B418" t="s">
+        <v>600</v>
+      </c>
+      <c r="C418" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B419" t="s">
         <v>602</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C419" t="s">
         <v>912</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A491" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A492" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
     <mergeCell ref="C362:D362"/>
     <mergeCell ref="C347:D347"/>

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JigsawTD\JigsawTD\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8E372-5C5C-4680-85E0-FE6F662D2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97199855-BE69-4E3F-8B04-2EC16DEBF86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$492</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$498</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="1344">
   <si>
     <t>SCENE1</t>
   </si>
@@ -855,9 +855,6 @@
     <t>ASKILL</t>
   </si>
   <si>
-    <t>稳固实用的防御塔</t>
-  </si>
-  <si>
     <t>BSKILL</t>
   </si>
   <si>
@@ -867,21 +864,12 @@
     <t>CSKILL</t>
   </si>
   <si>
-    <t>子弹可以造成减速效果</t>
-  </si>
-  <si>
     <t>DSKILL</t>
   </si>
   <si>
-    <t>子弹有概率造成暴击</t>
-  </si>
-  <si>
     <t>ESKILL</t>
   </si>
   <si>
-    <t>子弹造成溅射范围伤害</t>
-  </si>
-  <si>
     <t>CONSTRUCTORSKILL</t>
   </si>
   <si>
@@ -2172,9 +2160,6 @@
   </si>
   <si>
     <t>Attacks can deal penetration damage, can only attack front side.</t>
-  </si>
-  <si>
-    <t>Attacks cause a slowdown effect.</t>
   </si>
   <si>
     <t>Attacks have a chance to cause critical damage.</t>
@@ -3193,10 +3178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每个&lt;color=#FFEA6D&gt;重构塔默认拥有2个元素技能槽,你可以通过将另一个重构塔部署在该重构塔上,使其装载一个额外的元素技能&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>重构塔可以进行&lt;color=#FFEA6D&gt;升级&lt;/color&gt;,升级可以提升重构塔的综合属性,等级上限为3级.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3276,11 +3257,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.重构塔根据配方元素组合不同，会生成专属的元素技能，目前共有35种不同的元素技能.
-2.每个元素还会为重构塔提供额外的属性加成。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.陷阱是在战场上随机生成的格子,初始出于未揭示状态.
 2.当将路线连通陷阱时,将揭示该陷阱并且敌人经过时会触发特殊效果.
 3.陷阱可以花费代币改变其位置,每次换位后价格都会上升.</t>
@@ -3415,11 +3391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. Unique element skills will be generated based on the blueprint element combination. Currently there are 35 different element skills.
-2. Each element also provides an additional stat bonus for refactor turrets.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. In addition to being deployed directly on the battlefield, refactor turrets can also be deployed on existing refactor turrets, which will equip the existing turret with it's element skill.
 2. Each refactor turret has 2 element skill slots by default, meaning it can equip up to one additional element skill.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4452,10 +4423,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>溅射半径，基础溅射伤害为50%；穿透型子弹不会溅射，但会增加子弹体积。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Splash radius. Default splash damage is 50%；Penetration bullet will not splash, but can increase bullet's size.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4480,10 +4447,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>根据重构配方的元素组合,还附带1个&lt;color=#FFEA6D&gt;元素技能&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Based on the combination of elements, there is also an &lt;color=#FFEA6D&gt;element skill&lt;/color&gt;.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4496,11 +4459,125 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>元素技能除了技能效果,还会为重构塔增加元素数量,每个元素会提供特定属性加成.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>In addition to skill effects, elemental skills increase the number of elements of the refactor turret provides a specific attribute bonus.</t>
+    <t>根据重构配方的元素组合,每个重构塔都拥有1个&lt;color=#FFEA6D&gt;元素技能&lt;/color&gt;，请留意其技能效果.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个重构塔&lt;color=#FFEA6D&gt;默认拥有2个元素技能槽&lt;/color&gt;,你可以在此后&lt;color=#FFEA6D&gt;将新重构塔部署在该重构塔上,使其装载一个额外元素技能.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide2102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素技能会使重构塔增加3个元素,&lt;color=#FFEA6D&gt;元素为防御塔提供特定属性加成&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构塔拥有的全部元素数量显示在技能区上方,将鼠标悬停在该区域可以查看加成汇总信息.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemental skills add 3 elements to the refactor turret, and &lt;color=#FFEA6D&gt;elements provide specific attribute bonus to the turret.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The total number of elements is displayed above the skill area, hold your mouse on this area will display the detailed info.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attacks cause a slowdown effect. Enemy wiil be frost by 3s while has frost effect is full.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固实用的防御塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有概率造成暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够造成溅射范围伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以造成减速效果；并积累冻结层数，达到一定冻结层数后会冻结目标3秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLDBENEFIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOODBENEFIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATERBENEFIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIREBENEFIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUSTBENEFIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元素+25%攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木元素+25%攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素+0.5减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素+15%暴击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土元素+0.25溅射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Element + 25% Attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood Element +25% Firerate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Element +0.5 Slow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Element +15% Crit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dust Element +0.25 Splash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.重构塔根据配方元素组合不同，会生成专属的元素技能，目前共有35种不同的元素技能.
+2.每个元素技能为重构增加3个元素，每个元素会提供额外的属性加成。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Unique element skills will be generated based on the blueprint element combination. Currently there are 35 different element skills.
+2. Each element skill provides 3 elements to refactor turret and each element also provides an additional stat bonus.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅射半径，溅射造成35%伤害及减速效果；穿透型子弹不会溅射，但会增加子弹体积。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4950,10 +5027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E419"/>
+  <dimension ref="A1:E425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="B380" sqref="B380"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4966,13 +5043,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5005,7 +5082,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5016,7 +5093,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5049,7 +5126,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5060,7 +5137,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5071,7 +5148,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5082,7 +5159,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5093,7 +5170,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5104,7 +5181,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5115,7 +5192,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5126,7 +5203,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5137,7 +5214,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5148,7 +5225,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5159,7 +5236,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5170,7 +5247,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5181,7 +5258,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5192,7 +5269,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5203,7 +5280,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5214,7 +5291,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5225,7 +5302,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5236,7 +5313,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5247,18 +5324,18 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B27" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C27" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5269,7 +5346,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5280,18 +5357,18 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B30" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C30" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5313,7 +5390,7 @@
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5324,7 +5401,7 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5335,7 +5412,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5346,7 +5423,7 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5357,7 +5434,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5368,7 +5445,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5379,7 +5456,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5390,7 +5467,7 @@
         <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5401,7 +5478,7 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5412,7 +5489,7 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5423,7 +5500,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5434,7 +5511,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5442,21 +5519,21 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C44" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B45" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C45" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5467,7 +5544,7 @@
         <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5478,7 +5555,7 @@
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5489,7 +5566,7 @@
         <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5500,7 +5577,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5511,7 +5588,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5533,7 +5610,7 @@
         <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5544,7 +5621,7 @@
         <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5555,7 +5632,7 @@
         <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5566,7 +5643,7 @@
         <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5585,7 +5662,7 @@
         <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5593,10 +5670,10 @@
         <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C58" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5604,10 +5681,10 @@
         <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C59" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5615,10 +5692,10 @@
         <v>105</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5626,10 +5703,10 @@
         <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="C61" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5637,10 +5714,10 @@
         <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C62" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5648,10 +5725,10 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="C63" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5659,10 +5736,10 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C64" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5670,10 +5747,10 @@
         <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C65" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5684,7 +5761,7 @@
         <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5714,10 +5791,10 @@
         <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5725,21 +5802,21 @@
         <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B71" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5747,10 +5824,10 @@
         <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C72" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5758,10 +5835,10 @@
         <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C73" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5769,21 +5846,21 @@
         <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="C74" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B75" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C75" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5791,10 +5868,10 @@
         <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C76" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5805,7 +5882,7 @@
         <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5816,7 +5893,7 @@
         <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5824,10 +5901,10 @@
         <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C79" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5835,43 +5912,43 @@
         <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C80" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B81" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C81" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B82" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C82" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5879,10 +5956,10 @@
         <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="C84" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5890,10 +5967,10 @@
         <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C85" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5904,7 +5981,7 @@
         <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5915,7 +5992,7 @@
         <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5926,7 +6003,7 @@
         <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5937,139 +6014,139 @@
         <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B90" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="C90" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B91" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="C91" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B92" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="C92" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B93" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="C93" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B94" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="C94" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B95" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C95" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1020</v>
+        <v>1341</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1055</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6077,10 +6154,10 @@
         <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="C102" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6091,7 +6168,7 @@
         <v>141</v>
       </c>
       <c r="C103" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6099,10 +6176,10 @@
         <v>142</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C104" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6110,10 +6187,10 @@
         <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="C105" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6121,10 +6198,10 @@
         <v>144</v>
       </c>
       <c r="B106" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C106" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6135,7 +6212,7 @@
         <v>146</v>
       </c>
       <c r="C107" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6146,7 +6223,7 @@
         <v>148</v>
       </c>
       <c r="C108" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6157,7 +6234,7 @@
         <v>150</v>
       </c>
       <c r="C109" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6168,7 +6245,7 @@
         <v>152</v>
       </c>
       <c r="C110" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6179,7 +6256,7 @@
         <v>154</v>
       </c>
       <c r="C111" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6190,7 +6267,7 @@
         <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6201,7 +6278,7 @@
         <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6212,7 +6289,7 @@
         <v>160</v>
       </c>
       <c r="C114" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6223,7 +6300,7 @@
         <v>162</v>
       </c>
       <c r="C115" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6234,7 +6311,7 @@
         <v>164</v>
       </c>
       <c r="C116" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6245,7 +6322,7 @@
         <v>166</v>
       </c>
       <c r="C117" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6256,7 +6333,7 @@
         <v>168</v>
       </c>
       <c r="C118" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6267,7 +6344,7 @@
         <v>170</v>
       </c>
       <c r="C119" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6278,7 +6355,7 @@
         <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6289,7 +6366,7 @@
         <v>174</v>
       </c>
       <c r="C121" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6300,7 +6377,7 @@
         <v>176</v>
       </c>
       <c r="C122" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6311,18 +6388,18 @@
         <v>178</v>
       </c>
       <c r="C123" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B124" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C124" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6333,7 +6410,7 @@
         <v>180</v>
       </c>
       <c r="C125" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6344,7 +6421,7 @@
         <v>182</v>
       </c>
       <c r="C126" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6355,7 +6432,7 @@
         <v>184</v>
       </c>
       <c r="C127" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6366,7 +6443,7 @@
         <v>186</v>
       </c>
       <c r="C128" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6377,7 +6454,7 @@
         <v>188</v>
       </c>
       <c r="C129" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6388,7 +6465,7 @@
         <v>190</v>
       </c>
       <c r="C130" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6396,10 +6473,10 @@
         <v>191</v>
       </c>
       <c r="B131" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="C131" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6410,7 +6487,7 @@
         <v>193</v>
       </c>
       <c r="C132" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6421,7 +6498,7 @@
         <v>195</v>
       </c>
       <c r="C133" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6432,7 +6509,7 @@
         <v>197</v>
       </c>
       <c r="C134" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6443,7 +6520,7 @@
         <v>199</v>
       </c>
       <c r="C135" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6454,7 +6531,7 @@
         <v>201</v>
       </c>
       <c r="C136" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6465,7 +6542,7 @@
         <v>203</v>
       </c>
       <c r="C137" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6476,7 +6553,7 @@
         <v>205</v>
       </c>
       <c r="C138" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6487,7 +6564,7 @@
         <v>207</v>
       </c>
       <c r="C139" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6498,18 +6575,18 @@
         <v>209</v>
       </c>
       <c r="C140" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="B141" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="C141" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6520,18 +6597,18 @@
         <v>211</v>
       </c>
       <c r="C142" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="B143" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="C143" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6539,10 +6616,10 @@
         <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="C144" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6550,10 +6627,10 @@
         <v>213</v>
       </c>
       <c r="B145" t="s">
-        <v>1313</v>
+        <v>1343</v>
       </c>
       <c r="C145" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6561,10 +6638,10 @@
         <v>214</v>
       </c>
       <c r="B146" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="C146" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6575,7 +6652,7 @@
         <v>216</v>
       </c>
       <c r="C147" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6586,7 +6663,7 @@
         <v>218</v>
       </c>
       <c r="C148" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6597,7 +6674,7 @@
         <v>220</v>
       </c>
       <c r="C149" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6608,7 +6685,7 @@
         <v>201</v>
       </c>
       <c r="C150" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6619,7 +6696,7 @@
         <v>203</v>
       </c>
       <c r="C151" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6630,7 +6707,7 @@
         <v>224</v>
       </c>
       <c r="C152" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6641,7 +6718,7 @@
         <v>226</v>
       </c>
       <c r="C153" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6652,7 +6729,7 @@
         <v>228</v>
       </c>
       <c r="C154" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6663,7 +6740,7 @@
         <v>230</v>
       </c>
       <c r="C155" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6674,7 +6751,7 @@
         <v>232</v>
       </c>
       <c r="C156" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6682,10 +6759,10 @@
         <v>233</v>
       </c>
       <c r="B157" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="C157" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6693,10 +6770,10 @@
         <v>234</v>
       </c>
       <c r="B158" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="C158" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6707,7 +6784,7 @@
         <v>236</v>
       </c>
       <c r="C159" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6718,7 +6795,7 @@
         <v>238</v>
       </c>
       <c r="C160" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6729,7 +6806,7 @@
         <v>240</v>
       </c>
       <c r="C161" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6740,7 +6817,7 @@
         <v>242</v>
       </c>
       <c r="C162" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6751,7 +6828,7 @@
         <v>244</v>
       </c>
       <c r="C163" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6762,7 +6839,7 @@
         <v>246</v>
       </c>
       <c r="C164" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6773,7 +6850,7 @@
         <v>248</v>
       </c>
       <c r="C165" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6784,7 +6861,7 @@
         <v>250</v>
       </c>
       <c r="C166" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6795,10 +6872,10 @@
         <v>252</v>
       </c>
       <c r="C167" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E167" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6809,7 +6886,7 @@
         <v>254</v>
       </c>
       <c r="C168" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6820,7 +6897,7 @@
         <v>256</v>
       </c>
       <c r="C169" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6831,7 +6908,7 @@
         <v>258</v>
       </c>
       <c r="C170" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6842,7 +6919,7 @@
         <v>260</v>
       </c>
       <c r="C171" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6853,7 +6930,7 @@
         <v>262</v>
       </c>
       <c r="C172" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6864,7 +6941,7 @@
         <v>264</v>
       </c>
       <c r="C173" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6875,2686 +6952,2752 @@
         <v>266</v>
       </c>
       <c r="C174" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>914</v>
+        <v>1326</v>
       </c>
       <c r="B175" t="s">
-        <v>915</v>
+        <v>1331</v>
       </c>
       <c r="C175" t="s">
-        <v>835</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>267</v>
+        <v>1327</v>
       </c>
       <c r="B176" t="s">
-        <v>268</v>
+        <v>1332</v>
       </c>
       <c r="C176" t="s">
-        <v>709</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>269</v>
+        <v>1328</v>
       </c>
       <c r="B177" t="s">
-        <v>270</v>
+        <v>1333</v>
       </c>
       <c r="C177" t="s">
-        <v>710</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>271</v>
+        <v>1329</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>1334</v>
       </c>
       <c r="C178" t="s">
-        <v>711</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>273</v>
+        <v>1330</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>1335</v>
       </c>
       <c r="C179" t="s">
-        <v>712</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>275</v>
+        <v>909</v>
       </c>
       <c r="B180" t="s">
-        <v>276</v>
+        <v>910</v>
       </c>
       <c r="C180" t="s">
-        <v>713</v>
+        <v>830</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C181" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B182" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C182" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B183" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C183" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B184" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C184" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>1128</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
-        <v>1140</v>
+        <v>1322</v>
       </c>
       <c r="C185" t="s">
-        <v>1151</v>
+        <v>709</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>1129</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
-        <v>1141</v>
+        <v>277</v>
       </c>
       <c r="C186" t="s">
-        <v>1152</v>
+        <v>710</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>1130</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
-        <v>1154</v>
+        <v>1325</v>
       </c>
       <c r="C187" t="s">
-        <v>1153</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>1131</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
-        <v>1142</v>
+        <v>1323</v>
       </c>
       <c r="C188" t="s">
-        <v>1155</v>
+        <v>711</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>1132</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
-        <v>1143</v>
+        <v>1324</v>
       </c>
       <c r="C189" t="s">
-        <v>1156</v>
+        <v>712</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="B190" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="C190" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="B191" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="C191" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="B192" t="s">
         <v>1146</v>
       </c>
       <c r="C192" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="B193" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C193" t="s">
         <v>1147</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="B194" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C194" t="s">
         <v>1148</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="B195" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C195" t="s">
         <v>1149</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="B196" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C196" t="s">
         <v>1150</v>
-      </c>
-      <c r="C196" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>285</v>
+        <v>1127</v>
       </c>
       <c r="B197" t="s">
-        <v>1287</v>
+        <v>1138</v>
       </c>
       <c r="C197" t="s">
-        <v>1288</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>286</v>
+        <v>1128</v>
       </c>
       <c r="B198" t="s">
-        <v>1235</v>
+        <v>1139</v>
       </c>
       <c r="C198" t="s">
-        <v>1236</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>287</v>
+        <v>1129</v>
       </c>
       <c r="B199" t="s">
-        <v>1293</v>
+        <v>1140</v>
       </c>
       <c r="C199" t="s">
-        <v>1294</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>288</v>
+        <v>1130</v>
       </c>
       <c r="B200" t="s">
-        <v>289</v>
+        <v>1141</v>
       </c>
       <c r="C200" t="s">
-        <v>836</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>290</v>
+        <v>1131</v>
       </c>
       <c r="B201" t="s">
-        <v>1308</v>
+        <v>1142</v>
       </c>
       <c r="C201" t="s">
-        <v>1307</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B202" t="s">
-        <v>292</v>
+        <v>1279</v>
       </c>
       <c r="C202" t="s">
-        <v>837</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B203" t="s">
-        <v>1286</v>
+        <v>1227</v>
       </c>
       <c r="C203" t="s">
-        <v>1285</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B204" t="s">
-        <v>1310</v>
+        <v>1285</v>
       </c>
       <c r="C204" t="s">
-        <v>1311</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B205" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C205" t="s">
-        <v>718</v>
+        <v>831</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="C206" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B207" t="s">
-        <v>1233</v>
+        <v>288</v>
       </c>
       <c r="C207" t="s">
-        <v>1234</v>
+        <v>832</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B208" t="s">
-        <v>300</v>
+        <v>1278</v>
       </c>
       <c r="C208" t="s">
-        <v>719</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B209" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C209" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B210" t="s">
-        <v>1176</v>
+        <v>292</v>
       </c>
       <c r="C210" t="s">
-        <v>1177</v>
+        <v>713</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B211" t="s">
-        <v>1169</v>
+        <v>1301</v>
       </c>
       <c r="C211" t="s">
-        <v>1217</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B212" t="s">
-        <v>1255</v>
+        <v>1225</v>
       </c>
       <c r="C212" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B213" t="s">
-        <v>1171</v>
+        <v>296</v>
       </c>
       <c r="C213" t="s">
-        <v>1170</v>
+        <v>714</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B214" t="s">
-        <v>1256</v>
+        <v>1297</v>
       </c>
       <c r="C214" t="s">
-        <v>1239</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B215" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C215" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B216" t="s">
-        <v>1254</v>
+        <v>1161</v>
       </c>
       <c r="C216" t="s">
-        <v>1240</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B217" t="s">
-        <v>1173</v>
+        <v>1247</v>
       </c>
       <c r="C217" t="s">
-        <v>1175</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B218" t="s">
-        <v>1253</v>
+        <v>1163</v>
       </c>
       <c r="C218" t="s">
-        <v>1241</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B219" t="s">
-        <v>1178</v>
+        <v>1248</v>
       </c>
       <c r="C219" t="s">
-        <v>1179</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B220" t="s">
-        <v>1319</v>
+        <v>1164</v>
       </c>
       <c r="C220" t="s">
-        <v>1203</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B221" t="s">
-        <v>1180</v>
+        <v>1246</v>
       </c>
       <c r="C221" t="s">
-        <v>1181</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B222" t="s">
-        <v>1252</v>
+        <v>1165</v>
       </c>
       <c r="C222" t="s">
-        <v>1244</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B223" t="s">
-        <v>1182</v>
+        <v>1245</v>
       </c>
       <c r="C223" t="s">
-        <v>1183</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
-        <v>1251</v>
+        <v>1170</v>
       </c>
       <c r="C224" t="s">
-        <v>1245</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
-        <v>1184</v>
+        <v>1310</v>
       </c>
       <c r="C225" t="s">
-        <v>1185</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B226" t="s">
-        <v>1246</v>
+        <v>1172</v>
       </c>
       <c r="C226" t="s">
-        <v>1247</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B227" t="s">
-        <v>1186</v>
+        <v>1244</v>
       </c>
       <c r="C227" t="s">
-        <v>1187</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B228" t="s">
-        <v>1250</v>
+        <v>1174</v>
       </c>
       <c r="C228" t="s">
-        <v>1248</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B229" t="s">
-        <v>1188</v>
+        <v>1243</v>
       </c>
       <c r="C229" t="s">
-        <v>1190</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B230" t="s">
-        <v>1280</v>
+        <v>1176</v>
       </c>
       <c r="C230" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B231" t="s">
-        <v>1191</v>
+        <v>1238</v>
       </c>
       <c r="C231" t="s">
-        <v>1193</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B232" t="s">
-        <v>1249</v>
+        <v>1178</v>
       </c>
       <c r="C232" t="s">
-        <v>1257</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B233" t="s">
-        <v>1192</v>
+        <v>1242</v>
       </c>
       <c r="C233" t="s">
-        <v>1194</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B234" t="s">
-        <v>1258</v>
+        <v>1180</v>
       </c>
       <c r="C234" t="s">
-        <v>1259</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B235" t="s">
-        <v>1195</v>
+        <v>1272</v>
       </c>
       <c r="C235" t="s">
-        <v>1196</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B236" t="s">
-        <v>1260</v>
+        <v>1183</v>
       </c>
       <c r="C236" t="s">
-        <v>1261</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B237" t="s">
-        <v>1197</v>
+        <v>1241</v>
       </c>
       <c r="C237" t="s">
-        <v>1198</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B238" t="s">
-        <v>1262</v>
+        <v>1184</v>
       </c>
       <c r="C238" t="s">
-        <v>1263</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B239" t="s">
-        <v>1199</v>
+        <v>1250</v>
       </c>
       <c r="C239" t="s">
-        <v>1200</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B240" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="C240" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B241" t="s">
-        <v>1204</v>
+        <v>1252</v>
       </c>
       <c r="C241" t="s">
-        <v>1205</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B242" t="s">
-        <v>1270</v>
+        <v>1189</v>
       </c>
       <c r="C242" t="s">
-        <v>1274</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B243" t="s">
-        <v>1206</v>
+        <v>1254</v>
       </c>
       <c r="C243" t="s">
-        <v>1207</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B244" t="s">
-        <v>1271</v>
+        <v>1191</v>
       </c>
       <c r="C244" t="s">
-        <v>1275</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B245" t="s">
-        <v>1208</v>
+        <v>1193</v>
       </c>
       <c r="C245" t="s">
-        <v>1209</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B246" t="s">
-        <v>1272</v>
+        <v>1196</v>
       </c>
       <c r="C246" t="s">
-        <v>1276</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B247" t="s">
-        <v>1210</v>
+        <v>1262</v>
       </c>
       <c r="C247" t="s">
-        <v>1211</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B248" t="s">
-        <v>1273</v>
+        <v>1198</v>
       </c>
       <c r="C248" t="s">
-        <v>1277</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B249" t="s">
-        <v>1317</v>
+        <v>1263</v>
       </c>
       <c r="C249" t="s">
-        <v>1318</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B250" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="C250" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B251" t="s">
-        <v>1214</v>
+        <v>1264</v>
       </c>
       <c r="C251" t="s">
-        <v>1215</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B252" t="s">
-        <v>1264</v>
+        <v>1202</v>
       </c>
       <c r="C252" t="s">
-        <v>1265</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B253" t="s">
-        <v>1216</v>
+        <v>1265</v>
       </c>
       <c r="C253" t="s">
-        <v>1218</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B254" t="s">
-        <v>1266</v>
+        <v>1308</v>
       </c>
       <c r="C254" t="s">
-        <v>1267</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B255" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="C255" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B256" t="s">
-        <v>1291</v>
+        <v>1206</v>
       </c>
       <c r="C256" t="s">
-        <v>1292</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B257" t="s">
-        <v>1221</v>
+        <v>1256</v>
       </c>
       <c r="C257" t="s">
-        <v>1222</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B258" t="s">
-        <v>1268</v>
+        <v>1208</v>
       </c>
       <c r="C258" t="s">
-        <v>1269</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B259" t="s">
-        <v>400</v>
+        <v>1258</v>
       </c>
       <c r="C259" t="s">
-        <v>765</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B260" t="s">
-        <v>402</v>
+        <v>1211</v>
       </c>
       <c r="C260" t="s">
-        <v>1125</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>404</v>
+        <v>389</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1283</v>
       </c>
       <c r="C261" t="s">
-        <v>766</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B262" t="s">
-        <v>406</v>
+        <v>1213</v>
       </c>
       <c r="C262" t="s">
-        <v>767</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>1223</v>
+        <v>393</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1260</v>
       </c>
       <c r="C263" t="s">
-        <v>1224</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B264" t="s">
-        <v>1279</v>
+        <v>396</v>
       </c>
       <c r="C264" t="s">
-        <v>1278</v>
+        <v>760</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>1226</v>
+        <v>397</v>
+      </c>
+      <c r="B265" t="s">
+        <v>398</v>
       </c>
       <c r="C265" t="s">
-        <v>1227</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1225</v>
+        <v>399</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="C266" t="s">
-        <v>1228</v>
+        <v>761</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>1112</v>
+        <v>401</v>
+      </c>
+      <c r="B267" t="s">
+        <v>402</v>
       </c>
       <c r="C267" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1283</v>
+        <v>403</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>1215</v>
       </c>
       <c r="C268" t="s">
-        <v>1284</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B269" t="s">
-        <v>1111</v>
+        <v>1271</v>
       </c>
       <c r="C269" t="s">
-        <v>1046</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B270" t="s">
-        <v>415</v>
+        <v>405</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>1218</v>
       </c>
       <c r="C270" t="s">
-        <v>768</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>1114</v>
+        <v>406</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1217</v>
       </c>
       <c r="C271" t="s">
-        <v>770</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1116</v>
+        <v>407</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>1104</v>
       </c>
       <c r="C272" t="s">
-        <v>1118</v>
+        <v>764</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>1303</v>
+        <v>408</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1275</v>
       </c>
       <c r="C273" t="s">
-        <v>1304</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B274" t="s">
-        <v>1301</v>
+        <v>1103</v>
       </c>
       <c r="C274" t="s">
-        <v>1302</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>1117</v>
+        <v>410</v>
+      </c>
+      <c r="B275" t="s">
+        <v>411</v>
       </c>
       <c r="C275" t="s">
-        <v>1115</v>
+        <v>763</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1113</v>
+        <v>412</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>1106</v>
       </c>
       <c r="C276" t="s">
-        <v>1119</v>
+        <v>765</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>1231</v>
+        <v>413</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1108</v>
       </c>
       <c r="C277" t="s">
-        <v>1232</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1229</v>
+        <v>414</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>1295</v>
       </c>
       <c r="C278" t="s">
-        <v>1230</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B279" t="s">
-        <v>425</v>
+        <v>1293</v>
       </c>
       <c r="C279" t="s">
-        <v>771</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B280" t="s">
-        <v>427</v>
+        <v>416</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>1109</v>
       </c>
       <c r="C280" t="s">
-        <v>772</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B281" t="s">
-        <v>429</v>
+        <v>1105</v>
       </c>
       <c r="C281" t="s">
-        <v>773</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B282" t="s">
-        <v>431</v>
+        <v>418</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="C282" t="s">
-        <v>774</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B283" t="s">
-        <v>433</v>
+        <v>1221</v>
       </c>
       <c r="C283" t="s">
-        <v>775</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B284" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C284" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B285" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C285" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B286" t="s">
-        <v>841</v>
+        <v>425</v>
       </c>
       <c r="C286" t="s">
-        <v>842</v>
+        <v>768</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B287" t="s">
-        <v>843</v>
+        <v>427</v>
       </c>
       <c r="C287" t="s">
-        <v>844</v>
+        <v>769</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B288" t="s">
-        <v>845</v>
+        <v>429</v>
       </c>
       <c r="C288" t="s">
-        <v>846</v>
+        <v>770</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B289" t="s">
-        <v>847</v>
+        <v>431</v>
       </c>
       <c r="C289" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B290" t="s">
-        <v>848</v>
+        <v>433</v>
       </c>
       <c r="C290" t="s">
-        <v>849</v>
+        <v>772</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B291" t="s">
-        <v>444</v>
+        <v>836</v>
       </c>
       <c r="C291" t="s">
-        <v>779</v>
+        <v>837</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B292" t="s">
-        <v>446</v>
+        <v>838</v>
       </c>
       <c r="C292" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B293" t="s">
-        <v>448</v>
+        <v>840</v>
       </c>
       <c r="C293" t="s">
-        <v>780</v>
+        <v>841</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B294" t="s">
-        <v>450</v>
+        <v>842</v>
       </c>
       <c r="C294" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B295" t="s">
-        <v>452</v>
+        <v>843</v>
       </c>
       <c r="C295" t="s">
-        <v>782</v>
+        <v>844</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B296" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C296" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="B297" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C297" t="s">
-        <v>784</v>
+        <v>845</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B298" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C298" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B299" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C299" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B300" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="C300" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B301" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C301" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B302" t="s">
-        <v>851</v>
+        <v>452</v>
       </c>
       <c r="C302" t="s">
-        <v>852</v>
+        <v>779</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B303" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C303" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B304" t="s">
-        <v>853</v>
+        <v>456</v>
       </c>
       <c r="C304" t="s">
-        <v>854</v>
+        <v>781</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B305" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C305" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B306" t="s">
-        <v>1296</v>
+        <v>460</v>
       </c>
       <c r="C306" t="s">
-        <v>1295</v>
+        <v>783</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B307" t="s">
-        <v>473</v>
+        <v>846</v>
       </c>
       <c r="C307" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B308" t="s">
-        <v>856</v>
+        <v>463</v>
       </c>
       <c r="C308" t="s">
-        <v>857</v>
+        <v>784</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B309" t="s">
-        <v>476</v>
+        <v>848</v>
       </c>
       <c r="C309" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B310" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C310" t="s">
-        <v>859</v>
+        <v>785</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B311" t="s">
-        <v>480</v>
+        <v>1288</v>
       </c>
       <c r="C311" t="s">
-        <v>791</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B312" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C312" t="s">
-        <v>792</v>
+        <v>850</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B313" t="s">
-        <v>484</v>
+        <v>851</v>
       </c>
       <c r="C313" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B314" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="C314" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B315" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C315" t="s">
-        <v>793</v>
+        <v>854</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B316" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="C316" t="s">
-        <v>862</v>
+        <v>786</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B317" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C317" t="s">
-        <v>864</v>
+        <v>787</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B318" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="C318" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B319" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C319" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>1281</v>
+        <v>483</v>
       </c>
       <c r="B320" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="C320" t="s">
-        <v>867</v>
+        <v>788</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B321" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C321" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B322" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C322" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B323" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C323" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B324" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C324" t="s">
-        <v>794</v>
+        <v>861</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>506</v>
+        <v>1273</v>
       </c>
       <c r="B325" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C325" t="s">
-        <v>795</v>
+        <v>862</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B326" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="C326" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B327" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="C327" t="s">
-        <v>796</v>
+        <v>864</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B328" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C328" t="s">
-        <v>798</v>
+        <v>865</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B329" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C329" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="B330" t="s">
-        <v>873</v>
+        <v>503</v>
       </c>
       <c r="C330" t="s">
-        <v>874</v>
+        <v>790</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B331" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C331" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B332" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C332" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>1282</v>
+        <v>508</v>
       </c>
       <c r="B333" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C333" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B334" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C334" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B335" t="s">
-        <v>525</v>
+        <v>868</v>
       </c>
       <c r="C335" t="s">
-        <v>803</v>
+        <v>869</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B336" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C336" t="s">
-        <v>804</v>
+        <v>867</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B337" t="s">
-        <v>928</v>
+        <v>516</v>
       </c>
       <c r="C337" t="s">
-        <v>875</v>
+        <v>795</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>529</v>
+        <v>1274</v>
       </c>
       <c r="B338" t="s">
-        <v>929</v>
+        <v>517</v>
       </c>
       <c r="C338" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B339" t="s">
-        <v>936</v>
+        <v>519</v>
       </c>
       <c r="C339" t="s">
-        <v>1058</v>
+        <v>797</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B340" t="s">
-        <v>952</v>
+        <v>521</v>
       </c>
       <c r="C340" t="s">
-        <v>1059</v>
+        <v>798</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B341" t="s">
-        <v>1060</v>
+        <v>523</v>
       </c>
       <c r="C341" t="s">
-        <v>1061</v>
+        <v>799</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B342" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="C342" t="s">
-        <v>1062</v>
+        <v>870</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B343" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="C343" t="s">
-        <v>1063</v>
+        <v>800</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B344" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="C344" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B345" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="C345" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B346" t="s">
-        <v>943</v>
+        <v>1052</v>
       </c>
       <c r="C346" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B347" t="s">
-        <v>939</v>
-      </c>
-      <c r="C347" s="6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D347" s="6"/>
+        <v>933</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="348" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B348" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
       <c r="C348" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B349" t="s">
-        <v>970</v>
+        <v>936</v>
       </c>
       <c r="C349" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>968</v>
+        <v>532</v>
       </c>
       <c r="B350" t="s">
-        <v>966</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D350" s="7"/>
+        <v>959</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="351" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>969</v>
+        <v>533</v>
       </c>
       <c r="B351" t="s">
-        <v>967</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D351" s="7"/>
+        <v>938</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="352" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B352" t="s">
-        <v>971</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1072</v>
-      </c>
+        <v>934</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D352" s="6"/>
     </row>
     <row r="353" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B353" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="C353" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B354" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="C354" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>544</v>
+        <v>963</v>
       </c>
       <c r="B355" t="s">
-        <v>963</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1075</v>
-      </c>
+        <v>961</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D355" s="7"/>
     </row>
     <row r="356" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>545</v>
+        <v>964</v>
       </c>
       <c r="B356" t="s">
-        <v>946</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1076</v>
-      </c>
+        <v>962</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D356" s="7"/>
     </row>
     <row r="357" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B357" t="s">
-        <v>1077</v>
+        <v>966</v>
       </c>
       <c r="C357" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B358" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="C358" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B359" t="s">
-        <v>944</v>
+        <v>968</v>
       </c>
       <c r="C359" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B360" t="s">
-        <v>945</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D360" s="6"/>
+        <v>958</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1067</v>
+      </c>
     </row>
     <row r="361" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B361" t="s">
-        <v>954</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D361" s="6"/>
+        <v>941</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="362" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B362" t="s">
-        <v>955</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D362" s="6"/>
+        <v>1069</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="363" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B363" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C363" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B364" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
       <c r="C364" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B365" t="s">
-        <v>995</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1087</v>
-      </c>
+        <v>940</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D365" s="6"/>
     </row>
     <row r="366" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B366" t="s">
-        <v>996</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1086</v>
-      </c>
+        <v>949</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D366" s="6"/>
     </row>
     <row r="367" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B367" t="s">
-        <v>959</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1088</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D367" s="6"/>
     </row>
     <row r="368" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B368" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="C368" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B369" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C369" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>994</v>
+        <v>550</v>
       </c>
       <c r="B370" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="C370" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>979</v>
+        <v>551</v>
       </c>
       <c r="B371" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="C371" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>980</v>
+        <v>552</v>
       </c>
       <c r="B372" t="s">
-        <v>997</v>
+        <v>954</v>
       </c>
       <c r="C372" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>981</v>
+        <v>553</v>
       </c>
       <c r="B373" t="s">
-        <v>1001</v>
+        <v>953</v>
       </c>
       <c r="C373" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>982</v>
+        <v>554</v>
       </c>
       <c r="B374" t="s">
-        <v>998</v>
+        <v>955</v>
       </c>
       <c r="C374" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E374" t="s">
-        <v>797</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="B375" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="C375" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="B376" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="C376" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="B377" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="C377" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="B378" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="C378" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="B379" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="C379" t="s">
-        <v>1100</v>
+        <v>1087</v>
+      </c>
+      <c r="E379" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>1322</v>
+        <v>978</v>
       </c>
       <c r="B380" t="s">
-        <v>1320</v>
+        <v>987</v>
       </c>
       <c r="C380" t="s">
-        <v>1321</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>1323</v>
+        <v>979</v>
       </c>
       <c r="B381" t="s">
-        <v>1324</v>
+        <v>998</v>
       </c>
       <c r="C381" t="s">
-        <v>1325</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="B382" t="s">
         <v>999</v>
       </c>
       <c r="C382" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="B383" t="s">
         <v>1000</v>
       </c>
       <c r="C383" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="B384" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="C384" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>991</v>
+        <v>1312</v>
       </c>
       <c r="B385" t="s">
-        <v>1033</v>
+        <v>1314</v>
       </c>
       <c r="C385" t="s">
-        <v>1104</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>1034</v>
+        <v>1313</v>
       </c>
       <c r="B386" t="s">
-        <v>1035</v>
+        <v>1317</v>
       </c>
       <c r="C386" t="s">
-        <v>1105</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>559</v>
+        <v>1316</v>
       </c>
       <c r="B387" t="s">
-        <v>876</v>
+        <v>1318</v>
       </c>
       <c r="C387" t="s">
-        <v>877</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>560</v>
+        <v>983</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>561</v>
+        <v>984</v>
+      </c>
+      <c r="B389" t="s">
+        <v>994</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>562</v>
+        <v>985</v>
       </c>
       <c r="B390" t="s">
-        <v>961</v>
+        <v>988</v>
       </c>
       <c r="C390" t="s">
-        <v>878</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>563</v>
+        <v>986</v>
       </c>
       <c r="B391" t="s">
-        <v>1106</v>
+        <v>1026</v>
       </c>
       <c r="C391" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>564</v>
+        <v>1027</v>
       </c>
       <c r="B392" t="s">
-        <v>879</v>
+        <v>1028</v>
       </c>
       <c r="C392" t="s">
-        <v>880</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B393" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="C393" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B394" t="s">
-        <v>883</v>
-      </c>
-      <c r="C394" t="s">
-        <v>886</v>
+        <v>556</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B395" t="s">
-        <v>885</v>
-      </c>
-      <c r="C395" t="s">
-        <v>887</v>
+        <v>557</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>884</v>
+        <v>558</v>
       </c>
       <c r="B396" t="s">
-        <v>888</v>
+        <v>956</v>
       </c>
       <c r="C396" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>568</v>
+        <v>559</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B398" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="C398" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B399" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="C399" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B400" t="s">
-        <v>572</v>
+        <v>878</v>
       </c>
       <c r="C400" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B401" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="C401" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>574</v>
+        <v>879</v>
       </c>
       <c r="B402" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="C402" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B403" t="s">
-        <v>899</v>
-      </c>
-      <c r="C403" t="s">
-        <v>900</v>
+        <v>564</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>1108</v>
+        <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>1109</v>
+        <v>885</v>
       </c>
       <c r="C404" t="s">
-        <v>1110</v>
+        <v>886</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B405" t="s">
-        <v>577</v>
+        <v>887</v>
       </c>
       <c r="C405" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B406" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C406" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B407" t="s">
-        <v>581</v>
+        <v>891</v>
       </c>
       <c r="C407" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B408" t="s">
-        <v>583</v>
+        <v>892</v>
       </c>
       <c r="C408" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>584</v>
+        <v>571</v>
+      </c>
+      <c r="B409" t="s">
+        <v>894</v>
+      </c>
+      <c r="C409" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>585</v>
+        <v>1100</v>
       </c>
       <c r="B410" t="s">
-        <v>586</v>
+        <v>1101</v>
       </c>
       <c r="C410" t="s">
-        <v>905</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>587</v>
+        <v>572</v>
+      </c>
+      <c r="B411" t="s">
+        <v>573</v>
+      </c>
+      <c r="C411" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B412" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="C412" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B413" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="C413" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="B414" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="C414" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B416" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="C416" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B417" t="s">
-        <v>598</v>
-      </c>
-      <c r="C417" t="s">
-        <v>910</v>
+        <v>583</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="B418" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="C418" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="B419" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="C419" t="s">
-        <v>912</v>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B420" t="s">
+        <v>589</v>
+      </c>
+      <c r="C420" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B422" t="s">
+        <v>592</v>
+      </c>
+      <c r="C422" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B423" t="s">
+        <v>594</v>
+      </c>
+      <c r="C423" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B424" t="s">
+        <v>596</v>
+      </c>
+      <c r="C424" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B425" t="s">
+        <v>598</v>
+      </c>
+      <c r="C425" t="s">
+        <v>907</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A492" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A498" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="C362:D362"/>
-    <mergeCell ref="C347:D347"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="C351:D351"/>
-    <mergeCell ref="C360:D360"/>
-    <mergeCell ref="C361:D361"/>
+    <mergeCell ref="C367:D367"/>
+    <mergeCell ref="C352:D352"/>
+    <mergeCell ref="C355:D355"/>
+    <mergeCell ref="C356:D356"/>
+    <mergeCell ref="C365:D365"/>
+    <mergeCell ref="C366:D366"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9579,546 +9722,546 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C13" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C14" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C16" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C19" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C20" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C21" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B22" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C22" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B24" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C24" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B25" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C25" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C26" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B27" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C27" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C28" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B29" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C29" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B30" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C30" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B31" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C32" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C33" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C34" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C35" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B36" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C36" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C37" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B38" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C38" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B39" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C39" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B40" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C41" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C42" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C43" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C44" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C45" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C46" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C47" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C48" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JigsawTD\JigsawTD\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97199855-BE69-4E3F-8B04-2EC16DEBF86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F272EC-823E-469B-A094-3BF92E95BCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2974,10 +2974,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>构建按钮&lt;color=#FFEA6D&gt;左方的数字&lt;/color&gt;显示不进行构建时,下回合价格的&lt;color=#FFEA6D&gt;降价幅度(当前10%)&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>构建模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3044,10 +3040,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你可以不必在每个回合都构建模块,如果你&lt;color=#FFEA6D&gt;在一回合没有进行任何构建,构建价格将会下降&lt;/color&gt;.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>右下角是&lt;color=#FFEA6D&gt;构造模块功能&lt;/color&gt;,构造模块获取防御塔进行防御的主要方式.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3273,9 +3265,6 @@
     <t>GUIDEBTN03</t>
   </si>
   <si>
-    <t>GUIDEBTN04</t>
-  </si>
-  <si>
     <t>GUIDEBTN05</t>
   </si>
   <si>
@@ -3470,14 +3459,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>You don't have to build modules every turn, and &lt;color=#FFEA6D&gt;if you don't build anything in a turn, the build price will go down.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFEA6D&gt;The number to the left of the Build button shows the price reduction for the next round (current 10%) without building.&lt;/color&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>现在场上防御力充足,这回合就尝试不进行构建直接开始下一回合吧.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3927,10 +3908,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Element skill slot + 2, each turret can equip with only one Frost Core</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Frost Core</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4063,30 +4040,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>改装赠品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gift of Modify</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对剩余生命值低于25%的敌人造成的伤害提高50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点打击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weakness Strike</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage increased by 50% if target's Health is less than 25%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击造成的减速及溅射范围翻倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4095,14 +4048,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>强势打击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Powerful Blow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>元素技能槽+1，每拥有1个元素造成的伤害就提升10%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4343,14 +4288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;sprite=4&gt;数量+1，且子弹每溅射到1个目标，就使溅射伤害提高20%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;sprite=4&gt;+1, Splash damage increased by 20% for each enemy it hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Released a frost burst every 5 seconds</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4396,30 +4333,6 @@
   </si>
   <si>
     <t>24K Base</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;sprite=1&gt;+1, Penetration Bullet; Randomly shoot around.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透子弹；&lt;sprite=1&gt;数量+1，自动向随机方向发射炮弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透子弹；&lt;sprite=0&gt;数量+1，回旋镖每命中一个敌人就使后续伤害提高10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透子弹;&lt;sprite=2&gt;数量+1，子弹施加双倍的冻结层数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penetration Bullet;&lt;sprite=2&gt;+1, Double bullet's frost effect.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penetration Bullet;&lt;sprite=0&gt;+1, Bullet damage will increase by 10% for each enemy it hit.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4578,6 +4491,94 @@
   </si>
   <si>
     <t>溅射半径，溅射造成35%伤害及减速效果；穿透型子弹不会溅射，但会增加子弹体积。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUIDEBTN04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹；&lt;sprite=1&gt;数量+2，自动向随机方向发射炮弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sprite=1&gt;+2, Penetration Bullet; Randomly shoot around.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹;&lt;sprite=2&gt;数量+2，子弹施加双倍的冻结层数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetration Bullet;&lt;sprite=2&gt;+2, Double bullet's frost effect.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sprite=4&gt;数量+2，且子弹每溅射到1个目标，就使溅射伤害提高20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;sprite=4&gt;+2, Splash damage increased by 20% for each enemy it hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源溢出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Overflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素技能槽+1（每个重构塔技能槽上限为5）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element skill slot + 2, each turret can has maximum 5 slots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element skill slot + 1, each turret can has maximum 5 slots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制加装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force Equip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高爆炸弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powerful Hesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以不必在每个回合都构建模块,&lt;color=#FFEA6D&gt;构建价格在每回合开始时都会下降10%&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建按钮&lt;color=#FFEA6D&gt;左方的数字&lt;/color&gt;显示每回合价格的&lt;color=#FFEA6D&gt;降价幅度(当前10%)&lt;/color&gt;.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You don't have to build modules every turn, and &lt;color=#FFEA6D&gt;the build price will go down at the start of each turn.&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFEA6D&gt;The number to the left of the Build button shows the price reduction rate (current 10%).&lt;/color&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹；&lt;sprite=0&gt;数量+2，回旋镖每命中一个敌人就使后续伤害提高5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetration Bullet;&lt;sprite=0&gt;+2, Bullet damage will increase by 5% for each enemy it hit.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5029,8 +5030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5329,13 +5330,13 @@
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B27" t="s">
         <v>943</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>944</v>
-      </c>
-      <c r="C27" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5681,10 +5682,10 @@
         <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C59" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5692,10 +5693,10 @@
         <v>105</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5703,10 +5704,10 @@
         <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C61" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5714,10 +5715,10 @@
         <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C62" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5725,10 +5726,10 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C63" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5736,7 +5737,7 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C64" t="s">
         <v>806</v>
@@ -5747,7 +5748,7 @@
         <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C65" t="s">
         <v>643</v>
@@ -5810,13 +5811,13 @@
     </row>
     <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B71" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5846,10 +5847,10 @@
         <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C74" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5948,7 +5949,7 @@
         <v>937</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5956,10 +5957,10 @@
         <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C84" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6019,62 +6020,62 @@
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B90" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C90" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B91" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C91" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B92" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C92" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>1018</v>
+        <v>1322</v>
       </c>
       <c r="B93" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C93" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B94" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C94" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B95" t="s">
         <v>802</v>
@@ -6085,68 +6086,68 @@
     </row>
     <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1341</v>
+        <v>1319</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1342</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6154,10 +6155,10 @@
         <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C102" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6176,7 +6177,7 @@
         <v>142</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C104" t="s">
         <v>653</v>
@@ -6187,10 +6188,10 @@
         <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>1306</v>
+        <v>1284</v>
       </c>
       <c r="C105" t="s">
-        <v>1307</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6198,10 +6199,10 @@
         <v>144</v>
       </c>
       <c r="B106" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C106" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6473,10 +6474,10 @@
         <v>191</v>
       </c>
       <c r="B131" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
       <c r="C131" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6580,13 +6581,13 @@
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="B141" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="C141" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6602,13 +6603,13 @@
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>1229</v>
+        <v>1215</v>
       </c>
       <c r="B143" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="C143" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6616,10 +6617,10 @@
         <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="C144" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6627,10 +6628,10 @@
         <v>213</v>
       </c>
       <c r="B145" t="s">
-        <v>1343</v>
+        <v>1321</v>
       </c>
       <c r="C145" t="s">
-        <v>1305</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6638,10 +6639,10 @@
         <v>214</v>
       </c>
       <c r="B146" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="C146" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6759,10 +6760,10 @@
         <v>233</v>
       </c>
       <c r="B157" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="C157" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6770,10 +6771,10 @@
         <v>234</v>
       </c>
       <c r="B158" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="C158" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6957,57 +6958,57 @@
     </row>
     <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>1326</v>
+        <v>1304</v>
       </c>
       <c r="B175" t="s">
-        <v>1331</v>
+        <v>1309</v>
       </c>
       <c r="C175" t="s">
-        <v>1336</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>1327</v>
+        <v>1305</v>
       </c>
       <c r="B176" t="s">
-        <v>1332</v>
+        <v>1310</v>
       </c>
       <c r="C176" t="s">
-        <v>1337</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>1328</v>
+        <v>1306</v>
       </c>
       <c r="B177" t="s">
-        <v>1333</v>
+        <v>1311</v>
       </c>
       <c r="C177" t="s">
-        <v>1338</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="B178" t="s">
-        <v>1334</v>
+        <v>1312</v>
       </c>
       <c r="C178" t="s">
-        <v>1339</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>1330</v>
+        <v>1308</v>
       </c>
       <c r="B179" t="s">
-        <v>1335</v>
+        <v>1313</v>
       </c>
       <c r="C179" t="s">
-        <v>1340</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7070,7 +7071,7 @@
         <v>275</v>
       </c>
       <c r="B185" t="s">
-        <v>1322</v>
+        <v>1300</v>
       </c>
       <c r="C185" t="s">
         <v>709</v>
@@ -7092,10 +7093,10 @@
         <v>278</v>
       </c>
       <c r="B187" t="s">
-        <v>1325</v>
+        <v>1303</v>
       </c>
       <c r="C187" t="s">
-        <v>1321</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7103,7 +7104,7 @@
         <v>279</v>
       </c>
       <c r="B188" t="s">
-        <v>1323</v>
+        <v>1301</v>
       </c>
       <c r="C188" t="s">
         <v>711</v>
@@ -7114,7 +7115,7 @@
         <v>280</v>
       </c>
       <c r="B189" t="s">
-        <v>1324</v>
+        <v>1302</v>
       </c>
       <c r="C189" t="s">
         <v>712</v>
@@ -7122,134 +7123,134 @@
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B190" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="C190" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B191" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="C191" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B192" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="C192" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B193" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="C193" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B194" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="C194" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="B195" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="C195" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="B196" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C196" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="B197" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="C197" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B198" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C198" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B199" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="C199" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="B200" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="C200" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B201" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="C201" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7257,10 +7258,10 @@
         <v>281</v>
       </c>
       <c r="B202" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="C202" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7268,10 +7269,10 @@
         <v>282</v>
       </c>
       <c r="B203" t="s">
-        <v>1227</v>
+        <v>1213</v>
       </c>
       <c r="C203" t="s">
-        <v>1228</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7279,10 +7280,10 @@
         <v>283</v>
       </c>
       <c r="B204" t="s">
-        <v>1285</v>
+        <v>1327</v>
       </c>
       <c r="C204" t="s">
-        <v>1286</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7301,10 +7302,10 @@
         <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>1300</v>
+        <v>1323</v>
       </c>
       <c r="C206" t="s">
-        <v>1299</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7323,10 +7324,10 @@
         <v>289</v>
       </c>
       <c r="B208" t="s">
-        <v>1278</v>
+        <v>1264</v>
       </c>
       <c r="C208" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7334,10 +7335,10 @@
         <v>290</v>
       </c>
       <c r="B209" t="s">
-        <v>1302</v>
+        <v>1325</v>
       </c>
       <c r="C209" t="s">
-        <v>1303</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7356,10 +7357,10 @@
         <v>293</v>
       </c>
       <c r="B211" t="s">
-        <v>1301</v>
+        <v>1342</v>
       </c>
       <c r="C211" t="s">
-        <v>1304</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7367,10 +7368,10 @@
         <v>294</v>
       </c>
       <c r="B212" t="s">
-        <v>1225</v>
+        <v>1211</v>
       </c>
       <c r="C212" t="s">
-        <v>1226</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7389,10 +7390,10 @@
         <v>297</v>
       </c>
       <c r="B214" t="s">
-        <v>1297</v>
+        <v>1281</v>
       </c>
       <c r="C214" t="s">
-        <v>1298</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7400,10 +7401,10 @@
         <v>298</v>
       </c>
       <c r="B215" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="C215" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7411,10 +7412,10 @@
         <v>299</v>
       </c>
       <c r="B216" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="C216" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7422,10 +7423,10 @@
         <v>301</v>
       </c>
       <c r="B217" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="C217" t="s">
-        <v>1230</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7433,10 +7434,10 @@
         <v>303</v>
       </c>
       <c r="B218" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C218" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7444,10 +7445,10 @@
         <v>305</v>
       </c>
       <c r="B219" t="s">
-        <v>1248</v>
+        <v>1234</v>
       </c>
       <c r="C219" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7455,10 +7456,10 @@
         <v>307</v>
       </c>
       <c r="B220" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="C220" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7466,10 +7467,10 @@
         <v>309</v>
       </c>
       <c r="B221" t="s">
-        <v>1246</v>
+        <v>1232</v>
       </c>
       <c r="C221" t="s">
-        <v>1232</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7477,10 +7478,10 @@
         <v>311</v>
       </c>
       <c r="B222" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="C222" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7488,10 +7489,10 @@
         <v>313</v>
       </c>
       <c r="B223" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="C223" t="s">
-        <v>1233</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7499,10 +7500,10 @@
         <v>315</v>
       </c>
       <c r="B224" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C224" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7510,10 +7511,10 @@
         <v>317</v>
       </c>
       <c r="B225" t="s">
-        <v>1310</v>
+        <v>1288</v>
       </c>
       <c r="C225" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7521,10 +7522,10 @@
         <v>319</v>
       </c>
       <c r="B226" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="C226" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7532,10 +7533,10 @@
         <v>321</v>
       </c>
       <c r="B227" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="C227" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7543,10 +7544,10 @@
         <v>323</v>
       </c>
       <c r="B228" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C228" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7554,10 +7555,10 @@
         <v>325</v>
       </c>
       <c r="B229" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="C229" t="s">
-        <v>1237</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7565,10 +7566,10 @@
         <v>327</v>
       </c>
       <c r="B230" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="C230" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7576,10 +7577,10 @@
         <v>329</v>
       </c>
       <c r="B231" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="C231" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7587,10 +7588,10 @@
         <v>331</v>
       </c>
       <c r="B232" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C232" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7598,10 +7599,10 @@
         <v>333</v>
       </c>
       <c r="B233" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="C233" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7609,10 +7610,10 @@
         <v>335</v>
       </c>
       <c r="B234" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="C234" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7620,10 +7621,10 @@
         <v>337</v>
       </c>
       <c r="B235" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="C235" t="s">
-        <v>1181</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7631,10 +7632,10 @@
         <v>339</v>
       </c>
       <c r="B236" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C236" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7642,10 +7643,10 @@
         <v>341</v>
       </c>
       <c r="B237" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="C237" t="s">
-        <v>1249</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7653,10 +7654,10 @@
         <v>343</v>
       </c>
       <c r="B238" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C238" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7664,10 +7665,10 @@
         <v>345</v>
       </c>
       <c r="B239" t="s">
-        <v>1250</v>
+        <v>1236</v>
       </c>
       <c r="C239" t="s">
-        <v>1251</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7675,10 +7676,10 @@
         <v>347</v>
       </c>
       <c r="B240" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="C240" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7686,10 +7687,10 @@
         <v>349</v>
       </c>
       <c r="B241" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="C241" t="s">
-        <v>1253</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7697,10 +7698,10 @@
         <v>351</v>
       </c>
       <c r="B242" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C242" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7708,10 +7709,10 @@
         <v>353</v>
       </c>
       <c r="B243" t="s">
-        <v>1254</v>
+        <v>1240</v>
       </c>
       <c r="C243" t="s">
-        <v>1255</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7719,10 +7720,10 @@
         <v>355</v>
       </c>
       <c r="B244" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C244" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7730,10 +7731,10 @@
         <v>357</v>
       </c>
       <c r="B245" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="C245" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7741,10 +7742,10 @@
         <v>359</v>
       </c>
       <c r="B246" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="C246" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7752,10 +7753,10 @@
         <v>361</v>
       </c>
       <c r="B247" t="s">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="C247" t="s">
-        <v>1266</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7763,10 +7764,10 @@
         <v>363</v>
       </c>
       <c r="B248" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="C248" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7774,10 +7775,10 @@
         <v>365</v>
       </c>
       <c r="B249" t="s">
-        <v>1263</v>
+        <v>1249</v>
       </c>
       <c r="C249" t="s">
-        <v>1267</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7785,10 +7786,10 @@
         <v>367</v>
       </c>
       <c r="B250" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="C250" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7796,10 +7797,10 @@
         <v>369</v>
       </c>
       <c r="B251" t="s">
-        <v>1264</v>
+        <v>1250</v>
       </c>
       <c r="C251" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7807,10 +7808,10 @@
         <v>371</v>
       </c>
       <c r="B252" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C252" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7818,10 +7819,10 @@
         <v>373</v>
       </c>
       <c r="B253" t="s">
-        <v>1265</v>
+        <v>1251</v>
       </c>
       <c r="C253" t="s">
-        <v>1269</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7829,10 +7830,10 @@
         <v>375</v>
       </c>
       <c r="B254" t="s">
-        <v>1308</v>
+        <v>1286</v>
       </c>
       <c r="C254" t="s">
-        <v>1309</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7840,10 +7841,10 @@
         <v>377</v>
       </c>
       <c r="B255" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="C255" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7851,10 +7852,10 @@
         <v>379</v>
       </c>
       <c r="B256" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="C256" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7862,10 +7863,10 @@
         <v>381</v>
       </c>
       <c r="B257" t="s">
-        <v>1256</v>
+        <v>1242</v>
       </c>
       <c r="C257" t="s">
-        <v>1257</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7873,10 +7874,10 @@
         <v>383</v>
       </c>
       <c r="B258" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="C258" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7884,10 +7885,10 @@
         <v>385</v>
       </c>
       <c r="B259" t="s">
-        <v>1258</v>
+        <v>1244</v>
       </c>
       <c r="C259" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7895,10 +7896,10 @@
         <v>387</v>
       </c>
       <c r="B260" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="C260" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7906,10 +7907,10 @@
         <v>389</v>
       </c>
       <c r="B261" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
       <c r="C261" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7917,10 +7918,10 @@
         <v>391</v>
       </c>
       <c r="B262" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C262" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7928,10 +7929,10 @@
         <v>393</v>
       </c>
       <c r="B263" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="C263" t="s">
-        <v>1261</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7953,7 +7954,7 @@
         <v>398</v>
       </c>
       <c r="C265" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7983,10 +7984,10 @@
         <v>403</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>1215</v>
+        <v>1329</v>
       </c>
       <c r="C268" t="s">
-        <v>1216</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7994,10 +7995,10 @@
         <v>404</v>
       </c>
       <c r="B269" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="C269" t="s">
-        <v>1270</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8005,10 +8006,10 @@
         <v>405</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>1218</v>
+        <v>1334</v>
       </c>
       <c r="C270" t="s">
-        <v>1219</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8016,10 +8017,10 @@
         <v>406</v>
       </c>
       <c r="B271" t="s">
-        <v>1217</v>
+        <v>1331</v>
       </c>
       <c r="C271" t="s">
-        <v>1220</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8027,7 +8028,7 @@
         <v>407</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C272" t="s">
         <v>764</v>
@@ -8038,10 +8039,10 @@
         <v>408</v>
       </c>
       <c r="B273" t="s">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="C273" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8049,10 +8050,10 @@
         <v>409</v>
       </c>
       <c r="B274" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="C274" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8071,7 +8072,7 @@
         <v>412</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C276" t="s">
         <v>765</v>
@@ -8082,10 +8083,10 @@
         <v>413</v>
       </c>
       <c r="B277" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="C277" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8093,10 +8094,10 @@
         <v>414</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1295</v>
+        <v>1279</v>
       </c>
       <c r="C278" t="s">
-        <v>1296</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8104,10 +8105,10 @@
         <v>415</v>
       </c>
       <c r="B279" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
       <c r="C279" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8115,10 +8116,10 @@
         <v>416</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C280" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8126,10 +8127,10 @@
         <v>417</v>
       </c>
       <c r="B281" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="C281" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8137,10 +8138,10 @@
         <v>418</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1223</v>
+        <v>1336</v>
       </c>
       <c r="C282" t="s">
-        <v>1224</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8148,10 +8149,10 @@
         <v>419</v>
       </c>
       <c r="B283" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="C283" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8456,10 +8457,10 @@
         <v>467</v>
       </c>
       <c r="B311" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
       <c r="C311" t="s">
-        <v>1287</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8607,7 +8608,7 @@
     </row>
     <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="B325" t="s">
         <v>493</v>
@@ -8750,7 +8751,7 @@
     </row>
     <row r="338" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
       <c r="B338" t="s">
         <v>517</v>
@@ -8822,7 +8823,7 @@
         <v>931</v>
       </c>
       <c r="C344" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8830,10 +8831,10 @@
         <v>527</v>
       </c>
       <c r="B345" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C345" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8841,10 +8842,10 @@
         <v>528</v>
       </c>
       <c r="B346" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C346" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8855,7 +8856,7 @@
         <v>933</v>
       </c>
       <c r="C347" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8866,7 +8867,7 @@
         <v>932</v>
       </c>
       <c r="C348" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8877,7 +8878,7 @@
         <v>936</v>
       </c>
       <c r="C349" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8885,10 +8886,10 @@
         <v>532</v>
       </c>
       <c r="B350" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C350" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8899,7 +8900,7 @@
         <v>938</v>
       </c>
       <c r="C351" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8910,7 +8911,7 @@
         <v>934</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D352" s="6"/>
     </row>
@@ -8919,10 +8920,10 @@
         <v>535</v>
       </c>
       <c r="B353" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C353" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8930,33 +8931,33 @@
         <v>536</v>
       </c>
       <c r="B354" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C354" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B355" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D355" s="7"/>
     </row>
     <row r="356" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B356" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D356" s="7"/>
     </row>
@@ -8965,10 +8966,10 @@
         <v>537</v>
       </c>
       <c r="B357" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C357" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8976,10 +8977,10 @@
         <v>538</v>
       </c>
       <c r="B358" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C358" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8987,10 +8988,10 @@
         <v>539</v>
       </c>
       <c r="B359" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C359" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8998,10 +8999,10 @@
         <v>540</v>
       </c>
       <c r="B360" t="s">
-        <v>958</v>
+        <v>1338</v>
       </c>
       <c r="C360" t="s">
-        <v>1067</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9009,10 +9010,10 @@
         <v>541</v>
       </c>
       <c r="B361" t="s">
-        <v>941</v>
+        <v>1339</v>
       </c>
       <c r="C361" t="s">
-        <v>1068</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9020,10 +9021,10 @@
         <v>542</v>
       </c>
       <c r="B362" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C362" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9031,10 +9032,10 @@
         <v>543</v>
       </c>
       <c r="B363" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C363" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9045,7 +9046,7 @@
         <v>939</v>
       </c>
       <c r="C364" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9056,7 +9057,7 @@
         <v>940</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D365" s="6"/>
     </row>
@@ -9065,10 +9066,10 @@
         <v>546</v>
       </c>
       <c r="B366" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="D366" s="6"/>
     </row>
@@ -9077,10 +9078,10 @@
         <v>547</v>
       </c>
       <c r="B367" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="D367" s="6"/>
     </row>
@@ -9089,10 +9090,10 @@
         <v>548</v>
       </c>
       <c r="B368" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C368" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9100,10 +9101,10 @@
         <v>549</v>
       </c>
       <c r="B369" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C369" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9111,10 +9112,10 @@
         <v>550</v>
       </c>
       <c r="B370" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C370" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9122,10 +9123,10 @@
         <v>551</v>
       </c>
       <c r="B371" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C371" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9133,10 +9134,10 @@
         <v>552</v>
       </c>
       <c r="B372" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C372" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9144,10 +9145,10 @@
         <v>553</v>
       </c>
       <c r="B373" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C373" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9155,65 +9156,65 @@
         <v>554</v>
       </c>
       <c r="B374" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C374" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B375" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C375" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B376" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C376" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B377" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C377" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B378" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C378" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B379" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C379" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="E379" t="s">
         <v>792</v>
@@ -9221,145 +9222,145 @@
     </row>
     <row r="380" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B380" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C380" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B381" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C381" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B382" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C382" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B383" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C383" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B384" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C384" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>1312</v>
+        <v>1290</v>
       </c>
       <c r="B385" t="s">
-        <v>1314</v>
+        <v>1292</v>
       </c>
       <c r="C385" t="s">
-        <v>1311</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>1313</v>
+        <v>1291</v>
       </c>
       <c r="B386" t="s">
-        <v>1317</v>
+        <v>1295</v>
       </c>
       <c r="C386" t="s">
-        <v>1319</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>1316</v>
+        <v>1294</v>
       </c>
       <c r="B387" t="s">
-        <v>1318</v>
+        <v>1296</v>
       </c>
       <c r="C387" t="s">
-        <v>1320</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B388" t="s">
-        <v>1315</v>
+        <v>1293</v>
       </c>
       <c r="C388" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B389" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C389" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B390" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C390" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B391" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C391" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B392" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C392" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9388,7 +9389,7 @@
         <v>558</v>
       </c>
       <c r="B396" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C396" t="s">
         <v>873</v>
@@ -9399,10 +9400,10 @@
         <v>559</v>
       </c>
       <c r="B397" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="C397" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9533,13 +9534,13 @@
     </row>
     <row r="410" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="B410" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C410" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/JigsawTD/Assets/Excels/LanguageExcel.xlsx
+++ b/JigsawTD/Assets/Excels/LanguageExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JigsawTD\JigsawTD\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F272EC-823E-469B-A094-3BF92E95BCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EF6874-3F32-4351-A9CB-C63C968C5D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$498</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$497</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="1347">
   <si>
     <t>SCENE1</t>
   </si>
@@ -195,12 +195,6 @@
     <t>敌人</t>
   </si>
   <si>
-    <t>GIRLWORD</t>
-  </si>
-  <si>
-    <t>身份校验中...已获取查看权，信息可查阅</t>
-  </si>
-  <si>
     <t>BACKGROUND</t>
   </si>
   <si>
@@ -573,9 +567,6 @@
     <t>THANKSINFO</t>
   </si>
   <si>
-    <t>感谢您体验《重构》游戏DEMO，如果你喜欢我们的游戏，\n请扫码把它加入愿望单吧！</t>
-  </si>
-  <si>
     <t>EXPVALUE</t>
   </si>
   <si>
@@ -1731,9 +1722,6 @@
     <t>Temp12</t>
   </si>
   <si>
-    <t>检测到刚刚的战术有些微小的失误,为您呈现战局数据细节.</t>
-  </si>
-  <si>
     <t>Temp13</t>
   </si>
   <si>
@@ -1746,81 +1734,27 @@
     <t>Temp20</t>
   </si>
   <si>
-    <t>据说刷新的数值关乎胜利概率?很抱歉,硅基生命信仰的量子力学中没有关于概率的概念.</t>
-  </si>
-  <si>
     <t>Temp21</t>
   </si>
   <si>
-    <t>似乎人类很信仰"概率"?以至于抽卡成为一种文明?</t>
-  </si>
-  <si>
     <t>Temp22</t>
   </si>
   <si>
-    <t>已知单次刷新数据的极限为1兆亿次,指挥官是否准备挑战一下?</t>
-  </si>
-  <si>
     <t>Temp23</t>
   </si>
   <si>
-    <t>我有关于治疗关节炎的全套治疗方法,指挥官不必顾虑.</t>
-  </si>
-  <si>
-    <t>//解锁新内容</t>
-  </si>
-  <si>
     <t>Temp30</t>
   </si>
   <si>
-    <t>新的同伴加入了星辰大海的征途，请查看同伴信息.</t>
-  </si>
-  <si>
-    <t>//无尽模式</t>
-  </si>
-  <si>
     <t>Temp40</t>
   </si>
   <si>
-    <t>首轮作战结束,您已初步展现领导力.</t>
-  </si>
-  <si>
     <t>Temp41</t>
   </si>
   <si>
-    <t>第二轮作战已结束,相信巴德文明已经感受到来自我们的威慑.</t>
-  </si>
-  <si>
     <t>Temp42</t>
   </si>
   <si>
-    <t>彻底瓦解敌人,看来指挥官和我有着相同立场.</t>
-  </si>
-  <si>
-    <t>//摆放重构塔</t>
-  </si>
-  <si>
-    <t>Temp50</t>
-  </si>
-  <si>
-    <t>已完成重构体安置,这将是人类命运改变的开始.</t>
-  </si>
-  <si>
-    <t>Temp51</t>
-  </si>
-  <si>
-    <t>请再熟悉一些不同类型重构体的展开方式吧.</t>
-  </si>
-  <si>
-    <t>Temp52</t>
-  </si>
-  <si>
-    <t>留给我们的时间已不多了,请高效赢下胜利.</t>
-  </si>
-  <si>
-    <t>Temp53</t>
-  </si>
-  <si>
     <t>开拓的野心和对极限的追求我们从未停止,指挥官,请继续吧!</t>
   </si>
   <si>
@@ -1892,9 +1826,6 @@
     <t>Enemy</t>
   </si>
   <si>
-    <t>Identity verification in progress...Login successful</t>
-  </si>
-  <si>
     <t>Background Research</t>
   </si>
   <si>
@@ -1988,9 +1919,6 @@
     <t>Note: Turret can only be placed on empty tile or basic tile while the basic tile can be placed anywhere.</t>
   </si>
   <si>
-    <t>If you haven't build last turn, the price will be reduced\n current price reduction percentage:</t>
-  </si>
-  <si>
     <t>Now</t>
   </si>
   <si>
@@ -2027,9 +1955,6 @@
     <t>Gained Gold</t>
   </si>
   <si>
-    <t>Thank you for experiencing the game demo. If you like our game, \n please add it to your wishlist!</t>
-  </si>
-  <si>
     <t>Gain Exp</t>
   </si>
   <si>
@@ -2738,18 +2663,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你可真是个人才呀朋友!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Well done, opening up access to endless mode and private coffee room.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>You're a real talent, my friend!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>难以置信,简兹.....程序都被惊到以至于产生了错误,绝不是我咬舌头了.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2777,14 +2694,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Faker said: if you practice enough, you won't be scared.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Faker说过:如果你练得足够多,就不会感到害怕.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>黎明就在眼前,请不要放弃!我将陪伴在您身边!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2793,10 +2702,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AI正在预测部署官的行动...1%离开战场...2%喝杯咖啡...97%再来一局.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AI is predicting deployment officer actions... One percent left the battlefield... 2% have a cup of coffee... 97%. One more round.</t>
   </si>
   <si>
@@ -2812,29 +2717,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>I have a set of treatments for arthritis. Don’t worry about clicking the Refresh button. It is okay.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>New companions have joined the journey (to the Star Ocean), please check the companion information.</t>
   </si>
   <si>
-    <t>The first round is over! You started to show your leadership talents gradually!</t>
-  </si>
-  <si>
-    <t>The second round is over! I think the Bard civilization has felt our deterrence!</t>
-  </si>
-  <si>
     <t>Completely wipe out the enemy — you know we share the same goal!</t>
-  </si>
-  <si>
-    <t>Reconstruction has placed well! It's time to change the destiny of all humankind!</t>
-  </si>
-  <si>
-    <t>Please familiarize yourself with the expansion way of different types of reconstructions.</t>
-  </si>
-  <si>
-    <t>There is not much time left! Let’s win this fast!</t>
   </si>
   <si>
     <t>Our greatest glory never falls, my commander. Please keep it up!</t>
@@ -3080,11 +2966,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当前回合没有构建时，构建价格将降低；
-当前降价百分比：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.基础操作及模块教学</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3575,23 +3456,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>干的漂亮,重构是一种取胜的方式,也是一种思想.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Well done, refactoring is not only a way to win, but also a way of thinking.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Temp16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对可能抱有希望是一种人类的特有的非理性.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>To hope for the possible is a uniquely human irrationality.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4579,6 +4444,184 @@
   </si>
   <si>
     <t>Penetration Bullet;&lt;sprite=0&gt;+2, Bullet damage will increase by 5% for each enemy it hit.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到刚刚的战术有些微小的失误,为您呈现战局数据细节.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI正在预测部署官的行动...1%离开战场...99%再来一局.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干的漂亮,合理的重构不仅是一种智慧,也是一门艺术.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可真是个人才呀朋友!这游戏就是这么玩的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>That’s how it’s done! You’re a real inspiration, friend!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well done, reasonable refactor is not only a wisdom, but also an art.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impossible to fail, please tell the developer how you did it?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可能的失败,请联系开发者你是如何做到的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习一个套路需要三个月，而你一个月就够了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It takes three months to practice a routine, and you can do it in one month.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有关于治疗腱鞘炎的全套治疗方法,指挥官不必顾虑.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a set of treatments for tenosynovitis. Don’t worry about clicking the Refresh button. It is okay.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说刷新的数值关乎胜利概率?很抱歉,硅基生命信仰的量子力学中没有关于概率的概念.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎人类很信仰"概率"?以至于抽卡成为一种文明?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已知单次刷新数据的极限为1兆亿次,指挥官是否准备挑战一下?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的同伴加入了星辰大海的征途，请查看同伴信息.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一场紧凑的战役，请再试试更长远的规划您的作战布局！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做得不错，相信巴德文明已经感受到来自我们的威慑.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彻底瓦解敌人,看来指挥官和我有着相同立场.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welldonw! I think the Bard civilization has felt our deterrence!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A tight campaign, please try to plan your battle further!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构塔发挥了极大战力,这将是人类命运改变的开始.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The refactor turrets played a great battle force! It's time to change the destiny of all humankind!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp44</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个回合开始时，构建价格将降低；
+当前降价百分比：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢您体验《重构》游戏DEMO，如果你喜欢我们的游戏，请扫码把它加入愿望单吧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you for experiencing the game demo. If you like our game, please add it to your wishlist!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identity verification in progress...Welcome back, Commander!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIRLWORD1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIRLWORD2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIRLWORD3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIRLWORD4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份验证中…欢迎您回来部署官！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>又来欣赏您的藏品了？真是个自……唔，自信的部署官！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>How was your day? How many games you played?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Looking at your collection again? What a... Oh, confident commander!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您见过反手博士吗，听说他可以反手补刀.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have you seen Dr. Backhand? I heard he can use mouse in the opposite direction.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天又上头了几局？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>At the start of each turn, the price will be reduced.
+Current price reduction rate:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIRLWORD5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听说写下好评会使防御塔的暴击率提高0.001%.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I heard that writing a good comment will slightly increase the critical rate of 0.001%.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4665,7 +4708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4683,6 +4726,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5028,10 +5074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E425"/>
+  <dimension ref="A1:E424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5044,13 +5090,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="B1" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="C1" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5083,7 +5129,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>908</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5094,7 +5140,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5127,7 +5173,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5138,7 +5184,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5149,7 +5195,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5160,7 +5206,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>913</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5171,7 +5217,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>912</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5182,7 +5228,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5193,7 +5239,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5204,7 +5250,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5215,7 +5261,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5226,7 +5272,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5237,7 +5283,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5248,7 +5294,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5259,7 +5305,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>914</v>
+        <v>878</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5270,7 +5316,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5281,7 +5327,7 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5292,7 +5338,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5303,7 +5349,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5314,7 +5360,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5325,18 +5371,18 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>942</v>
+        <v>906</v>
       </c>
       <c r="B27" t="s">
-        <v>943</v>
+        <v>907</v>
       </c>
       <c r="C27" t="s">
-        <v>944</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5347,7 +5393,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5358,18 +5404,18 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>911</v>
+        <v>875</v>
       </c>
       <c r="B30" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="C30" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5391,4314 +5437,4321 @@
         <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>56</v>
+        <v>1332</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>1336</v>
       </c>
       <c r="C33" t="s">
-        <v>621</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>1333</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>1342</v>
       </c>
       <c r="C34" t="s">
-        <v>622</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>1334</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>1337</v>
       </c>
       <c r="C35" t="s">
-        <v>623</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>1335</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>1340</v>
       </c>
       <c r="C36" t="s">
-        <v>624</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>1344</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>1345</v>
       </c>
       <c r="C37" t="s">
-        <v>625</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>919</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>917</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>920</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>918</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>883</v>
       </c>
       <c r="C48" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>881</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>884</v>
       </c>
       <c r="C49" t="s">
-        <v>636</v>
+        <v>882</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>641</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>804</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>805</v>
+        <v>617</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>968</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
-        <v>1107</v>
+        <v>618</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>1108</v>
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>1000</v>
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>1109</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>1001</v>
+        <v>779</v>
       </c>
       <c r="C62" t="s">
-        <v>1111</v>
+        <v>780</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>1002</v>
+        <v>931</v>
       </c>
       <c r="C63" t="s">
-        <v>1110</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C64" t="s">
-        <v>806</v>
+        <v>103</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1004</v>
+        <v>104</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>963</v>
       </c>
       <c r="C65" t="s">
-        <v>643</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>964</v>
       </c>
       <c r="C66" t="s">
-        <v>644</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>965</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>966</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>781</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>807</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>922</v>
+        <v>967</v>
+      </c>
+      <c r="C69" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>808</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>809</v>
+        <v>110</v>
+      </c>
+      <c r="C70" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>970</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>971</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>1027</v>
+        <v>112</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>812</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
-        <v>811</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>813</v>
-      </c>
-      <c r="C73" t="s">
-        <v>810</v>
+        <v>782</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1032</v>
+        <v>783</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>819</v>
+        <v>933</v>
       </c>
       <c r="B75" t="s">
-        <v>814</v>
-      </c>
-      <c r="C75" t="s">
-        <v>815</v>
+        <v>934</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>816</v>
+        <v>787</v>
       </c>
       <c r="C76" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>788</v>
       </c>
       <c r="C77" t="s">
-        <v>818</v>
+        <v>785</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>991</v>
       </c>
       <c r="C78" t="s">
-        <v>645</v>
+        <v>995</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>794</v>
       </c>
       <c r="B79" t="s">
-        <v>820</v>
+        <v>789</v>
       </c>
       <c r="C79" t="s">
-        <v>821</v>
+        <v>790</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>822</v>
+        <v>791</v>
       </c>
       <c r="C80" t="s">
-        <v>646</v>
+        <v>792</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>925</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>928</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>929</v>
+        <v>793</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>926</v>
+        <v>123</v>
       </c>
       <c r="B82" t="s">
-        <v>927</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
-        <v>930</v>
+        <v>622</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>1031</v>
+        <v>125</v>
+      </c>
+      <c r="B83" t="s">
+        <v>795</v>
+      </c>
+      <c r="C83" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>1029</v>
+        <v>797</v>
       </c>
       <c r="C84" t="s">
-        <v>1033</v>
+        <v>623</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>889</v>
       </c>
       <c r="B85" t="s">
-        <v>823</v>
+        <v>892</v>
       </c>
       <c r="C85" t="s">
-        <v>647</v>
+        <v>893</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>890</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>891</v>
       </c>
       <c r="C86" t="s">
-        <v>648</v>
+        <v>894</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B87" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" t="s">
-        <v>649</v>
+        <v>899</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>992</v>
       </c>
       <c r="C88" t="s">
-        <v>650</v>
+        <v>996</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>798</v>
       </c>
       <c r="C89" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>1013</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>1017</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>1037</v>
+        <v>625</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>1014</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
-        <v>1018</v>
+        <v>132</v>
       </c>
       <c r="C91" t="s">
-        <v>1038</v>
+        <v>626</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>1015</v>
+        <v>133</v>
       </c>
       <c r="B92" t="s">
-        <v>1019</v>
+        <v>134</v>
       </c>
       <c r="C92" t="s">
-        <v>1039</v>
+        <v>627</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>1322</v>
+        <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>1020</v>
+        <v>136</v>
       </c>
       <c r="C93" t="s">
-        <v>1040</v>
+        <v>628</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>1016</v>
+        <v>976</v>
       </c>
       <c r="B94" t="s">
-        <v>1021</v>
+        <v>980</v>
       </c>
       <c r="C94" t="s">
-        <v>1041</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>1022</v>
+        <v>977</v>
       </c>
       <c r="B95" t="s">
-        <v>802</v>
+        <v>981</v>
       </c>
       <c r="C95" t="s">
-        <v>803</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>1042</v>
+        <v>978</v>
+      </c>
+      <c r="B96" t="s">
+        <v>982</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>1043</v>
+        <v>1281</v>
+      </c>
+      <c r="B97" t="s">
+        <v>983</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>1044</v>
+        <v>979</v>
+      </c>
+      <c r="B98" t="s">
+        <v>984</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>1320</v>
+        <v>985</v>
+      </c>
+      <c r="B99" t="s">
+        <v>777</v>
+      </c>
+      <c r="C99" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>1008</v>
+        <v>909</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1026</v>
+        <v>911</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1045</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>1009</v>
+        <v>968</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1012</v>
+        <v>973</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1046</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1034</v>
+        <v>969</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B103" t="s">
-        <v>141</v>
-      </c>
-      <c r="C103" t="s">
-        <v>652</v>
+        <v>970</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>971</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="C104" t="s">
-        <v>653</v>
+        <v>989</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1285</v>
+        <v>972</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>941</v>
+        <v>993</v>
       </c>
       <c r="C106" t="s">
-        <v>1035</v>
+        <v>997</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C107" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B108" t="s">
-        <v>148</v>
-      </c>
-      <c r="C108" t="s">
-        <v>655</v>
+        <v>140</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>1343</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>1243</v>
       </c>
       <c r="C109" t="s">
-        <v>656</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
-        <v>152</v>
+        <v>905</v>
       </c>
       <c r="C110" t="s">
-        <v>824</v>
+        <v>998</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C111" t="s">
-        <v>825</v>
+        <v>630</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C113" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C114" t="s">
-        <v>921</v>
+        <v>799</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C115" t="s">
-        <v>659</v>
+        <v>800</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C116" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B117" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C117" t="s">
-        <v>827</v>
+        <v>634</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B118" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C118" t="s">
-        <v>826</v>
+        <v>885</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B119" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C119" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C120" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C121" t="s">
-        <v>663</v>
+        <v>802</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B122" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C122" t="s">
-        <v>619</v>
+        <v>801</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C123" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>915</v>
+        <v>169</v>
       </c>
       <c r="B124" t="s">
-        <v>916</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>858</v>
+        <v>638</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C125" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C126" t="s">
-        <v>666</v>
+        <v>597</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C127" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>185</v>
+        <v>879</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>880</v>
       </c>
       <c r="C128" t="s">
-        <v>668</v>
+        <v>833</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C129" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B130" t="s">
-        <v>190</v>
+        <v>1329</v>
       </c>
       <c r="C130" t="s">
-        <v>670</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B131" t="s">
-        <v>1268</v>
+        <v>181</v>
       </c>
       <c r="C131" t="s">
-        <v>1267</v>
+        <v>642</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B132" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C132" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B133" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B134" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
-        <v>199</v>
+        <v>1227</v>
       </c>
       <c r="C135" t="s">
-        <v>674</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>675</v>
+        <v>646</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C137" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C138" t="s">
-        <v>677</v>
+        <v>648</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B139" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C139" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B140" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C140" t="s">
-        <v>679</v>
+        <v>650</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>1151</v>
+        <v>199</v>
       </c>
       <c r="B141" t="s">
-        <v>1153</v>
+        <v>200</v>
       </c>
       <c r="C141" t="s">
-        <v>1152</v>
+        <v>651</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C142" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>1215</v>
+        <v>203</v>
       </c>
       <c r="B143" t="s">
-        <v>1220</v>
+        <v>204</v>
       </c>
       <c r="C143" t="s">
-        <v>1221</v>
+        <v>653</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B144" t="s">
-        <v>1273</v>
+        <v>206</v>
       </c>
       <c r="C144" t="s">
-        <v>1274</v>
+        <v>654</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>213</v>
+        <v>1110</v>
       </c>
       <c r="B145" t="s">
-        <v>1321</v>
+        <v>1112</v>
       </c>
       <c r="C145" t="s">
-        <v>1283</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B146" t="s">
-        <v>1276</v>
+        <v>208</v>
       </c>
       <c r="C146" t="s">
-        <v>1275</v>
+        <v>655</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>215</v>
+        <v>1174</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>1179</v>
       </c>
       <c r="C147" t="s">
-        <v>682</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B148" t="s">
-        <v>218</v>
+        <v>1232</v>
       </c>
       <c r="C148" t="s">
-        <v>683</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B149" t="s">
-        <v>220</v>
+        <v>1280</v>
       </c>
       <c r="C149" t="s">
-        <v>684</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B150" t="s">
-        <v>201</v>
+        <v>1235</v>
       </c>
       <c r="C150" t="s">
-        <v>828</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B151" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C151" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B152" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C152" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C153" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B154" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="C154" t="s">
-        <v>688</v>
+        <v>803</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B155" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C155" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B156" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C156" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B157" t="s">
-        <v>1154</v>
+        <v>223</v>
       </c>
       <c r="C157" t="s">
-        <v>1155</v>
+        <v>662</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B158" t="s">
-        <v>1114</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
-        <v>1113</v>
+        <v>663</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C159" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B160" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C160" t="s">
-        <v>829</v>
+        <v>665</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B161" t="s">
-        <v>240</v>
+        <v>1113</v>
       </c>
       <c r="C161" t="s">
-        <v>686</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B162" t="s">
-        <v>242</v>
+        <v>1073</v>
       </c>
       <c r="C162" t="s">
-        <v>692</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C163" t="s">
-        <v>693</v>
+        <v>666</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B164" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C164" t="s">
-        <v>694</v>
+        <v>804</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B165" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C165" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B166" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C166" t="s">
-        <v>696</v>
+        <v>667</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B167" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C167" t="s">
-        <v>697</v>
-      </c>
-      <c r="E167" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B168" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C168" t="s">
-        <v>698</v>
+        <v>669</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B169" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C169" t="s">
-        <v>699</v>
+        <v>670</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B170" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C170" t="s">
-        <v>700</v>
+        <v>671</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B171" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C171" t="s">
-        <v>701</v>
+        <v>672</v>
+      </c>
+      <c r="E171" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B172" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C172" t="s">
-        <v>702</v>
+        <v>673</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B173" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C173" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C174" t="s">
-        <v>704</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>1304</v>
+        <v>256</v>
       </c>
       <c r="B175" t="s">
-        <v>1309</v>
+        <v>257</v>
       </c>
       <c r="C175" t="s">
-        <v>1314</v>
+        <v>676</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>1305</v>
+        <v>258</v>
       </c>
       <c r="B176" t="s">
-        <v>1310</v>
+        <v>259</v>
       </c>
       <c r="C176" t="s">
-        <v>1315</v>
+        <v>677</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>1306</v>
+        <v>260</v>
       </c>
       <c r="B177" t="s">
-        <v>1311</v>
+        <v>261</v>
       </c>
       <c r="C177" t="s">
-        <v>1316</v>
+        <v>678</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>1307</v>
+        <v>262</v>
       </c>
       <c r="B178" t="s">
-        <v>1312</v>
+        <v>263</v>
       </c>
       <c r="C178" t="s">
-        <v>1317</v>
+        <v>679</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>1308</v>
+        <v>1263</v>
       </c>
       <c r="B179" t="s">
-        <v>1313</v>
+        <v>1268</v>
       </c>
       <c r="C179" t="s">
-        <v>1318</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>909</v>
+        <v>1264</v>
       </c>
       <c r="B180" t="s">
-        <v>910</v>
+        <v>1269</v>
       </c>
       <c r="C180" t="s">
-        <v>830</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>267</v>
+        <v>1265</v>
       </c>
       <c r="B181" t="s">
-        <v>268</v>
+        <v>1270</v>
       </c>
       <c r="C181" t="s">
-        <v>705</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>269</v>
+        <v>1266</v>
       </c>
       <c r="B182" t="s">
-        <v>270</v>
+        <v>1271</v>
       </c>
       <c r="C182" t="s">
-        <v>706</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>271</v>
+        <v>1267</v>
       </c>
       <c r="B183" t="s">
-        <v>272</v>
+        <v>1272</v>
       </c>
       <c r="C183" t="s">
-        <v>707</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>273</v>
+        <v>873</v>
       </c>
       <c r="B184" t="s">
-        <v>274</v>
+        <v>874</v>
       </c>
       <c r="C184" t="s">
-        <v>708</v>
+        <v>805</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B185" t="s">
-        <v>1300</v>
+        <v>265</v>
       </c>
       <c r="C185" t="s">
-        <v>709</v>
+        <v>680</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B186" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C186" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B187" t="s">
-        <v>1303</v>
+        <v>269</v>
       </c>
       <c r="C187" t="s">
-        <v>1299</v>
+        <v>682</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B188" t="s">
-        <v>1301</v>
+        <v>271</v>
       </c>
       <c r="C188" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B189" t="s">
-        <v>1302</v>
+        <v>1259</v>
       </c>
       <c r="C189" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>1115</v>
+        <v>273</v>
       </c>
       <c r="B190" t="s">
-        <v>1127</v>
+        <v>274</v>
       </c>
       <c r="C190" t="s">
-        <v>1138</v>
+        <v>685</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>1116</v>
+        <v>275</v>
       </c>
       <c r="B191" t="s">
-        <v>1128</v>
+        <v>1262</v>
       </c>
       <c r="C191" t="s">
-        <v>1139</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>1117</v>
+        <v>276</v>
       </c>
       <c r="B192" t="s">
-        <v>1141</v>
+        <v>1260</v>
       </c>
       <c r="C192" t="s">
-        <v>1140</v>
+        <v>686</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>1118</v>
+        <v>277</v>
       </c>
       <c r="B193" t="s">
-        <v>1129</v>
+        <v>1261</v>
       </c>
       <c r="C193" t="s">
-        <v>1142</v>
+        <v>687</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>1119</v>
+        <v>1074</v>
       </c>
       <c r="B194" t="s">
-        <v>1130</v>
+        <v>1086</v>
       </c>
       <c r="C194" t="s">
-        <v>1143</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>1120</v>
+        <v>1075</v>
       </c>
       <c r="B195" t="s">
-        <v>1131</v>
+        <v>1087</v>
       </c>
       <c r="C195" t="s">
-        <v>1144</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>1121</v>
+        <v>1076</v>
       </c>
       <c r="B196" t="s">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="C196" t="s">
-        <v>1145</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>1122</v>
+        <v>1077</v>
       </c>
       <c r="B197" t="s">
-        <v>1133</v>
+        <v>1088</v>
       </c>
       <c r="C197" t="s">
-        <v>1146</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>1123</v>
+        <v>1078</v>
       </c>
       <c r="B198" t="s">
-        <v>1134</v>
+        <v>1089</v>
       </c>
       <c r="C198" t="s">
-        <v>1147</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>1124</v>
+        <v>1079</v>
       </c>
       <c r="B199" t="s">
-        <v>1135</v>
+        <v>1090</v>
       </c>
       <c r="C199" t="s">
-        <v>1148</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>1125</v>
+        <v>1080</v>
       </c>
       <c r="B200" t="s">
-        <v>1136</v>
+        <v>1091</v>
       </c>
       <c r="C200" t="s">
-        <v>1149</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>1126</v>
+        <v>1081</v>
       </c>
       <c r="B201" t="s">
-        <v>1137</v>
+        <v>1092</v>
       </c>
       <c r="C201" t="s">
-        <v>1150</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>281</v>
+        <v>1082</v>
       </c>
       <c r="B202" t="s">
-        <v>1265</v>
+        <v>1093</v>
       </c>
       <c r="C202" t="s">
-        <v>1266</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>282</v>
+        <v>1083</v>
       </c>
       <c r="B203" t="s">
-        <v>1213</v>
+        <v>1094</v>
       </c>
       <c r="C203" t="s">
-        <v>1214</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>283</v>
+        <v>1084</v>
       </c>
       <c r="B204" t="s">
-        <v>1327</v>
+        <v>1095</v>
       </c>
       <c r="C204" t="s">
-        <v>1328</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>284</v>
+        <v>1085</v>
       </c>
       <c r="B205" t="s">
-        <v>285</v>
+        <v>1096</v>
       </c>
       <c r="C205" t="s">
-        <v>831</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B206" t="s">
-        <v>1323</v>
+        <v>1224</v>
       </c>
       <c r="C206" t="s">
-        <v>1324</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B207" t="s">
-        <v>288</v>
+        <v>1172</v>
       </c>
       <c r="C207" t="s">
-        <v>832</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B208" t="s">
-        <v>1264</v>
+        <v>1286</v>
       </c>
       <c r="C208" t="s">
-        <v>1263</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B209" t="s">
-        <v>1325</v>
+        <v>282</v>
       </c>
       <c r="C209" t="s">
-        <v>1326</v>
+        <v>806</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B210" t="s">
-        <v>292</v>
+        <v>1282</v>
       </c>
       <c r="C210" t="s">
-        <v>713</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B211" t="s">
-        <v>1342</v>
+        <v>285</v>
       </c>
       <c r="C211" t="s">
-        <v>1343</v>
+        <v>807</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="C212" t="s">
-        <v>1212</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B213" t="s">
-        <v>296</v>
+        <v>1284</v>
       </c>
       <c r="C213" t="s">
-        <v>714</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B214" t="s">
-        <v>1281</v>
+        <v>289</v>
       </c>
       <c r="C214" t="s">
-        <v>1282</v>
+        <v>688</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B215" t="s">
-        <v>1163</v>
+        <v>1301</v>
       </c>
       <c r="C215" t="s">
-        <v>1164</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B216" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
       <c r="C216" t="s">
-        <v>1203</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B217" t="s">
-        <v>1233</v>
+        <v>293</v>
       </c>
       <c r="C217" t="s">
-        <v>1216</v>
+        <v>689</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B218" t="s">
-        <v>1158</v>
+        <v>1240</v>
       </c>
       <c r="C218" t="s">
-        <v>1157</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B219" t="s">
-        <v>1234</v>
+        <v>1122</v>
       </c>
       <c r="C219" t="s">
-        <v>1217</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B220" t="s">
-        <v>1159</v>
+        <v>1115</v>
       </c>
       <c r="C220" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B221" t="s">
-        <v>1232</v>
+        <v>1192</v>
       </c>
       <c r="C221" t="s">
-        <v>1218</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B222" t="s">
-        <v>1160</v>
+        <v>1117</v>
       </c>
       <c r="C222" t="s">
-        <v>1162</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B223" t="s">
-        <v>1231</v>
+        <v>1193</v>
       </c>
       <c r="C223" t="s">
-        <v>1219</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B224" t="s">
-        <v>1165</v>
+        <v>1118</v>
       </c>
       <c r="C224" t="s">
-        <v>1166</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B225" t="s">
-        <v>1288</v>
+        <v>1191</v>
       </c>
       <c r="C225" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B226" t="s">
-        <v>1167</v>
+        <v>1119</v>
       </c>
       <c r="C226" t="s">
-        <v>1168</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B227" t="s">
-        <v>1230</v>
+        <v>1190</v>
       </c>
       <c r="C227" t="s">
-        <v>1222</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B228" t="s">
-        <v>1169</v>
+        <v>1124</v>
       </c>
       <c r="C228" t="s">
-        <v>1170</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B229" t="s">
-        <v>1229</v>
+        <v>1247</v>
       </c>
       <c r="C229" t="s">
-        <v>1223</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B230" t="s">
-        <v>1171</v>
+        <v>1126</v>
       </c>
       <c r="C230" t="s">
-        <v>1172</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B231" t="s">
-        <v>1224</v>
+        <v>1189</v>
       </c>
       <c r="C231" t="s">
-        <v>1225</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B232" t="s">
-        <v>1173</v>
+        <v>1128</v>
       </c>
       <c r="C232" t="s">
-        <v>1174</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B233" t="s">
-        <v>1228</v>
+        <v>1188</v>
       </c>
       <c r="C233" t="s">
-        <v>1226</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B234" t="s">
-        <v>1175</v>
+        <v>1130</v>
       </c>
       <c r="C234" t="s">
-        <v>1176</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B235" t="s">
-        <v>1258</v>
+        <v>1183</v>
       </c>
       <c r="C235" t="s">
-        <v>1332</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B236" t="s">
-        <v>1177</v>
+        <v>1132</v>
       </c>
       <c r="C236" t="s">
-        <v>1179</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B237" t="s">
-        <v>1227</v>
+        <v>1187</v>
       </c>
       <c r="C237" t="s">
-        <v>1235</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B238" t="s">
-        <v>1178</v>
+        <v>1134</v>
       </c>
       <c r="C238" t="s">
-        <v>1180</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B239" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
       <c r="C239" t="s">
-        <v>1237</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B240" t="s">
-        <v>1181</v>
+        <v>1136</v>
       </c>
       <c r="C240" t="s">
-        <v>1182</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B241" t="s">
-        <v>1238</v>
+        <v>1186</v>
       </c>
       <c r="C241" t="s">
-        <v>1239</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B242" t="s">
-        <v>1183</v>
+        <v>1137</v>
       </c>
       <c r="C242" t="s">
-        <v>1184</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B243" t="s">
-        <v>1240</v>
+        <v>1195</v>
       </c>
       <c r="C243" t="s">
-        <v>1241</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B244" t="s">
-        <v>1185</v>
+        <v>1140</v>
       </c>
       <c r="C244" t="s">
-        <v>1186</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B245" t="s">
-        <v>1187</v>
+        <v>1197</v>
       </c>
       <c r="C245" t="s">
-        <v>1188</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B246" t="s">
-        <v>1190</v>
+        <v>1142</v>
       </c>
       <c r="C246" t="s">
-        <v>1191</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B247" t="s">
-        <v>1248</v>
+        <v>1199</v>
       </c>
       <c r="C247" t="s">
-        <v>1252</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B248" t="s">
-        <v>1192</v>
+        <v>1144</v>
       </c>
       <c r="C248" t="s">
-        <v>1193</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B249" t="s">
-        <v>1249</v>
+        <v>1146</v>
       </c>
       <c r="C249" t="s">
-        <v>1253</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B250" t="s">
-        <v>1194</v>
+        <v>1149</v>
       </c>
       <c r="C250" t="s">
-        <v>1195</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B251" t="s">
-        <v>1250</v>
+        <v>1207</v>
       </c>
       <c r="C251" t="s">
-        <v>1254</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B252" t="s">
-        <v>1196</v>
+        <v>1151</v>
       </c>
       <c r="C252" t="s">
-        <v>1197</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B253" t="s">
-        <v>1251</v>
+        <v>1208</v>
       </c>
       <c r="C253" t="s">
-        <v>1255</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B254" t="s">
-        <v>1286</v>
+        <v>1153</v>
       </c>
       <c r="C254" t="s">
-        <v>1287</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B255" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
       <c r="C255" t="s">
-        <v>1199</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B256" t="s">
-        <v>1200</v>
+        <v>1155</v>
       </c>
       <c r="C256" t="s">
-        <v>1201</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B257" t="s">
-        <v>1242</v>
+        <v>1210</v>
       </c>
       <c r="C257" t="s">
-        <v>1243</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B258" t="s">
-        <v>1202</v>
+        <v>1245</v>
       </c>
       <c r="C258" t="s">
-        <v>1204</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B259" t="s">
-        <v>1244</v>
+        <v>1157</v>
       </c>
       <c r="C259" t="s">
-        <v>1245</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B260" t="s">
-        <v>1205</v>
+        <v>1159</v>
       </c>
       <c r="C260" t="s">
-        <v>1206</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B261" t="s">
-        <v>1269</v>
+        <v>1201</v>
       </c>
       <c r="C261" t="s">
-        <v>1270</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B262" t="s">
-        <v>1207</v>
+        <v>1161</v>
       </c>
       <c r="C262" t="s">
-        <v>1208</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B263" t="s">
-        <v>1246</v>
+        <v>1203</v>
       </c>
       <c r="C263" t="s">
-        <v>1247</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B264" t="s">
-        <v>396</v>
+        <v>1164</v>
       </c>
       <c r="C264" t="s">
-        <v>760</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B265" t="s">
-        <v>398</v>
+        <v>1228</v>
       </c>
       <c r="C265" t="s">
-        <v>1112</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>400</v>
+        <v>388</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1166</v>
       </c>
       <c r="C266" t="s">
-        <v>761</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B267" t="s">
-        <v>402</v>
+        <v>1205</v>
       </c>
       <c r="C267" t="s">
-        <v>762</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>1329</v>
+        <v>392</v>
+      </c>
+      <c r="B268" t="s">
+        <v>393</v>
       </c>
       <c r="C268" t="s">
-        <v>1330</v>
+        <v>735</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B269" t="s">
-        <v>1257</v>
+        <v>395</v>
       </c>
       <c r="C269" t="s">
-        <v>1256</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>1334</v>
+        <v>397</v>
       </c>
       <c r="C270" t="s">
-        <v>1335</v>
+        <v>736</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B271" t="s">
-        <v>1331</v>
+        <v>399</v>
       </c>
       <c r="C271" t="s">
-        <v>1333</v>
+        <v>737</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1099</v>
+        <v>1288</v>
       </c>
       <c r="C272" t="s">
-        <v>764</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B273" t="s">
-        <v>1261</v>
+        <v>1216</v>
       </c>
       <c r="C273" t="s">
-        <v>1262</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1098</v>
+        <v>402</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>1293</v>
       </c>
       <c r="C274" t="s">
-        <v>1036</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B275" t="s">
-        <v>411</v>
+        <v>1290</v>
       </c>
       <c r="C275" t="s">
-        <v>763</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1101</v>
+        <v>1058</v>
       </c>
       <c r="C276" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B277" t="s">
-        <v>1103</v>
+        <v>1220</v>
       </c>
       <c r="C277" t="s">
-        <v>1105</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>1279</v>
+        <v>406</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1057</v>
       </c>
       <c r="C278" t="s">
-        <v>1280</v>
+        <v>999</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B279" t="s">
-        <v>1277</v>
+        <v>408</v>
       </c>
       <c r="C279" t="s">
-        <v>1278</v>
+        <v>738</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1104</v>
+        <v>1060</v>
       </c>
       <c r="C280" t="s">
-        <v>1102</v>
+        <v>740</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B281" t="s">
-        <v>1100</v>
+        <v>1062</v>
       </c>
       <c r="C281" t="s">
-        <v>1106</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>1336</v>
+        <v>411</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>1238</v>
       </c>
       <c r="C282" t="s">
-        <v>1337</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B283" t="s">
-        <v>1209</v>
+        <v>1236</v>
       </c>
       <c r="C283" t="s">
-        <v>1210</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B284" t="s">
-        <v>421</v>
+        <v>413</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>1063</v>
       </c>
       <c r="C284" t="s">
-        <v>766</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B285" t="s">
-        <v>423</v>
+        <v>1059</v>
       </c>
       <c r="C285" t="s">
-        <v>767</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B286" t="s">
-        <v>425</v>
+        <v>415</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>1295</v>
       </c>
       <c r="C286" t="s">
-        <v>768</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B287" t="s">
-        <v>427</v>
+        <v>1168</v>
       </c>
       <c r="C287" t="s">
-        <v>769</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B288" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C288" t="s">
-        <v>770</v>
+        <v>741</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B289" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C289" t="s">
-        <v>771</v>
+        <v>742</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B290" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C290" t="s">
-        <v>772</v>
+        <v>743</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B291" t="s">
-        <v>836</v>
+        <v>424</v>
       </c>
       <c r="C291" t="s">
-        <v>837</v>
+        <v>744</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B292" t="s">
-        <v>838</v>
+        <v>426</v>
       </c>
       <c r="C292" t="s">
-        <v>839</v>
+        <v>745</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B293" t="s">
-        <v>840</v>
+        <v>428</v>
       </c>
       <c r="C293" t="s">
-        <v>841</v>
+        <v>746</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B294" t="s">
-        <v>842</v>
+        <v>430</v>
       </c>
       <c r="C294" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B295" t="s">
-        <v>843</v>
+        <v>811</v>
       </c>
       <c r="C295" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B296" t="s">
-        <v>440</v>
+        <v>813</v>
       </c>
       <c r="C296" t="s">
-        <v>774</v>
+        <v>814</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B297" t="s">
-        <v>442</v>
+        <v>815</v>
       </c>
       <c r="C297" t="s">
-        <v>845</v>
+        <v>816</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B298" t="s">
-        <v>444</v>
+        <v>817</v>
       </c>
       <c r="C298" t="s">
-        <v>775</v>
+        <v>748</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B299" t="s">
-        <v>446</v>
+        <v>818</v>
       </c>
       <c r="C299" t="s">
-        <v>776</v>
+        <v>819</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B300" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C300" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B301" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C301" t="s">
-        <v>778</v>
+        <v>820</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B302" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C302" t="s">
-        <v>779</v>
+        <v>750</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B303" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C303" t="s">
-        <v>780</v>
+        <v>751</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B304" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C304" t="s">
-        <v>781</v>
+        <v>752</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B305" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C305" t="s">
-        <v>782</v>
+        <v>753</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B306" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C306" t="s">
-        <v>783</v>
+        <v>754</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B307" t="s">
-        <v>846</v>
+        <v>451</v>
       </c>
       <c r="C307" t="s">
-        <v>847</v>
+        <v>755</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B308" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C308" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B309" t="s">
-        <v>848</v>
+        <v>455</v>
       </c>
       <c r="C309" t="s">
-        <v>849</v>
+        <v>757</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B310" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C310" t="s">
-        <v>785</v>
+        <v>758</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B311" t="s">
-        <v>1272</v>
+        <v>821</v>
       </c>
       <c r="C311" t="s">
-        <v>1271</v>
+        <v>822</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B312" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C312" t="s">
-        <v>850</v>
+        <v>759</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B313" t="s">
-        <v>851</v>
+        <v>823</v>
       </c>
       <c r="C313" t="s">
-        <v>852</v>
+        <v>824</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B314" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C314" t="s">
-        <v>853</v>
+        <v>760</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B315" t="s">
-        <v>474</v>
+        <v>1231</v>
       </c>
       <c r="C315" t="s">
-        <v>854</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B316" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C316" t="s">
-        <v>786</v>
+        <v>825</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B317" t="s">
-        <v>478</v>
+        <v>826</v>
       </c>
       <c r="C317" t="s">
-        <v>787</v>
+        <v>827</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B318" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C318" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B319" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C319" t="s">
-        <v>856</v>
+        <v>829</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B320" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C320" t="s">
-        <v>788</v>
+        <v>761</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B321" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C321" t="s">
-        <v>857</v>
+        <v>762</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B322" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C322" t="s">
-        <v>859</v>
+        <v>830</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B323" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C323" t="s">
-        <v>860</v>
+        <v>831</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B324" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C324" t="s">
-        <v>861</v>
+        <v>763</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>1259</v>
+        <v>482</v>
       </c>
       <c r="B325" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C325" t="s">
-        <v>862</v>
+        <v>832</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B326" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C326" t="s">
-        <v>863</v>
+        <v>834</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B327" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C327" t="s">
-        <v>864</v>
+        <v>835</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B328" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C328" t="s">
-        <v>865</v>
+        <v>836</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>500</v>
+        <v>1218</v>
       </c>
       <c r="B329" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C329" t="s">
-        <v>789</v>
+        <v>837</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B330" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C330" t="s">
-        <v>790</v>
+        <v>838</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B331" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C331" t="s">
-        <v>866</v>
+        <v>839</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B332" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C332" t="s">
-        <v>791</v>
+        <v>840</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B333" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C333" t="s">
-        <v>793</v>
+        <v>764</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B334" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C334" t="s">
-        <v>794</v>
+        <v>765</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B335" t="s">
-        <v>868</v>
+        <v>502</v>
       </c>
       <c r="C335" t="s">
-        <v>869</v>
+        <v>841</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B336" t="s">
+        <v>504</v>
+      </c>
+      <c r="C336" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B337" t="s">
+        <v>506</v>
+      </c>
+      <c r="C337" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B338" t="s">
+        <v>508</v>
+      </c>
+      <c r="C338" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B339" t="s">
+        <v>843</v>
+      </c>
+      <c r="C339" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B340" t="s">
+        <v>511</v>
+      </c>
+      <c r="C340" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B341" t="s">
         <v>513</v>
       </c>
-      <c r="B336" t="s">
+      <c r="C341" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B342" t="s">
         <v>514</v>
       </c>
-      <c r="C336" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="2" t="s">
+      <c r="C342" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B343" t="s">
         <v>516</v>
       </c>
-      <c r="C337" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B338" t="s">
+      <c r="C343" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C338" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="2" t="s">
+      <c r="B344" t="s">
         <v>518</v>
       </c>
-      <c r="B339" t="s">
+      <c r="C344" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C339" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="2" t="s">
+      <c r="B345" t="s">
         <v>520</v>
       </c>
-      <c r="B340" t="s">
+      <c r="C345" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C340" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0